--- a/Testing_Data/StraightForceTest.xlsx
+++ b/Testing_Data/StraightForceTest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Bipedal_Robot\Testing_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A16EDEC8-3DAA-4DA9-86EF-722468385892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0EBF171-FE10-4F3D-8E72-50AE960C2370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CE45C211-BD3F-4CC7-8CF8-DB47A93DE884}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{CE45C211-BD3F-4CC7-8CF8-DB47A93DE884}"/>
   </bookViews>
   <sheets>
     <sheet name="11.2 cm, no T" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="21">
   <si>
     <t>Force (lbs)</t>
   </si>
@@ -61,6 +61,42 @@
   </si>
   <si>
     <t>Max Strain</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>F'</t>
+  </si>
+  <si>
+    <t>Distance between crossmembers</t>
+  </si>
+  <si>
+    <t>Resting tendon length</t>
+  </si>
+  <si>
+    <t>Tendon material</t>
+  </si>
+  <si>
+    <t>yellow paracord</t>
+  </si>
+  <si>
+    <t>tendon length</t>
+  </si>
+  <si>
+    <t>tendon strain</t>
+  </si>
+  <si>
+    <t>Crossmember distance</t>
+  </si>
+  <si>
+    <t>*18.2 lbs pretensioned</t>
+  </si>
+  <si>
+    <t>*39.1 lbs pretensioned</t>
+  </si>
+  <si>
+    <t>**19.8 lbs after pressure removed</t>
   </si>
 </sst>
 </file>
@@ -104,11 +140,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -488,6 +525,355 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.47653193350831147"/>
+                  <c:y val="3.1990740740740743E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'11.2 cm, no T'!$P$13:$P$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>415</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'11.2 cm, no T'!$Q$13:$Q$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>445</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B1FA-49D5-A449-67ACA66A5EC3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="797497728"/>
+        <c:axId val="797499392"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="797497728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="797499392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="797499392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="797497728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
       <c:tx>
         <c:rich>
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
@@ -551,6 +937,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>NoTendon</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
@@ -573,122 +962,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="28575" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="7.0021216097987754E-2"/>
-                  <c:y val="-0.58255431612715081"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln w="25400">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="75000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="25400" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="60000"/>
-                    <a:lumOff val="40000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="3"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="0.13200721784776903"/>
-                  <c:y val="-0.42262102653834938"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln w="15875">
-                  <a:solidFill>
-                    <a:schemeClr val="accent2">
-                      <a:lumMod val="60000"/>
-                      <a:lumOff val="40000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>'41.5 cm'!$F$6:$F$12</c:f>
@@ -753,6 +1026,119 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8626-428E-9C03-CBBFEA171991}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Paracord</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'41.5 cm'!$N$6:$N$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.17391304347826086</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.2463768115942254E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.65217391304347827</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.91304347826086951</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.7536231884057969</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.28985507246376835</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.2608695652173913</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.14492753623188384</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.8985507246377034E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.43478260869565216</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'41.5 cm'!$K$6:$K$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>311.37551200000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>402.56405480000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>129.88807072</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.1171545600000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44.482216000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>266.89329600000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>290.46887048000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>356.30255016000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>473.73560040000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>213.51463680000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8626-428E-9C03-CBBFEA171991}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1023,6 +1409,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1540,6 +1966,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2095,6 +3037,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>23812</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>328612</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3CA9DD5-4A9D-4226-426E-A44D46C13390}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2103,15 +3081,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>933450</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2436,10 +3414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF5D9837-CB16-4300-A1DA-BD967A7687F8}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2447,7 +3425,7 @@
     <col min="1" max="1" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -2455,7 +3433,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -2463,7 +3441,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -2472,7 +3450,7 @@
         <v>0.1607142857142857</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -2492,7 +3470,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>111</v>
       </c>
@@ -2515,7 +3493,7 @@
         <v>5.5555555555555365E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>107</v>
       </c>
@@ -2538,7 +3516,7 @@
         <v>0.27777777777777751</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>102</v>
       </c>
@@ -2561,7 +3539,7 @@
         <v>0.55555555555555569</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>98</v>
       </c>
@@ -2584,7 +3562,7 @@
         <v>0.7777777777777779</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>93</v>
       </c>
@@ -2605,6 +3583,30 @@
       <c r="F10">
         <f t="shared" si="1"/>
         <v>1.0555555555555554</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P12" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P13">
+        <v>111</v>
+      </c>
+      <c r="Q13">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P14">
+        <v>415</v>
+      </c>
+      <c r="Q14">
+        <v>445</v>
       </c>
     </row>
   </sheetData>
@@ -2616,34 +3618,62 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0289F67D-1B36-4222-87CA-07D1B890BA50}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:U16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1"/>
+    <col min="13" max="13" width="16.42578125" customWidth="1"/>
+    <col min="14" max="14" width="15.42578125" customWidth="1"/>
+    <col min="15" max="15" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B1">
         <v>415</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1">
+        <v>415</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1">
+        <v>885</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B2">
         <v>346</v>
       </c>
+      <c r="I2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2">
+        <v>346</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2">
+        <v>139</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -2651,8 +3681,21 @@
         <f>1-B2/B1</f>
         <v>0.16626506024096388</v>
       </c>
+      <c r="I3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3">
+        <f>1-J2/J1</f>
+        <v>0.16626506024096388</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -2671,8 +3714,35 @@
       <c r="F5" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="I5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>414</v>
       </c>
@@ -2694,8 +3764,39 @@
         <f>E6/$B$3</f>
         <v>1.4492753623188184E-2</v>
       </c>
+      <c r="I6">
+        <v>403</v>
+      </c>
+      <c r="J6">
+        <v>70</v>
+      </c>
+      <c r="K6">
+        <f>J6* 4.4482216</f>
+        <v>311.37551200000001</v>
+      </c>
+      <c r="L6">
+        <v>620</v>
+      </c>
+      <c r="M6">
+        <f>1-I6/$B$1</f>
+        <v>2.8915662650602414E-2</v>
+      </c>
+      <c r="N6">
+        <f>M6/$B$3</f>
+        <v>0.17391304347826086</v>
+      </c>
+      <c r="O6">
+        <v>885</v>
+      </c>
+      <c r="P6">
+        <v>139</v>
+      </c>
+      <c r="Q6">
+        <f>P6/$N$2-1</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>407</v>
       </c>
@@ -2717,8 +3818,42 @@
         <f>E7/$B$3</f>
         <v>0.11594202898550747</v>
       </c>
+      <c r="I7">
+        <v>410</v>
+      </c>
+      <c r="J7">
+        <v>90.5</v>
+      </c>
+      <c r="K7">
+        <f t="shared" ref="K7:K16" si="0">J7* 4.4482216</f>
+        <v>402.56405480000001</v>
+      </c>
+      <c r="L7">
+        <v>620</v>
+      </c>
+      <c r="M7">
+        <f t="shared" ref="M7:M12" si="1">1-I7/$B$1</f>
+        <v>1.2048192771084376E-2</v>
+      </c>
+      <c r="N7">
+        <f t="shared" ref="N7:N16" si="2">M7/$B$3</f>
+        <v>7.2463768115942254E-2</v>
+      </c>
+      <c r="O7">
+        <v>895</v>
+      </c>
+      <c r="P7">
+        <v>143</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" ref="Q7:Q16" si="3">P7/$N$2-1</f>
+        <v>2.877697841726623E-2</v>
+      </c>
+      <c r="R7" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>402</v>
       </c>
@@ -2726,7 +3861,7 @@
         <v>62</v>
       </c>
       <c r="C8">
-        <f t="shared" ref="C8:C12" si="0">B8* 4.4482216</f>
+        <f t="shared" ref="C8:C12" si="4">B8* 4.4482216</f>
         <v>275.78973919999999</v>
       </c>
       <c r="D8">
@@ -2737,11 +3872,42 @@
         <v>3.1325301204819245E-2</v>
       </c>
       <c r="F8">
-        <f t="shared" ref="F8:F14" si="1">E8/$B$3</f>
+        <f t="shared" ref="F8:F12" si="5">E8/$B$3</f>
         <v>0.18840579710144906</v>
       </c>
+      <c r="I8">
+        <v>370</v>
+      </c>
+      <c r="J8">
+        <v>29.2</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>129.88807072</v>
+      </c>
+      <c r="L8">
+        <v>620</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="1"/>
+        <v>0.10843373493975905</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="2"/>
+        <v>0.65217391304347827</v>
+      </c>
+      <c r="O8">
+        <v>850</v>
+      </c>
+      <c r="P8">
+        <v>150</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="3"/>
+        <v>7.9136690647481966E-2</v>
+      </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>387</v>
       </c>
@@ -2749,22 +3915,53 @@
         <v>45</v>
       </c>
       <c r="C9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>200.169972</v>
       </c>
       <c r="D9">
         <v>620</v>
       </c>
       <c r="E9">
-        <f t="shared" ref="E9:E14" si="2">1-A9/$B$1</f>
+        <f t="shared" ref="E9:E12" si="6">1-A9/$B$1</f>
         <v>6.7469879518072262E-2</v>
       </c>
       <c r="F9">
         <f>E9/$B$3</f>
         <v>0.40579710144927517</v>
       </c>
+      <c r="I9">
+        <v>352</v>
+      </c>
+      <c r="J9">
+        <v>1.6</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>7.1171545600000004</v>
+      </c>
+      <c r="L9">
+        <v>620</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="1"/>
+        <v>0.15180722891566267</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="2"/>
+        <v>0.91304347826086951</v>
+      </c>
+      <c r="O9">
+        <v>820</v>
+      </c>
+      <c r="P9">
+        <v>139</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>368</v>
       </c>
@@ -2772,22 +3969,53 @@
         <v>23.2</v>
       </c>
       <c r="C10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>103.19874111999999</v>
       </c>
       <c r="D10">
         <v>620</v>
       </c>
       <c r="E10">
+        <f t="shared" si="6"/>
+        <v>0.11325301204819282</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="5"/>
+        <v>0.68115942028985532</v>
+      </c>
+      <c r="I10">
+        <v>363</v>
+      </c>
+      <c r="J10">
+        <v>10</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>44.482216000000001</v>
+      </c>
+      <c r="L10">
+        <v>620</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="1"/>
+        <v>0.12530120481927709</v>
+      </c>
+      <c r="N10">
         <f t="shared" si="2"/>
-        <v>0.11325301204819282</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="1"/>
-        <v>0.68115942028985532</v>
+        <v>0.7536231884057969</v>
+      </c>
+      <c r="O10">
+        <v>830</v>
+      </c>
+      <c r="P10">
+        <v>140</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="3"/>
+        <v>7.194244604316502E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>352</v>
       </c>
@@ -2795,22 +4023,53 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="C11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>40.92363872</v>
       </c>
       <c r="D11">
         <v>620</v>
       </c>
       <c r="E11">
+        <f t="shared" si="6"/>
+        <v>0.15180722891566267</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="5"/>
+        <v>0.91304347826086951</v>
+      </c>
+      <c r="I11">
+        <v>395</v>
+      </c>
+      <c r="J11">
+        <v>60</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>266.89329600000002</v>
+      </c>
+      <c r="L11">
+        <v>620</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="1"/>
+        <v>4.8192771084337394E-2</v>
+      </c>
+      <c r="N11">
         <f t="shared" si="2"/>
-        <v>0.15180722891566267</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="1"/>
-        <v>0.91304347826086951</v>
+        <v>0.28985507246376835</v>
+      </c>
+      <c r="O11">
+        <v>879</v>
+      </c>
+      <c r="P11">
+        <v>142</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="3"/>
+        <v>2.1582733812949728E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>346</v>
       </c>
@@ -2818,19 +4077,188 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D12">
         <v>620</v>
       </c>
       <c r="E12">
+        <f t="shared" si="6"/>
+        <v>0.16626506024096388</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>397</v>
+      </c>
+      <c r="J12">
+        <v>65.3</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="0"/>
+        <v>290.46887048000002</v>
+      </c>
+      <c r="L12">
+        <v>620</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="1"/>
+        <v>4.3373493975903621E-2</v>
+      </c>
+      <c r="N12">
         <f t="shared" si="2"/>
-        <v>0.16626506024096388</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.2608695652173913</v>
+      </c>
+      <c r="O12">
+        <v>881</v>
+      </c>
+      <c r="P12">
+        <v>142</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="3"/>
+        <v>2.1582733812949728E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I13">
+        <v>405</v>
+      </c>
+      <c r="J13">
+        <v>80.099999999999994</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="0"/>
+        <v>356.30255016000001</v>
+      </c>
+      <c r="L13">
+        <v>620</v>
+      </c>
+      <c r="M13">
+        <f t="shared" ref="M13:M15" si="7">1-I13/$B$1</f>
+        <v>2.4096385542168641E-2</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="2"/>
+        <v>0.14492753623188384</v>
+      </c>
+      <c r="O13">
+        <v>890</v>
+      </c>
+      <c r="P13">
+        <v>143</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="3"/>
+        <v>2.877697841726623E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I14">
+        <v>413</v>
+      </c>
+      <c r="J14">
+        <v>106.5</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="0"/>
+        <v>473.73560040000001</v>
+      </c>
+      <c r="L14">
+        <v>620</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="7"/>
+        <v>4.8192771084337727E-3</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="2"/>
+        <v>2.8985507246377034E-2</v>
+      </c>
+      <c r="O14">
+        <v>904</v>
+      </c>
+      <c r="P14">
+        <v>145</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="3"/>
+        <v>4.3165467625899234E-2</v>
+      </c>
+      <c r="R14" t="s">
+        <v>19</v>
+      </c>
+      <c r="U14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I15">
+        <v>385</v>
+      </c>
+      <c r="J15">
+        <v>48</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="0"/>
+        <v>213.51463680000001</v>
+      </c>
+      <c r="L15">
+        <v>620</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="7"/>
+        <v>7.2289156626506035E-2</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="2"/>
+        <v>0.43478260869565216</v>
+      </c>
+      <c r="O15">
+        <v>870</v>
+      </c>
+      <c r="P15">
+        <v>143</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="3"/>
+        <v>2.877697841726623E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I16">
+        <v>375</v>
+      </c>
+      <c r="J16">
+        <v>37.9</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="0"/>
+        <v>168.58759864000001</v>
+      </c>
+      <c r="L16">
+        <v>620</v>
+      </c>
+      <c r="M16">
+        <f t="shared" ref="M16" si="8">1-I16/$B$1</f>
+        <v>9.6385542168674676E-2</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="2"/>
+        <v>0.57971014492753603</v>
+      </c>
+      <c r="O16">
+        <v>860</v>
+      </c>
+      <c r="P16">
+        <v>143</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="3"/>
+        <v>2.877697841726623E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Testing_Data/StraightForceTest.xlsx
+++ b/Testing_Data/StraightForceTest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Bipedal_Robot\Testing_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0EBF171-FE10-4F3D-8E72-50AE960C2370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{410082A1-9485-4272-9E9B-D4B96C03DEB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{CE45C211-BD3F-4CC7-8CF8-DB47A93DE884}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="22">
   <si>
     <t>Force (lbs)</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>**19.8 lbs after pressure removed</t>
+  </si>
+  <si>
+    <t>Bicycle brake cable</t>
   </si>
 </sst>
 </file>
@@ -930,7 +933,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.9247594050743664E-2"/>
+          <c:y val="0.14463917525773196"/>
+          <c:w val="0.87437751531058616"/>
+          <c:h val="0.79282382227994697"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -1139,6 +1152,107 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-8626-428E-9C03-CBBFEA171991}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Brake Cable</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'41.5 cm'!$N$23:$N$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.22368421052631557</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.10526315789473707</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.98684210526315796</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.84210526315789469</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.69736842105263142</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.64473684210526327</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.40789473684210498</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'41.5 cm'!$K$23:$K$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>311.37551200000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>389.66421215999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.120554</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.88964432000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>93.412653599999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>121.88127184</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>138.33969176000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>236.20056696</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EA8D-4D5F-890A-792BC3EFF0E8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3501,7 +3615,7 @@
         <v>56.8</v>
       </c>
       <c r="C7">
-        <f t="shared" ref="C7:C13" si="0">B7* 4.4482216</f>
+        <f t="shared" ref="C7:C10" si="0">B7* 4.4482216</f>
         <v>252.65898687999999</v>
       </c>
       <c r="D7">
@@ -3512,7 +3626,7 @@
         <v>4.4642857142857095E-2</v>
       </c>
       <c r="F7">
-        <f t="shared" ref="F7:F13" si="1">E7/$B$3</f>
+        <f t="shared" ref="F7:F10" si="1">E7/$B$3</f>
         <v>0.27777777777777751</v>
       </c>
     </row>
@@ -3531,7 +3645,7 @@
         <v>620</v>
       </c>
       <c r="E8">
-        <f t="shared" ref="E8:E14" si="2">1-A8/$B$1</f>
+        <f t="shared" ref="E8:E10" si="2">1-A8/$B$1</f>
         <v>8.9285714285714302E-2</v>
       </c>
       <c r="F8">
@@ -3618,10 +3732,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0289F67D-1B36-4222-87CA-07D1B890BA50}">
-  <dimension ref="A1:U16"/>
+  <dimension ref="A1:U30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="O38" sqref="O38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3778,11 +3892,11 @@
         <v>620</v>
       </c>
       <c r="M6">
-        <f>1-I6/$B$1</f>
+        <f>1-I6/$J$1</f>
         <v>2.8915662650602414E-2</v>
       </c>
       <c r="N6">
-        <f>M6/$B$3</f>
+        <f>M6/$J$3</f>
         <v>0.17391304347826086</v>
       </c>
       <c r="O6">
@@ -3832,11 +3946,11 @@
         <v>620</v>
       </c>
       <c r="M7">
-        <f t="shared" ref="M7:M12" si="1">1-I7/$B$1</f>
+        <f t="shared" ref="M7:M16" si="1">1-I7/$J$1</f>
         <v>1.2048192771084376E-2</v>
       </c>
       <c r="N7">
-        <f t="shared" ref="N7:N16" si="2">M7/$B$3</f>
+        <f t="shared" ref="N7:N16" si="2">M7/$J$3</f>
         <v>7.2463768115942254E-2</v>
       </c>
       <c r="O7">
@@ -4138,7 +4252,7 @@
         <v>620</v>
       </c>
       <c r="M13">
-        <f t="shared" ref="M13:M15" si="7">1-I13/$B$1</f>
+        <f t="shared" si="1"/>
         <v>2.4096385542168641E-2</v>
       </c>
       <c r="N13">
@@ -4171,7 +4285,7 @@
         <v>620</v>
       </c>
       <c r="M14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>4.8192771084337727E-3</v>
       </c>
       <c r="N14">
@@ -4210,7 +4324,7 @@
         <v>620</v>
       </c>
       <c r="M15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>7.2289156626506035E-2</v>
       </c>
       <c r="N15">
@@ -4243,7 +4357,7 @@
         <v>620</v>
       </c>
       <c r="M16">
-        <f t="shared" ref="M16" si="8">1-I16/$B$1</f>
+        <f t="shared" si="1"/>
         <v>9.6385542168674676E-2</v>
       </c>
       <c r="N16">
@@ -4259,6 +4373,342 @@
       <c r="Q16">
         <f t="shared" si="3"/>
         <v>2.877697841726623E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="9:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="I18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J18">
+        <v>416</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N18">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="19" spans="9:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="I19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J19">
+        <v>340</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N19">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J20">
+        <f>1-J19/J18</f>
+        <v>0.18269230769230771</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="9:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="I22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I23">
+        <v>399</v>
+      </c>
+      <c r="J23">
+        <v>70</v>
+      </c>
+      <c r="K23">
+        <f>J23* 4.4482216</f>
+        <v>311.37551200000001</v>
+      </c>
+      <c r="L23">
+        <v>620</v>
+      </c>
+      <c r="M23">
+        <f>1-I23/$J$18</f>
+        <v>4.0865384615384581E-2</v>
+      </c>
+      <c r="N23">
+        <f>M23/$J$20</f>
+        <v>0.22368421052631557</v>
+      </c>
+      <c r="O23">
+        <v>815</v>
+      </c>
+      <c r="P23">
+        <v>104</v>
+      </c>
+      <c r="Q23">
+        <f>P23/$N$19-1</f>
+        <v>1.9607843137254832E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I24">
+        <v>408</v>
+      </c>
+      <c r="J24">
+        <v>87.6</v>
+      </c>
+      <c r="K24">
+        <f t="shared" ref="K24:K33" si="7">J24* 4.4482216</f>
+        <v>389.66421215999998</v>
+      </c>
+      <c r="L24">
+        <v>620</v>
+      </c>
+      <c r="M24">
+        <f t="shared" ref="M24:M33" si="8">1-I24/$J$18</f>
+        <v>1.9230769230769273E-2</v>
+      </c>
+      <c r="N24">
+        <f t="shared" ref="N24:N33" si="9">M24/$J$20</f>
+        <v>0.10526315789473707</v>
+      </c>
+      <c r="O24">
+        <v>825</v>
+      </c>
+      <c r="P24">
+        <v>103</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" ref="Q24:Q33" si="10">P24/$N$19-1</f>
+        <v>9.8039215686274161E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I25">
+        <v>341</v>
+      </c>
+      <c r="J25">
+        <v>2.5</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="7"/>
+        <v>11.120554</v>
+      </c>
+      <c r="L25">
+        <v>620</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="8"/>
+        <v>0.18028846153846156</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="9"/>
+        <v>0.98684210526315796</v>
+      </c>
+      <c r="O25">
+        <v>759</v>
+      </c>
+      <c r="P25">
+        <v>103</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="10"/>
+        <v>9.8039215686274161E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I26">
+        <v>340</v>
+      </c>
+      <c r="J26">
+        <v>0.2</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="7"/>
+        <v>0.88964432000000004</v>
+      </c>
+      <c r="L26">
+        <v>620</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="8"/>
+        <v>0.18269230769230771</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>759</v>
+      </c>
+      <c r="P26">
+        <v>103</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="10"/>
+        <v>9.8039215686274161E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I27">
+        <v>352</v>
+      </c>
+      <c r="J27">
+        <v>21</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="7"/>
+        <v>93.412653599999999</v>
+      </c>
+      <c r="L27">
+        <v>620</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="8"/>
+        <v>0.15384615384615385</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="9"/>
+        <v>0.84210526315789469</v>
+      </c>
+      <c r="O27">
+        <v>774</v>
+      </c>
+      <c r="P27">
+        <v>103</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="10"/>
+        <v>9.8039215686274161E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I28">
+        <v>363</v>
+      </c>
+      <c r="J28">
+        <v>27.4</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="7"/>
+        <v>121.88127184</v>
+      </c>
+      <c r="L28">
+        <v>620</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="8"/>
+        <v>0.12740384615384615</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="9"/>
+        <v>0.69736842105263142</v>
+      </c>
+      <c r="O28">
+        <v>782</v>
+      </c>
+      <c r="P28">
+        <v>105</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="10"/>
+        <v>2.9411764705882248E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I29">
+        <v>367</v>
+      </c>
+      <c r="J29">
+        <v>31.1</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="7"/>
+        <v>138.33969176000002</v>
+      </c>
+      <c r="L29">
+        <v>620</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="8"/>
+        <v>0.11778846153846156</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="9"/>
+        <v>0.64473684210526327</v>
+      </c>
+      <c r="O29">
+        <v>786</v>
+      </c>
+      <c r="P29">
+        <v>104</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="10"/>
+        <v>1.9607843137254832E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I30">
+        <v>385</v>
+      </c>
+      <c r="J30">
+        <v>53.1</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="7"/>
+        <v>236.20056696</v>
+      </c>
+      <c r="L30">
+        <v>620</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="8"/>
+        <v>7.4519230769230727E-2</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="9"/>
+        <v>0.40789473684210498</v>
+      </c>
+      <c r="O30">
+        <v>806</v>
+      </c>
+      <c r="P30">
+        <v>105</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="10"/>
+        <v>2.9411764705882248E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Testing_Data/StraightForceTest.xlsx
+++ b/Testing_Data/StraightForceTest.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Bipedal_Robot\Testing_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{410082A1-9485-4272-9E9B-D4B96C03DEB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C35771CA-9BD8-4CC2-99AE-0EBE247CA065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{CE45C211-BD3F-4CC7-8CF8-DB47A93DE884}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{CE45C211-BD3F-4CC7-8CF8-DB47A93DE884}"/>
   </bookViews>
   <sheets>
     <sheet name="11.2 cm, no T" sheetId="2" r:id="rId1"/>
     <sheet name="41.5 cm" sheetId="1" r:id="rId2"/>
+    <sheet name="45.5 cm" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="22">
   <si>
     <t>Force (lbs)</t>
   </si>
@@ -1443,6 +1444,494 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Force vs. Relative Strain, 45.5 cm</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.9247594050743664E-2"/>
+          <c:y val="0.14463917525773196"/>
+          <c:w val="0.87437751531058616"/>
+          <c:h val="0.79282382227994697"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'45.5 cm'!$F$6:$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.0416666666666665</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95833333333333348</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.63888888888888873</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8819444444444442</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8472222222222221</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.81944444444444442</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.69444444444444486</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.52777777777777801</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.38888888888888895</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.23611111111111099</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'45.5 cm'!$C$6:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>217.07321407999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>262.00025224000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>335.39590864000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-87E5-49F2-84EB-3DCDDBEDE0EE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Paracord</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'45.5 cm'!$N$6:$N$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'45.5 cm'!$K$6:$K$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-87E5-49F2-84EB-3DCDDBEDE0EE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Brake Cable</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'45.5 cm'!$N$23:$N$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'45.5 cm'!$K$23:$K$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-87E5-49F2-84EB-3DCDDBEDE0EE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="406590880"/>
+        <c:axId val="406592960"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="406590880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="406592960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="406592960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="406590880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1563,6 +2052,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2596,6 +3125,522 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3215,6 +4260,49 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBA602F7-D45C-4D95-B5CB-2E6CA5F0F485}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -3734,7 +4822,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0289F67D-1B36-4222-87CA-07D1B890BA50}">
   <dimension ref="A1:U30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O38" sqref="O38"/>
     </sheetView>
   </sheetViews>
@@ -4488,18 +5576,18 @@
         <v>87.6</v>
       </c>
       <c r="K24">
-        <f t="shared" ref="K24:K33" si="7">J24* 4.4482216</f>
+        <f t="shared" ref="K24:K30" si="7">J24* 4.4482216</f>
         <v>389.66421215999998</v>
       </c>
       <c r="L24">
         <v>620</v>
       </c>
       <c r="M24">
-        <f t="shared" ref="M24:M33" si="8">1-I24/$J$18</f>
+        <f t="shared" ref="M24:M30" si="8">1-I24/$J$18</f>
         <v>1.9230769230769273E-2</v>
       </c>
       <c r="N24">
-        <f t="shared" ref="N24:N33" si="9">M24/$J$20</f>
+        <f t="shared" ref="N24:N30" si="9">M24/$J$20</f>
         <v>0.10526315789473707</v>
       </c>
       <c r="O24">
@@ -4509,7 +5597,7 @@
         <v>103</v>
       </c>
       <c r="Q24">
-        <f t="shared" ref="Q24:Q33" si="10">P24/$N$19-1</f>
+        <f t="shared" ref="Q24:Q30" si="10">P24/$N$19-1</f>
         <v>9.8039215686274161E-3</v>
       </c>
     </row>
@@ -4710,6 +5798,345 @@
         <f t="shared" si="10"/>
         <v>2.9411764705882248E-2</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{050AE67D-A238-4925-A0DE-87F77397D646}">
+  <dimension ref="A1:Q22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1"/>
+    <col min="13" max="13" width="16.42578125" customWidth="1"/>
+    <col min="14" max="14" width="15.42578125" customWidth="1"/>
+    <col min="15" max="15" width="13.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1">
+        <v>455</v>
+      </c>
+      <c r="I1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>383</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <f>1-B2/B1</f>
+        <v>0.15824175824175823</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="5" spans="1:13" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>380</v>
+      </c>
+      <c r="C6">
+        <v>26</v>
+      </c>
+      <c r="D6">
+        <v>620</v>
+      </c>
+      <c r="E6">
+        <f>1-A6/$B$1</f>
+        <v>0.1648351648351648</v>
+      </c>
+      <c r="F6">
+        <f>E6/$B$3</f>
+        <v>1.0416666666666665</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>386</v>
+      </c>
+      <c r="C7">
+        <v>61</v>
+      </c>
+      <c r="D7">
+        <v>620</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ref="E7:E18" si="0">1-A7/$B$1</f>
+        <v>0.15164835164835166</v>
+      </c>
+      <c r="F7">
+        <f t="shared" ref="F7:F18" si="1">E7/$B$3</f>
+        <v>0.95833333333333348</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>409</v>
+      </c>
+      <c r="C8">
+        <v>150</v>
+      </c>
+      <c r="D8">
+        <v>620</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>0.10109890109890107</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>0.63888888888888873</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>391.5</v>
+      </c>
+      <c r="C9">
+        <v>96</v>
+      </c>
+      <c r="D9">
+        <v>620</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>0.13956043956043951</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>0.8819444444444442</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>394</v>
+      </c>
+      <c r="C10">
+        <v>100</v>
+      </c>
+      <c r="D10">
+        <v>620</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>0.13406593406593403</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>0.8472222222222221</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>396</v>
+      </c>
+      <c r="C11">
+        <v>119</v>
+      </c>
+      <c r="D11">
+        <v>620</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>0.12967032967032965</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>0.81944444444444442</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>405</v>
+      </c>
+      <c r="C12">
+        <v>158</v>
+      </c>
+      <c r="D12">
+        <v>620</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>0.10989010989010994</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>0.69444444444444486</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>417</v>
+      </c>
+      <c r="B13">
+        <v>48.8</v>
+      </c>
+      <c r="C13">
+        <f>B13*4.4482216</f>
+        <v>217.07321407999999</v>
+      </c>
+      <c r="D13">
+        <v>620</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>8.3516483516483553E-2</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>0.52777777777777801</v>
+      </c>
+      <c r="G13">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>427</v>
+      </c>
+      <c r="B14">
+        <v>58.9</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ref="C14:C18" si="2">B14*4.4482216</f>
+        <v>262.00025224000001</v>
+      </c>
+      <c r="D14">
+        <v>620</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>6.1538461538461542E-2</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>0.38888888888888895</v>
+      </c>
+      <c r="G14">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>438</v>
+      </c>
+      <c r="B15">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="2"/>
+        <v>335.39590864000002</v>
+      </c>
+      <c r="D15">
+        <v>620</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>3.7362637362637341E-2</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>0.23611111111111099</v>
+      </c>
+      <c r="G15">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>445</v>
+      </c>
+      <c r="B16">
+        <v>91.5</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="2"/>
+        <v>407.01227640000002</v>
+      </c>
+      <c r="D16">
+        <v>620</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>2.1978021978022011E-2</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>0.13888888888888912</v>
+      </c>
+      <c r="G16">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="18" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I18" s="1"/>
+      <c r="M18" s="1"/>
+    </row>
+    <row r="19" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I19" s="1"/>
+      <c r="M19" s="1"/>
+    </row>
+    <row r="20" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I20" s="1"/>
+      <c r="M20" s="2"/>
+    </row>
+    <row r="22" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Testing_Data/StraightForceTest.xlsx
+++ b/Testing_Data/StraightForceTest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Bipedal_Robot\Testing_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C35771CA-9BD8-4CC2-99AE-0EBE247CA065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE892C17-9AF2-4AE3-8E5D-A3EF3A81AE9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{CE45C211-BD3F-4CC7-8CF8-DB47A93DE884}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{CE45C211-BD3F-4CC7-8CF8-DB47A93DE884}"/>
   </bookViews>
   <sheets>
     <sheet name="11.2 cm, no T" sheetId="2" r:id="rId1"/>
@@ -1046,9 +1046,6 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:v>Paracord</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
@@ -1073,10 +1070,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'41.5 cm'!$N$6:$N$15</c:f>
+              <c:f>'41.5 cm'!$N$6:$N$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0.17391304347826086</c:v>
                 </c:pt>
@@ -1106,16 +1103,19 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.43478260869565216</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.57971014492753603</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'41.5 cm'!$K$6:$K$15</c:f>
+              <c:f>'41.5 cm'!$K$6:$K$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>311.37551200000001</c:v>
                 </c:pt>
@@ -1145,6 +1145,9 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>213.51463680000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>168.58759864000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4822,8 +4825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0289F67D-1B36-4222-87CA-07D1B890BA50}">
   <dimension ref="A1:U30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O38" sqref="O38"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5810,8 +5813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{050AE67D-A238-4925-A0DE-87F77397D646}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5908,11 +5911,11 @@
         <v>620</v>
       </c>
       <c r="E7">
-        <f t="shared" ref="E7:E18" si="0">1-A7/$B$1</f>
+        <f t="shared" ref="E7:E16" si="0">1-A7/$B$1</f>
         <v>0.15164835164835166</v>
       </c>
       <c r="F7">
-        <f t="shared" ref="F7:F18" si="1">E7/$B$3</f>
+        <f t="shared" ref="F7:F16" si="1">E7/$B$3</f>
         <v>0.95833333333333348</v>
       </c>
     </row>
@@ -6045,7 +6048,7 @@
         <v>58.9</v>
       </c>
       <c r="C14">
-        <f t="shared" ref="C14:C18" si="2">B14*4.4482216</f>
+        <f t="shared" ref="C14:C16" si="2">B14*4.4482216</f>
         <v>262.00025224000001</v>
       </c>
       <c r="D14">

--- a/Testing_Data/StraightForceTest.xlsx
+++ b/Testing_Data/StraightForceTest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Bipedal_Robot\Testing_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE892C17-9AF2-4AE3-8E5D-A3EF3A81AE9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78BF07A5-F320-4FEF-B2EE-2380452B2255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{CE45C211-BD3F-4CC7-8CF8-DB47A93DE884}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{CE45C211-BD3F-4CC7-8CF8-DB47A93DE884}"/>
   </bookViews>
   <sheets>
     <sheet name="11.2 cm, no T" sheetId="2" r:id="rId1"/>
@@ -1559,10 +1559,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'45.5 cm'!$F$6:$F$15</c:f>
+              <c:f>'45.5 cm'!$F$6:$F$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>1.0416666666666665</c:v>
                 </c:pt>
@@ -1592,16 +1592,25 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.23611111111111099</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.13888888888888912</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.1666666666666519E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.9444444444444198E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'45.5 cm'!$C$6:$C$15</c:f>
+              <c:f>'45.5 cm'!$C$6:$C$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>26</c:v>
                 </c:pt>
@@ -1631,6 +1640,15 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>335.39590864000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>407.01227640000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>435.92571680000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>404.78816560000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4825,7 +4843,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0289F67D-1B36-4222-87CA-07D1B890BA50}">
   <dimension ref="A1:U30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
@@ -5813,8 +5831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{050AE67D-A238-4925-A0DE-87F77397D646}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5911,11 +5929,11 @@
         <v>620</v>
       </c>
       <c r="E7">
-        <f t="shared" ref="E7:E16" si="0">1-A7/$B$1</f>
+        <f t="shared" ref="E7:E18" si="0">1-A7/$B$1</f>
         <v>0.15164835164835166</v>
       </c>
       <c r="F7">
-        <f t="shared" ref="F7:F16" si="1">E7/$B$3</f>
+        <f t="shared" ref="F7:F18" si="1">E7/$B$3</f>
         <v>0.95833333333333348</v>
       </c>
     </row>
@@ -6048,7 +6066,7 @@
         <v>58.9</v>
       </c>
       <c r="C14">
-        <f t="shared" ref="C14:C16" si="2">B14*4.4482216</f>
+        <f t="shared" ref="C14:C18" si="2">B14*4.4482216</f>
         <v>262.00025224000001</v>
       </c>
       <c r="D14">
@@ -6118,19 +6136,80 @@
         <v>695</v>
       </c>
     </row>
-    <row r="18" spans="9:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>452</v>
+      </c>
+      <c r="B17">
+        <v>98</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="2"/>
+        <v>435.92571680000003</v>
+      </c>
+      <c r="D17">
+        <v>620</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>6.59340659340657E-3</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>4.1666666666666519E-2</v>
+      </c>
+      <c r="G17">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>450</v>
+      </c>
+      <c r="B18">
+        <v>91</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="2"/>
+        <v>404.78816560000001</v>
+      </c>
+      <c r="D18">
+        <v>620</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>1.098901098901095E-2</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>6.9444444444444198E-2</v>
+      </c>
+      <c r="G18">
+        <v>700</v>
+      </c>
       <c r="I18" s="1"/>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" spans="9:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>620</v>
+      </c>
       <c r="I19" s="1"/>
       <c r="M19" s="1"/>
     </row>
-    <row r="20" spans="9:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>620</v>
+      </c>
       <c r="I20" s="1"/>
       <c r="M20" s="2"/>
     </row>
-    <row r="22" spans="9:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>

--- a/Testing_Data/StraightForceTest.xlsx
+++ b/Testing_Data/StraightForceTest.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Bipedal_Robot\Testing_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78BF07A5-F320-4FEF-B2EE-2380452B2255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0172E5F1-3793-47F9-A089-7DEE97433ECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{CE45C211-BD3F-4CC7-8CF8-DB47A93DE884}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{CE45C211-BD3F-4CC7-8CF8-DB47A93DE884}"/>
   </bookViews>
   <sheets>
     <sheet name="11.2 cm, no T" sheetId="2" r:id="rId1"/>
     <sheet name="41.5 cm" sheetId="1" r:id="rId2"/>
     <sheet name="45.5 cm" sheetId="4" r:id="rId3"/>
+    <sheet name="49.0 cm" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="28">
   <si>
     <t>Force (lbs)</t>
   </si>
@@ -101,6 +102,24 @@
   </si>
   <si>
     <t>Bicycle brake cable</t>
+  </si>
+  <si>
+    <t>*14.6 lbs pretension, 458 mm before inflation (i.e. stretched</t>
+  </si>
+  <si>
+    <t>*Had to switch from Matlab app to Arduino "calibration factor" sketch</t>
+  </si>
+  <si>
+    <t>*free hanging</t>
+  </si>
+  <si>
+    <t>*17 N pretension, part broke</t>
+  </si>
+  <si>
+    <t>*11.23 N pretension</t>
+  </si>
+  <si>
+    <t>*horizontal</t>
   </si>
 </sst>
 </file>
@@ -1559,10 +1578,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'45.5 cm'!$F$6:$F$18</c:f>
+              <c:f>'45.5 cm'!$F$6:$F$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>1.0416666666666665</c:v>
                 </c:pt>
@@ -1601,16 +1620,31 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>6.9444444444444198E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.5555555555555358E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-4.1666666666666519E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.13888888888888912</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.29166666666666635</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.47222222222222199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'45.5 cm'!$C$6:$C$18</c:f>
+              <c:f>'45.5 cm'!$C$6:$C$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>26</c:v>
                 </c:pt>
@@ -1649,6 +1683,21 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>404.78816560000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>408.34674288000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>504.42832944000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>335.39590864000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>257.9968528</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>203.28372712000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1763,6 +1812,554 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-87E5-49F2-84EB-3DCDDBEDE0EE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="406590880"/>
+        <c:axId val="406592960"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="406590880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="406592960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="406592960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="406590880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Force vs. Relative Strain, 49.0 cm</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.9247594050743664E-2"/>
+          <c:y val="0.14463917525773196"/>
+          <c:w val="0.87437751531058616"/>
+          <c:h val="0.79282382227994697"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'49.0 cm'!$F$6:$F$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.92391304347826053</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.934782608695652</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.0869565217391432E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.347826086956514E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.16304347826086971</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.11956521739130457</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.20652173913043487</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.26086956521739141</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.32608695652173886</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.3695652173913046</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.434782608695652</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.51086956521739146</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.565217391304348</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.684782608695652</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.70652173913043481</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.78260869565217372</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.83695652173913027</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.88043478260869545</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.94565217391304346</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.98913043478260854</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'49.0 cm'!$C$6:$C$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>464</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>433</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.29</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EBE3-423A-A3B9-68F4C1F44BDA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Paracord</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'49.0 cm'!$N$6:$N$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'49.0 cm'!$K$6:$K$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EBE3-423A-A3B9-68F4C1F44BDA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Brake Cable</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'49.0 cm'!$N$23:$N$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'49.0 cm'!$K$23:$K$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-EBE3-423A-A3B9-68F4C1F44BDA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2113,6 +2710,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3662,6 +4299,522 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4301,16 +5454,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4318,6 +5471,49 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBA602F7-D45C-4D95-B5CB-2E6CA5F0F485}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{982C00CA-6616-41F5-A4BF-4F315A7F5C2C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4843,7 +6039,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0289F67D-1B36-4222-87CA-07D1B890BA50}">
   <dimension ref="A1:U30"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
@@ -5829,10 +7025,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{050AE67D-A238-4925-A0DE-87F77397D646}">
-  <dimension ref="A1:Q22"/>
+  <dimension ref="A1:Q23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5929,11 +7125,11 @@
         <v>620</v>
       </c>
       <c r="E7">
-        <f t="shared" ref="E7:E18" si="0">1-A7/$B$1</f>
+        <f t="shared" ref="E7:E24" si="0">1-A7/$B$1</f>
         <v>0.15164835164835166</v>
       </c>
       <c r="F7">
-        <f t="shared" ref="F7:F18" si="1">E7/$B$3</f>
+        <f t="shared" ref="F7:F24" si="1">E7/$B$3</f>
         <v>0.95833333333333348</v>
       </c>
     </row>
@@ -6057,6 +7253,9 @@
       <c r="G13">
         <v>665</v>
       </c>
+      <c r="H13" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -6066,7 +7265,7 @@
         <v>58.9</v>
       </c>
       <c r="C14">
-        <f t="shared" ref="C14:C18" si="2">B14*4.4482216</f>
+        <f t="shared" ref="C14:C24" si="2">B14*4.4482216</f>
         <v>262.00025224000001</v>
       </c>
       <c r="D14">
@@ -6191,25 +7390,115 @@
       <c r="M18" s="1"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>451</v>
+      </c>
+      <c r="B19">
+        <v>91.8</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="2"/>
+        <v>408.34674288000002</v>
+      </c>
       <c r="D19">
         <v>620</v>
       </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>8.79120879120876E-3</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>5.5555555555555358E-2</v>
+      </c>
+      <c r="G19">
+        <v>700</v>
+      </c>
       <c r="I19" s="1"/>
       <c r="M19" s="1"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>458</v>
+      </c>
+      <c r="B20">
+        <v>113.4</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="2"/>
+        <v>504.42832944000003</v>
+      </c>
       <c r="D20">
         <v>620</v>
       </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>-6.59340659340657E-3</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>-4.1666666666666519E-2</v>
+      </c>
+      <c r="G20">
+        <v>706</v>
+      </c>
+      <c r="H20" t="s">
+        <v>22</v>
+      </c>
       <c r="I20" s="1"/>
       <c r="M20" s="2"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>445</v>
+      </c>
+      <c r="B21">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="2"/>
+        <v>335.39590864000002</v>
+      </c>
       <c r="D21">
         <v>620</v>
       </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>2.1978021978022011E-2</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>0.13888888888888912</v>
+      </c>
+      <c r="G21">
+        <v>692</v>
+      </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>434</v>
+      </c>
+      <c r="B22">
+        <v>58</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="2"/>
+        <v>257.9968528</v>
+      </c>
+      <c r="D22">
+        <v>620</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>4.6153846153846101E-2</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>0.29166666666666635</v>
+      </c>
+      <c r="G22">
+        <v>681</v>
+      </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -6220,6 +7509,588 @@
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
     </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>421</v>
+      </c>
+      <c r="B23">
+        <v>45.7</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="2"/>
+        <v>203.28372712000001</v>
+      </c>
+      <c r="D23">
+        <v>620</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>7.4725274725274682E-2</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>0.47222222222222199</v>
+      </c>
+      <c r="G23">
+        <v>670</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C902C6E6-059B-43BE-A924-BB7C80CB41D4}">
+  <dimension ref="A1:Q26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1"/>
+    <col min="13" max="13" width="16.42578125" customWidth="1"/>
+    <col min="14" max="14" width="15.42578125" customWidth="1"/>
+    <col min="15" max="15" width="13.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1">
+        <v>490</v>
+      </c>
+      <c r="I1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>398</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <f>1-B2/B1</f>
+        <v>0.18775510204081636</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="5" spans="1:13" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>405</v>
+      </c>
+      <c r="C6">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>618</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ref="E6:E26" si="0">1-A6/$B$1</f>
+        <v>0.17346938775510201</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ref="F6:F26" si="1">E6/$B$3</f>
+        <v>0.92391304347826053</v>
+      </c>
+      <c r="G6">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>404</v>
+      </c>
+      <c r="C7">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="D7">
+        <v>618</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>0.17551020408163265</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>0.934782608695652</v>
+      </c>
+      <c r="G7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>491</v>
+      </c>
+      <c r="C8">
+        <v>464</v>
+      </c>
+      <c r="D8">
+        <v>620</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>-2.0408163265306367E-3</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>-1.0869565217391432E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>486</v>
+      </c>
+      <c r="C9">
+        <v>433</v>
+      </c>
+      <c r="D9">
+        <v>616</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>8.1632653061224358E-3</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>4.347826086956514E-2</v>
+      </c>
+      <c r="G9">
+        <v>737</v>
+      </c>
+      <c r="H9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>475</v>
+      </c>
+      <c r="C10">
+        <v>320</v>
+      </c>
+      <c r="D10">
+        <v>618</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>3.0612244897959218E-2</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>0.16304347826086971</v>
+      </c>
+      <c r="G10">
+        <v>724</v>
+      </c>
+      <c r="H10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>479</v>
+      </c>
+      <c r="C11">
+        <v>356</v>
+      </c>
+      <c r="D11">
+        <v>620</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>2.2448979591836782E-2</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>0.11956521739130457</v>
+      </c>
+      <c r="G11">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>471</v>
+      </c>
+      <c r="C12">
+        <v>300</v>
+      </c>
+      <c r="D12">
+        <v>618</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>3.8775510204081653E-2</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>0.20652173913043487</v>
+      </c>
+      <c r="G12">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>466</v>
+      </c>
+      <c r="C13">
+        <v>268</v>
+      </c>
+      <c r="D13">
+        <v>617</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>4.8979591836734726E-2</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>0.26086956521739141</v>
+      </c>
+      <c r="G13">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>460</v>
+      </c>
+      <c r="C14">
+        <v>241</v>
+      </c>
+      <c r="D14">
+        <v>617</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>6.1224489795918324E-2</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>0.32608695652173886</v>
+      </c>
+      <c r="G14">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>456</v>
+      </c>
+      <c r="C15">
+        <v>215</v>
+      </c>
+      <c r="D15">
+        <v>617</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>6.9387755102040871E-2</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>0.3695652173913046</v>
+      </c>
+      <c r="G15">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>450</v>
+      </c>
+      <c r="C16">
+        <v>194</v>
+      </c>
+      <c r="D16">
+        <v>617</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>8.1632653061224469E-2</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>0.434782608695652</v>
+      </c>
+      <c r="G16">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>443</v>
+      </c>
+      <c r="C17">
+        <v>165</v>
+      </c>
+      <c r="D17">
+        <v>617</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>9.5918367346938815E-2</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>0.51086956521739146</v>
+      </c>
+      <c r="G17">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>438</v>
+      </c>
+      <c r="C18">
+        <v>144</v>
+      </c>
+      <c r="D18">
+        <v>617</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>0.10612244897959189</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>0.565217391304348</v>
+      </c>
+      <c r="G18">
+        <v>685</v>
+      </c>
+      <c r="I18" s="1"/>
+      <c r="M18" s="1"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>427</v>
+      </c>
+      <c r="C19">
+        <v>107</v>
+      </c>
+      <c r="D19">
+        <v>617</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>0.12857142857142856</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>0.684782608695652</v>
+      </c>
+      <c r="G19">
+        <v>675</v>
+      </c>
+      <c r="I19" s="1"/>
+      <c r="M19" s="1"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>425</v>
+      </c>
+      <c r="C20">
+        <v>97</v>
+      </c>
+      <c r="D20">
+        <v>617</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>0.13265306122448983</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>0.70652173913043481</v>
+      </c>
+      <c r="G20">
+        <v>670</v>
+      </c>
+      <c r="I20" s="1"/>
+      <c r="M20" s="2"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>418</v>
+      </c>
+      <c r="C21">
+        <v>75</v>
+      </c>
+      <c r="D21">
+        <v>617</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>0.14693877551020407</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>0.78260869565217372</v>
+      </c>
+      <c r="G21">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>413</v>
+      </c>
+      <c r="C22">
+        <v>58</v>
+      </c>
+      <c r="D22">
+        <v>617</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>0.15714285714285714</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>0.83695652173913027</v>
+      </c>
+      <c r="G22">
+        <v>661</v>
+      </c>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>409</v>
+      </c>
+      <c r="C23">
+        <v>45</v>
+      </c>
+      <c r="D23">
+        <v>617</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>0.16530612244897958</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>0.88043478260869545</v>
+      </c>
+      <c r="G23">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>403</v>
+      </c>
+      <c r="C24">
+        <v>20</v>
+      </c>
+      <c r="D24">
+        <v>617</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>0.17755102040816328</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>0.94565217391304346</v>
+      </c>
+      <c r="G24">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>399</v>
+      </c>
+      <c r="C25">
+        <v>2.29</v>
+      </c>
+      <c r="D25">
+        <v>617</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>0.18571428571428572</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>0.98913043478260854</v>
+      </c>
+      <c r="G25">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>398</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>0.18775510204081636</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H26" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Testing_Data/StraightForceTest.xlsx
+++ b/Testing_Data/StraightForceTest.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Bipedal_Robot\Testing_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0172E5F1-3793-47F9-A089-7DEE97433ECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67DDCD83-ED74-48D5-A8E8-628771204992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{CE45C211-BD3F-4CC7-8CF8-DB47A93DE884}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{CE45C211-BD3F-4CC7-8CF8-DB47A93DE884}"/>
   </bookViews>
   <sheets>
     <sheet name="11.2 cm, no T" sheetId="2" r:id="rId1"/>
     <sheet name="41.5 cm" sheetId="1" r:id="rId2"/>
     <sheet name="45.5 cm" sheetId="4" r:id="rId3"/>
     <sheet name="49.0 cm" sheetId="5" r:id="rId4"/>
+    <sheet name="51.8 cm" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="31">
   <si>
     <t>Force (lbs)</t>
   </si>
@@ -120,6 +121,15 @@
   </si>
   <si>
     <t>*horizontal</t>
+  </si>
+  <si>
+    <t>*pushed, slight bend in BPA, recorded distance is vertical (not path length)</t>
+  </si>
+  <si>
+    <t>*15.6 N pretension</t>
+  </si>
+  <si>
+    <t>*89 N pretension</t>
   </si>
 </sst>
 </file>
@@ -2550,6 +2560,611 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Force vs. Relative Strain, 49.0 cm</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.9247594050743664E-2"/>
+          <c:y val="0.14463917525773196"/>
+          <c:w val="0.87437751531058616"/>
+          <c:h val="0.79282382227994697"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.21563298337707787"/>
+                  <c:y val="-9.7590769903761948E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'51.8 cm'!$F$6:$F$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0116279069767442</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0348837209302324</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.90697674418604668</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.4883720930232488E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.13953488372092995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.23255813953488391</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.33720930232558138</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.47674418604651136</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.91860465116279089</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.81395348837209269</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.69767441860465107</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.61627906976744196</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.52325581395348864</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.3255813953488327E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.9767441860464977E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.18604651162790728</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.11627906976744162</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.38372093023255804</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.30232558139534887</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'51.8 cm'!$C$6:$C$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>443.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>347</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>328</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>378</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>278</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>518</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-72E9-4FE6-99E1-9703A63D013E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Paracord</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'51.8 cm'!$N$6:$N$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'51.8 cm'!$K$6:$K$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-72E9-4FE6-99E1-9703A63D013E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Brake Cable</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'51.8 cm'!$N$23:$N$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'51.8 cm'!$K$23:$K$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-72E9-4FE6-99E1-9703A63D013E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="406590880"/>
+        <c:axId val="406592960"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="406590880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="406592960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="406592960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="406590880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2750,6 +3365,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -4815,6 +5470,522 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5497,16 +6668,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5514,6 +6685,49 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{982C00CA-6616-41F5-A4BF-4F315A7F5C2C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{946073EC-4C02-4769-B522-FFE9F4DD1189}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6039,7 +7253,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0289F67D-1B36-4222-87CA-07D1B890BA50}">
   <dimension ref="A1:U30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
@@ -7125,11 +8339,11 @@
         <v>620</v>
       </c>
       <c r="E7">
-        <f t="shared" ref="E7:E24" si="0">1-A7/$B$1</f>
+        <f t="shared" ref="E7:E23" si="0">1-A7/$B$1</f>
         <v>0.15164835164835166</v>
       </c>
       <c r="F7">
-        <f t="shared" ref="F7:F24" si="1">E7/$B$3</f>
+        <f t="shared" ref="F7:F23" si="1">E7/$B$3</f>
         <v>0.95833333333333348</v>
       </c>
     </row>
@@ -7265,7 +8479,7 @@
         <v>58.9</v>
       </c>
       <c r="C14">
-        <f t="shared" ref="C14:C24" si="2">B14*4.4482216</f>
+        <f t="shared" ref="C14:C23" si="2">B14*4.4482216</f>
         <v>262.00025224000001</v>
       </c>
       <c r="D14">
@@ -7546,8 +8760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C902C6E6-059B-43BE-A924-BB7C80CB41D4}">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8096,4 +9310,569 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB2BFFE4-73AB-4B28-8B60-9C656B1F81F0}">
+  <dimension ref="A1:Q26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1"/>
+    <col min="13" max="13" width="16.42578125" customWidth="1"/>
+    <col min="14" max="14" width="15.42578125" customWidth="1"/>
+    <col min="15" max="15" width="13.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1">
+        <v>518</v>
+      </c>
+      <c r="I1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>432</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <f>1-B2/B1</f>
+        <v>0.16602316602316602</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="5" spans="1:13" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>432</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>619</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ref="E6:E26" si="0">1-A6/$B$1</f>
+        <v>0.16602316602316602</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ref="F6:F26" si="1">E6/$B$3</f>
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>431</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>618</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>0.16795366795366795</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>1.0116279069767442</v>
+      </c>
+      <c r="G7">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>429</v>
+      </c>
+      <c r="C8">
+        <v>-5.3</v>
+      </c>
+      <c r="D8">
+        <v>618</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>0.1718146718146718</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>1.0348837209302324</v>
+      </c>
+      <c r="G8">
+        <v>663</v>
+      </c>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>440</v>
+      </c>
+      <c r="C9">
+        <v>60</v>
+      </c>
+      <c r="D9">
+        <v>616</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>0.15057915057915061</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>0.90697674418604668</v>
+      </c>
+      <c r="G9">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>515</v>
+      </c>
+      <c r="C10">
+        <v>443.2</v>
+      </c>
+      <c r="D10">
+        <v>615</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>5.7915057915057799E-3</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>3.4883720930232488E-2</v>
+      </c>
+      <c r="G10">
+        <v>755</v>
+      </c>
+      <c r="H10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>506</v>
+      </c>
+      <c r="C11">
+        <v>347</v>
+      </c>
+      <c r="D11">
+        <v>616.79999999999995</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>2.316602316602312E-2</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>0.13953488372092995</v>
+      </c>
+      <c r="G11">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>498</v>
+      </c>
+      <c r="C12">
+        <v>296</v>
+      </c>
+      <c r="D12">
+        <v>618</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>3.8610038610038644E-2</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>0.23255813953488391</v>
+      </c>
+      <c r="G12">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>489</v>
+      </c>
+      <c r="C13">
+        <v>245</v>
+      </c>
+      <c r="D13">
+        <v>617</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>5.5984555984555984E-2</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>0.33720930232558138</v>
+      </c>
+      <c r="G13">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>477</v>
+      </c>
+      <c r="C14">
+        <v>191</v>
+      </c>
+      <c r="D14">
+        <v>617</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>7.9150579150579103E-2</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>0.47674418604651136</v>
+      </c>
+      <c r="G14">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>439</v>
+      </c>
+      <c r="C15">
+        <v>55</v>
+      </c>
+      <c r="D15">
+        <v>617</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>0.15250965250965254</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>0.91860465116279089</v>
+      </c>
+      <c r="G15">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>448</v>
+      </c>
+      <c r="C16">
+        <v>99</v>
+      </c>
+      <c r="D16">
+        <v>617</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>0.13513513513513509</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>0.81395348837209269</v>
+      </c>
+      <c r="G16">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>458</v>
+      </c>
+      <c r="C17">
+        <v>132</v>
+      </c>
+      <c r="D17">
+        <v>617</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>0.11583011583011582</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>0.69767441860465107</v>
+      </c>
+      <c r="G17">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>465</v>
+      </c>
+      <c r="C18">
+        <v>160</v>
+      </c>
+      <c r="D18">
+        <v>617</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>0.10231660231660233</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>0.61627906976744196</v>
+      </c>
+      <c r="G18">
+        <v>703</v>
+      </c>
+      <c r="I18" s="1"/>
+      <c r="M18" s="1"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>473</v>
+      </c>
+      <c r="C19">
+        <v>195</v>
+      </c>
+      <c r="D19">
+        <v>617</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>8.6872586872586921E-2</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>0.52325581395348864</v>
+      </c>
+      <c r="G19">
+        <v>711</v>
+      </c>
+      <c r="I19" s="1"/>
+      <c r="M19" s="1"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>516</v>
+      </c>
+      <c r="C20">
+        <v>450</v>
+      </c>
+      <c r="D20">
+        <v>617</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>3.8610038610038533E-3</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>2.3255813953488327E-2</v>
+      </c>
+      <c r="G20">
+        <v>755</v>
+      </c>
+      <c r="I20" s="1"/>
+      <c r="M20" s="2"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>512</v>
+      </c>
+      <c r="C21">
+        <v>420</v>
+      </c>
+      <c r="D21">
+        <v>617</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>1.158301158301156E-2</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>6.9767441860464977E-2</v>
+      </c>
+      <c r="G21">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>502</v>
+      </c>
+      <c r="C22">
+        <v>328</v>
+      </c>
+      <c r="D22">
+        <v>617</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>3.0888030888030937E-2</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>0.18604651162790728</v>
+      </c>
+      <c r="G22">
+        <v>742</v>
+      </c>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>508</v>
+      </c>
+      <c r="C23">
+        <v>378</v>
+      </c>
+      <c r="D23">
+        <v>617</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>1.9305019305019266E-2</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>0.11627906976744162</v>
+      </c>
+      <c r="G23">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>485</v>
+      </c>
+      <c r="C24">
+        <v>230</v>
+      </c>
+      <c r="D24">
+        <v>617</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>6.370656370656369E-2</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>0.38372093023255804</v>
+      </c>
+      <c r="G24">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>492</v>
+      </c>
+      <c r="C25">
+        <v>278</v>
+      </c>
+      <c r="D25">
+        <v>617</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>5.0193050193050204E-2</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>0.30232558139534887</v>
+      </c>
+      <c r="G25">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>518</v>
+      </c>
+      <c r="C26">
+        <v>518</v>
+      </c>
+      <c r="D26">
+        <v>617</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>761</v>
+      </c>
+      <c r="H26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Testing_Data/StraightForceTest.xlsx
+++ b/Testing_Data/StraightForceTest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Bipedal_Robot\Testing_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67DDCD83-ED74-48D5-A8E8-628771204992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA212203-7A0A-442A-ABB9-5F09D354AFA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{CE45C211-BD3F-4CC7-8CF8-DB47A93DE884}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{CE45C211-BD3F-4CC7-8CF8-DB47A93DE884}"/>
   </bookViews>
   <sheets>
     <sheet name="11.2 cm, no T" sheetId="2" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="45.5 cm" sheetId="4" r:id="rId3"/>
     <sheet name="49.0 cm" sheetId="5" r:id="rId4"/>
     <sheet name="51.8 cm" sheetId="6" r:id="rId5"/>
+    <sheet name="Fmax(L)" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="40">
   <si>
     <t>Force (lbs)</t>
   </si>
@@ -131,6 +132,33 @@
   <si>
     <t>*89 N pretension</t>
   </si>
+  <si>
+    <t>muscle</t>
+  </si>
+  <si>
+    <t>Muscle</t>
+  </si>
+  <si>
+    <t>pressure (set)</t>
+  </si>
+  <si>
+    <t>Force</t>
+  </si>
+  <si>
+    <t>Pressure measured (kPa)</t>
+  </si>
+  <si>
+    <t>Pressure aim (kPa)</t>
+  </si>
+  <si>
+    <t>horizontal</t>
+  </si>
+  <si>
+    <t>vertical</t>
+  </si>
+  <si>
+    <t>Len</t>
+  </si>
 </sst>
 </file>
 
@@ -161,7 +189,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -169,16 +197,119 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3165,6 +3296,585 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Max Force vs. Resting</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Length</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.9247594050743664E-2"/>
+          <c:y val="0.14463917525773196"/>
+          <c:w val="0.87437751531058616"/>
+          <c:h val="0.79282382227994697"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('Fmax(L)'!$C$3,'Fmax(L)'!$E$3,'Fmax(L)'!$G$3,'Fmax(L)'!$I$3,'Fmax(L)'!$I$3,'Fmax(L)'!$G$3)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>845</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>785</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Fmax(L)'!$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>447.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-A0E4-4B7C-867B-8F7F73103A43}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="406590880"/>
+        <c:axId val="406592960"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="406590880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="406592960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="406592960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="406590880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Max Strain vs. Resting</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Length</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.9247594050743664E-2"/>
+          <c:y val="0.14463917525773196"/>
+          <c:w val="0.87437751531058616"/>
+          <c:h val="0.79282382227994697"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Fmax(L)'!$C$3:$Q$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>845</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>840</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>785</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>780</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Fmax(L)'!$C$5:$Q$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.17159763313609466</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17261904761904767</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16942675159235665</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17051282051282046</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-1B64-4248-952F-67D29602E059}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="406590880"/>
+        <c:axId val="406592960"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="406590880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="406592960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="406592960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="406590880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -6742,6 +7452,87 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>933450</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89624C20-A07E-4106-867B-61FF8A3CE473}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CE22313-FB81-4CF4-B1C5-33334D53DDD7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9316,7 +10107,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB2BFFE4-73AB-4B28-8B60-9C656B1F81F0}">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
@@ -9875,4 +10666,508 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57CFFEA6-F038-4ADE-B4DB-050B0246E0CF}">
+  <dimension ref="A1:S22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="5" max="6" width="12" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" customWidth="1"/>
+    <col min="15" max="15" width="16.42578125" customWidth="1"/>
+    <col min="16" max="16" width="15.42578125" customWidth="1"/>
+    <col min="17" max="17" width="13.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>845</v>
+      </c>
+      <c r="D3">
+        <v>840</v>
+      </c>
+      <c r="E3">
+        <v>785</v>
+      </c>
+      <c r="F3">
+        <v>780</v>
+      </c>
+      <c r="K3" s="1"/>
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>700</v>
+      </c>
+      <c r="D4">
+        <v>695</v>
+      </c>
+      <c r="E4">
+        <v>652</v>
+      </c>
+      <c r="F4">
+        <v>647</v>
+      </c>
+      <c r="K4" s="1"/>
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <f>1-C4/C3</f>
+        <v>0.17159763313609466</v>
+      </c>
+      <c r="D5">
+        <f>1-D4/D3</f>
+        <v>0.17261904761904767</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5:I5" si="0">1-E4/E3</f>
+        <v>0.16942675159235665</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>0.17051282051282046</v>
+      </c>
+      <c r="G5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>100</v>
+      </c>
+      <c r="O6">
+        <v>200</v>
+      </c>
+      <c r="P6">
+        <v>300</v>
+      </c>
+      <c r="Q6">
+        <v>400</v>
+      </c>
+      <c r="R6">
+        <v>500</v>
+      </c>
+      <c r="S6">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" s="1" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>1</v>
+      </c>
+      <c r="B8" s="4">
+        <v>840</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <v>2.94</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+      <c r="G8" s="6">
+        <f>1-B8/$C$3</f>
+        <v>5.9171597633136397E-3</v>
+      </c>
+      <c r="H8" s="12">
+        <f>G8/$D$5</f>
+        <v>3.4278718628851422E-2</v>
+      </c>
+      <c r="L8" t="s">
+        <v>34</v>
+      </c>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6">
+        <v>838</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6">
+        <v>114.32</v>
+      </c>
+      <c r="E9" s="6">
+        <v>197.62</v>
+      </c>
+      <c r="F9" s="6">
+        <v>200</v>
+      </c>
+      <c r="G9" s="6">
+        <f t="shared" ref="G9:G13" si="1">1-B9/$C$3</f>
+        <v>8.2840236686390067E-3</v>
+      </c>
+      <c r="H9" s="12">
+        <f t="shared" ref="H9:H13" si="2">G9/$D$5</f>
+        <v>4.7990206080391472E-2</v>
+      </c>
+      <c r="L9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6">
+        <v>837</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6">
+        <v>191.8</v>
+      </c>
+      <c r="E10" s="6">
+        <v>299.12</v>
+      </c>
+      <c r="F10" s="6">
+        <v>300</v>
+      </c>
+      <c r="G10" s="6">
+        <f t="shared" si="1"/>
+        <v>9.4674556213018013E-3</v>
+      </c>
+      <c r="H10" s="12">
+        <f t="shared" si="2"/>
+        <v>5.4845949806162142E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6">
+        <v>836</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="11">
+        <v>275.2</v>
+      </c>
+      <c r="E11" s="11">
+        <v>405</v>
+      </c>
+      <c r="F11" s="6">
+        <v>400</v>
+      </c>
+      <c r="G11" s="6">
+        <f t="shared" si="1"/>
+        <v>1.0650887573964485E-2</v>
+      </c>
+      <c r="H11" s="12">
+        <f t="shared" si="2"/>
+        <v>6.1701693531932167E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6">
+        <v>835</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="11">
+        <v>355.4</v>
+      </c>
+      <c r="E12" s="11">
+        <v>505.15</v>
+      </c>
+      <c r="F12" s="6">
+        <v>500</v>
+      </c>
+      <c r="G12" s="6">
+        <f t="shared" si="1"/>
+        <v>1.1834319526627168E-2</v>
+      </c>
+      <c r="H12" s="12">
+        <f t="shared" si="2"/>
+        <v>6.8557437257702192E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9">
+        <v>834</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9">
+        <v>447.1</v>
+      </c>
+      <c r="E13" s="9">
+        <v>620.29</v>
+      </c>
+      <c r="F13" s="9">
+        <v>620</v>
+      </c>
+      <c r="G13" s="9">
+        <f t="shared" si="1"/>
+        <v>1.3017751479289963E-2</v>
+      </c>
+      <c r="H13" s="13">
+        <f t="shared" si="2"/>
+        <v>7.5413180983472869E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>2</v>
+      </c>
+      <c r="B14" s="4">
+        <v>780</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4">
+        <v>0</v>
+      </c>
+      <c r="E14" s="4">
+        <v>2.94</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0</v>
+      </c>
+      <c r="G14" s="6">
+        <f>1-B14/$F$3</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="7">
+        <f>G14/$F$5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="11">
+        <v>780</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="11">
+        <v>139.19999999999999</v>
+      </c>
+      <c r="E15" s="11">
+        <v>196.1</v>
+      </c>
+      <c r="F15" s="6">
+        <v>200</v>
+      </c>
+      <c r="G15" s="6">
+        <f t="shared" ref="G15:G19" si="3">1-B15/$F$3</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="7">
+        <f t="shared" ref="H15:H19" si="4">G15/$F$5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="11">
+        <v>781</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="11">
+        <v>216</v>
+      </c>
+      <c r="E16" s="11">
+        <v>299.36</v>
+      </c>
+      <c r="F16" s="6">
+        <v>300</v>
+      </c>
+      <c r="G16" s="6">
+        <f t="shared" si="3"/>
+        <v>-1.2820512820512775E-3</v>
+      </c>
+      <c r="H16" s="7">
+        <f t="shared" si="4"/>
+        <v>-7.5187969924811783E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="11">
+        <v>780</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="11">
+        <v>299.7</v>
+      </c>
+      <c r="E17" s="11">
+        <v>405.16</v>
+      </c>
+      <c r="F17" s="6">
+        <v>400</v>
+      </c>
+      <c r="G17" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="11">
+        <v>780</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="11">
+        <v>378.1</v>
+      </c>
+      <c r="E18" s="11">
+        <v>502.88</v>
+      </c>
+      <c r="F18" s="6">
+        <v>500</v>
+      </c>
+      <c r="G18" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8"/>
+      <c r="B19" s="9">
+        <v>780</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9">
+        <v>472</v>
+      </c>
+      <c r="E19" s="9">
+        <v>621.04999999999995</v>
+      </c>
+      <c r="F19" s="9">
+        <v>620</v>
+      </c>
+      <c r="G19" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="1"/>
+      <c r="O19" s="1"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K20" s="1"/>
+      <c r="O20" s="2"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Testing_Data/StraightForceTest.xlsx
+++ b/Testing_Data/StraightForceTest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Bipedal_Robot\Testing_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA212203-7A0A-442A-ABB9-5F09D354AFA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF11DBC0-7303-43C8-966F-40BD2E875E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{CE45C211-BD3F-4CC7-8CF8-DB47A93DE884}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="49">
   <si>
     <t>Force (lbs)</t>
   </si>
@@ -159,12 +159,39 @@
   <si>
     <t>Len</t>
   </si>
+  <si>
+    <t>Resting L</t>
+  </si>
+  <si>
+    <t>Fmax</t>
+  </si>
+  <si>
+    <t>Kmax</t>
+  </si>
+  <si>
+    <t>Previous Tests</t>
+  </si>
+  <si>
+    <t>*pretensioned, air off</t>
+  </si>
+  <si>
+    <t>Batch</t>
+  </si>
+  <si>
+    <t>D21</t>
+  </si>
+  <si>
+    <t>H61</t>
+  </si>
+  <si>
+    <t>E31</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,6 +207,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -189,7 +222,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -286,11 +319,59 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -310,6 +391,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -432,6 +525,51 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>'11.2 cm, no T'!$F$6:$F$10</c:f>
@@ -1717,6 +1855,57 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.1592788713910761"/>
+                  <c:y val="-1.3109871682706328E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>'45.5 cm'!$F$6:$F$23</c:f>
@@ -2253,6 +2442,57 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="6.764391951006124E-2"/>
+                  <c:y val="-0.49775043744531933"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>'49.0 cm'!$F$6:$F$25</c:f>
@@ -3375,27 +3615,144 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>('Fmax(L)'!$C$3,'Fmax(L)'!$E$3,'Fmax(L)'!$G$3,'Fmax(L)'!$I$3,'Fmax(L)'!$I$3,'Fmax(L)'!$G$3)</c:f>
+              <c:f>'Fmax(L)'!$C$3:$W$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>845</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>840</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>785</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>780</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>710</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>709</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>571</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>571</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>415</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>455</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>518</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>551</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>193</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Fmax(L)'!$D$13</c:f>
+              <c:f>'Fmax(L)'!$C$6:$W$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>447.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>447.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>472</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>472</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>452.32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>452.32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>461.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>461.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>334</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>445</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>464.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>458.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>453.14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>436.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>238.2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>135.32</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>271.48</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>412.3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>347.18</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>396.17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3403,7 +3760,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000E-A0E4-4B7C-867B-8F7F73103A43}"/>
+              <c16:uniqueId val="{00000001-B24F-4011-A43E-99BCBB878E28}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3660,10 +4017,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Fmax(L)'!$C$3:$Q$3</c:f>
+              <c:f>'Fmax(L)'!$C$3:$W$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>845</c:v>
                 </c:pt>
@@ -3675,16 +4032,67 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>780</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>710</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>709</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>571</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>571</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>415</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>455</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>518</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>551</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>193</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Fmax(L)'!$C$5:$Q$5</c:f>
+              <c:f>'Fmax(L)'!$C$5:$W$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0.17159763313609466</c:v>
                 </c:pt>
@@ -3698,13 +4106,55 @@
                   <c:v>0.17051282051282046</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.17746478873239435</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.17489421720733422</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.18388791593695275</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.18213660245183882</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1607142857142857</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.16626506024096388</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.15824175824175823</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.18775510204081636</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.16602316602316602</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.17422867513611617</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.17174515235457066</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.14814814814814814</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.14814814814814814</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.15942028985507251</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.1709090909090909</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.15231788079470199</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.16580310880829019</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7466,13 +7916,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>933450</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>42862</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>119062</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -7504,13 +7954,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -7841,7 +8291,7 @@
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="D1" sqref="D1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7855,6 +8305,12 @@
       </c>
       <c r="B1">
         <v>112</v>
+      </c>
+      <c r="D1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="30" x14ac:dyDescent="0.25">
@@ -8044,8 +8500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0289F67D-1B36-4222-87CA-07D1B890BA50}">
   <dimension ref="A1:U30"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8064,6 +8520,12 @@
       <c r="B1">
         <v>415</v>
       </c>
+      <c r="D1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" t="s">
+        <v>47</v>
+      </c>
       <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
@@ -9033,7 +9495,7 @@
   <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="D1" sqref="D1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9053,6 +9515,12 @@
       <c r="B1">
         <v>455</v>
       </c>
+      <c r="D1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" t="s">
+        <v>46</v>
+      </c>
       <c r="I1" s="1"/>
       <c r="M1" s="1"/>
     </row>
@@ -9552,7 +10020,7 @@
   <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+      <selection activeCell="D1" sqref="D1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9572,6 +10040,12 @@
       <c r="B1">
         <v>490</v>
       </c>
+      <c r="D1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" t="s">
+        <v>46</v>
+      </c>
       <c r="I1" s="1"/>
       <c r="M1" s="1"/>
     </row>
@@ -10108,7 +10582,7 @@
   <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10128,6 +10602,12 @@
       <c r="B1">
         <v>518</v>
       </c>
+      <c r="D1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" t="s">
+        <v>47</v>
+      </c>
       <c r="I1" s="1"/>
       <c r="M1" s="1"/>
     </row>
@@ -10670,502 +11150,1929 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57CFFEA6-F038-4ADE-B4DB-050B0246E0CF}">
-  <dimension ref="A1:S22"/>
+  <dimension ref="A1:Z64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="17" customWidth="1"/>
     <col min="5" max="6" width="12" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" customWidth="1"/>
     <col min="11" max="11" width="12.7109375" customWidth="1"/>
-    <col min="15" max="15" width="16.42578125" customWidth="1"/>
-    <col min="16" max="16" width="15.42578125" customWidth="1"/>
-    <col min="17" max="17" width="13.140625" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" customWidth="1"/>
+    <col min="16" max="16" width="11.5703125" customWidth="1"/>
+    <col min="17" max="17" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="3">
         <v>1</v>
       </c>
-      <c r="E1">
+      <c r="D1" s="15"/>
+      <c r="E1" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C2" t="s">
+      <c r="F1" s="15"/>
+      <c r="G1" s="3">
+        <v>3</v>
+      </c>
+      <c r="H1" s="15"/>
+      <c r="I1" s="3">
+        <v>4</v>
+      </c>
+      <c r="J1" s="15"/>
+      <c r="K1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="17">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="17">
+        <v>6</v>
+      </c>
+      <c r="R1" s="17">
+        <v>7</v>
+      </c>
+      <c r="S1" s="21">
+        <v>8</v>
+      </c>
+      <c r="T1" s="22">
+        <v>9</v>
+      </c>
+      <c r="U1" s="11">
+        <v>10</v>
+      </c>
+      <c r="V1" s="21">
+        <v>11</v>
+      </c>
+      <c r="W1" s="21">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="C2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="7" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="G2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="5"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
+    </row>
+    <row r="3" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="5">
         <v>845</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="7">
         <v>840</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="5">
         <v>785</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="7">
         <v>780</v>
       </c>
-      <c r="K3" s="1"/>
-      <c r="O3" s="1"/>
-    </row>
-    <row r="4" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="G3" s="5">
+        <v>710</v>
+      </c>
+      <c r="H3" s="7">
+        <v>709</v>
+      </c>
+      <c r="I3" s="5">
+        <v>571</v>
+      </c>
+      <c r="J3" s="7">
+        <v>571</v>
+      </c>
+      <c r="K3" s="5">
+        <v>112</v>
+      </c>
+      <c r="L3" s="6">
+        <v>415</v>
+      </c>
+      <c r="M3" s="6">
+        <v>455</v>
+      </c>
+      <c r="N3" s="6">
+        <v>490</v>
+      </c>
+      <c r="O3" s="7">
+        <v>518</v>
+      </c>
+      <c r="P3" s="18">
+        <v>551</v>
+      </c>
+      <c r="Q3" s="18">
+        <v>361</v>
+      </c>
+      <c r="R3" s="20">
+        <v>54</v>
+      </c>
+      <c r="S3" s="20">
+        <v>27</v>
+      </c>
+      <c r="T3" s="22">
+        <v>69</v>
+      </c>
+      <c r="U3" s="11">
+        <v>275</v>
+      </c>
+      <c r="V3" s="20">
+        <v>151</v>
+      </c>
+      <c r="W3" s="20">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="5">
         <v>700</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="7">
         <v>695</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="5">
         <v>652</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="7">
         <v>647</v>
       </c>
-      <c r="K4" s="1"/>
-      <c r="O4" s="1"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="G4" s="5">
+        <v>584</v>
+      </c>
+      <c r="H4" s="7">
+        <v>585</v>
+      </c>
+      <c r="I4" s="5">
+        <v>466</v>
+      </c>
+      <c r="J4" s="7">
+        <v>467</v>
+      </c>
+      <c r="K4" s="5"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="18">
+        <v>455</v>
+      </c>
+      <c r="Q4" s="18">
+        <v>299</v>
+      </c>
+      <c r="R4" s="18">
+        <v>46</v>
+      </c>
+      <c r="S4" s="20">
+        <v>23</v>
+      </c>
+      <c r="T4" s="22">
+        <v>58</v>
+      </c>
+      <c r="U4" s="11">
+        <v>228</v>
+      </c>
+      <c r="V4" s="18">
+        <v>128</v>
+      </c>
+      <c r="W4" s="20">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="8">
         <f>1-C4/C3</f>
         <v>0.17159763313609466</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="10">
         <f>1-D4/D3</f>
         <v>0.17261904761904767</v>
       </c>
-      <c r="E5">
-        <f t="shared" ref="E5:I5" si="0">1-E4/E3</f>
+      <c r="E5" s="8">
+        <f t="shared" ref="E5:H5" si="0">1-E4/E3</f>
         <v>0.16942675159235665</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="10">
         <f t="shared" si="0"/>
         <v>0.17051282051282046</v>
       </c>
-      <c r="G5" t="e">
+      <c r="G5" s="8">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H5" t="e">
+        <v>0.17746478873239435</v>
+      </c>
+      <c r="H5" s="10">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I5" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="L6" s="2" t="s">
+        <v>0.17489421720733422</v>
+      </c>
+      <c r="I5" s="8">
+        <f t="shared" ref="I5:J5" si="1">1-I4/I3</f>
+        <v>0.18388791593695275</v>
+      </c>
+      <c r="J5" s="10">
+        <f t="shared" si="1"/>
+        <v>0.18213660245183882</v>
+      </c>
+      <c r="K5" s="8">
+        <v>0.1607142857142857</v>
+      </c>
+      <c r="L5" s="9">
+        <v>0.16626506024096388</v>
+      </c>
+      <c r="M5" s="9">
+        <v>0.15824175824175823</v>
+      </c>
+      <c r="N5" s="9">
+        <v>0.18775510204081636</v>
+      </c>
+      <c r="O5" s="10">
+        <v>0.16602316602316602</v>
+      </c>
+      <c r="P5" s="19">
+        <f t="shared" ref="P5:W5" si="2">1-P4/P3</f>
+        <v>0.17422867513611617</v>
+      </c>
+      <c r="Q5" s="19">
+        <f t="shared" si="2"/>
+        <v>0.17174515235457066</v>
+      </c>
+      <c r="R5" s="19">
+        <f t="shared" si="2"/>
+        <v>0.14814814814814814</v>
+      </c>
+      <c r="S5" s="19">
+        <f t="shared" si="2"/>
+        <v>0.14814814814814814</v>
+      </c>
+      <c r="T5" s="10">
+        <f t="shared" si="2"/>
+        <v>0.15942028985507251</v>
+      </c>
+      <c r="U5" s="8">
+        <f t="shared" si="2"/>
+        <v>0.1709090909090909</v>
+      </c>
+      <c r="V5" s="8">
+        <f t="shared" si="2"/>
+        <v>0.15231788079470199</v>
+      </c>
+      <c r="W5" s="19">
+        <f t="shared" si="2"/>
+        <v>0.16580310880829019</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="16">
+        <v>447.1</v>
+      </c>
+      <c r="D6">
+        <v>447.1</v>
+      </c>
+      <c r="E6" s="16">
+        <v>472</v>
+      </c>
+      <c r="F6">
+        <v>472</v>
+      </c>
+      <c r="G6" s="16">
+        <v>452.32</v>
+      </c>
+      <c r="H6">
+        <v>452.32</v>
+      </c>
+      <c r="I6" s="16">
+        <v>461.6</v>
+      </c>
+      <c r="J6">
+        <v>461.6</v>
+      </c>
+      <c r="K6">
+        <v>334</v>
+      </c>
+      <c r="L6">
+        <v>445</v>
+      </c>
+      <c r="M6">
+        <v>464.5</v>
+      </c>
+      <c r="N6">
+        <v>458.6</v>
+      </c>
+      <c r="O6">
+        <v>490</v>
+      </c>
+      <c r="P6" s="20">
+        <v>453.14</v>
+      </c>
+      <c r="Q6" s="20">
+        <v>436.4</v>
+      </c>
+      <c r="R6" s="20">
+        <v>238.2</v>
+      </c>
+      <c r="S6" s="20">
+        <v>135.32</v>
+      </c>
+      <c r="T6" s="22">
+        <v>271.48</v>
+      </c>
+      <c r="U6" s="22">
+        <v>412.3</v>
+      </c>
+      <c r="V6" s="16">
+        <v>347.18</v>
+      </c>
+      <c r="W6" s="20">
+        <v>396.17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L7" t="s">
+        <v>47</v>
+      </c>
+      <c r="M7" t="s">
+        <v>46</v>
+      </c>
+      <c r="N7" t="s">
+        <v>46</v>
+      </c>
+      <c r="O7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>46</v>
+      </c>
+      <c r="R7" t="s">
+        <v>46</v>
+      </c>
+      <c r="S7" t="s">
+        <v>46</v>
+      </c>
+      <c r="T7" t="s">
+        <v>46</v>
+      </c>
+      <c r="U7" t="s">
+        <v>46</v>
+      </c>
+      <c r="V7" t="s">
+        <v>48</v>
+      </c>
+      <c r="W7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" s="1" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="M6">
+      <c r="M8">
         <v>0</v>
       </c>
-      <c r="N6">
-        <v>100</v>
-      </c>
-      <c r="O6">
+      <c r="N8">
         <v>200</v>
       </c>
-      <c r="P6">
+      <c r="O8">
         <v>300</v>
       </c>
-      <c r="Q6">
+      <c r="P8">
         <v>400</v>
       </c>
-      <c r="R6">
+      <c r="Q8">
         <v>500</v>
       </c>
-      <c r="S6">
+      <c r="R8">
         <v>620</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" s="1" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="S8"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
+      <c r="B9" s="4">
+        <v>840</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4">
         <v>0</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="M7"/>
-      <c r="N7"/>
-      <c r="O7"/>
-      <c r="P7"/>
-      <c r="Q7"/>
-      <c r="R7"/>
-      <c r="S7"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>1</v>
-      </c>
-      <c r="B8" s="4">
-        <v>840</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4">
+      <c r="E9" s="4">
+        <v>2.94</v>
+      </c>
+      <c r="F9" s="4">
         <v>0</v>
       </c>
-      <c r="E8" s="4">
-        <v>2.94</v>
-      </c>
-      <c r="F8" s="4">
+      <c r="G9" s="6">
+        <f>1-B9/$D$3</f>
         <v>0</v>
       </c>
-      <c r="G8" s="6">
-        <f>1-B8/$C$3</f>
-        <v>5.9171597633136397E-3</v>
-      </c>
-      <c r="H8" s="12">
-        <f>G8/$D$5</f>
-        <v>3.4278718628851422E-2</v>
-      </c>
-      <c r="L8" t="s">
+      <c r="H9" s="12">
+        <f>G9/$D$5</f>
+        <v>0</v>
+      </c>
+      <c r="L9" t="s">
         <v>34</v>
       </c>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6">
-        <v>838</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6">
-        <v>114.32</v>
-      </c>
-      <c r="E9" s="6">
-        <v>197.62</v>
-      </c>
-      <c r="F9" s="6">
-        <v>200</v>
-      </c>
-      <c r="G9" s="6">
-        <f t="shared" ref="G9:G13" si="1">1-B9/$C$3</f>
-        <v>8.2840236686390067E-3</v>
-      </c>
-      <c r="H9" s="12">
-        <f t="shared" ref="H9:H13" si="2">G9/$D$5</f>
-        <v>4.7990206080391472E-2</v>
-      </c>
-      <c r="L9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="6">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6">
-        <v>191.8</v>
+        <v>114.32</v>
       </c>
       <c r="E10" s="6">
-        <v>299.12</v>
+        <v>197.62</v>
       </c>
       <c r="F10" s="6">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G10" s="6">
-        <f t="shared" si="1"/>
-        <v>9.4674556213018013E-3</v>
+        <f t="shared" ref="G10:G14" si="3">1-B10/$D$3</f>
+        <v>2.3809523809523725E-3</v>
       </c>
       <c r="H10" s="12">
-        <f t="shared" si="2"/>
-        <v>5.4845949806162142E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" ref="H10:H14" si="4">G10/$D$5</f>
+        <v>1.3793103448275808E-2</v>
+      </c>
+      <c r="L10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="6">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="C11" s="6"/>
-      <c r="D11" s="11">
-        <v>275.2</v>
-      </c>
-      <c r="E11" s="11">
-        <v>405</v>
+      <c r="D11" s="6">
+        <v>191.8</v>
+      </c>
+      <c r="E11" s="6">
+        <v>299.12</v>
       </c>
       <c r="F11" s="6">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G11" s="6">
-        <f t="shared" si="1"/>
-        <v>1.0650887573964485E-2</v>
+        <f t="shared" si="3"/>
+        <v>3.5714285714285587E-3</v>
       </c>
       <c r="H11" s="12">
-        <f t="shared" si="2"/>
-        <v>6.1701693531932167E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>2.0689655172413713E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="6">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="11">
+        <v>275.2</v>
+      </c>
+      <c r="E12" s="11">
+        <v>405</v>
+      </c>
+      <c r="F12" s="6">
+        <v>400</v>
+      </c>
+      <c r="G12" s="6">
+        <f t="shared" si="3"/>
+        <v>4.761904761904745E-3</v>
+      </c>
+      <c r="H12" s="12">
+        <f t="shared" si="4"/>
+        <v>2.7586206896551616E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="6">
+        <v>835</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="11">
         <v>355.4</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E13" s="11">
         <v>505.15</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F13" s="6">
         <v>500</v>
       </c>
-      <c r="G12" s="6">
-        <f t="shared" si="1"/>
-        <v>1.1834319526627168E-2</v>
-      </c>
-      <c r="H12" s="12">
-        <f t="shared" si="2"/>
-        <v>6.8557437257702192E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8"/>
-      <c r="B13" s="9">
+      <c r="G13" s="6">
+        <f t="shared" si="3"/>
+        <v>5.9523809523809312E-3</v>
+      </c>
+      <c r="H13" s="12">
+        <f t="shared" si="4"/>
+        <v>3.4482758620689523E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9">
         <v>834</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9">
+      <c r="C14" s="9"/>
+      <c r="D14" s="9">
         <v>447.1</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E14" s="9">
         <v>620.29</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F14" s="9">
         <v>620</v>
       </c>
-      <c r="G13" s="9">
-        <f t="shared" si="1"/>
-        <v>1.3017751479289963E-2</v>
-      </c>
-      <c r="H13" s="13">
-        <f t="shared" si="2"/>
-        <v>7.5413180983472869E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+      <c r="G14" s="9">
+        <f t="shared" si="3"/>
+        <v>7.1428571428571175E-3</v>
+      </c>
+      <c r="H14" s="13">
+        <f t="shared" si="4"/>
+        <v>4.1379310344827426E-2</v>
+      </c>
+      <c r="X14" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
         <v>2</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B15" s="4">
         <v>780</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4">
+      <c r="C15" s="4"/>
+      <c r="D15" s="4">
         <v>0</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E15" s="4">
         <v>2.94</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F15" s="4">
         <v>0</v>
       </c>
-      <c r="G14" s="6">
-        <f>1-B14/$F$3</f>
+      <c r="G15" s="6">
+        <f>1-B15/$F$3</f>
         <v>0</v>
       </c>
-      <c r="H14" s="7">
-        <f>G14/$F$5</f>
+      <c r="H15" s="7">
+        <f>G15/$F$5</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="11">
-        <v>780</v>
-      </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="11">
-        <v>139.19999999999999</v>
-      </c>
-      <c r="E15" s="11">
-        <v>196.1</v>
-      </c>
-      <c r="F15" s="6">
-        <v>200</v>
-      </c>
-      <c r="G15" s="6">
-        <f t="shared" ref="G15:G19" si="3">1-B15/$F$3</f>
-        <v>0</v>
-      </c>
-      <c r="H15" s="7">
-        <f t="shared" ref="H15:H19" si="4">G15/$F$5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="X15">
+        <v>112</v>
+      </c>
+      <c r="Y15">
+        <v>334</v>
+      </c>
+      <c r="Z15">
+        <v>0.1607142857142857</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="11">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="11">
-        <v>216</v>
+        <v>139.19999999999999</v>
       </c>
       <c r="E16" s="11">
-        <v>299.36</v>
+        <v>196.1</v>
       </c>
       <c r="F16" s="6">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G16" s="6">
-        <f t="shared" si="3"/>
-        <v>-1.2820512820512775E-3</v>
+        <f t="shared" ref="G16:G20" si="5">1-B16/$F$3</f>
+        <v>0</v>
       </c>
       <c r="H16" s="7">
-        <f t="shared" si="4"/>
-        <v>-7.5187969924811783E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" ref="H16:H20" si="6">G16/$F$5</f>
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>415</v>
+      </c>
+      <c r="Y16">
+        <v>445</v>
+      </c>
+      <c r="Z16">
+        <v>0.16626506024096388</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="11">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="11">
-        <v>299.7</v>
+        <v>216</v>
       </c>
       <c r="E17" s="11">
-        <v>405.16</v>
+        <v>299.36</v>
       </c>
       <c r="F17" s="6">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G17" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>-1.2820512820512775E-3</v>
       </c>
       <c r="H17" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>-7.5187969924811783E-3</v>
+      </c>
+      <c r="X17">
+        <v>455</v>
+      </c>
+      <c r="Y17">
+        <v>464.5</v>
+      </c>
+      <c r="Z17">
+        <v>0.15824175824175823</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="11">
         <v>780</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="11">
+        <v>299.7</v>
+      </c>
+      <c r="E18" s="11">
+        <v>405.16</v>
+      </c>
+      <c r="F18" s="6">
+        <v>400</v>
+      </c>
+      <c r="G18" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>490</v>
+      </c>
+      <c r="Y18">
+        <v>458.6</v>
+      </c>
+      <c r="Z18">
+        <v>0.18775510204081636</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" s="11">
+        <v>780</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="11">
         <v>378.1</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E19" s="11">
         <v>502.88</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F19" s="6">
         <v>500</v>
       </c>
-      <c r="G18" s="6">
-        <f t="shared" si="3"/>
+      <c r="G19" s="6">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H18" s="7">
-        <f t="shared" si="4"/>
+      <c r="H19" s="7">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="8"/>
-      <c r="B19" s="9">
+      <c r="X19">
+        <v>518</v>
+      </c>
+      <c r="Y19">
+        <v>490</v>
+      </c>
+      <c r="Z19">
+        <v>0.16602316602316602</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8"/>
+      <c r="B20" s="9">
         <v>780</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9">
+      <c r="C20" s="9"/>
+      <c r="D20" s="9">
         <v>472</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E20" s="9">
         <v>621.04999999999995</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F20" s="9">
         <v>620</v>
       </c>
-      <c r="G19" s="9">
-        <f t="shared" si="3"/>
+      <c r="G20" s="9">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H19" s="10">
-        <f t="shared" si="4"/>
+      <c r="H20" s="10">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="K19" s="1"/>
-      <c r="O19" s="1"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="K20" s="1"/>
-      <c r="O20" s="2"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
+      <c r="O20" s="1"/>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>3</v>
+      </c>
+      <c r="B21" s="4">
+        <v>709</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4">
+        <v>0</v>
+      </c>
+      <c r="E21" s="4">
+        <v>2.94</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0</v>
+      </c>
+      <c r="G21" s="6">
+        <f>1-B21/$H$3</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="7">
+        <f>G21/$H$5</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="1"/>
+      <c r="O21" s="2"/>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" s="11">
+        <v>709</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="11">
+        <v>124.21</v>
+      </c>
+      <c r="E22" s="11">
+        <v>198.37</v>
+      </c>
+      <c r="F22" s="6">
+        <v>200</v>
+      </c>
+      <c r="G22" s="6">
+        <f t="shared" ref="G22:G26" si="7">1-B22/$H$3</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="7">
+        <f t="shared" ref="H22:H38" si="8">G22/$H$5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
+      <c r="B23" s="11">
+        <v>708</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="11">
+        <v>201.4</v>
+      </c>
+      <c r="E23" s="11">
+        <v>302.14999999999998</v>
+      </c>
+      <c r="F23" s="6">
+        <v>300</v>
+      </c>
+      <c r="G23" s="6">
+        <f t="shared" si="7"/>
+        <v>1.4104372355430161E-3</v>
+      </c>
+      <c r="H23" s="7">
+        <f t="shared" si="8"/>
+        <v>8.0645161290322474E-3</v>
+      </c>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="B24" s="11">
+        <v>708</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="11">
+        <v>276.02</v>
+      </c>
+      <c r="E24" s="11">
+        <v>399.9</v>
+      </c>
+      <c r="F24" s="6">
+        <v>400</v>
+      </c>
+      <c r="G24" s="6">
+        <f t="shared" si="7"/>
+        <v>1.4104372355430161E-3</v>
+      </c>
+      <c r="H24" s="7">
+        <f t="shared" si="8"/>
+        <v>8.0645161290322474E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
+      <c r="B25" s="11">
+        <v>707</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="11">
+        <v>355.9</v>
+      </c>
+      <c r="E25" s="11">
+        <v>500</v>
+      </c>
+      <c r="F25" s="6">
+        <v>500</v>
+      </c>
+      <c r="G25" s="6">
+        <f t="shared" si="7"/>
+        <v>2.8208744710860323E-3</v>
+      </c>
+      <c r="H25" s="7">
+        <f t="shared" si="8"/>
+        <v>1.6129032258064495E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="8"/>
+      <c r="B26" s="9">
+        <v>707</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9">
+        <v>452.32</v>
+      </c>
+      <c r="E26" s="9">
+        <v>620.29</v>
+      </c>
+      <c r="F26" s="9">
+        <v>620</v>
+      </c>
+      <c r="G26" s="9">
+        <f t="shared" si="7"/>
+        <v>2.8208744710860323E-3</v>
+      </c>
+      <c r="H26" s="10">
+        <f t="shared" si="8"/>
+        <v>1.6129032258064495E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>4</v>
+      </c>
+      <c r="B27" s="4">
+        <v>571</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4">
+        <v>9</v>
+      </c>
+      <c r="E27" s="4">
+        <v>2.94</v>
+      </c>
+      <c r="F27" s="4">
+        <v>0</v>
+      </c>
+      <c r="G27" s="4">
+        <f>1-B27/$J$3</f>
+        <v>0</v>
+      </c>
+      <c r="H27" s="7">
+        <f>G27/$J$5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A28" s="5"/>
+      <c r="B28" s="11">
+        <v>571</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="11">
+        <v>136.1</v>
+      </c>
+      <c r="E28" s="11">
+        <v>199.1</v>
+      </c>
+      <c r="F28" s="6">
+        <v>200</v>
+      </c>
+      <c r="G28" s="6">
+        <f t="shared" ref="G28:G32" si="9">1-B28/$J$3</f>
+        <v>0</v>
+      </c>
+      <c r="H28" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A29" s="5"/>
+      <c r="B29" s="11">
+        <v>571</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="11">
+        <v>212.39</v>
+      </c>
+      <c r="E29" s="11">
+        <v>301.39</v>
+      </c>
+      <c r="F29" s="6">
+        <v>300</v>
+      </c>
+      <c r="G29" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H29" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A30" s="5"/>
+      <c r="B30" s="11">
+        <v>570</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="11">
+        <v>288.2</v>
+      </c>
+      <c r="E30" s="11">
+        <v>400.62</v>
+      </c>
+      <c r="F30" s="6">
+        <v>400</v>
+      </c>
+      <c r="G30" s="6">
+        <f t="shared" si="9"/>
+        <v>1.7513134851138146E-3</v>
+      </c>
+      <c r="H30" s="7">
+        <f t="shared" si="8"/>
+        <v>1.0013558556013668E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A31" s="5"/>
+      <c r="B31" s="11">
+        <v>570</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" s="11">
+        <v>366.94</v>
+      </c>
+      <c r="E31" s="11">
+        <v>501.36</v>
+      </c>
+      <c r="F31" s="6">
+        <v>500</v>
+      </c>
+      <c r="G31" s="6">
+        <f t="shared" si="9"/>
+        <v>1.7513134851138146E-3</v>
+      </c>
+      <c r="H31" s="7">
+        <f t="shared" si="8"/>
+        <v>1.0013558556013668E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="8"/>
+      <c r="B32" s="9">
+        <v>570</v>
+      </c>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9">
+        <v>461.6</v>
+      </c>
+      <c r="E32" s="9">
+        <v>621.04999999999995</v>
+      </c>
+      <c r="F32" s="9">
+        <v>620</v>
+      </c>
+      <c r="G32" s="9">
+        <f t="shared" si="9"/>
+        <v>1.7513134851138146E-3</v>
+      </c>
+      <c r="H32" s="10">
+        <f t="shared" si="8"/>
+        <v>1.0013558556013668E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>5</v>
+      </c>
+      <c r="B33" s="4">
+        <v>552</v>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="E33" s="4">
+        <v>2.94</v>
+      </c>
+      <c r="F33" s="4">
+        <v>0</v>
+      </c>
+      <c r="G33" s="6">
+        <f>1-B33/$P$3</f>
+        <v>-1.814882032667775E-3</v>
+      </c>
+      <c r="H33" s="7">
+        <f>G33/$P$5</f>
+        <v>-1.0416666666666083E-2</v>
+      </c>
+      <c r="I33" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="5"/>
+      <c r="B34" s="11">
+        <v>551</v>
+      </c>
+      <c r="C34" s="6"/>
+      <c r="D34" s="11">
+        <v>129.26</v>
+      </c>
+      <c r="E34" s="11">
+        <v>201.4</v>
+      </c>
+      <c r="F34" s="6">
+        <v>200</v>
+      </c>
+      <c r="G34" s="6">
+        <f t="shared" ref="G34:G38" si="10">1-B34/$P$3</f>
+        <v>0</v>
+      </c>
+      <c r="H34" s="7">
+        <f t="shared" ref="H34:H44" si="11">G34/$P$5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="5"/>
+      <c r="B35" s="11">
+        <v>551</v>
+      </c>
+      <c r="C35" s="6"/>
+      <c r="D35" s="11">
+        <v>201.3</v>
+      </c>
+      <c r="E35" s="11">
+        <v>297.60000000000002</v>
+      </c>
+      <c r="F35" s="6">
+        <v>300</v>
+      </c>
+      <c r="G35" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H35" s="7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="5"/>
+      <c r="B36" s="11">
+        <v>550</v>
+      </c>
+      <c r="C36" s="6"/>
+      <c r="D36" s="11">
+        <v>282.33999999999997</v>
+      </c>
+      <c r="E36" s="11">
+        <v>402.89</v>
+      </c>
+      <c r="F36" s="6">
+        <v>400</v>
+      </c>
+      <c r="G36" s="6">
+        <f t="shared" si="10"/>
+        <v>1.8148820326678861E-3</v>
+      </c>
+      <c r="H36" s="7">
+        <f t="shared" si="11"/>
+        <v>1.041666666666672E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="5"/>
+      <c r="B37" s="11">
+        <v>550</v>
+      </c>
+      <c r="C37" s="6"/>
+      <c r="D37" s="11">
+        <v>360.24</v>
+      </c>
+      <c r="E37" s="11">
+        <v>502.88</v>
+      </c>
+      <c r="F37" s="6">
+        <v>500</v>
+      </c>
+      <c r="G37" s="6">
+        <f t="shared" si="10"/>
+        <v>1.8148820326678861E-3</v>
+      </c>
+      <c r="H37" s="7">
+        <f t="shared" si="11"/>
+        <v>1.041666666666672E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="8"/>
+      <c r="B38" s="9">
+        <v>549</v>
+      </c>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9">
+        <v>453.14</v>
+      </c>
+      <c r="E38" s="9">
+        <v>619.53</v>
+      </c>
+      <c r="F38" s="9">
+        <v>620</v>
+      </c>
+      <c r="G38" s="9">
+        <f t="shared" si="10"/>
+        <v>3.6297640653357721E-3</v>
+      </c>
+      <c r="H38" s="10">
+        <f t="shared" si="11"/>
+        <v>2.083333333333344E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>6</v>
+      </c>
+      <c r="B39" s="4">
+        <v>362</v>
+      </c>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="E39" s="4">
+        <v>2.94</v>
+      </c>
+      <c r="F39" s="4">
+        <v>0</v>
+      </c>
+      <c r="G39" s="6">
+        <f>1-B39/$Q$3</f>
+        <v>-2.7700831024930483E-3</v>
+      </c>
+      <c r="H39" s="7">
+        <f>G39/$Q$5</f>
+        <v>-1.612903225806436E-2</v>
+      </c>
+      <c r="I39" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="5"/>
+      <c r="B40" s="11">
+        <v>361</v>
+      </c>
+      <c r="C40" s="6"/>
+      <c r="D40" s="11">
+        <v>121.5</v>
+      </c>
+      <c r="E40" s="11">
+        <v>199.89</v>
+      </c>
+      <c r="F40" s="6">
+        <v>200</v>
+      </c>
+      <c r="G40" s="6">
+        <f t="shared" ref="G40:G44" si="12">1-B40/$Q$3</f>
+        <v>0</v>
+      </c>
+      <c r="H40" s="7">
+        <f t="shared" ref="H40:H50" si="13">G40/$Q$5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="5"/>
+      <c r="B41" s="11">
+        <v>361</v>
+      </c>
+      <c r="C41" s="6"/>
+      <c r="D41" s="11">
+        <v>192.91</v>
+      </c>
+      <c r="E41" s="11">
+        <v>298.36</v>
+      </c>
+      <c r="F41" s="6">
+        <v>300</v>
+      </c>
+      <c r="G41" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H41" s="7">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="5"/>
+      <c r="B42" s="11">
+        <v>361</v>
+      </c>
+      <c r="C42" s="6"/>
+      <c r="D42" s="11">
+        <v>269</v>
+      </c>
+      <c r="E42" s="11">
+        <v>400</v>
+      </c>
+      <c r="F42" s="6">
+        <v>400</v>
+      </c>
+      <c r="G42" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H42" s="7">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="5"/>
+      <c r="B43" s="11">
+        <v>361</v>
+      </c>
+      <c r="C43" s="6"/>
+      <c r="D43" s="11">
+        <v>344.5</v>
+      </c>
+      <c r="E43" s="11">
+        <v>500</v>
+      </c>
+      <c r="F43" s="6">
+        <v>500</v>
+      </c>
+      <c r="G43" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H43" s="7">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="8"/>
+      <c r="B44" s="9">
+        <v>360</v>
+      </c>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9">
+        <v>436.4</v>
+      </c>
+      <c r="E44" s="9">
+        <v>620</v>
+      </c>
+      <c r="F44" s="9">
+        <v>620</v>
+      </c>
+      <c r="G44" s="9">
+        <f t="shared" si="12"/>
+        <v>2.7700831024930483E-3</v>
+      </c>
+      <c r="H44" s="10">
+        <f t="shared" si="13"/>
+        <v>1.612903225806436E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>7</v>
+      </c>
+      <c r="B45" s="4">
+        <v>54</v>
+      </c>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E45" s="4">
+        <v>2.94</v>
+      </c>
+      <c r="F45" s="4">
+        <v>0</v>
+      </c>
+      <c r="G45" s="4">
+        <f>1-B45/$R$3</f>
+        <v>0</v>
+      </c>
+      <c r="H45" s="15">
+        <f>G45/$R$5</f>
+        <v>0</v>
+      </c>
+      <c r="I45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="5"/>
+      <c r="B46" s="11">
+        <v>54</v>
+      </c>
+      <c r="C46" s="6"/>
+      <c r="D46" s="11">
+        <v>56.1</v>
+      </c>
+      <c r="E46" s="11">
+        <v>198.37</v>
+      </c>
+      <c r="F46" s="6">
+        <v>200</v>
+      </c>
+      <c r="G46" s="6">
+        <f t="shared" ref="G46:G51" si="14">1-B46/$R$3</f>
+        <v>0</v>
+      </c>
+      <c r="H46" s="7">
+        <f t="shared" ref="H46:H51" si="15">G46/$R$5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="5"/>
+      <c r="B47" s="11">
+        <v>54</v>
+      </c>
+      <c r="C47" s="6"/>
+      <c r="D47" s="11">
+        <v>103.37</v>
+      </c>
+      <c r="E47" s="11">
+        <v>299.12</v>
+      </c>
+      <c r="F47" s="6">
+        <v>300</v>
+      </c>
+      <c r="G47" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H47" s="7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="5"/>
+      <c r="B48" s="11">
+        <v>54</v>
+      </c>
+      <c r="C48" s="6"/>
+      <c r="D48" s="11">
+        <v>155.44999999999999</v>
+      </c>
+      <c r="E48" s="11">
+        <v>403.65</v>
+      </c>
+      <c r="F48" s="6">
+        <v>400</v>
+      </c>
+      <c r="G48" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H48" s="7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="5"/>
+      <c r="B49" s="11">
+        <v>54</v>
+      </c>
+      <c r="C49" s="6"/>
+      <c r="D49" s="11">
+        <v>207</v>
+      </c>
+      <c r="E49" s="11">
+        <v>504.39</v>
+      </c>
+      <c r="F49" s="6">
+        <v>500</v>
+      </c>
+      <c r="G49" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H49" s="7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="8"/>
+      <c r="B50" s="9">
+        <v>54</v>
+      </c>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9">
+        <v>266.5</v>
+      </c>
+      <c r="E50" s="9">
+        <v>619</v>
+      </c>
+      <c r="F50" s="9">
+        <v>620</v>
+      </c>
+      <c r="G50" s="9">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H50" s="10">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>8</v>
+      </c>
+      <c r="B51" s="23">
+        <v>27</v>
+      </c>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4">
+        <v>5.28</v>
+      </c>
+      <c r="E51" s="4">
+        <v>2.94</v>
+      </c>
+      <c r="F51" s="23">
+        <v>0</v>
+      </c>
+      <c r="G51" s="23">
+        <f>1-B51/$S$3</f>
+        <v>0</v>
+      </c>
+      <c r="H51" s="24">
+        <f>G51/$S$5</f>
+        <v>0</v>
+      </c>
+      <c r="I51" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="8"/>
+      <c r="B52" s="9">
+        <v>27</v>
+      </c>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9">
+        <v>135.32</v>
+      </c>
+      <c r="E52" s="9">
+        <v>619.53</v>
+      </c>
+      <c r="F52" s="25">
+        <v>620</v>
+      </c>
+      <c r="G52" s="25">
+        <f t="shared" ref="G52:G58" si="16">1-B52/$S$3</f>
+        <v>0</v>
+      </c>
+      <c r="H52" s="26">
+        <f t="shared" ref="H52:H58" si="17">G52/$S$5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>9</v>
+      </c>
+      <c r="B53" s="23">
+        <v>61</v>
+      </c>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4">
+        <v>4</v>
+      </c>
+      <c r="E53" s="23">
+        <v>2.94</v>
+      </c>
+      <c r="F53" s="4">
+        <v>0</v>
+      </c>
+      <c r="G53" s="23">
+        <f>1-B53/$T$3</f>
+        <v>0.11594202898550721</v>
+      </c>
+      <c r="H53" s="24">
+        <f>G53/$T$5</f>
+        <v>0.72727272727272685</v>
+      </c>
+      <c r="I53" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="8"/>
+      <c r="B54" s="25">
+        <v>61</v>
+      </c>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9">
+        <v>271.48</v>
+      </c>
+      <c r="E54" s="9">
+        <v>621.79999999999995</v>
+      </c>
+      <c r="F54" s="9">
+        <v>620</v>
+      </c>
+      <c r="G54" s="25">
+        <f t="shared" si="16"/>
+        <v>-1.2592592592592591</v>
+      </c>
+      <c r="H54" s="26">
+        <f t="shared" si="17"/>
+        <v>-8.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>10</v>
+      </c>
+      <c r="B55" s="4">
+        <v>275</v>
+      </c>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4">
+        <v>3</v>
+      </c>
+      <c r="E55" s="4">
+        <v>2.94</v>
+      </c>
+      <c r="F55" s="4">
+        <v>0</v>
+      </c>
+      <c r="G55" s="23">
+        <f>1-B55/$U$3</f>
+        <v>0</v>
+      </c>
+      <c r="H55" s="24">
+        <f>G55/$U$5</f>
+        <v>0</v>
+      </c>
+      <c r="I55" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="8"/>
+      <c r="B56" s="9">
+        <v>273</v>
+      </c>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9">
+        <v>412.3</v>
+      </c>
+      <c r="E56" s="9">
+        <v>619</v>
+      </c>
+      <c r="F56" s="9">
+        <v>620</v>
+      </c>
+      <c r="G56" s="25">
+        <f>1-B56/$U$3</f>
+        <v>7.2727272727273196E-3</v>
+      </c>
+      <c r="H56" s="26">
+        <f>G56/$U$5</f>
+        <v>4.2553191489361979E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>11</v>
+      </c>
+      <c r="B57" s="4">
+        <v>151</v>
+      </c>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4">
+        <v>5</v>
+      </c>
+      <c r="E57" s="4">
+        <v>3</v>
+      </c>
+      <c r="F57" s="4">
+        <v>0</v>
+      </c>
+      <c r="G57" s="23">
+        <f>1-B57/$V$3</f>
+        <v>0</v>
+      </c>
+      <c r="H57" s="24">
+        <f>G57/$V$5</f>
+        <v>0</v>
+      </c>
+      <c r="I57" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="8"/>
+      <c r="B58" s="9">
+        <v>149</v>
+      </c>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9">
+        <v>347.11</v>
+      </c>
+      <c r="E58" s="9">
+        <v>619.53</v>
+      </c>
+      <c r="F58" s="9">
+        <v>620</v>
+      </c>
+      <c r="G58" s="25">
+        <f>1-B58/$V$3</f>
+        <v>1.3245033112582738E-2</v>
+      </c>
+      <c r="H58" s="26">
+        <f>G58/$V$5</f>
+        <v>8.6956521739130155E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>12</v>
+      </c>
+      <c r="B59" s="4">
+        <v>194</v>
+      </c>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="E59" s="4">
+        <v>2.94</v>
+      </c>
+      <c r="F59" s="4">
+        <v>0</v>
+      </c>
+      <c r="G59" s="23">
+        <f>1-B59/$W$3</f>
+        <v>-5.1813471502590858E-3</v>
+      </c>
+      <c r="H59" s="24">
+        <f>G59/$W$5</f>
+        <v>-3.1250000000000104E-2</v>
+      </c>
+      <c r="I59" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="8"/>
+      <c r="B60" s="9">
+        <v>193</v>
+      </c>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9">
+        <v>396.17</v>
+      </c>
+      <c r="E60" s="9">
+        <v>618.77</v>
+      </c>
+      <c r="F60" s="9">
+        <v>620</v>
+      </c>
+      <c r="G60" s="25">
+        <f>1-B60/$W$3</f>
+        <v>0</v>
+      </c>
+      <c r="H60" s="26">
+        <f>G60/$W$5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="3"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="23"/>
+      <c r="H61" s="24"/>
+    </row>
+    <row r="62" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="8"/>
+      <c r="B62" s="9"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="25"/>
+      <c r="H62" s="26"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="3"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="23"/>
+      <c r="H63" s="24"/>
+    </row>
+    <row r="64" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="8"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="25"/>
+      <c r="H64" s="26"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/Testing_Data/StraightForceTest.xlsx
+++ b/Testing_Data/StraightForceTest.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Bipedal_Robot\Testing_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF11DBC0-7303-43C8-966F-40BD2E875E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E898D191-3362-4FEB-A6F0-A15376E5A468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{CE45C211-BD3F-4CC7-8CF8-DB47A93DE884}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="49">
   <si>
     <t>Force (lbs)</t>
   </si>
@@ -3615,10 +3615,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>'Fmax(L)'!$C$3:$W$3</c:f>
+              <c:f>'Fmax(L)'!$C$3:$X$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>845</c:v>
                 </c:pt>
@@ -3681,16 +3681,19 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Fmax(L)'!$C$6:$W$6</c:f>
+              <c:f>'Fmax(L)'!$C$6:$X$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>447.1</c:v>
                 </c:pt>
@@ -3753,6 +3756,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>396.17</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.3000000000000007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4017,10 +4023,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Fmax(L)'!$C$3:$W$3</c:f>
+              <c:f>'Fmax(L)'!$C$3:$X$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>845</c:v>
                 </c:pt>
@@ -4083,16 +4089,19 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Fmax(L)'!$C$5:$W$5</c:f>
+              <c:f>'Fmax(L)'!$C$5:$X$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0.17159763313609466</c:v>
                 </c:pt>
@@ -4155,6 +4164,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0.16580310880829019</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.9999999999999978E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11152,8 +11164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57CFFEA6-F038-4ADE-B4DB-050B0246E0CF}">
   <dimension ref="A1:Z64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11219,6 +11231,9 @@
       <c r="W1" s="21">
         <v>12</v>
       </c>
+      <c r="X1" s="21">
+        <v>12</v>
+      </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C2" s="5" t="s">
@@ -11256,10 +11271,27 @@
       <c r="Q2" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="V2" s="18"/>
-      <c r="W2" s="18"/>
+      <c r="R2" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="S2" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="T2" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="U2" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="V2" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="W2" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="X2" s="18" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="3" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
@@ -11327,6 +11359,9 @@
       </c>
       <c r="W3" s="20">
         <v>193</v>
+      </c>
+      <c r="X3" s="20">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="30" x14ac:dyDescent="0.25">
@@ -11386,6 +11421,9 @@
       <c r="W4" s="20">
         <v>161</v>
       </c>
+      <c r="X4" s="20">
+        <v>9</v>
+      </c>
     </row>
     <row r="5" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
@@ -11470,6 +11508,10 @@
         <f t="shared" si="2"/>
         <v>0.16580310880829019</v>
       </c>
+      <c r="X5" s="19">
+        <f t="shared" ref="X5" si="3">1-X4/X3</f>
+        <v>9.9999999999999978E-2</v>
+      </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
@@ -11538,6 +11580,9 @@
       <c r="W6" s="20">
         <v>396.17</v>
       </c>
+      <c r="X6" s="20">
+        <v>8.3000000000000007</v>
+      </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
@@ -11604,6 +11649,9 @@
         <v>48</v>
       </c>
       <c r="W7" t="s">
+        <v>46</v>
+      </c>
+      <c r="X7" t="s">
         <v>46</v>
       </c>
     </row>
@@ -11707,11 +11755,11 @@
         <v>200</v>
       </c>
       <c r="G10" s="6">
-        <f t="shared" ref="G10:G14" si="3">1-B10/$D$3</f>
+        <f t="shared" ref="G10:G14" si="4">1-B10/$D$3</f>
         <v>2.3809523809523725E-3</v>
       </c>
       <c r="H10" s="12">
-        <f t="shared" ref="H10:H14" si="4">G10/$D$5</f>
+        <f t="shared" ref="H10:H14" si="5">G10/$D$5</f>
         <v>1.3793103448275808E-2</v>
       </c>
       <c r="L10" t="s">
@@ -11734,11 +11782,11 @@
         <v>300</v>
       </c>
       <c r="G11" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.5714285714285587E-3</v>
       </c>
       <c r="H11" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.0689655172413713E-2</v>
       </c>
     </row>
@@ -11758,11 +11806,11 @@
         <v>400</v>
       </c>
       <c r="G12" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.761904761904745E-3</v>
       </c>
       <c r="H12" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.7586206896551616E-2</v>
       </c>
     </row>
@@ -11782,11 +11830,11 @@
         <v>500</v>
       </c>
       <c r="G13" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.9523809523809312E-3</v>
       </c>
       <c r="H13" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.4482758620689523E-2</v>
       </c>
     </row>
@@ -11806,11 +11854,11 @@
         <v>620</v>
       </c>
       <c r="G14" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.1428571428571175E-3</v>
       </c>
       <c r="H14" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.1379310344827426E-2</v>
       </c>
       <c r="X14" t="s">
@@ -11874,11 +11922,11 @@
         <v>200</v>
       </c>
       <c r="G16" s="6">
-        <f t="shared" ref="G16:G20" si="5">1-B16/$F$3</f>
+        <f t="shared" ref="G16:G20" si="6">1-B16/$F$3</f>
         <v>0</v>
       </c>
       <c r="H16" s="7">
-        <f t="shared" ref="H16:H20" si="6">G16/$F$5</f>
+        <f t="shared" ref="H16:H20" si="7">G16/$F$5</f>
         <v>0</v>
       </c>
       <c r="X16">
@@ -11907,11 +11955,11 @@
         <v>300</v>
       </c>
       <c r="G17" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-1.2820512820512775E-3</v>
       </c>
       <c r="H17" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-7.5187969924811783E-3</v>
       </c>
       <c r="X17">
@@ -11940,11 +11988,11 @@
         <v>400</v>
       </c>
       <c r="G18" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H18" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X18">
@@ -11973,11 +12021,11 @@
         <v>500</v>
       </c>
       <c r="G19" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H19" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X19">
@@ -12006,11 +12054,11 @@
         <v>620</v>
       </c>
       <c r="G20" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H20" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K20" s="1"/>
@@ -12060,11 +12108,11 @@
         <v>200</v>
       </c>
       <c r="G22" s="6">
-        <f t="shared" ref="G22:G26" si="7">1-B22/$H$3</f>
+        <f t="shared" ref="G22:G26" si="8">1-B22/$H$3</f>
         <v>0</v>
       </c>
       <c r="H22" s="7">
-        <f t="shared" ref="H22:H38" si="8">G22/$H$5</f>
+        <f t="shared" ref="H22:H32" si="9">G22/$H$5</f>
         <v>0</v>
       </c>
     </row>
@@ -12084,11 +12132,11 @@
         <v>300</v>
       </c>
       <c r="G23" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.4104372355430161E-3</v>
       </c>
       <c r="H23" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8.0645161290322474E-3</v>
       </c>
       <c r="K23" s="1"/>
@@ -12117,11 +12165,11 @@
         <v>400</v>
       </c>
       <c r="G24" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.4104372355430161E-3</v>
       </c>
       <c r="H24" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8.0645161290322474E-3</v>
       </c>
     </row>
@@ -12141,11 +12189,11 @@
         <v>500</v>
       </c>
       <c r="G25" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.8208744710860323E-3</v>
       </c>
       <c r="H25" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.6129032258064495E-2</v>
       </c>
     </row>
@@ -12165,11 +12213,11 @@
         <v>620</v>
       </c>
       <c r="G26" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.8208744710860323E-3</v>
       </c>
       <c r="H26" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.6129032258064495E-2</v>
       </c>
     </row>
@@ -12215,11 +12263,11 @@
         <v>200</v>
       </c>
       <c r="G28" s="6">
-        <f t="shared" ref="G28:G32" si="9">1-B28/$J$3</f>
+        <f t="shared" ref="G28:G32" si="10">1-B28/$J$3</f>
         <v>0</v>
       </c>
       <c r="H28" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -12239,11 +12287,11 @@
         <v>300</v>
       </c>
       <c r="G29" s="6">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H29" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="H29" s="7">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -12263,11 +12311,11 @@
         <v>400</v>
       </c>
       <c r="G30" s="6">
+        <f t="shared" si="10"/>
+        <v>1.7513134851138146E-3</v>
+      </c>
+      <c r="H30" s="7">
         <f t="shared" si="9"/>
-        <v>1.7513134851138146E-3</v>
-      </c>
-      <c r="H30" s="7">
-        <f t="shared" si="8"/>
         <v>1.0013558556013668E-2</v>
       </c>
     </row>
@@ -12287,11 +12335,11 @@
         <v>500</v>
       </c>
       <c r="G31" s="6">
+        <f t="shared" si="10"/>
+        <v>1.7513134851138146E-3</v>
+      </c>
+      <c r="H31" s="7">
         <f t="shared" si="9"/>
-        <v>1.7513134851138146E-3</v>
-      </c>
-      <c r="H31" s="7">
-        <f t="shared" si="8"/>
         <v>1.0013558556013668E-2</v>
       </c>
     </row>
@@ -12311,11 +12359,11 @@
         <v>620</v>
       </c>
       <c r="G32" s="9">
+        <f t="shared" si="10"/>
+        <v>1.7513134851138146E-3</v>
+      </c>
+      <c r="H32" s="10">
         <f t="shared" si="9"/>
-        <v>1.7513134851138146E-3</v>
-      </c>
-      <c r="H32" s="10">
-        <f t="shared" si="8"/>
         <v>1.0013558556013668E-2</v>
       </c>
     </row>
@@ -12364,11 +12412,11 @@
         <v>200</v>
       </c>
       <c r="G34" s="6">
-        <f t="shared" ref="G34:G38" si="10">1-B34/$P$3</f>
+        <f t="shared" ref="G34:G38" si="11">1-B34/$P$3</f>
         <v>0</v>
       </c>
       <c r="H34" s="7">
-        <f t="shared" ref="H34:H44" si="11">G34/$P$5</f>
+        <f t="shared" ref="H34:H38" si="12">G34/$P$5</f>
         <v>0</v>
       </c>
     </row>
@@ -12388,11 +12436,11 @@
         <v>300</v>
       </c>
       <c r="G35" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="H35" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -12412,11 +12460,11 @@
         <v>400</v>
       </c>
       <c r="G36" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.8148820326678861E-3</v>
       </c>
       <c r="H36" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.041666666666672E-2</v>
       </c>
     </row>
@@ -12436,11 +12484,11 @@
         <v>500</v>
       </c>
       <c r="G37" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.8148820326678861E-3</v>
       </c>
       <c r="H37" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.041666666666672E-2</v>
       </c>
     </row>
@@ -12460,11 +12508,11 @@
         <v>620</v>
       </c>
       <c r="G38" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3.6297640653357721E-3</v>
       </c>
       <c r="H38" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.083333333333344E-2</v>
       </c>
     </row>
@@ -12513,11 +12561,11 @@
         <v>200</v>
       </c>
       <c r="G40" s="6">
-        <f t="shared" ref="G40:G44" si="12">1-B40/$Q$3</f>
+        <f t="shared" ref="G40:G44" si="13">1-B40/$Q$3</f>
         <v>0</v>
       </c>
       <c r="H40" s="7">
-        <f t="shared" ref="H40:H50" si="13">G40/$Q$5</f>
+        <f t="shared" ref="H40:H44" si="14">G40/$Q$5</f>
         <v>0</v>
       </c>
     </row>
@@ -12537,11 +12585,11 @@
         <v>300</v>
       </c>
       <c r="G41" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H41" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -12561,11 +12609,11 @@
         <v>400</v>
       </c>
       <c r="G42" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H42" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -12585,11 +12633,11 @@
         <v>500</v>
       </c>
       <c r="G43" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H43" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -12609,11 +12657,11 @@
         <v>620</v>
       </c>
       <c r="G44" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2.7700831024930483E-3</v>
       </c>
       <c r="H44" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.612903225806436E-2</v>
       </c>
     </row>
@@ -12662,11 +12710,11 @@
         <v>200</v>
       </c>
       <c r="G46" s="6">
-        <f t="shared" ref="G46:G51" si="14">1-B46/$R$3</f>
+        <f t="shared" ref="G46:G50" si="15">1-B46/$R$3</f>
         <v>0</v>
       </c>
       <c r="H46" s="7">
-        <f t="shared" ref="H46:H51" si="15">G46/$R$5</f>
+        <f t="shared" ref="H46:H50" si="16">G46/$R$5</f>
         <v>0</v>
       </c>
     </row>
@@ -12686,11 +12734,11 @@
         <v>300</v>
       </c>
       <c r="G47" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H47" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -12710,11 +12758,11 @@
         <v>400</v>
       </c>
       <c r="G48" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H48" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -12734,11 +12782,11 @@
         <v>500</v>
       </c>
       <c r="G49" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H49" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -12758,11 +12806,11 @@
         <v>620</v>
       </c>
       <c r="G50" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H50" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -12811,11 +12859,11 @@
         <v>620</v>
       </c>
       <c r="G52" s="25">
-        <f t="shared" ref="G52:G58" si="16">1-B52/$S$3</f>
+        <f t="shared" ref="G52:G54" si="17">1-B52/$S$3</f>
         <v>0</v>
       </c>
       <c r="H52" s="26">
-        <f t="shared" ref="H52:H58" si="17">G52/$S$5</f>
+        <f t="shared" ref="H52:H54" si="18">G52/$S$5</f>
         <v>0</v>
       </c>
     </row>
@@ -12864,11 +12912,11 @@
         <v>620</v>
       </c>
       <c r="G54" s="25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-1.2592592592592591</v>
       </c>
       <c r="H54" s="26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-8.5</v>
       </c>
     </row>
@@ -13031,25 +13079,55 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="3"/>
-      <c r="B61" s="4"/>
+    <row r="61" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="3">
+        <v>13</v>
+      </c>
+      <c r="B61" s="4">
+        <v>10</v>
+      </c>
       <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="23"/>
-      <c r="H61" s="24"/>
+      <c r="D61" s="4">
+        <v>0</v>
+      </c>
+      <c r="E61" s="4">
+        <v>0</v>
+      </c>
+      <c r="F61" s="4">
+        <v>0</v>
+      </c>
+      <c r="G61" s="25">
+        <f>1-B61/$X$3</f>
+        <v>0</v>
+      </c>
+      <c r="H61" s="26">
+        <f>G61/$X$5</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="62" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="8"/>
-      <c r="B62" s="9"/>
+      <c r="B62" s="9">
+        <v>10</v>
+      </c>
       <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="9"/>
-      <c r="G62" s="25"/>
-      <c r="H62" s="26"/>
+      <c r="D62" s="9">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E62" s="9">
+        <v>620</v>
+      </c>
+      <c r="F62" s="9">
+        <v>620</v>
+      </c>
+      <c r="G62" s="25">
+        <f>1-B62/$X$3</f>
+        <v>0</v>
+      </c>
+      <c r="H62" s="26">
+        <f>G62/$X$5</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>

--- a/Testing_Data/StraightForceTest.xlsx
+++ b/Testing_Data/StraightForceTest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Bipedal_Robot\Testing_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E898D191-3362-4FEB-A6F0-A15376E5A468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C06D40AA-B3B9-43A9-950E-084EC9204F17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{CE45C211-BD3F-4CC7-8CF8-DB47A93DE884}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{CE45C211-BD3F-4CC7-8CF8-DB47A93DE884}"/>
   </bookViews>
   <sheets>
     <sheet name="11.2 cm, no T" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="48">
   <si>
     <t>Force (lbs)</t>
   </si>
@@ -106,31 +106,16 @@
     <t>Bicycle brake cable</t>
   </si>
   <si>
-    <t>*14.6 lbs pretension, 458 mm before inflation (i.e. stretched</t>
-  </si>
-  <si>
     <t>*Had to switch from Matlab app to Arduino "calibration factor" sketch</t>
   </si>
   <si>
     <t>*free hanging</t>
   </si>
   <si>
-    <t>*17 N pretension, part broke</t>
-  </si>
-  <si>
-    <t>*11.23 N pretension</t>
-  </si>
-  <si>
     <t>*horizontal</t>
   </si>
   <si>
     <t>*pushed, slight bend in BPA, recorded distance is vertical (not path length)</t>
-  </si>
-  <si>
-    <t>*15.6 N pretension</t>
-  </si>
-  <si>
-    <t>*89 N pretension</t>
   </si>
   <si>
     <t>muscle</t>
@@ -185,6 +170,18 @@
   </si>
   <si>
     <t>E31</t>
+  </si>
+  <si>
+    <t>*89 N pretension , 518 N measured</t>
+  </si>
+  <si>
+    <t>*15.6 N pretension, 443.2 N measured</t>
+  </si>
+  <si>
+    <t>*17 N pretension, part broke, 433 N measured</t>
+  </si>
+  <si>
+    <t>*11.23 N pretension, 320 N measured</t>
   </si>
 </sst>
 </file>
@@ -540,6 +537,12 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="7.5540682414698163E-2"/>
+                  <c:y val="-0.44366542723826191"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -1274,6 +1277,56 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.15700721784776903"/>
+                  <c:y val="-0.59419135752360852"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1">
+                          <a:lumMod val="75000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>'41.5 cm'!$F$6:$F$12</c:f>
@@ -1366,6 +1419,56 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.19381233595800526"/>
+                  <c:y val="-0.50193684552317563"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:srgbClr val="FF0000"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>'41.5 cm'!$N$6:$N$16</c:f>
@@ -1485,6 +1588,57 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.14867388451443569"/>
+                  <c:y val="-0.39179749438536676"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>'41.5 cm'!$N$23:$N$30</c:f>
@@ -1821,8 +1975,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.9247594050743664E-2"/>
-          <c:y val="0.14463917525773196"/>
+          <c:x val="9.3136482939632531E-2"/>
+          <c:y val="0.11663767775296745"/>
           <c:w val="0.87437751531058616"/>
           <c:h val="0.79282382227994697"/>
         </c:manualLayout>
@@ -1908,10 +2062,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'45.5 cm'!$F$6:$F$23</c:f>
+              <c:f>'45.5 cm'!$F$6:$F$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>1.0416666666666665</c:v>
                 </c:pt>
@@ -1955,15 +2109,12 @@
                   <c:v>5.5555555555555358E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-4.1666666666666519E-2</c:v>
+                  <c:v>0.13888888888888912</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.13888888888888912</c:v>
+                  <c:v>0.29166666666666635</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.29166666666666635</c:v>
-                </c:pt>
-                <c:pt idx="17">
                   <c:v>0.47222222222222199</c:v>
                 </c:pt>
               </c:numCache>
@@ -1971,10 +2122,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'45.5 cm'!$C$6:$C$23</c:f>
+              <c:f>'45.5 cm'!$C$6:$C$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>26</c:v>
                 </c:pt>
@@ -2018,15 +2169,12 @@
                   <c:v>408.34674288000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>504.42832944000003</c:v>
+                  <c:v>335.39590864000002</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>335.39590864000002</c:v>
+                  <c:v>257.9968528</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>257.9968528</c:v>
-                </c:pt>
-                <c:pt idx="17">
                   <c:v>203.28372712000001</c:v>
                 </c:pt>
               </c:numCache>
@@ -2122,7 +2270,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'45.5 cm'!$N$23:$N$30</c:f>
+              <c:f>'45.5 cm'!$N$22:$N$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2131,7 +2279,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'45.5 cm'!$K$23:$K$30</c:f>
+              <c:f>'45.5 cm'!$K$22:$K$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2578,10 +2726,10 @@
                   <c:v>464</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>433</c:v>
+                  <c:v>416</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>320</c:v>
+                  <c:v>308.77</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>356</c:v>
@@ -3183,7 +3331,7 @@
                   <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>443.2</c:v>
+                  <c:v>427.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>347</c:v>
@@ -3231,7 +3379,7 @@
                   <c:v>278</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>518</c:v>
+                  <c:v>429</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3722,16 +3870,16 @@
                   <c:v>334</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>445</c:v>
+                  <c:v>444.82220000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>464.5</c:v>
+                  <c:v>460</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>458.6</c:v>
+                  <c:v>451.38</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>490</c:v>
+                  <c:v>455.83</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>453.14</c:v>
@@ -7805,7 +7953,7 @@
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>4762</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -7840,16 +7988,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:rowOff>176212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:rowOff>61912</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8303,7 +8451,7 @@
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E1"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8319,10 +8467,10 @@
         <v>112</v>
       </c>
       <c r="D1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="30" x14ac:dyDescent="0.25">
@@ -8512,8 +8660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0289F67D-1B36-4222-87CA-07D1B890BA50}">
   <dimension ref="A1:U30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8533,10 +8681,10 @@
         <v>415</v>
       </c>
       <c r="D1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>5</v>
@@ -9504,10 +9652,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{050AE67D-A238-4925-A0DE-87F77397D646}">
-  <dimension ref="A1:Q23"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9528,10 +9676,10 @@
         <v>455</v>
       </c>
       <c r="D1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I1" s="1"/>
       <c r="M1" s="1"/>
@@ -9610,11 +9758,11 @@
         <v>620</v>
       </c>
       <c r="E7">
-        <f t="shared" ref="E7:E23" si="0">1-A7/$B$1</f>
+        <f t="shared" ref="E7:E22" si="0">1-A7/$B$1</f>
         <v>0.15164835164835166</v>
       </c>
       <c r="F7">
-        <f t="shared" ref="F7:F23" si="1">E7/$B$3</f>
+        <f t="shared" ref="F7:F22" si="1">E7/$B$3</f>
         <v>0.95833333333333348</v>
       </c>
     </row>
@@ -9739,7 +9887,7 @@
         <v>665</v>
       </c>
       <c r="H13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -9750,7 +9898,7 @@
         <v>58.9</v>
       </c>
       <c r="C14">
-        <f t="shared" ref="C14:C23" si="2">B14*4.4482216</f>
+        <f t="shared" ref="C14:C22" si="2">B14*4.4482216</f>
         <v>262.00025224000001</v>
       </c>
       <c r="D14">
@@ -9904,120 +10052,95 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="B20">
-        <v>113.4</v>
+        <v>75.400000000000006</v>
       </c>
       <c r="C20">
         <f t="shared" si="2"/>
-        <v>504.42832944000003</v>
+        <v>335.39590864000002</v>
       </c>
       <c r="D20">
         <v>620</v>
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
-        <v>-6.59340659340657E-3</v>
+        <v>2.1978021978022011E-2</v>
       </c>
       <c r="F20">
         <f t="shared" si="1"/>
-        <v>-4.1666666666666519E-2</v>
+        <v>0.13888888888888912</v>
       </c>
       <c r="G20">
-        <v>706</v>
-      </c>
-      <c r="H20" t="s">
-        <v>22</v>
-      </c>
-      <c r="I20" s="1"/>
-      <c r="M20" s="2"/>
+        <v>692</v>
+      </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="B21">
-        <v>75.400000000000006</v>
+        <v>58</v>
       </c>
       <c r="C21">
         <f t="shared" si="2"/>
-        <v>335.39590864000002</v>
+        <v>257.9968528</v>
       </c>
       <c r="D21">
         <v>620</v>
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
-        <v>2.1978021978022011E-2</v>
+        <v>4.6153846153846101E-2</v>
       </c>
       <c r="F21">
         <f t="shared" si="1"/>
-        <v>0.13888888888888912</v>
+        <v>0.29166666666666635</v>
       </c>
       <c r="G21">
-        <v>692</v>
-      </c>
+        <v>681</v>
+      </c>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="B22">
-        <v>58</v>
+        <v>45.7</v>
       </c>
       <c r="C22">
         <f t="shared" si="2"/>
-        <v>257.9968528</v>
+        <v>203.28372712000001</v>
       </c>
       <c r="D22">
         <v>620</v>
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
-        <v>4.6153846153846101E-2</v>
+        <v>7.4725274725274682E-2</v>
       </c>
       <c r="F22">
         <f t="shared" si="1"/>
-        <v>0.29166666666666635</v>
+        <v>0.47222222222222199</v>
       </c>
       <c r="G22">
-        <v>681</v>
-      </c>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>421</v>
-      </c>
-      <c r="B23">
-        <v>45.7</v>
-      </c>
-      <c r="C23">
-        <f t="shared" si="2"/>
-        <v>203.28372712000001</v>
-      </c>
-      <c r="D23">
-        <v>620</v>
-      </c>
-      <c r="E23">
-        <f t="shared" si="0"/>
-        <v>7.4725274725274682E-2</v>
-      </c>
-      <c r="F23">
-        <f t="shared" si="1"/>
-        <v>0.47222222222222199</v>
-      </c>
-      <c r="G23">
         <v>670</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I24">
+        <f>504.4283-14.6*4.41</f>
+        <v>440.04229999999995</v>
       </c>
     </row>
   </sheetData>
@@ -10032,7 +10155,7 @@
   <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E1"/>
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10053,10 +10176,10 @@
         <v>490</v>
       </c>
       <c r="D1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I1" s="1"/>
       <c r="M1" s="1"/>
@@ -10146,7 +10269,7 @@
         <v>0.934782608695652</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -10173,7 +10296,8 @@
         <v>486</v>
       </c>
       <c r="C9">
-        <v>433</v>
+        <f>433-17</f>
+        <v>416</v>
       </c>
       <c r="D9">
         <v>616</v>
@@ -10190,7 +10314,7 @@
         <v>737</v>
       </c>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -10198,7 +10322,8 @@
         <v>475</v>
       </c>
       <c r="C10">
-        <v>320</v>
+        <f>320-11.23</f>
+        <v>308.77</v>
       </c>
       <c r="D10">
         <v>618</v>
@@ -10215,7 +10340,7 @@
         <v>724</v>
       </c>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -10579,7 +10704,7 @@
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -10591,10 +10716,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB2BFFE4-73AB-4B28-8B60-9C656B1F81F0}">
-  <dimension ref="A1:Q26"/>
+  <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10615,10 +10740,10 @@
         <v>518</v>
       </c>
       <c r="D1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="I1" s="1"/>
       <c r="M1" s="1"/>
@@ -10686,7 +10811,7 @@
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -10733,7 +10858,7 @@
         <v>663</v>
       </c>
       <c r="H8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -10763,7 +10888,7 @@
         <v>515</v>
       </c>
       <c r="C10">
-        <v>443.2</v>
+        <v>427.6</v>
       </c>
       <c r="D10">
         <v>615</v>
@@ -10780,7 +10905,7 @@
         <v>755</v>
       </c>
       <c r="H10" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -11133,7 +11258,7 @@
         <v>518</v>
       </c>
       <c r="C26">
-        <v>518</v>
+        <v>429</v>
       </c>
       <c r="D26">
         <v>617</v>
@@ -11150,7 +11275,19 @@
         <v>761</v>
       </c>
       <c r="H26" t="s">
-        <v>30</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F29">
+        <f>518-89</f>
+        <v>429</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F30">
+        <f>443.2-15.6</f>
+        <v>427.59999999999997</v>
       </c>
     </row>
   </sheetData>
@@ -11164,8 +11301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57CFFEA6-F038-4ADE-B4DB-050B0246E0CF}">
   <dimension ref="A1:Z64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11182,7 +11319,7 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C1" s="3">
         <v>1</v>
@@ -11201,7 +11338,7 @@
       </c>
       <c r="J1" s="15"/>
       <c r="K1" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -11237,28 +11374,28 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C2" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="K2" s="5"/>
       <c r="L2" s="6"/>
@@ -11266,31 +11403,31 @@
       <c r="N2" s="6"/>
       <c r="O2" s="7"/>
       <c r="P2" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="Q2" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="R2" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="S2" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="T2" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="U2" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="V2" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="W2" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="X2" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="30" x14ac:dyDescent="0.25">
@@ -11515,7 +11652,7 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C6" s="16">
         <v>447.1</v>
@@ -11545,16 +11682,16 @@
         <v>334</v>
       </c>
       <c r="L6">
-        <v>445</v>
+        <v>444.82220000000001</v>
       </c>
       <c r="M6">
-        <v>464.5</v>
+        <v>460</v>
       </c>
       <c r="N6">
-        <v>458.6</v>
+        <v>451.38</v>
       </c>
       <c r="O6">
-        <v>490</v>
+        <v>455.83</v>
       </c>
       <c r="P6" s="20">
         <v>453.14</v>
@@ -11586,78 +11723,78 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="J7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="K7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="L7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="M7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="N7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="O7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="P7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="Q7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="R7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="S7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="T7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="U7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="V7" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="W7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="X7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:26" s="1" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>4</v>
@@ -11669,10 +11806,10 @@
         <v>1</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G8" s="14" t="s">
         <v>2</v>
@@ -11681,7 +11818,7 @@
         <v>3</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -11729,7 +11866,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -11763,7 +11900,7 @@
         <v>1.3793103448275808E-2</v>
       </c>
       <c r="L10" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
@@ -11862,13 +11999,13 @@
         <v>4.1379310344827426E-2</v>
       </c>
       <c r="X14" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="Y14" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="Z14" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
@@ -12393,7 +12530,7 @@
         <v>-1.0416666666666083E-2</v>
       </c>
       <c r="I33" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -12542,7 +12679,7 @@
         <v>-1.612903225806436E-2</v>
       </c>
       <c r="I39" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -12691,7 +12828,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -12840,7 +12977,7 @@
         <v>0</v>
       </c>
       <c r="I51" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12893,7 +13030,7 @@
         <v>0.72727272727272685</v>
       </c>
       <c r="I53" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12946,7 +13083,7 @@
         <v>0</v>
       </c>
       <c r="I55" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12999,7 +13136,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13052,7 +13189,7 @@
         <v>-3.1250000000000104E-2</v>
       </c>
       <c r="I59" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/Testing_Data/StraightForceTest.xlsx
+++ b/Testing_Data/StraightForceTest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Bipedal_Robot\Testing_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C06D40AA-B3B9-43A9-950E-084EC9204F17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ABC0CD3-E70C-43D7-B1DE-E62A2704BE2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{CE45C211-BD3F-4CC7-8CF8-DB47A93DE884}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{CE45C211-BD3F-4CC7-8CF8-DB47A93DE884}"/>
   </bookViews>
   <sheets>
     <sheet name="11.2 cm, no T" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="49">
   <si>
     <t>Force (lbs)</t>
   </si>
@@ -182,6 +182,9 @@
   </si>
   <si>
     <t>*11.23 N pretension, 320 N measured</t>
+  </si>
+  <si>
+    <t>Lawrence's Tests</t>
   </si>
 </sst>
 </file>
@@ -3763,10 +3766,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>'Fmax(L)'!$C$3:$X$3</c:f>
+              <c:f>'Fmax(L)'!$C$3:$AC$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>845</c:v>
                 </c:pt>
@@ -3832,16 +3835,31 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>281</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Fmax(L)'!$C$6:$X$6</c:f>
+              <c:f>'Fmax(L)'!$C$6:$AC$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>447.1</c:v>
                 </c:pt>
@@ -3907,6 +3925,21 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>8.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>343.05</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>377.2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>377.2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>418.19</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>402.48</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4169,12 +4202,27 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:trendlineType val="poly"/>
+            <c:order val="5"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.1962965638469504E-2"/>
+                  <c:y val="0.2927223097112861"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Fmax(L)'!$C$3:$X$3</c:f>
+              <c:f>'Fmax(L)'!$C$3:$AC$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>845</c:v>
                 </c:pt>
@@ -4240,16 +4288,31 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>281</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Fmax(L)'!$C$5:$X$5</c:f>
+              <c:f>'Fmax(L)'!$C$5:$AC$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>0.17159763313609466</c:v>
                 </c:pt>
@@ -4315,6 +4378,21 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>9.9999999999999978E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.16666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.15909090909090906</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.16153846153846152</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.16370106761565839</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.14590747330960852</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10718,7 +10796,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB2BFFE4-73AB-4B28-8B60-9C656B1F81F0}">
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
@@ -11299,10 +11377,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57CFFEA6-F038-4ADE-B4DB-050B0246E0CF}">
-  <dimension ref="A1:Z64"/>
+  <dimension ref="A1:AC64"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:AC6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11317,7 +11395,7 @@
     <col min="17" max="17" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>26</v>
       </c>
@@ -11369,10 +11447,13 @@
         <v>12</v>
       </c>
       <c r="X1" s="21">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C2" s="5" t="s">
         <v>32</v>
       </c>
@@ -11430,7 +11511,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -11500,8 +11581,23 @@
       <c r="X3" s="20">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="Y3" s="20">
+        <v>120</v>
+      </c>
+      <c r="Z3" s="20">
+        <v>220</v>
+      </c>
+      <c r="AA3" s="20">
+        <v>260</v>
+      </c>
+      <c r="AB3" s="20">
+        <v>281</v>
+      </c>
+      <c r="AC3" s="20">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
@@ -11561,8 +11657,23 @@
       <c r="X4" s="20">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y4" s="20">
+        <v>100</v>
+      </c>
+      <c r="Z4" s="20">
+        <v>185</v>
+      </c>
+      <c r="AA4" s="20">
+        <v>218</v>
+      </c>
+      <c r="AB4" s="20">
+        <v>235</v>
+      </c>
+      <c r="AC4" s="20">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
@@ -11646,11 +11757,31 @@
         <v>0.16580310880829019</v>
       </c>
       <c r="X5" s="19">
-        <f t="shared" ref="X5" si="3">1-X4/X3</f>
+        <f t="shared" ref="X5:AC5" si="3">1-X4/X3</f>
         <v>9.9999999999999978E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Y5" s="19">
+        <f t="shared" si="3"/>
+        <v>0.16666666666666663</v>
+      </c>
+      <c r="Z5" s="19">
+        <f t="shared" si="3"/>
+        <v>0.15909090909090906</v>
+      </c>
+      <c r="AA5" s="19">
+        <f t="shared" si="3"/>
+        <v>0.16153846153846152</v>
+      </c>
+      <c r="AB5" s="19">
+        <f t="shared" si="3"/>
+        <v>0.16370106761565839</v>
+      </c>
+      <c r="AC5" s="19">
+        <f t="shared" si="3"/>
+        <v>0.14590747330960852</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>36</v>
       </c>
@@ -11720,8 +11851,23 @@
       <c r="X6" s="20">
         <v>8.3000000000000007</v>
       </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Y6" s="20">
+        <v>343.05</v>
+      </c>
+      <c r="Z6" s="20">
+        <v>377.2</v>
+      </c>
+      <c r="AA6" s="20">
+        <v>377.2</v>
+      </c>
+      <c r="AB6" s="20">
+        <v>418.19</v>
+      </c>
+      <c r="AC6" s="20">
+        <v>402.48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>40</v>
       </c>
@@ -11791,8 +11937,20 @@
       <c r="X7" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="8" spans="1:26" s="1" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" s="1" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
@@ -11840,7 +11998,7 @@
       </c>
       <c r="S8"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>1</v>
       </c>
@@ -11876,7 +12034,7 @@
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="6">
         <v>838</v>
@@ -11903,7 +12061,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="6">
         <v>837</v>
@@ -11927,7 +12085,7 @@
         <v>2.0689655172413713E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="6">
         <v>836</v>
@@ -11951,7 +12109,7 @@
         <v>2.7586206896551616E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="6">
         <v>835</v>
@@ -11975,7 +12133,7 @@
         <v>3.4482758620689523E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8"/>
       <c r="B14" s="9">
         <v>834</v>
@@ -12008,7 +12166,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>2</v>
       </c>
@@ -12043,7 +12201,7 @@
         <v>0.1607142857142857</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="11">
         <v>780</v>

--- a/Testing_Data/StraightForceTest.xlsx
+++ b/Testing_Data/StraightForceTest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Bipedal_Robot\Testing_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ABC0CD3-E70C-43D7-B1DE-E62A2704BE2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0252ED3-4FAC-4CA4-A94F-B6859B66C890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{CE45C211-BD3F-4CC7-8CF8-DB47A93DE884}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{CE45C211-BD3F-4CC7-8CF8-DB47A93DE884}"/>
   </bookViews>
   <sheets>
     <sheet name="11.2 cm, no T" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="50">
   <si>
     <t>Force (lbs)</t>
   </si>
@@ -124,12 +124,6 @@
     <t>Muscle</t>
   </si>
   <si>
-    <t>pressure (set)</t>
-  </si>
-  <si>
-    <t>Force</t>
-  </si>
-  <si>
     <t>Pressure measured (kPa)</t>
   </si>
   <si>
@@ -140,9 +134,6 @@
   </si>
   <si>
     <t>vertical</t>
-  </si>
-  <si>
-    <t>Len</t>
   </si>
   <si>
     <t>Resting L</t>
@@ -186,6 +177,18 @@
   <si>
     <t>Lawrence's Tests</t>
   </si>
+  <si>
+    <t>Pressure</t>
+  </si>
+  <si>
+    <t>NaN</t>
+  </si>
+  <si>
+    <t>FORCE</t>
+  </si>
+  <si>
+    <t>PRESSURE</t>
+  </si>
 </sst>
 </file>
 
@@ -222,7 +225,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -367,11 +370,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -403,6 +443,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8529,7 +8573,7 @@
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8545,10 +8589,10 @@
         <v>112</v>
       </c>
       <c r="D1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="30" x14ac:dyDescent="0.25">
@@ -8759,10 +8803,10 @@
         <v>415</v>
       </c>
       <c r="D1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>5</v>
@@ -9754,10 +9798,10 @@
         <v>455</v>
       </c>
       <c r="D1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I1" s="1"/>
       <c r="M1" s="1"/>
@@ -10233,7 +10277,7 @@
   <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10254,10 +10298,10 @@
         <v>490</v>
       </c>
       <c r="D1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I1" s="1"/>
       <c r="M1" s="1"/>
@@ -10392,7 +10436,7 @@
         <v>737</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -10418,7 +10462,7 @@
         <v>724</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -10818,10 +10862,10 @@
         <v>518</v>
       </c>
       <c r="D1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I1" s="1"/>
       <c r="M1" s="1"/>
@@ -10983,7 +11027,7 @@
         <v>755</v>
       </c>
       <c r="H10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -11353,7 +11397,7 @@
         <v>761</v>
       </c>
       <c r="H26" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
@@ -11379,8 +11423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57CFFEA6-F038-4ADE-B4DB-050B0246E0CF}">
   <dimension ref="A1:AC64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:AC6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="X41" sqref="X41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11416,7 +11460,7 @@
       </c>
       <c r="J1" s="15"/>
       <c r="K1" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -11450,33 +11494,33 @@
         <v>13</v>
       </c>
       <c r="Y1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C2" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K2" s="5"/>
       <c r="L2" s="6"/>
@@ -11484,31 +11528,31 @@
       <c r="N2" s="6"/>
       <c r="O2" s="7"/>
       <c r="P2" s="18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q2" s="18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="R2" s="18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="S2" s="18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T2" s="18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="U2" s="18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="V2" s="18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="W2" s="18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X2" s="18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:29" ht="30" x14ac:dyDescent="0.25">
@@ -11783,7 +11827,7 @@
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C6" s="16">
         <v>447.1</v>
@@ -11869,85 +11913,85 @@
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M7" t="s">
+        <v>38</v>
+      </c>
+      <c r="N7" t="s">
+        <v>38</v>
+      </c>
+      <c r="O7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P7" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>38</v>
+      </c>
+      <c r="R7" t="s">
+        <v>38</v>
+      </c>
+      <c r="S7" t="s">
+        <v>38</v>
+      </c>
+      <c r="T7" t="s">
+        <v>38</v>
+      </c>
+      <c r="U7" t="s">
+        <v>38</v>
+      </c>
+      <c r="V7" t="s">
         <v>40</v>
       </c>
-      <c r="C7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" t="s">
-        <v>41</v>
-      </c>
-      <c r="I7" t="s">
-        <v>41</v>
-      </c>
-      <c r="J7" t="s">
-        <v>41</v>
-      </c>
-      <c r="K7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L7" t="s">
-        <v>42</v>
-      </c>
-      <c r="M7" t="s">
-        <v>41</v>
-      </c>
-      <c r="N7" t="s">
-        <v>41</v>
-      </c>
-      <c r="O7" t="s">
-        <v>42</v>
-      </c>
-      <c r="P7" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>41</v>
-      </c>
-      <c r="R7" t="s">
-        <v>41</v>
-      </c>
-      <c r="S7" t="s">
-        <v>41</v>
-      </c>
-      <c r="T7" t="s">
-        <v>41</v>
-      </c>
-      <c r="U7" t="s">
-        <v>41</v>
-      </c>
-      <c r="V7" t="s">
-        <v>43</v>
-      </c>
       <c r="W7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="X7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Y7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Z7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="AA7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AB7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:29" s="1" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11964,10 +12008,10 @@
         <v>1</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G8" s="14" t="s">
         <v>2</v>
@@ -11975,27 +12019,13 @@
       <c r="H8" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>200</v>
-      </c>
-      <c r="O8">
-        <v>300</v>
-      </c>
-      <c r="P8">
-        <v>400</v>
-      </c>
-      <c r="Q8">
-        <v>500</v>
-      </c>
-      <c r="R8">
-        <v>620</v>
-      </c>
+      <c r="L8" s="2"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8"/>
+      <c r="R8"/>
       <c r="S8"/>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
@@ -12022,9 +12052,6 @@
       <c r="H9" s="12">
         <f>G9/$D$5</f>
         <v>0</v>
-      </c>
-      <c r="L9" t="s">
-        <v>29</v>
       </c>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -12057,9 +12084,6 @@
         <f t="shared" ref="H10:H14" si="5">G10/$D$5</f>
         <v>1.3793103448275808E-2</v>
       </c>
-      <c r="L10" t="s">
-        <v>34</v>
-      </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
@@ -12157,13 +12181,13 @@
         <v>4.1379310344827426E-2</v>
       </c>
       <c r="X14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Y14" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="Z14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
@@ -12566,7 +12590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
       <c r="B29" s="11">
         <v>571</v>
@@ -12589,8 +12613,17 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="M29" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
+      <c r="S29" s="6"/>
+    </row>
+    <row r="30" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5"/>
       <c r="B30" s="11">
         <v>570</v>
@@ -12612,6 +12645,33 @@
       <c r="H30" s="7">
         <f t="shared" si="9"/>
         <v>1.0013558556013668E-2</v>
+      </c>
+      <c r="L30" t="s">
+        <v>47</v>
+      </c>
+      <c r="M30" s="27">
+        <v>0</v>
+      </c>
+      <c r="N30" s="28">
+        <v>100</v>
+      </c>
+      <c r="O30" s="28">
+        <v>200</v>
+      </c>
+      <c r="P30" s="28">
+        <v>300</v>
+      </c>
+      <c r="Q30" s="28">
+        <v>400</v>
+      </c>
+      <c r="R30" s="28">
+        <v>500</v>
+      </c>
+      <c r="S30" s="28">
+        <v>620</v>
+      </c>
+      <c r="T30" s="30" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
@@ -12637,6 +12697,33 @@
         <f t="shared" si="9"/>
         <v>1.0013558556013668E-2</v>
       </c>
+      <c r="L31" s="17">
+        <v>840</v>
+      </c>
+      <c r="M31" s="6">
+        <v>0</v>
+      </c>
+      <c r="N31" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="O31" s="6">
+        <v>114.32</v>
+      </c>
+      <c r="P31" s="6">
+        <v>191.8</v>
+      </c>
+      <c r="Q31" s="11">
+        <v>275.2</v>
+      </c>
+      <c r="R31" s="11">
+        <v>355.4</v>
+      </c>
+      <c r="S31" s="7">
+        <v>447.1</v>
+      </c>
+      <c r="U31">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="8"/>
@@ -12661,8 +12748,35 @@
         <f t="shared" si="9"/>
         <v>1.0013558556013668E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L32" s="18">
+        <v>780</v>
+      </c>
+      <c r="M32" s="6">
+        <v>0</v>
+      </c>
+      <c r="N32" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="O32" s="11">
+        <v>139.19999999999999</v>
+      </c>
+      <c r="P32" s="11">
+        <v>216</v>
+      </c>
+      <c r="Q32" s="11">
+        <v>299.7</v>
+      </c>
+      <c r="R32" s="11">
+        <v>378.1</v>
+      </c>
+      <c r="S32" s="7">
+        <v>472</v>
+      </c>
+      <c r="U32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>5</v>
       </c>
@@ -12688,10 +12802,37 @@
         <v>-1.0416666666666083E-2</v>
       </c>
       <c r="I33" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="L33" s="18">
+        <v>709</v>
+      </c>
+      <c r="M33" s="6">
+        <v>0</v>
+      </c>
+      <c r="N33" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="O33" s="11">
+        <v>124.21</v>
+      </c>
+      <c r="P33" s="11">
+        <v>201.4</v>
+      </c>
+      <c r="Q33" s="11">
+        <v>276.02</v>
+      </c>
+      <c r="R33" s="11">
+        <v>355.9</v>
+      </c>
+      <c r="S33" s="7">
+        <v>452.32</v>
+      </c>
+      <c r="U33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="B34" s="11">
         <v>551</v>
@@ -12714,8 +12855,35 @@
         <f t="shared" ref="H34:H38" si="12">G34/$P$5</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L34" s="18">
+        <v>571</v>
+      </c>
+      <c r="M34" s="6">
+        <v>0</v>
+      </c>
+      <c r="N34" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="O34" s="11">
+        <v>136.1</v>
+      </c>
+      <c r="P34" s="11">
+        <v>212.39</v>
+      </c>
+      <c r="Q34" s="11">
+        <v>288.2</v>
+      </c>
+      <c r="R34" s="11">
+        <v>366.94</v>
+      </c>
+      <c r="S34" s="7">
+        <v>461.6</v>
+      </c>
+      <c r="U34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="11">
         <v>551</v>
@@ -12738,8 +12906,35 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L35" s="18">
+        <v>112</v>
+      </c>
+      <c r="M35" s="6">
+        <v>0</v>
+      </c>
+      <c r="N35" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="O35" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="P35" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q35" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="R35" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="S35" s="22">
+        <v>334</v>
+      </c>
+      <c r="U35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="11">
         <v>550</v>
@@ -12762,8 +12957,35 @@
         <f t="shared" si="12"/>
         <v>1.041666666666672E-2</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L36" s="18">
+        <v>415</v>
+      </c>
+      <c r="M36" s="6">
+        <v>0</v>
+      </c>
+      <c r="N36" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="O36" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="P36" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q36" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="R36" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="S36" s="22">
+        <v>444.8</v>
+      </c>
+      <c r="U36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="11">
         <v>550</v>
@@ -12786,8 +13008,35 @@
         <f t="shared" si="12"/>
         <v>1.041666666666672E-2</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L37" s="18">
+        <v>455</v>
+      </c>
+      <c r="M37" s="6">
+        <v>0</v>
+      </c>
+      <c r="N37" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="O37" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="P37" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q37" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="R37" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="S37" s="22">
+        <v>460</v>
+      </c>
+      <c r="U37">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="8"/>
       <c r="B38" s="9">
         <v>549</v>
@@ -12810,8 +13059,35 @@
         <f t="shared" si="12"/>
         <v>2.083333333333344E-2</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L38" s="18">
+        <v>490</v>
+      </c>
+      <c r="M38" s="6">
+        <v>0</v>
+      </c>
+      <c r="N38" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="O38" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="P38" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q38" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="R38" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="S38" s="22">
+        <v>451.38</v>
+      </c>
+      <c r="U38">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>6</v>
       </c>
@@ -12837,10 +13113,37 @@
         <v>-1.612903225806436E-2</v>
       </c>
       <c r="I39" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="L39" s="18">
+        <v>518</v>
+      </c>
+      <c r="M39" s="6">
+        <v>0</v>
+      </c>
+      <c r="N39" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="O39" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="P39" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q39" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="R39" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="S39" s="22">
+        <v>455.83</v>
+      </c>
+      <c r="U39">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
       <c r="B40" s="11">
         <v>361</v>
@@ -12863,8 +13166,35 @@
         <f t="shared" ref="H40:H44" si="14">G40/$Q$5</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L40" s="18">
+        <v>551</v>
+      </c>
+      <c r="M40" s="6">
+        <v>0</v>
+      </c>
+      <c r="N40" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="O40" s="11">
+        <v>129.26</v>
+      </c>
+      <c r="P40" s="11">
+        <v>201.3</v>
+      </c>
+      <c r="Q40" s="11">
+        <v>282.33999999999997</v>
+      </c>
+      <c r="R40" s="11">
+        <v>360.24</v>
+      </c>
+      <c r="S40" s="7">
+        <v>453.14</v>
+      </c>
+      <c r="U40">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
       <c r="B41" s="11">
         <v>361</v>
@@ -12887,8 +13217,35 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L41" s="18">
+        <v>361</v>
+      </c>
+      <c r="M41" s="6">
+        <v>0</v>
+      </c>
+      <c r="N41" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="O41" s="11">
+        <v>121.5</v>
+      </c>
+      <c r="P41" s="11">
+        <v>192.91</v>
+      </c>
+      <c r="Q41" s="11">
+        <v>269</v>
+      </c>
+      <c r="R41" s="11">
+        <v>344.5</v>
+      </c>
+      <c r="S41" s="7">
+        <v>436.4</v>
+      </c>
+      <c r="U41">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
       <c r="B42" s="11">
         <v>361</v>
@@ -12911,8 +13268,35 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L42" s="20">
+        <v>54</v>
+      </c>
+      <c r="M42" s="6">
+        <v>0</v>
+      </c>
+      <c r="N42" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="O42" s="11">
+        <v>56.1</v>
+      </c>
+      <c r="P42" s="11">
+        <v>103.37</v>
+      </c>
+      <c r="Q42" s="11">
+        <v>155.44999999999999</v>
+      </c>
+      <c r="R42" s="11">
+        <v>207</v>
+      </c>
+      <c r="S42" s="7">
+        <v>266.5</v>
+      </c>
+      <c r="U42">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="11">
         <v>361</v>
@@ -12935,8 +13319,35 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L43" s="20">
+        <v>27</v>
+      </c>
+      <c r="M43" s="6">
+        <v>0</v>
+      </c>
+      <c r="N43" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="O43" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="P43" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q43" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="R43" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="S43" s="22">
+        <v>135.32</v>
+      </c>
+      <c r="U43">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="8"/>
       <c r="B44" s="9">
         <v>360</v>
@@ -12959,8 +13370,35 @@
         <f t="shared" si="14"/>
         <v>1.612903225806436E-2</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L44" s="20">
+        <v>69</v>
+      </c>
+      <c r="M44" s="6">
+        <v>0</v>
+      </c>
+      <c r="N44" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="O44" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="P44" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q44" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="R44" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="S44" s="22">
+        <v>271.48</v>
+      </c>
+      <c r="U44">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>7</v>
       </c>
@@ -12986,10 +13424,37 @@
         <v>0</v>
       </c>
       <c r="I45" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="L45" s="20">
+        <v>275</v>
+      </c>
+      <c r="M45" s="6">
+        <v>0</v>
+      </c>
+      <c r="N45" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="O45" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="P45" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q45" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="R45" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="S45" s="22">
+        <v>412.3</v>
+      </c>
+      <c r="U45">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
       <c r="B46" s="11">
         <v>54</v>
@@ -13012,8 +13477,35 @@
         <f t="shared" ref="H46:H50" si="16">G46/$R$5</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L46" s="20">
+        <v>151</v>
+      </c>
+      <c r="M46" s="6">
+        <v>0</v>
+      </c>
+      <c r="N46" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="O46" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="P46" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q46" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="R46" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="S46" s="22">
+        <v>347.11</v>
+      </c>
+      <c r="U46">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
       <c r="B47" s="11">
         <v>54</v>
@@ -13036,8 +13528,35 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L47" s="20">
+        <v>193</v>
+      </c>
+      <c r="M47" s="6">
+        <v>0</v>
+      </c>
+      <c r="N47" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="O47" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="P47" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q47" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="R47" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="S47" s="22">
+        <v>396.17</v>
+      </c>
+      <c r="U47">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
       <c r="B48" s="11">
         <v>54</v>
@@ -13060,8 +13579,35 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L48" s="20">
+        <v>10</v>
+      </c>
+      <c r="M48" s="6">
+        <v>0</v>
+      </c>
+      <c r="N48" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="O48" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="P48" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q48" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="R48" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="S48" s="22">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="U48">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
       <c r="B49" s="11">
         <v>54</v>
@@ -13084,8 +13630,35 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L49" s="20">
+        <v>120</v>
+      </c>
+      <c r="M49" s="6">
+        <v>0</v>
+      </c>
+      <c r="N49" s="6">
+        <v>19.7</v>
+      </c>
+      <c r="O49" s="6">
+        <v>66</v>
+      </c>
+      <c r="P49" s="6">
+        <v>124.82</v>
+      </c>
+      <c r="Q49" s="6">
+        <v>195.1</v>
+      </c>
+      <c r="R49" s="6">
+        <v>258.3</v>
+      </c>
+      <c r="S49" s="22">
+        <v>341.5</v>
+      </c>
+      <c r="U49">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="8"/>
       <c r="B50" s="9">
         <v>54</v>
@@ -13108,8 +13681,35 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L50" s="20">
+        <v>220</v>
+      </c>
+      <c r="M50" s="6">
+        <v>0</v>
+      </c>
+      <c r="N50" s="6">
+        <v>23</v>
+      </c>
+      <c r="O50" s="6">
+        <v>80.8</v>
+      </c>
+      <c r="P50" s="6">
+        <v>146.19999999999999</v>
+      </c>
+      <c r="Q50" s="6">
+        <v>215.6</v>
+      </c>
+      <c r="R50" s="6">
+        <v>289.8</v>
+      </c>
+      <c r="S50" s="22">
+        <v>377.23</v>
+      </c>
+      <c r="U50">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>8</v>
       </c>
@@ -13135,10 +13735,37 @@
         <v>0</v>
       </c>
       <c r="I51" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+      <c r="L51" s="18">
+        <v>260</v>
+      </c>
+      <c r="M51" s="6">
+        <v>0</v>
+      </c>
+      <c r="N51" s="6">
+        <v>31.9</v>
+      </c>
+      <c r="O51" s="6">
+        <v>89.7</v>
+      </c>
+      <c r="P51" s="6">
+        <v>154.6</v>
+      </c>
+      <c r="Q51" s="6">
+        <v>225.3</v>
+      </c>
+      <c r="R51" s="6">
+        <v>294.8</v>
+      </c>
+      <c r="S51" s="22">
+        <v>385.4</v>
+      </c>
+      <c r="U51">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="8"/>
       <c r="B52" s="9">
         <v>27</v>
@@ -13161,8 +13788,35 @@
         <f t="shared" ref="H52:H54" si="18">G52/$S$5</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L52" s="18">
+        <v>281</v>
+      </c>
+      <c r="M52" s="6">
+        <v>0</v>
+      </c>
+      <c r="N52" s="6">
+        <v>54.65</v>
+      </c>
+      <c r="O52" s="6">
+        <v>117.8</v>
+      </c>
+      <c r="P52" s="6">
+        <v>185</v>
+      </c>
+      <c r="Q52" s="6">
+        <v>257.2</v>
+      </c>
+      <c r="R52" s="6">
+        <v>329.9</v>
+      </c>
+      <c r="S52" s="22">
+        <v>415.8</v>
+      </c>
+      <c r="U52">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>9</v>
       </c>
@@ -13188,10 +13842,37 @@
         <v>0.72727272727272685</v>
       </c>
       <c r="I53" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+      <c r="L53" s="18">
+        <v>281</v>
+      </c>
+      <c r="M53" s="9">
+        <v>0</v>
+      </c>
+      <c r="N53" s="9">
+        <v>37.1</v>
+      </c>
+      <c r="O53" s="9">
+        <v>101.1</v>
+      </c>
+      <c r="P53" s="9">
+        <v>170.4</v>
+      </c>
+      <c r="Q53" s="9">
+        <v>242.3</v>
+      </c>
+      <c r="R53" s="9">
+        <v>314.2</v>
+      </c>
+      <c r="S53" s="26">
+        <v>406</v>
+      </c>
+      <c r="U53">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="8"/>
       <c r="B54" s="25">
         <v>61</v>
@@ -13214,8 +13895,14 @@
         <f t="shared" si="18"/>
         <v>-8.5</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L54" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="T54" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>10</v>
       </c>
@@ -13241,10 +13928,10 @@
         <v>0</v>
       </c>
       <c r="I55" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="8"/>
       <c r="B56" s="9">
         <v>273</v>
@@ -13268,7 +13955,7 @@
         <v>4.2553191489361979E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>11</v>
       </c>
@@ -13294,10 +13981,10 @@
         <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="8"/>
       <c r="B58" s="9">
         <v>149</v>
@@ -13321,7 +14008,7 @@
         <v>8.6956521739130155E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>12</v>
       </c>
@@ -13347,10 +14034,10 @@
         <v>-3.1250000000000104E-2</v>
       </c>
       <c r="I59" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="8"/>
       <c r="B60" s="9">
         <v>193</v>
@@ -13374,7 +14061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <v>13</v>
       </c>
@@ -13400,7 +14087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="8"/>
       <c r="B62" s="9">
         <v>10</v>
@@ -13424,7 +14111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -13434,7 +14121,7 @@
       <c r="G63" s="23"/>
       <c r="H63" s="24"/>
     </row>
-    <row r="64" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="8"/>
       <c r="B64" s="9"/>
       <c r="C64" s="9"/>

--- a/Testing_Data/StraightForceTest.xlsx
+++ b/Testing_Data/StraightForceTest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Bipedal_Robot\Testing_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Documents\GitHub\Bipedal_Robot\Testing_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0252ED3-4FAC-4CA4-A94F-B6859B66C890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74646382-9DE3-4196-A402-CDAD39ED4CA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{CE45C211-BD3F-4CC7-8CF8-DB47A93DE884}"/>
+    <workbookView xWindow="31545" yWindow="3015" windowWidth="21630" windowHeight="11250" activeTab="1" xr2:uid="{CE45C211-BD3F-4CC7-8CF8-DB47A93DE884}"/>
   </bookViews>
   <sheets>
     <sheet name="11.2 cm, no T" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="51.8 cm" sheetId="6" r:id="rId5"/>
     <sheet name="Fmax(L)" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,9 +28,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -411,7 +414,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -420,29 +423,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
@@ -8576,12 +8569,12 @@
       <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -8595,7 +8588,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -8603,7 +8596,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -8612,7 +8605,7 @@
         <v>0.1607142857142857</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -8632,7 +8625,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>111</v>
       </c>
@@ -8655,7 +8648,7 @@
         <v>5.5555555555555365E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>107</v>
       </c>
@@ -8678,7 +8671,7 @@
         <v>0.27777777777777751</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>102</v>
       </c>
@@ -8701,7 +8694,7 @@
         <v>0.55555555555555569</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>98</v>
       </c>
@@ -8724,7 +8717,7 @@
         <v>0.7777777777777779</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>93</v>
       </c>
@@ -8747,7 +8740,7 @@
         <v>1.0555555555555554</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P12" t="s">
         <v>9</v>
       </c>
@@ -8755,7 +8748,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P13">
         <v>111</v>
       </c>
@@ -8763,7 +8756,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P14">
         <v>415</v>
       </c>
@@ -8782,20 +8775,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0289F67D-1B36-4222-87CA-07D1B890BA50}">
   <dimension ref="A1:U30"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" customWidth="1"/>
-    <col min="13" max="13" width="16.42578125" customWidth="1"/>
-    <col min="14" max="14" width="15.42578125" customWidth="1"/>
-    <col min="15" max="15" width="13.140625" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" customWidth="1"/>
+    <col min="13" max="13" width="16.44140625" customWidth="1"/>
+    <col min="14" max="14" width="15.44140625" customWidth="1"/>
+    <col min="15" max="15" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -8821,7 +8814,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -8841,7 +8834,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -8863,7 +8856,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -8910,7 +8903,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>414</v>
       </c>
@@ -8964,7 +8957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>407</v>
       </c>
@@ -9021,7 +9014,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>402</v>
       </c>
@@ -9075,7 +9068,7 @@
         <v>7.9136690647481966E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>387</v>
       </c>
@@ -9129,7 +9122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>368</v>
       </c>
@@ -9183,7 +9176,7 @@
         <v>7.194244604316502E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>352</v>
       </c>
@@ -9237,7 +9230,7 @@
         <v>2.1582733812949728E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>346</v>
       </c>
@@ -9291,7 +9284,7 @@
         <v>2.1582733812949728E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="I13">
         <v>405</v>
       </c>
@@ -9324,7 +9317,7 @@
         <v>2.877697841726623E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="I14">
         <v>413</v>
       </c>
@@ -9363,7 +9356,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="I15">
         <v>385</v>
       </c>
@@ -9396,7 +9389,7 @@
         <v>2.877697841726623E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="I16">
         <v>375</v>
       </c>
@@ -9429,7 +9422,7 @@
         <v>2.877697841726623E-2</v>
       </c>
     </row>
-    <row r="18" spans="9:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="9:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="I18" s="1" t="s">
         <v>5</v>
       </c>
@@ -9443,7 +9436,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="19" spans="9:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="9:17" ht="43.2" x14ac:dyDescent="0.3">
       <c r="I19" s="1" t="s">
         <v>6</v>
       </c>
@@ -9457,7 +9450,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="20" spans="9:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="9:17" x14ac:dyDescent="0.3">
       <c r="I20" s="1" t="s">
         <v>8</v>
       </c>
@@ -9472,7 +9465,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="9:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="9:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="I22" s="1" t="s">
         <v>4</v>
       </c>
@@ -9501,7 +9494,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="9:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="9:17" x14ac:dyDescent="0.3">
       <c r="I23">
         <v>399</v>
       </c>
@@ -9534,7 +9527,7 @@
         <v>1.9607843137254832E-2</v>
       </c>
     </row>
-    <row r="24" spans="9:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="9:17" x14ac:dyDescent="0.3">
       <c r="I24">
         <v>408</v>
       </c>
@@ -9567,7 +9560,7 @@
         <v>9.8039215686274161E-3</v>
       </c>
     </row>
-    <row r="25" spans="9:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="9:17" x14ac:dyDescent="0.3">
       <c r="I25">
         <v>341</v>
       </c>
@@ -9600,7 +9593,7 @@
         <v>9.8039215686274161E-3</v>
       </c>
     </row>
-    <row r="26" spans="9:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="9:17" x14ac:dyDescent="0.3">
       <c r="I26">
         <v>340</v>
       </c>
@@ -9633,7 +9626,7 @@
         <v>9.8039215686274161E-3</v>
       </c>
     </row>
-    <row r="27" spans="9:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="9:17" x14ac:dyDescent="0.3">
       <c r="I27">
         <v>352</v>
       </c>
@@ -9666,7 +9659,7 @@
         <v>9.8039215686274161E-3</v>
       </c>
     </row>
-    <row r="28" spans="9:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="9:17" x14ac:dyDescent="0.3">
       <c r="I28">
         <v>363</v>
       </c>
@@ -9699,7 +9692,7 @@
         <v>2.9411764705882248E-2</v>
       </c>
     </row>
-    <row r="29" spans="9:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="9:17" x14ac:dyDescent="0.3">
       <c r="I29">
         <v>367</v>
       </c>
@@ -9732,7 +9725,7 @@
         <v>1.9607843137254832E-2</v>
       </c>
     </row>
-    <row r="30" spans="9:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="9:17" x14ac:dyDescent="0.3">
       <c r="I30">
         <v>385</v>
       </c>
@@ -9780,17 +9773,17 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" customWidth="1"/>
-    <col min="13" max="13" width="16.42578125" customWidth="1"/>
-    <col min="14" max="14" width="15.42578125" customWidth="1"/>
-    <col min="15" max="15" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="14.5546875" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" customWidth="1"/>
+    <col min="13" max="13" width="16.44140625" customWidth="1"/>
+    <col min="14" max="14" width="15.44140625" customWidth="1"/>
+    <col min="15" max="15" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -9806,7 +9799,7 @@
       <c r="I1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -9816,7 +9809,7 @@
       <c r="I2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -9827,7 +9820,7 @@
       <c r="I3" s="1"/>
       <c r="M3" s="2"/>
     </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -9850,7 +9843,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>380</v>
       </c>
@@ -9869,7 +9862,7 @@
         <v>1.0416666666666665</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>386</v>
       </c>
@@ -9888,7 +9881,7 @@
         <v>0.95833333333333348</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>409</v>
       </c>
@@ -9907,7 +9900,7 @@
         <v>0.63888888888888873</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>391.5</v>
       </c>
@@ -9926,7 +9919,7 @@
         <v>0.8819444444444442</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>394</v>
       </c>
@@ -9945,7 +9938,7 @@
         <v>0.8472222222222221</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>396</v>
       </c>
@@ -9964,7 +9957,7 @@
         <v>0.81944444444444442</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>405</v>
       </c>
@@ -9983,7 +9976,7 @@
         <v>0.69444444444444486</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>417</v>
       </c>
@@ -10012,7 +10005,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>427</v>
       </c>
@@ -10038,7 +10031,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>438</v>
       </c>
@@ -10064,7 +10057,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>445</v>
       </c>
@@ -10090,7 +10083,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>452</v>
       </c>
@@ -10116,7 +10109,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>450</v>
       </c>
@@ -10144,7 +10137,7 @@
       <c r="I18" s="1"/>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>451</v>
       </c>
@@ -10172,7 +10165,7 @@
       <c r="I19" s="1"/>
       <c r="M19" s="1"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>445</v>
       </c>
@@ -10198,7 +10191,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>434</v>
       </c>
@@ -10233,7 +10226,7 @@
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>421</v>
       </c>
@@ -10259,7 +10252,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="I24">
         <f>504.4283-14.6*4.41</f>
         <v>440.04229999999995</v>
@@ -10280,17 +10273,17 @@
       <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" customWidth="1"/>
-    <col min="13" max="13" width="16.42578125" customWidth="1"/>
-    <col min="14" max="14" width="15.42578125" customWidth="1"/>
-    <col min="15" max="15" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="14.5546875" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" customWidth="1"/>
+    <col min="13" max="13" width="16.44140625" customWidth="1"/>
+    <col min="14" max="14" width="15.44140625" customWidth="1"/>
+    <col min="15" max="15" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -10306,7 +10299,7 @@
       <c r="I1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -10316,7 +10309,7 @@
       <c r="I2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -10327,7 +10320,7 @@
       <c r="I3" s="1"/>
       <c r="M3" s="2"/>
     </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -10350,7 +10343,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>405</v>
       </c>
@@ -10372,7 +10365,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>404</v>
       </c>
@@ -10394,7 +10387,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>491</v>
       </c>
@@ -10413,7 +10406,7 @@
         <v>-1.0869565217391432E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>486</v>
       </c>
@@ -10439,7 +10432,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>475</v>
       </c>
@@ -10465,7 +10458,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>479</v>
       </c>
@@ -10487,7 +10480,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>471</v>
       </c>
@@ -10509,7 +10502,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>466</v>
       </c>
@@ -10531,7 +10524,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>460</v>
       </c>
@@ -10553,7 +10546,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>456</v>
       </c>
@@ -10575,7 +10568,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>450</v>
       </c>
@@ -10597,7 +10590,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>443</v>
       </c>
@@ -10619,7 +10612,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>438</v>
       </c>
@@ -10643,7 +10636,7 @@
       <c r="I18" s="1"/>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>427</v>
       </c>
@@ -10667,7 +10660,7 @@
       <c r="I19" s="1"/>
       <c r="M19" s="1"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>425</v>
       </c>
@@ -10691,7 +10684,7 @@
       <c r="I20" s="1"/>
       <c r="M20" s="2"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>418</v>
       </c>
@@ -10713,7 +10706,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>413</v>
       </c>
@@ -10744,7 +10737,7 @@
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>409</v>
       </c>
@@ -10766,7 +10759,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>403</v>
       </c>
@@ -10788,7 +10781,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>399</v>
       </c>
@@ -10810,7 +10803,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>398</v>
       </c>
@@ -10844,17 +10837,17 @@
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" customWidth="1"/>
-    <col min="13" max="13" width="16.42578125" customWidth="1"/>
-    <col min="14" max="14" width="15.42578125" customWidth="1"/>
-    <col min="15" max="15" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="14.5546875" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" customWidth="1"/>
+    <col min="13" max="13" width="16.44140625" customWidth="1"/>
+    <col min="14" max="14" width="15.44140625" customWidth="1"/>
+    <col min="15" max="15" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -10870,7 +10863,7 @@
       <c r="I1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -10880,7 +10873,7 @@
       <c r="I2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -10891,7 +10884,7 @@
       <c r="I3" s="1"/>
       <c r="M3" s="2"/>
     </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -10914,7 +10907,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>432</v>
       </c>
@@ -10936,7 +10929,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>431</v>
       </c>
@@ -10958,7 +10951,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>429</v>
       </c>
@@ -10983,7 +10976,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>440</v>
       </c>
@@ -11005,7 +10998,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>515</v>
       </c>
@@ -11030,7 +11023,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>506</v>
       </c>
@@ -11052,7 +11045,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>498</v>
       </c>
@@ -11074,7 +11067,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>489</v>
       </c>
@@ -11096,7 +11089,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>477</v>
       </c>
@@ -11118,7 +11111,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>439</v>
       </c>
@@ -11140,7 +11133,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>448</v>
       </c>
@@ -11162,7 +11155,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>458</v>
       </c>
@@ -11184,7 +11177,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>465</v>
       </c>
@@ -11208,7 +11201,7 @@
       <c r="I18" s="1"/>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>473</v>
       </c>
@@ -11232,7 +11225,7 @@
       <c r="I19" s="1"/>
       <c r="M19" s="1"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>516</v>
       </c>
@@ -11256,7 +11249,7 @@
       <c r="I20" s="1"/>
       <c r="M20" s="2"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>512</v>
       </c>
@@ -11278,7 +11271,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>502</v>
       </c>
@@ -11309,7 +11302,7 @@
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>508</v>
       </c>
@@ -11331,7 +11324,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>485</v>
       </c>
@@ -11353,7 +11346,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>492</v>
       </c>
@@ -11375,7 +11368,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>518</v>
       </c>
@@ -11400,13 +11393,13 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="F29">
         <f>518-89</f>
         <v>429</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="F30">
         <f>443.2-15.6</f>
         <v>427.59999999999997</v>
@@ -11423,431 +11416,425 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57CFFEA6-F038-4ADE-B4DB-050B0246E0CF}">
   <dimension ref="A1:AC64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="X41" sqref="X41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="17" customWidth="1"/>
     <col min="5" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" customWidth="1"/>
-    <col min="15" max="15" width="11.42578125" customWidth="1"/>
-    <col min="16" max="16" width="11.5703125" customWidth="1"/>
-    <col min="17" max="17" width="10.7109375" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" customWidth="1"/>
+    <col min="15" max="15" width="11.44140625" customWidth="1"/>
+    <col min="16" max="16" width="11.5546875" customWidth="1"/>
+    <col min="17" max="17" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C1" s="3">
         <v>1</v>
       </c>
-      <c r="D1" s="15"/>
+      <c r="D1" s="13"/>
       <c r="E1" s="3">
         <v>2</v>
       </c>
-      <c r="F1" s="15"/>
+      <c r="F1" s="13"/>
       <c r="G1" s="3">
         <v>3</v>
       </c>
-      <c r="H1" s="15"/>
+      <c r="H1" s="13"/>
       <c r="I1" s="3">
         <v>4</v>
       </c>
-      <c r="J1" s="15"/>
+      <c r="J1" s="13"/>
       <c r="K1" s="3" t="s">
         <v>35</v>
       </c>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="17">
+      <c r="O1" s="13"/>
+      <c r="P1" s="14">
         <v>5</v>
       </c>
-      <c r="Q1" s="17">
+      <c r="Q1" s="14">
         <v>6</v>
       </c>
-      <c r="R1" s="17">
+      <c r="R1" s="14">
         <v>7</v>
       </c>
-      <c r="S1" s="21">
+      <c r="S1" s="14">
         <v>8</v>
       </c>
-      <c r="T1" s="22">
+      <c r="T1" s="6">
         <v>9</v>
       </c>
-      <c r="U1" s="11">
+      <c r="U1">
         <v>10</v>
       </c>
-      <c r="V1" s="21">
+      <c r="V1" s="14">
         <v>11</v>
       </c>
-      <c r="W1" s="21">
+      <c r="W1" s="14">
         <v>12</v>
       </c>
-      <c r="X1" s="21">
+      <c r="X1" s="14">
         <v>13</v>
       </c>
       <c r="Y1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="C2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>31</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>31</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="6" t="s">
         <v>31</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="6" t="s">
         <v>31</v>
       </c>
       <c r="K2" s="5"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="18" t="s">
+      <c r="O2" s="6"/>
+      <c r="P2" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="18" t="s">
+      <c r="Q2" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="R2" s="18" t="s">
+      <c r="R2" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="S2" s="18" t="s">
+      <c r="S2" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="T2" s="18" t="s">
+      <c r="T2" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="U2" s="18" t="s">
+      <c r="U2" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="V2" s="18" t="s">
+      <c r="V2" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="W2" s="18" t="s">
+      <c r="W2" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="X2" s="18" t="s">
+      <c r="X2" s="15" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="5">
         <v>845</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="6">
         <v>840</v>
       </c>
       <c r="E3" s="5">
         <v>785</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="6">
         <v>780</v>
       </c>
       <c r="G3" s="5">
         <v>710</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="6">
         <v>709</v>
       </c>
       <c r="I3" s="5">
         <v>571</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="6">
         <v>571</v>
       </c>
       <c r="K3" s="5">
         <v>112</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L3">
         <v>415</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3">
         <v>455</v>
       </c>
-      <c r="N3" s="6">
+      <c r="N3">
         <v>490</v>
       </c>
-      <c r="O3" s="7">
+      <c r="O3" s="6">
         <v>518</v>
       </c>
-      <c r="P3" s="18">
+      <c r="P3" s="15">
         <v>551</v>
       </c>
-      <c r="Q3" s="18">
+      <c r="Q3" s="15">
         <v>361</v>
       </c>
-      <c r="R3" s="20">
+      <c r="R3" s="15">
         <v>54</v>
       </c>
-      <c r="S3" s="20">
+      <c r="S3" s="15">
         <v>27</v>
       </c>
-      <c r="T3" s="22">
+      <c r="T3" s="6">
         <v>69</v>
       </c>
-      <c r="U3" s="11">
+      <c r="U3">
         <v>275</v>
       </c>
-      <c r="V3" s="20">
+      <c r="V3" s="15">
         <v>151</v>
       </c>
-      <c r="W3" s="20">
+      <c r="W3" s="15">
         <v>193</v>
       </c>
-      <c r="X3" s="20">
+      <c r="X3" s="15">
         <v>10</v>
       </c>
-      <c r="Y3" s="20">
+      <c r="Y3" s="15">
         <v>120</v>
       </c>
-      <c r="Z3" s="20">
+      <c r="Z3" s="15">
         <v>220</v>
       </c>
-      <c r="AA3" s="20">
+      <c r="AA3" s="15">
         <v>260</v>
       </c>
-      <c r="AB3" s="20">
+      <c r="AB3" s="15">
         <v>281</v>
       </c>
-      <c r="AC3" s="20">
+      <c r="AC3" s="15">
         <v>281</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="5">
         <v>700</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <v>695</v>
       </c>
       <c r="E4" s="5">
         <v>652</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="6">
         <v>647</v>
       </c>
       <c r="G4" s="5">
         <v>584</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="6">
         <v>585</v>
       </c>
       <c r="I4" s="5">
         <v>466</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="6">
         <v>467</v>
       </c>
       <c r="K4" s="5"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="18">
+      <c r="O4" s="6"/>
+      <c r="P4" s="15">
         <v>455</v>
       </c>
-      <c r="Q4" s="18">
+      <c r="Q4" s="15">
         <v>299</v>
       </c>
-      <c r="R4" s="18">
+      <c r="R4" s="15">
         <v>46</v>
       </c>
-      <c r="S4" s="20">
+      <c r="S4" s="15">
         <v>23</v>
       </c>
-      <c r="T4" s="22">
+      <c r="T4" s="6">
         <v>58</v>
       </c>
-      <c r="U4" s="11">
+      <c r="U4">
         <v>228</v>
       </c>
-      <c r="V4" s="18">
+      <c r="V4" s="15">
         <v>128</v>
       </c>
-      <c r="W4" s="20">
+      <c r="W4" s="15">
         <v>161</v>
       </c>
-      <c r="X4" s="20">
+      <c r="X4" s="15">
         <v>9</v>
       </c>
-      <c r="Y4" s="20">
+      <c r="Y4" s="15">
         <v>100</v>
       </c>
-      <c r="Z4" s="20">
+      <c r="Z4" s="15">
         <v>185</v>
       </c>
-      <c r="AA4" s="20">
+      <c r="AA4" s="15">
         <v>218</v>
       </c>
-      <c r="AB4" s="20">
+      <c r="AB4" s="15">
         <v>235</v>
       </c>
-      <c r="AC4" s="20">
+      <c r="AC4" s="15">
         <v>240</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <f>1-C4/C3</f>
         <v>0.17159763313609466</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="9">
         <f>1-D4/D3</f>
         <v>0.17261904761904767</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="7">
         <f t="shared" ref="E5:H5" si="0">1-E4/E3</f>
         <v>0.16942675159235665</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="9">
         <f t="shared" si="0"/>
         <v>0.17051282051282046</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="7">
         <f t="shared" si="0"/>
         <v>0.17746478873239435</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="9">
         <f t="shared" si="0"/>
         <v>0.17489421720733422</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="7">
         <f t="shared" ref="I5:J5" si="1">1-I4/I3</f>
         <v>0.18388791593695275</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J5" s="9">
         <f t="shared" si="1"/>
         <v>0.18213660245183882</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="7">
         <v>0.1607142857142857</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="8">
         <v>0.16626506024096388</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="8">
         <v>0.15824175824175823</v>
       </c>
-      <c r="N5" s="9">
+      <c r="N5" s="8">
         <v>0.18775510204081636</v>
       </c>
-      <c r="O5" s="10">
+      <c r="O5" s="9">
         <v>0.16602316602316602</v>
       </c>
-      <c r="P5" s="19">
+      <c r="P5" s="16">
         <f t="shared" ref="P5:W5" si="2">1-P4/P3</f>
         <v>0.17422867513611617</v>
       </c>
-      <c r="Q5" s="19">
+      <c r="Q5" s="16">
         <f t="shared" si="2"/>
         <v>0.17174515235457066</v>
       </c>
-      <c r="R5" s="19">
+      <c r="R5" s="16">
         <f t="shared" si="2"/>
         <v>0.14814814814814814</v>
       </c>
-      <c r="S5" s="19">
+      <c r="S5" s="16">
         <f t="shared" si="2"/>
         <v>0.14814814814814814</v>
       </c>
-      <c r="T5" s="10">
+      <c r="T5" s="9">
         <f t="shared" si="2"/>
         <v>0.15942028985507251</v>
       </c>
-      <c r="U5" s="8">
+      <c r="U5" s="7">
         <f t="shared" si="2"/>
         <v>0.1709090909090909</v>
       </c>
-      <c r="V5" s="8">
+      <c r="V5" s="7">
         <f t="shared" si="2"/>
         <v>0.15231788079470199</v>
       </c>
-      <c r="W5" s="19">
+      <c r="W5" s="16">
         <f t="shared" si="2"/>
         <v>0.16580310880829019</v>
       </c>
-      <c r="X5" s="19">
+      <c r="X5" s="16">
         <f t="shared" ref="X5:AC5" si="3">1-X4/X3</f>
         <v>9.9999999999999978E-2</v>
       </c>
-      <c r="Y5" s="19">
+      <c r="Y5" s="16">
         <f t="shared" si="3"/>
         <v>0.16666666666666663</v>
       </c>
-      <c r="Z5" s="19">
+      <c r="Z5" s="16">
         <f t="shared" si="3"/>
         <v>0.15909090909090906</v>
       </c>
-      <c r="AA5" s="19">
+      <c r="AA5" s="16">
         <f t="shared" si="3"/>
         <v>0.16153846153846152</v>
       </c>
-      <c r="AB5" s="19">
+      <c r="AB5" s="16">
         <f t="shared" si="3"/>
         <v>0.16370106761565839</v>
       </c>
-      <c r="AC5" s="19">
+      <c r="AC5" s="16">
         <f t="shared" si="3"/>
         <v>0.14590747330960852</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="5">
         <v>447.1</v>
       </c>
       <c r="D6">
         <v>447.1</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="5">
         <v>472</v>
       </c>
       <c r="F6">
         <v>472</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="5">
         <v>452.32</v>
       </c>
       <c r="H6">
         <v>452.32</v>
       </c>
-      <c r="I6" s="16">
+      <c r="I6" s="5">
         <v>461.6</v>
       </c>
       <c r="J6">
@@ -11868,50 +11855,50 @@
       <c r="O6">
         <v>455.83</v>
       </c>
-      <c r="P6" s="20">
+      <c r="P6" s="15">
         <v>453.14</v>
       </c>
-      <c r="Q6" s="20">
+      <c r="Q6" s="15">
         <v>436.4</v>
       </c>
-      <c r="R6" s="20">
+      <c r="R6" s="15">
         <v>238.2</v>
       </c>
-      <c r="S6" s="20">
+      <c r="S6" s="15">
         <v>135.32</v>
       </c>
-      <c r="T6" s="22">
+      <c r="T6" s="6">
         <v>271.48</v>
       </c>
-      <c r="U6" s="22">
+      <c r="U6" s="6">
         <v>412.3</v>
       </c>
-      <c r="V6" s="16">
+      <c r="V6" s="5">
         <v>347.18</v>
       </c>
-      <c r="W6" s="20">
+      <c r="W6" s="15">
         <v>396.17</v>
       </c>
-      <c r="X6" s="20">
+      <c r="X6" s="15">
         <v>8.3000000000000007</v>
       </c>
-      <c r="Y6" s="20">
+      <c r="Y6" s="15">
         <v>343.05</v>
       </c>
-      <c r="Z6" s="20">
+      <c r="Z6" s="15">
         <v>377.2</v>
       </c>
-      <c r="AA6" s="20">
+      <c r="AA6" s="15">
         <v>377.2</v>
       </c>
-      <c r="AB6" s="20">
+      <c r="AB6" s="15">
         <v>418.19</v>
       </c>
-      <c r="AC6" s="20">
+      <c r="AC6" s="15">
         <v>402.48</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>37</v>
       </c>
@@ -11994,7 +11981,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:29" s="1" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" s="1" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
@@ -12013,10 +12000,10 @@
       <c r="F8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="H8" s="12" t="s">
         <v>3</v>
       </c>
       <c r="L8" s="2"/>
@@ -12028,7 +12015,7 @@
       <c r="R8"/>
       <c r="S8"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>1</v>
       </c>
@@ -12045,11 +12032,11 @@
       <c r="F9" s="4">
         <v>0</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9">
         <f>1-B9/$D$3</f>
         <v>0</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="10">
         <f>G9/$D$5</f>
         <v>0</v>
       </c>
@@ -12061,122 +12048,118 @@
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
-      <c r="B10" s="6">
+      <c r="B10">
         <v>838</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6">
+      <c r="D10">
         <v>114.32</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10">
         <v>197.62</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10">
         <v>200</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10">
         <f t="shared" ref="G10:G14" si="4">1-B10/$D$3</f>
         <v>2.3809523809523725E-3</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="10">
         <f t="shared" ref="H10:H14" si="5">G10/$D$5</f>
         <v>1.3793103448275808E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
-      <c r="B11" s="6">
+      <c r="B11">
         <v>837</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6">
+      <c r="D11">
         <v>191.8</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11">
         <v>299.12</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11">
         <v>300</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11">
         <f t="shared" si="4"/>
         <v>3.5714285714285587E-3</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="10">
         <f t="shared" si="5"/>
         <v>2.0689655172413713E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
-      <c r="B12" s="6">
+      <c r="B12">
         <v>836</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="11">
+      <c r="D12">
         <v>275.2</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12">
         <v>405</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12">
         <v>400</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12">
         <f t="shared" si="4"/>
         <v>4.761904761904745E-3</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="10">
         <f t="shared" si="5"/>
         <v>2.7586206896551616E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
-      <c r="B13" s="6">
+      <c r="B13">
         <v>835</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="11">
+      <c r="D13">
         <v>355.4</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13">
         <v>505.15</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13">
         <v>500</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13">
         <f t="shared" si="4"/>
         <v>5.9523809523809312E-3</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H13" s="10">
         <f t="shared" si="5"/>
         <v>3.4482758620689523E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8"/>
-      <c r="B14" s="9">
+    <row r="14" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8">
         <v>834</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9">
+      <c r="C14" s="8"/>
+      <c r="D14" s="8">
         <v>447.1</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="8">
         <v>620.29</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="8">
         <v>620</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="8">
         <f t="shared" si="4"/>
         <v>7.1428571428571175E-3</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H14" s="11">
         <f t="shared" si="5"/>
         <v>4.1379310344827426E-2</v>
       </c>
@@ -12190,7 +12173,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>2</v>
       </c>
@@ -12207,11 +12190,11 @@
       <c r="F15" s="4">
         <v>0</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15">
         <f>1-B15/$F$3</f>
         <v>0</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="6">
         <f>G15/$F$5</f>
         <v>0</v>
       </c>
@@ -12225,26 +12208,25 @@
         <v>0.1607142857142857</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
-      <c r="B16" s="11">
+      <c r="B16">
         <v>780</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="11">
+      <c r="D16">
         <v>139.19999999999999</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16">
         <v>196.1</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16">
         <v>200</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16">
         <f t="shared" ref="G16:G20" si="6">1-B16/$F$3</f>
         <v>0</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="6">
         <f t="shared" ref="H16:H20" si="7">G16/$F$5</f>
         <v>0</v>
       </c>
@@ -12258,26 +12240,25 @@
         <v>0.16626506024096388</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
-      <c r="B17" s="11">
+      <c r="B17">
         <v>781</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="11">
+      <c r="D17">
         <v>216</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17">
         <v>299.36</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17">
         <v>300</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17">
         <f t="shared" si="6"/>
         <v>-1.2820512820512775E-3</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="6">
         <f t="shared" si="7"/>
         <v>-7.5187969924811783E-3</v>
       </c>
@@ -12291,26 +12272,25 @@
         <v>0.15824175824175823</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
-      <c r="B18" s="11">
+      <c r="B18">
         <v>780</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="11">
+      <c r="D18">
         <v>299.7</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18">
         <v>405.16</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18">
         <v>400</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -12324,26 +12304,25 @@
         <v>0.18775510204081636</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
-      <c r="B19" s="11">
+      <c r="B19">
         <v>780</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="11">
+      <c r="D19">
         <v>378.1</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19">
         <v>502.88</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19">
         <v>500</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H19" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -12357,33 +12336,33 @@
         <v>0.16602316602316602</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="8"/>
-      <c r="B20" s="9">
+    <row r="20" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="7"/>
+      <c r="B20" s="8">
         <v>780</v>
       </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9">
+      <c r="C20" s="8"/>
+      <c r="D20" s="8">
         <v>472</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="8">
         <v>621.04999999999995</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="8">
         <v>620</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G20" s="8">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H20" s="10">
+      <c r="H20" s="9">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K20" s="1"/>
       <c r="O20" s="1"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>3</v>
       </c>
@@ -12400,61 +12379,59 @@
       <c r="F21" s="4">
         <v>0</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21">
         <f>1-B21/$H$3</f>
         <v>0</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H21" s="6">
         <f>G21/$H$5</f>
         <v>0</v>
       </c>
       <c r="K21" s="1"/>
       <c r="O21" s="2"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
-      <c r="B22" s="11">
+      <c r="B22">
         <v>709</v>
       </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="11">
+      <c r="D22">
         <v>124.21</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22">
         <v>198.37</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22">
         <v>200</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22">
         <f t="shared" ref="G22:G26" si="8">1-B22/$H$3</f>
         <v>0</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H22" s="6">
         <f t="shared" ref="H22:H32" si="9">G22/$H$5</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
-      <c r="B23" s="11">
+      <c r="B23">
         <v>708</v>
       </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="11">
+      <c r="D23">
         <v>201.4</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23">
         <v>302.14999999999998</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23">
         <v>300</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23">
         <f t="shared" si="8"/>
         <v>1.4104372355430161E-3</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H23" s="6">
         <f t="shared" si="9"/>
         <v>8.0645161290322474E-3</v>
       </c>
@@ -12468,79 +12445,77 @@
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
-      <c r="B24" s="11">
+      <c r="B24">
         <v>708</v>
       </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="11">
+      <c r="D24">
         <v>276.02</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24">
         <v>399.9</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24">
         <v>400</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24">
         <f t="shared" si="8"/>
         <v>1.4104372355430161E-3</v>
       </c>
-      <c r="H24" s="7">
+      <c r="H24" s="6">
         <f t="shared" si="9"/>
         <v>8.0645161290322474E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
-      <c r="B25" s="11">
+      <c r="B25">
         <v>707</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="11">
+      <c r="D25">
         <v>355.9</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E25">
         <v>500</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25">
         <v>500</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25">
         <f t="shared" si="8"/>
         <v>2.8208744710860323E-3</v>
       </c>
-      <c r="H25" s="7">
+      <c r="H25" s="6">
         <f t="shared" si="9"/>
         <v>1.6129032258064495E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="8"/>
-      <c r="B26" s="9">
+    <row r="26" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="7"/>
+      <c r="B26" s="8">
         <v>707</v>
       </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9">
+      <c r="C26" s="8"/>
+      <c r="D26" s="8">
         <v>452.32</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E26" s="8">
         <v>620.29</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F26" s="8">
         <v>620</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G26" s="8">
         <f t="shared" si="8"/>
         <v>2.8208744710860323E-3</v>
       </c>
-      <c r="H26" s="10">
+      <c r="H26" s="9">
         <f t="shared" si="9"/>
         <v>1.6129032258064495E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>4</v>
       </c>
@@ -12561,222 +12536,212 @@
         <f>1-B27/$J$3</f>
         <v>0</v>
       </c>
-      <c r="H27" s="7">
+      <c r="H27" s="6">
         <f>G27/$J$5</f>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
-      <c r="B28" s="11">
+      <c r="B28">
         <v>571</v>
       </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="11">
+      <c r="D28">
         <v>136.1</v>
       </c>
-      <c r="E28" s="11">
+      <c r="E28">
         <v>199.1</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F28">
         <v>200</v>
       </c>
-      <c r="G28" s="6">
+      <c r="G28">
         <f t="shared" ref="G28:G32" si="10">1-B28/$J$3</f>
         <v>0</v>
       </c>
-      <c r="H28" s="7">
+      <c r="H28" s="6">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="5"/>
-      <c r="B29" s="11">
+      <c r="B29">
         <v>571</v>
       </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="11">
+      <c r="D29">
         <v>212.39</v>
       </c>
-      <c r="E29" s="11">
+      <c r="E29">
         <v>301.39</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F29">
         <v>300</v>
       </c>
-      <c r="G29" s="6">
+      <c r="G29">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="H29" s="7">
+      <c r="H29" s="6">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M29" s="6" t="s">
+      <c r="M29" t="s">
         <v>46</v>
       </c>
-      <c r="N29" s="6"/>
-      <c r="O29" s="6"/>
-      <c r="P29" s="6"/>
-      <c r="Q29" s="6"/>
-      <c r="R29" s="6"/>
-      <c r="S29" s="6"/>
-    </row>
-    <row r="30" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5"/>
-      <c r="B30" s="11">
+      <c r="B30">
         <v>570</v>
       </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="11">
+      <c r="D30">
         <v>288.2</v>
       </c>
-      <c r="E30" s="11">
+      <c r="E30">
         <v>400.62</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F30">
         <v>400</v>
       </c>
-      <c r="G30" s="6">
+      <c r="G30">
         <f t="shared" si="10"/>
         <v>1.7513134851138146E-3</v>
       </c>
-      <c r="H30" s="7">
+      <c r="H30" s="6">
         <f t="shared" si="9"/>
         <v>1.0013558556013668E-2</v>
       </c>
       <c r="L30" t="s">
         <v>47</v>
       </c>
-      <c r="M30" s="27">
+      <c r="M30" s="17">
         <v>0</v>
       </c>
-      <c r="N30" s="28">
+      <c r="N30" s="18">
         <v>100</v>
       </c>
-      <c r="O30" s="28">
+      <c r="O30" s="18">
         <v>200</v>
       </c>
-      <c r="P30" s="28">
+      <c r="P30" s="18">
         <v>300</v>
       </c>
-      <c r="Q30" s="28">
+      <c r="Q30" s="18">
         <v>400</v>
       </c>
-      <c r="R30" s="28">
+      <c r="R30" s="18">
         <v>500</v>
       </c>
-      <c r="S30" s="28">
+      <c r="S30" s="18">
         <v>620</v>
       </c>
-      <c r="T30" s="30" t="s">
+      <c r="T30" s="20" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A31" s="5"/>
-      <c r="B31" s="11">
+      <c r="B31">
         <v>570</v>
       </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="11">
+      <c r="D31">
         <v>366.94</v>
       </c>
-      <c r="E31" s="11">
+      <c r="E31">
         <v>501.36</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F31">
         <v>500</v>
       </c>
-      <c r="G31" s="6">
+      <c r="G31">
         <f t="shared" si="10"/>
         <v>1.7513134851138146E-3</v>
       </c>
-      <c r="H31" s="7">
+      <c r="H31" s="6">
         <f t="shared" si="9"/>
         <v>1.0013558556013668E-2</v>
       </c>
-      <c r="L31" s="17">
+      <c r="L31" s="14">
         <v>840</v>
       </c>
-      <c r="M31" s="6">
+      <c r="M31">
         <v>0</v>
       </c>
-      <c r="N31" s="6" t="s">
+      <c r="N31" t="s">
         <v>47</v>
       </c>
-      <c r="O31" s="6">
+      <c r="O31">
         <v>114.32</v>
       </c>
-      <c r="P31" s="6">
+      <c r="P31">
         <v>191.8</v>
       </c>
-      <c r="Q31" s="11">
+      <c r="Q31">
         <v>275.2</v>
       </c>
-      <c r="R31" s="11">
+      <c r="R31">
         <v>355.4</v>
       </c>
-      <c r="S31" s="7">
+      <c r="S31" s="6">
         <v>447.1</v>
       </c>
       <c r="U31">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="8"/>
-      <c r="B32" s="9">
+    <row r="32" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="7"/>
+      <c r="B32" s="8">
         <v>570</v>
       </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9">
+      <c r="C32" s="8"/>
+      <c r="D32" s="8">
         <v>461.6</v>
       </c>
-      <c r="E32" s="9">
+      <c r="E32" s="8">
         <v>621.04999999999995</v>
       </c>
-      <c r="F32" s="9">
+      <c r="F32" s="8">
         <v>620</v>
       </c>
-      <c r="G32" s="9">
+      <c r="G32" s="8">
         <f t="shared" si="10"/>
         <v>1.7513134851138146E-3</v>
       </c>
-      <c r="H32" s="10">
+      <c r="H32" s="9">
         <f t="shared" si="9"/>
         <v>1.0013558556013668E-2</v>
       </c>
-      <c r="L32" s="18">
+      <c r="L32" s="15">
         <v>780</v>
       </c>
-      <c r="M32" s="6">
+      <c r="M32">
         <v>0</v>
       </c>
-      <c r="N32" s="6" t="s">
+      <c r="N32" t="s">
         <v>47</v>
       </c>
-      <c r="O32" s="11">
+      <c r="O32">
         <v>139.19999999999999</v>
       </c>
-      <c r="P32" s="11">
+      <c r="P32">
         <v>216</v>
       </c>
-      <c r="Q32" s="11">
+      <c r="Q32">
         <v>299.7</v>
       </c>
-      <c r="R32" s="11">
+      <c r="R32">
         <v>378.1</v>
       </c>
-      <c r="S32" s="7">
+      <c r="S32" s="6">
         <v>472</v>
       </c>
       <c r="U32">
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>5</v>
       </c>
@@ -12793,301 +12758,297 @@
       <c r="F33" s="4">
         <v>0</v>
       </c>
-      <c r="G33" s="6">
+      <c r="G33">
         <f>1-B33/$P$3</f>
         <v>-1.814882032667775E-3</v>
       </c>
-      <c r="H33" s="7">
+      <c r="H33" s="6">
         <f>G33/$P$5</f>
         <v>-1.0416666666666083E-2</v>
       </c>
       <c r="I33" t="s">
         <v>36</v>
       </c>
-      <c r="L33" s="18">
+      <c r="L33" s="15">
         <v>709</v>
       </c>
-      <c r="M33" s="6">
+      <c r="M33">
         <v>0</v>
       </c>
-      <c r="N33" s="6" t="s">
+      <c r="N33" t="s">
         <v>47</v>
       </c>
-      <c r="O33" s="11">
+      <c r="O33">
         <v>124.21</v>
       </c>
-      <c r="P33" s="11">
+      <c r="P33">
         <v>201.4</v>
       </c>
-      <c r="Q33" s="11">
+      <c r="Q33">
         <v>276.02</v>
       </c>
-      <c r="R33" s="11">
+      <c r="R33">
         <v>355.9</v>
       </c>
-      <c r="S33" s="7">
+      <c r="S33" s="6">
         <v>452.32</v>
       </c>
       <c r="U33">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" s="5"/>
-      <c r="B34" s="11">
+      <c r="B34">
         <v>551</v>
       </c>
-      <c r="C34" s="6"/>
-      <c r="D34" s="11">
+      <c r="D34">
         <v>129.26</v>
       </c>
-      <c r="E34" s="11">
+      <c r="E34">
         <v>201.4</v>
       </c>
-      <c r="F34" s="6">
+      <c r="F34">
         <v>200</v>
       </c>
-      <c r="G34" s="6">
+      <c r="G34">
         <f t="shared" ref="G34:G38" si="11">1-B34/$P$3</f>
         <v>0</v>
       </c>
-      <c r="H34" s="7">
+      <c r="H34" s="6">
         <f t="shared" ref="H34:H38" si="12">G34/$P$5</f>
         <v>0</v>
       </c>
-      <c r="L34" s="18">
+      <c r="L34" s="15">
         <v>571</v>
       </c>
-      <c r="M34" s="6">
+      <c r="M34">
         <v>0</v>
       </c>
-      <c r="N34" s="6" t="s">
+      <c r="N34" t="s">
         <v>47</v>
       </c>
-      <c r="O34" s="11">
+      <c r="O34">
         <v>136.1</v>
       </c>
-      <c r="P34" s="11">
+      <c r="P34">
         <v>212.39</v>
       </c>
-      <c r="Q34" s="11">
+      <c r="Q34">
         <v>288.2</v>
       </c>
-      <c r="R34" s="11">
+      <c r="R34">
         <v>366.94</v>
       </c>
-      <c r="S34" s="7">
+      <c r="S34" s="6">
         <v>461.6</v>
       </c>
       <c r="U34">
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" s="5"/>
-      <c r="B35" s="11">
+      <c r="B35">
         <v>551</v>
       </c>
-      <c r="C35" s="6"/>
-      <c r="D35" s="11">
+      <c r="D35">
         <v>201.3</v>
       </c>
-      <c r="E35" s="11">
+      <c r="E35">
         <v>297.60000000000002</v>
       </c>
-      <c r="F35" s="6">
+      <c r="F35">
         <v>300</v>
       </c>
-      <c r="G35" s="6">
+      <c r="G35">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="H35" s="7">
+      <c r="H35" s="6">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="L35" s="18">
+      <c r="L35" s="15">
         <v>112</v>
       </c>
-      <c r="M35" s="6">
+      <c r="M35">
         <v>0</v>
       </c>
-      <c r="N35" s="6" t="s">
+      <c r="N35" t="s">
         <v>47</v>
       </c>
-      <c r="O35" s="6" t="s">
+      <c r="O35" t="s">
         <v>47</v>
       </c>
-      <c r="P35" s="6" t="s">
+      <c r="P35" t="s">
         <v>47</v>
       </c>
-      <c r="Q35" s="6" t="s">
+      <c r="Q35" t="s">
         <v>47</v>
       </c>
-      <c r="R35" s="6" t="s">
+      <c r="R35" t="s">
         <v>47</v>
       </c>
-      <c r="S35" s="22">
+      <c r="S35" s="6">
         <v>334</v>
       </c>
       <c r="U35">
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36" s="5"/>
-      <c r="B36" s="11">
+      <c r="B36">
         <v>550</v>
       </c>
-      <c r="C36" s="6"/>
-      <c r="D36" s="11">
+      <c r="D36">
         <v>282.33999999999997</v>
       </c>
-      <c r="E36" s="11">
+      <c r="E36">
         <v>402.89</v>
       </c>
-      <c r="F36" s="6">
+      <c r="F36">
         <v>400</v>
       </c>
-      <c r="G36" s="6">
+      <c r="G36">
         <f t="shared" si="11"/>
         <v>1.8148820326678861E-3</v>
       </c>
-      <c r="H36" s="7">
+      <c r="H36" s="6">
         <f t="shared" si="12"/>
         <v>1.041666666666672E-2</v>
       </c>
-      <c r="L36" s="18">
+      <c r="L36" s="15">
         <v>415</v>
       </c>
-      <c r="M36" s="6">
+      <c r="M36">
         <v>0</v>
       </c>
-      <c r="N36" s="6" t="s">
+      <c r="N36" t="s">
         <v>47</v>
       </c>
-      <c r="O36" s="6" t="s">
+      <c r="O36" t="s">
         <v>47</v>
       </c>
-      <c r="P36" s="6" t="s">
+      <c r="P36" t="s">
         <v>47</v>
       </c>
-      <c r="Q36" s="6" t="s">
+      <c r="Q36" t="s">
         <v>47</v>
       </c>
-      <c r="R36" s="6" t="s">
+      <c r="R36" t="s">
         <v>47</v>
       </c>
-      <c r="S36" s="22">
+      <c r="S36" s="6">
         <v>444.8</v>
       </c>
       <c r="U36">
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" s="5"/>
-      <c r="B37" s="11">
+      <c r="B37">
         <v>550</v>
       </c>
-      <c r="C37" s="6"/>
-      <c r="D37" s="11">
+      <c r="D37">
         <v>360.24</v>
       </c>
-      <c r="E37" s="11">
+      <c r="E37">
         <v>502.88</v>
       </c>
-      <c r="F37" s="6">
+      <c r="F37">
         <v>500</v>
       </c>
-      <c r="G37" s="6">
+      <c r="G37">
         <f t="shared" si="11"/>
         <v>1.8148820326678861E-3</v>
       </c>
-      <c r="H37" s="7">
+      <c r="H37" s="6">
         <f t="shared" si="12"/>
         <v>1.041666666666672E-2</v>
       </c>
-      <c r="L37" s="18">
+      <c r="L37" s="15">
         <v>455</v>
       </c>
-      <c r="M37" s="6">
+      <c r="M37">
         <v>0</v>
       </c>
-      <c r="N37" s="6" t="s">
+      <c r="N37" t="s">
         <v>47</v>
       </c>
-      <c r="O37" s="6" t="s">
+      <c r="O37" t="s">
         <v>47</v>
       </c>
-      <c r="P37" s="6" t="s">
+      <c r="P37" t="s">
         <v>47</v>
       </c>
-      <c r="Q37" s="6" t="s">
+      <c r="Q37" t="s">
         <v>47</v>
       </c>
-      <c r="R37" s="6" t="s">
+      <c r="R37" t="s">
         <v>47</v>
       </c>
-      <c r="S37" s="22">
+      <c r="S37" s="6">
         <v>460</v>
       </c>
       <c r="U37">
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="8"/>
-      <c r="B38" s="9">
+    <row r="38" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="7"/>
+      <c r="B38" s="8">
         <v>549</v>
       </c>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9">
+      <c r="C38" s="8"/>
+      <c r="D38" s="8">
         <v>453.14</v>
       </c>
-      <c r="E38" s="9">
+      <c r="E38" s="8">
         <v>619.53</v>
       </c>
-      <c r="F38" s="9">
+      <c r="F38" s="8">
         <v>620</v>
       </c>
-      <c r="G38" s="9">
+      <c r="G38" s="8">
         <f t="shared" si="11"/>
         <v>3.6297640653357721E-3</v>
       </c>
-      <c r="H38" s="10">
+      <c r="H38" s="9">
         <f t="shared" si="12"/>
         <v>2.083333333333344E-2</v>
       </c>
-      <c r="L38" s="18">
+      <c r="L38" s="15">
         <v>490</v>
       </c>
-      <c r="M38" s="6">
+      <c r="M38">
         <v>0</v>
       </c>
-      <c r="N38" s="6" t="s">
+      <c r="N38" t="s">
         <v>47</v>
       </c>
-      <c r="O38" s="6" t="s">
+      <c r="O38" t="s">
         <v>47</v>
       </c>
-      <c r="P38" s="6" t="s">
+      <c r="P38" t="s">
         <v>47</v>
       </c>
-      <c r="Q38" s="6" t="s">
+      <c r="Q38" t="s">
         <v>47</v>
       </c>
-      <c r="R38" s="6" t="s">
+      <c r="R38" t="s">
         <v>47</v>
       </c>
-      <c r="S38" s="22">
+      <c r="S38" s="6">
         <v>451.38</v>
       </c>
       <c r="U38">
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>6</v>
       </c>
@@ -13104,301 +13065,297 @@
       <c r="F39" s="4">
         <v>0</v>
       </c>
-      <c r="G39" s="6">
+      <c r="G39">
         <f>1-B39/$Q$3</f>
         <v>-2.7700831024930483E-3</v>
       </c>
-      <c r="H39" s="7">
+      <c r="H39" s="6">
         <f>G39/$Q$5</f>
         <v>-1.612903225806436E-2</v>
       </c>
       <c r="I39" t="s">
         <v>36</v>
       </c>
-      <c r="L39" s="18">
+      <c r="L39" s="15">
         <v>518</v>
       </c>
-      <c r="M39" s="6">
+      <c r="M39">
         <v>0</v>
       </c>
-      <c r="N39" s="6" t="s">
+      <c r="N39" t="s">
         <v>47</v>
       </c>
-      <c r="O39" s="6" t="s">
+      <c r="O39" t="s">
         <v>47</v>
       </c>
-      <c r="P39" s="6" t="s">
+      <c r="P39" t="s">
         <v>47</v>
       </c>
-      <c r="Q39" s="6" t="s">
+      <c r="Q39" t="s">
         <v>47</v>
       </c>
-      <c r="R39" s="6" t="s">
+      <c r="R39" t="s">
         <v>47</v>
       </c>
-      <c r="S39" s="22">
+      <c r="S39" s="6">
         <v>455.83</v>
       </c>
       <c r="U39">
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A40" s="5"/>
-      <c r="B40" s="11">
+      <c r="B40">
         <v>361</v>
       </c>
-      <c r="C40" s="6"/>
-      <c r="D40" s="11">
+      <c r="D40">
         <v>121.5</v>
       </c>
-      <c r="E40" s="11">
+      <c r="E40">
         <v>199.89</v>
       </c>
-      <c r="F40" s="6">
+      <c r="F40">
         <v>200</v>
       </c>
-      <c r="G40" s="6">
+      <c r="G40">
         <f t="shared" ref="G40:G44" si="13">1-B40/$Q$3</f>
         <v>0</v>
       </c>
-      <c r="H40" s="7">
+      <c r="H40" s="6">
         <f t="shared" ref="H40:H44" si="14">G40/$Q$5</f>
         <v>0</v>
       </c>
-      <c r="L40" s="18">
+      <c r="L40" s="15">
         <v>551</v>
       </c>
-      <c r="M40" s="6">
+      <c r="M40">
         <v>0</v>
       </c>
-      <c r="N40" s="6" t="s">
+      <c r="N40" t="s">
         <v>47</v>
       </c>
-      <c r="O40" s="11">
+      <c r="O40">
         <v>129.26</v>
       </c>
-      <c r="P40" s="11">
+      <c r="P40">
         <v>201.3</v>
       </c>
-      <c r="Q40" s="11">
+      <c r="Q40">
         <v>282.33999999999997</v>
       </c>
-      <c r="R40" s="11">
+      <c r="R40">
         <v>360.24</v>
       </c>
-      <c r="S40" s="7">
+      <c r="S40" s="6">
         <v>453.14</v>
       </c>
       <c r="U40">
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A41" s="5"/>
-      <c r="B41" s="11">
+      <c r="B41">
         <v>361</v>
       </c>
-      <c r="C41" s="6"/>
-      <c r="D41" s="11">
+      <c r="D41">
         <v>192.91</v>
       </c>
-      <c r="E41" s="11">
+      <c r="E41">
         <v>298.36</v>
       </c>
-      <c r="F41" s="6">
+      <c r="F41">
         <v>300</v>
       </c>
-      <c r="G41" s="6">
+      <c r="G41">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H41" s="7">
+      <c r="H41" s="6">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="L41" s="18">
+      <c r="L41" s="15">
         <v>361</v>
       </c>
-      <c r="M41" s="6">
+      <c r="M41">
         <v>0</v>
       </c>
-      <c r="N41" s="6" t="s">
+      <c r="N41" t="s">
         <v>47</v>
       </c>
-      <c r="O41" s="11">
+      <c r="O41">
         <v>121.5</v>
       </c>
-      <c r="P41" s="11">
+      <c r="P41">
         <v>192.91</v>
       </c>
-      <c r="Q41" s="11">
+      <c r="Q41">
         <v>269</v>
       </c>
-      <c r="R41" s="11">
+      <c r="R41">
         <v>344.5</v>
       </c>
-      <c r="S41" s="7">
+      <c r="S41" s="6">
         <v>436.4</v>
       </c>
       <c r="U41">
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
-      <c r="B42" s="11">
+      <c r="B42">
         <v>361</v>
       </c>
-      <c r="C42" s="6"/>
-      <c r="D42" s="11">
+      <c r="D42">
         <v>269</v>
       </c>
-      <c r="E42" s="11">
+      <c r="E42">
         <v>400</v>
       </c>
-      <c r="F42" s="6">
+      <c r="F42">
         <v>400</v>
       </c>
-      <c r="G42" s="6">
+      <c r="G42">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H42" s="7">
+      <c r="H42" s="6">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="L42" s="20">
+      <c r="L42" s="15">
         <v>54</v>
       </c>
-      <c r="M42" s="6">
+      <c r="M42">
         <v>0</v>
       </c>
-      <c r="N42" s="6" t="s">
+      <c r="N42" t="s">
         <v>47</v>
       </c>
-      <c r="O42" s="11">
+      <c r="O42">
         <v>56.1</v>
       </c>
-      <c r="P42" s="11">
+      <c r="P42">
         <v>103.37</v>
       </c>
-      <c r="Q42" s="11">
+      <c r="Q42">
         <v>155.44999999999999</v>
       </c>
-      <c r="R42" s="11">
+      <c r="R42">
         <v>207</v>
       </c>
-      <c r="S42" s="7">
+      <c r="S42" s="6">
         <v>266.5</v>
       </c>
       <c r="U42">
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A43" s="5"/>
-      <c r="B43" s="11">
+      <c r="B43">
         <v>361</v>
       </c>
-      <c r="C43" s="6"/>
-      <c r="D43" s="11">
+      <c r="D43">
         <v>344.5</v>
       </c>
-      <c r="E43" s="11">
+      <c r="E43">
         <v>500</v>
       </c>
-      <c r="F43" s="6">
+      <c r="F43">
         <v>500</v>
       </c>
-      <c r="G43" s="6">
+      <c r="G43">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H43" s="7">
+      <c r="H43" s="6">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="L43" s="20">
+      <c r="L43" s="15">
         <v>27</v>
       </c>
-      <c r="M43" s="6">
+      <c r="M43">
         <v>0</v>
       </c>
-      <c r="N43" s="6" t="s">
+      <c r="N43" t="s">
         <v>47</v>
       </c>
-      <c r="O43" s="6" t="s">
+      <c r="O43" t="s">
         <v>47</v>
       </c>
-      <c r="P43" s="6" t="s">
+      <c r="P43" t="s">
         <v>47</v>
       </c>
-      <c r="Q43" s="6" t="s">
+      <c r="Q43" t="s">
         <v>47</v>
       </c>
-      <c r="R43" s="6" t="s">
+      <c r="R43" t="s">
         <v>47</v>
       </c>
-      <c r="S43" s="22">
+      <c r="S43" s="6">
         <v>135.32</v>
       </c>
       <c r="U43">
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="8"/>
-      <c r="B44" s="9">
+    <row r="44" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="7"/>
+      <c r="B44" s="8">
         <v>360</v>
       </c>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9">
+      <c r="C44" s="8"/>
+      <c r="D44" s="8">
         <v>436.4</v>
       </c>
-      <c r="E44" s="9">
+      <c r="E44" s="8">
         <v>620</v>
       </c>
-      <c r="F44" s="9">
+      <c r="F44" s="8">
         <v>620</v>
       </c>
-      <c r="G44" s="9">
+      <c r="G44" s="8">
         <f t="shared" si="13"/>
         <v>2.7700831024930483E-3</v>
       </c>
-      <c r="H44" s="10">
+      <c r="H44" s="9">
         <f t="shared" si="14"/>
         <v>1.612903225806436E-2</v>
       </c>
-      <c r="L44" s="20">
+      <c r="L44" s="15">
         <v>69</v>
       </c>
-      <c r="M44" s="6">
+      <c r="M44">
         <v>0</v>
       </c>
-      <c r="N44" s="6" t="s">
+      <c r="N44" t="s">
         <v>47</v>
       </c>
-      <c r="O44" s="6" t="s">
+      <c r="O44" t="s">
         <v>47</v>
       </c>
-      <c r="P44" s="6" t="s">
+      <c r="P44" t="s">
         <v>47</v>
       </c>
-      <c r="Q44" s="6" t="s">
+      <c r="Q44" t="s">
         <v>47</v>
       </c>
-      <c r="R44" s="6" t="s">
+      <c r="R44" t="s">
         <v>47</v>
       </c>
-      <c r="S44" s="22">
+      <c r="S44" s="6">
         <v>271.48</v>
       </c>
       <c r="U44">
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>7</v>
       </c>
@@ -13419,301 +13376,297 @@
         <f>1-B45/$R$3</f>
         <v>0</v>
       </c>
-      <c r="H45" s="15">
+      <c r="H45" s="13">
         <f>G45/$R$5</f>
         <v>0</v>
       </c>
       <c r="I45" t="s">
         <v>36</v>
       </c>
-      <c r="L45" s="20">
+      <c r="L45" s="15">
         <v>275</v>
       </c>
-      <c r="M45" s="6">
+      <c r="M45">
         <v>0</v>
       </c>
-      <c r="N45" s="6" t="s">
+      <c r="N45" t="s">
         <v>47</v>
       </c>
-      <c r="O45" s="6" t="s">
+      <c r="O45" t="s">
         <v>47</v>
       </c>
-      <c r="P45" s="6" t="s">
+      <c r="P45" t="s">
         <v>47</v>
       </c>
-      <c r="Q45" s="6" t="s">
+      <c r="Q45" t="s">
         <v>47</v>
       </c>
-      <c r="R45" s="6" t="s">
+      <c r="R45" t="s">
         <v>47</v>
       </c>
-      <c r="S45" s="22">
+      <c r="S45" s="6">
         <v>412.3</v>
       </c>
       <c r="U45">
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A46" s="5"/>
-      <c r="B46" s="11">
+      <c r="B46">
         <v>54</v>
       </c>
-      <c r="C46" s="6"/>
-      <c r="D46" s="11">
+      <c r="D46">
         <v>56.1</v>
       </c>
-      <c r="E46" s="11">
+      <c r="E46">
         <v>198.37</v>
       </c>
-      <c r="F46" s="6">
+      <c r="F46">
         <v>200</v>
       </c>
-      <c r="G46" s="6">
+      <c r="G46">
         <f t="shared" ref="G46:G50" si="15">1-B46/$R$3</f>
         <v>0</v>
       </c>
-      <c r="H46" s="7">
+      <c r="H46" s="6">
         <f t="shared" ref="H46:H50" si="16">G46/$R$5</f>
         <v>0</v>
       </c>
-      <c r="L46" s="20">
+      <c r="L46" s="15">
         <v>151</v>
       </c>
-      <c r="M46" s="6">
+      <c r="M46">
         <v>0</v>
       </c>
-      <c r="N46" s="6" t="s">
+      <c r="N46" t="s">
         <v>47</v>
       </c>
-      <c r="O46" s="6" t="s">
+      <c r="O46" t="s">
         <v>47</v>
       </c>
-      <c r="P46" s="6" t="s">
+      <c r="P46" t="s">
         <v>47</v>
       </c>
-      <c r="Q46" s="6" t="s">
+      <c r="Q46" t="s">
         <v>47</v>
       </c>
-      <c r="R46" s="6" t="s">
+      <c r="R46" t="s">
         <v>47</v>
       </c>
-      <c r="S46" s="22">
+      <c r="S46" s="6">
         <v>347.11</v>
       </c>
       <c r="U46">
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A47" s="5"/>
-      <c r="B47" s="11">
+      <c r="B47">
         <v>54</v>
       </c>
-      <c r="C47" s="6"/>
-      <c r="D47" s="11">
+      <c r="D47">
         <v>103.37</v>
       </c>
-      <c r="E47" s="11">
+      <c r="E47">
         <v>299.12</v>
       </c>
-      <c r="F47" s="6">
+      <c r="F47">
         <v>300</v>
       </c>
-      <c r="G47" s="6">
+      <c r="G47">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="H47" s="7">
+      <c r="H47" s="6">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L47" s="20">
+      <c r="L47" s="15">
         <v>193</v>
       </c>
-      <c r="M47" s="6">
+      <c r="M47">
         <v>0</v>
       </c>
-      <c r="N47" s="6" t="s">
+      <c r="N47" t="s">
         <v>47</v>
       </c>
-      <c r="O47" s="6" t="s">
+      <c r="O47" t="s">
         <v>47</v>
       </c>
-      <c r="P47" s="6" t="s">
+      <c r="P47" t="s">
         <v>47</v>
       </c>
-      <c r="Q47" s="6" t="s">
+      <c r="Q47" t="s">
         <v>47</v>
       </c>
-      <c r="R47" s="6" t="s">
+      <c r="R47" t="s">
         <v>47</v>
       </c>
-      <c r="S47" s="22">
+      <c r="S47" s="6">
         <v>396.17</v>
       </c>
       <c r="U47">
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A48" s="5"/>
-      <c r="B48" s="11">
+      <c r="B48">
         <v>54</v>
       </c>
-      <c r="C48" s="6"/>
-      <c r="D48" s="11">
+      <c r="D48">
         <v>155.44999999999999</v>
       </c>
-      <c r="E48" s="11">
+      <c r="E48">
         <v>403.65</v>
       </c>
-      <c r="F48" s="6">
+      <c r="F48">
         <v>400</v>
       </c>
-      <c r="G48" s="6">
+      <c r="G48">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="H48" s="7">
+      <c r="H48" s="6">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L48" s="20">
+      <c r="L48" s="15">
         <v>10</v>
       </c>
-      <c r="M48" s="6">
+      <c r="M48">
         <v>0</v>
       </c>
-      <c r="N48" s="6" t="s">
+      <c r="N48" t="s">
         <v>47</v>
       </c>
-      <c r="O48" s="6" t="s">
+      <c r="O48" t="s">
         <v>47</v>
       </c>
-      <c r="P48" s="6" t="s">
+      <c r="P48" t="s">
         <v>47</v>
       </c>
-      <c r="Q48" s="6" t="s">
+      <c r="Q48" t="s">
         <v>47</v>
       </c>
-      <c r="R48" s="6" t="s">
+      <c r="R48" t="s">
         <v>47</v>
       </c>
-      <c r="S48" s="22">
+      <c r="S48" s="6">
         <v>8.3000000000000007</v>
       </c>
       <c r="U48">
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A49" s="5"/>
-      <c r="B49" s="11">
+      <c r="B49">
         <v>54</v>
       </c>
-      <c r="C49" s="6"/>
-      <c r="D49" s="11">
+      <c r="D49">
         <v>207</v>
       </c>
-      <c r="E49" s="11">
+      <c r="E49">
         <v>504.39</v>
       </c>
-      <c r="F49" s="6">
+      <c r="F49">
         <v>500</v>
       </c>
-      <c r="G49" s="6">
+      <c r="G49">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="H49" s="7">
+      <c r="H49" s="6">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L49" s="20">
+      <c r="L49" s="15">
         <v>120</v>
       </c>
-      <c r="M49" s="6">
+      <c r="M49">
         <v>0</v>
       </c>
-      <c r="N49" s="6">
+      <c r="N49">
         <v>19.7</v>
       </c>
-      <c r="O49" s="6">
+      <c r="O49">
         <v>66</v>
       </c>
-      <c r="P49" s="6">
+      <c r="P49">
         <v>124.82</v>
       </c>
-      <c r="Q49" s="6">
+      <c r="Q49">
         <v>195.1</v>
       </c>
-      <c r="R49" s="6">
+      <c r="R49">
         <v>258.3</v>
       </c>
-      <c r="S49" s="22">
+      <c r="S49" s="6">
         <v>341.5</v>
       </c>
       <c r="U49">
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="8"/>
-      <c r="B50" s="9">
+    <row r="50" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="7"/>
+      <c r="B50" s="8">
         <v>54</v>
       </c>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9">
+      <c r="C50" s="8"/>
+      <c r="D50" s="8">
         <v>266.5</v>
       </c>
-      <c r="E50" s="9">
+      <c r="E50" s="8">
         <v>619</v>
       </c>
-      <c r="F50" s="9">
+      <c r="F50" s="8">
         <v>620</v>
       </c>
-      <c r="G50" s="9">
+      <c r="G50" s="8">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="H50" s="10">
+      <c r="H50" s="9">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L50" s="20">
+      <c r="L50" s="15">
         <v>220</v>
       </c>
-      <c r="M50" s="6">
+      <c r="M50">
         <v>0</v>
       </c>
-      <c r="N50" s="6">
+      <c r="N50">
         <v>23</v>
       </c>
-      <c r="O50" s="6">
+      <c r="O50">
         <v>80.8</v>
       </c>
-      <c r="P50" s="6">
+      <c r="P50">
         <v>146.19999999999999</v>
       </c>
-      <c r="Q50" s="6">
+      <c r="Q50">
         <v>215.6</v>
       </c>
-      <c r="R50" s="6">
+      <c r="R50">
         <v>289.8</v>
       </c>
-      <c r="S50" s="22">
+      <c r="S50" s="6">
         <v>377.23</v>
       </c>
       <c r="U50">
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>8</v>
       </c>
-      <c r="B51" s="23">
+      <c r="B51" s="4">
         <v>27</v>
       </c>
       <c r="C51" s="4"/>
@@ -13723,186 +13676,186 @@
       <c r="E51" s="4">
         <v>2.94</v>
       </c>
-      <c r="F51" s="23">
+      <c r="F51" s="4">
         <v>0</v>
       </c>
-      <c r="G51" s="23">
+      <c r="G51" s="4">
         <f>1-B51/$S$3</f>
         <v>0</v>
       </c>
-      <c r="H51" s="24">
+      <c r="H51" s="13">
         <f>G51/$S$5</f>
         <v>0</v>
       </c>
       <c r="I51" t="s">
         <v>36</v>
       </c>
-      <c r="L51" s="18">
+      <c r="L51" s="15">
         <v>260</v>
       </c>
-      <c r="M51" s="6">
+      <c r="M51">
         <v>0</v>
       </c>
-      <c r="N51" s="6">
+      <c r="N51">
         <v>31.9</v>
       </c>
-      <c r="O51" s="6">
+      <c r="O51">
         <v>89.7</v>
       </c>
-      <c r="P51" s="6">
+      <c r="P51">
         <v>154.6</v>
       </c>
-      <c r="Q51" s="6">
+      <c r="Q51">
         <v>225.3</v>
       </c>
-      <c r="R51" s="6">
+      <c r="R51">
         <v>294.8</v>
       </c>
-      <c r="S51" s="22">
+      <c r="S51" s="6">
         <v>385.4</v>
       </c>
       <c r="U51">
         <v>21</v>
       </c>
     </row>
-    <row r="52" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="8"/>
-      <c r="B52" s="9">
+    <row r="52" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="7"/>
+      <c r="B52" s="8">
         <v>27</v>
       </c>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9">
+      <c r="C52" s="8"/>
+      <c r="D52" s="8">
         <v>135.32</v>
       </c>
-      <c r="E52" s="9">
+      <c r="E52" s="8">
         <v>619.53</v>
       </c>
-      <c r="F52" s="25">
+      <c r="F52" s="8">
         <v>620</v>
       </c>
-      <c r="G52" s="25">
+      <c r="G52" s="8">
         <f t="shared" ref="G52:G54" si="17">1-B52/$S$3</f>
         <v>0</v>
       </c>
-      <c r="H52" s="26">
+      <c r="H52" s="9">
         <f t="shared" ref="H52:H54" si="18">G52/$S$5</f>
         <v>0</v>
       </c>
-      <c r="L52" s="18">
+      <c r="L52" s="15">
         <v>281</v>
       </c>
-      <c r="M52" s="6">
+      <c r="M52">
         <v>0</v>
       </c>
-      <c r="N52" s="6">
+      <c r="N52">
         <v>54.65</v>
       </c>
-      <c r="O52" s="6">
+      <c r="O52">
         <v>117.8</v>
       </c>
-      <c r="P52" s="6">
+      <c r="P52">
         <v>185</v>
       </c>
-      <c r="Q52" s="6">
+      <c r="Q52">
         <v>257.2</v>
       </c>
-      <c r="R52" s="6">
+      <c r="R52">
         <v>329.9</v>
       </c>
-      <c r="S52" s="22">
+      <c r="S52" s="6">
         <v>415.8</v>
       </c>
       <c r="U52">
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
         <v>9</v>
       </c>
-      <c r="B53" s="23">
+      <c r="B53" s="4">
         <v>61</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="4">
         <v>4</v>
       </c>
-      <c r="E53" s="23">
+      <c r="E53" s="4">
         <v>2.94</v>
       </c>
       <c r="F53" s="4">
         <v>0</v>
       </c>
-      <c r="G53" s="23">
+      <c r="G53" s="4">
         <f>1-B53/$T$3</f>
         <v>0.11594202898550721</v>
       </c>
-      <c r="H53" s="24">
+      <c r="H53" s="13">
         <f>G53/$T$5</f>
         <v>0.72727272727272685</v>
       </c>
       <c r="I53" t="s">
         <v>36</v>
       </c>
-      <c r="L53" s="18">
+      <c r="L53" s="15">
         <v>281</v>
       </c>
-      <c r="M53" s="9">
+      <c r="M53" s="8">
         <v>0</v>
       </c>
-      <c r="N53" s="9">
+      <c r="N53" s="8">
         <v>37.1</v>
       </c>
-      <c r="O53" s="9">
+      <c r="O53" s="8">
         <v>101.1</v>
       </c>
-      <c r="P53" s="9">
+      <c r="P53" s="8">
         <v>170.4</v>
       </c>
-      <c r="Q53" s="9">
+      <c r="Q53" s="8">
         <v>242.3</v>
       </c>
-      <c r="R53" s="9">
+      <c r="R53" s="8">
         <v>314.2</v>
       </c>
-      <c r="S53" s="26">
+      <c r="S53" s="9">
         <v>406</v>
       </c>
       <c r="U53">
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="8"/>
-      <c r="B54" s="25">
+    <row r="54" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="7"/>
+      <c r="B54" s="8">
         <v>61</v>
       </c>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9">
+      <c r="C54" s="8"/>
+      <c r="D54" s="8">
         <v>271.48</v>
       </c>
-      <c r="E54" s="9">
+      <c r="E54" s="8">
         <v>621.79999999999995</v>
       </c>
-      <c r="F54" s="9">
+      <c r="F54" s="8">
         <v>620</v>
       </c>
-      <c r="G54" s="25">
+      <c r="G54" s="8">
         <f t="shared" si="17"/>
         <v>-1.2592592592592591</v>
       </c>
-      <c r="H54" s="26">
+      <c r="H54" s="9">
         <f t="shared" si="18"/>
         <v>-8.5</v>
       </c>
-      <c r="L54" s="29" t="s">
+      <c r="L54" s="19" t="s">
         <v>32</v>
       </c>
       <c r="T54" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>10</v>
       </c>
@@ -13919,11 +13872,11 @@
       <c r="F55" s="4">
         <v>0</v>
       </c>
-      <c r="G55" s="23">
+      <c r="G55" s="4">
         <f>1-B55/$U$3</f>
         <v>0</v>
       </c>
-      <c r="H55" s="24">
+      <c r="H55" s="13">
         <f>G55/$U$5</f>
         <v>0</v>
       </c>
@@ -13931,31 +13884,31 @@
         <v>36</v>
       </c>
     </row>
-    <row r="56" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="8"/>
-      <c r="B56" s="9">
+    <row r="56" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="7"/>
+      <c r="B56" s="8">
         <v>273</v>
       </c>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9">
+      <c r="C56" s="8"/>
+      <c r="D56" s="8">
         <v>412.3</v>
       </c>
-      <c r="E56" s="9">
+      <c r="E56" s="8">
         <v>619</v>
       </c>
-      <c r="F56" s="9">
+      <c r="F56" s="8">
         <v>620</v>
       </c>
-      <c r="G56" s="25">
+      <c r="G56" s="8">
         <f>1-B56/$U$3</f>
         <v>7.2727272727273196E-3</v>
       </c>
-      <c r="H56" s="26">
+      <c r="H56" s="9">
         <f>G56/$U$5</f>
         <v>4.2553191489361979E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>11</v>
       </c>
@@ -13972,11 +13925,11 @@
       <c r="F57" s="4">
         <v>0</v>
       </c>
-      <c r="G57" s="23">
+      <c r="G57" s="4">
         <f>1-B57/$V$3</f>
         <v>0</v>
       </c>
-      <c r="H57" s="24">
+      <c r="H57" s="13">
         <f>G57/$V$5</f>
         <v>0</v>
       </c>
@@ -13984,31 +13937,31 @@
         <v>36</v>
       </c>
     </row>
-    <row r="58" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="8"/>
-      <c r="B58" s="9">
+    <row r="58" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="7"/>
+      <c r="B58" s="8">
         <v>149</v>
       </c>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9">
+      <c r="C58" s="8"/>
+      <c r="D58" s="8">
         <v>347.11</v>
       </c>
-      <c r="E58" s="9">
+      <c r="E58" s="8">
         <v>619.53</v>
       </c>
-      <c r="F58" s="9">
+      <c r="F58" s="8">
         <v>620</v>
       </c>
-      <c r="G58" s="25">
+      <c r="G58" s="8">
         <f>1-B58/$V$3</f>
         <v>1.3245033112582738E-2</v>
       </c>
-      <c r="H58" s="26">
+      <c r="H58" s="9">
         <f>G58/$V$5</f>
         <v>8.6956521739130155E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>12</v>
       </c>
@@ -14025,11 +13978,11 @@
       <c r="F59" s="4">
         <v>0</v>
       </c>
-      <c r="G59" s="23">
+      <c r="G59" s="4">
         <f>1-B59/$W$3</f>
         <v>-5.1813471502590858E-3</v>
       </c>
-      <c r="H59" s="24">
+      <c r="H59" s="13">
         <f>G59/$W$5</f>
         <v>-3.1250000000000104E-2</v>
       </c>
@@ -14037,31 +13990,31 @@
         <v>36</v>
       </c>
     </row>
-    <row r="60" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="8"/>
-      <c r="B60" s="9">
+    <row r="60" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="7"/>
+      <c r="B60" s="8">
         <v>193</v>
       </c>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9">
+      <c r="C60" s="8"/>
+      <c r="D60" s="8">
         <v>396.17</v>
       </c>
-      <c r="E60" s="9">
+      <c r="E60" s="8">
         <v>618.77</v>
       </c>
-      <c r="F60" s="9">
+      <c r="F60" s="8">
         <v>620</v>
       </c>
-      <c r="G60" s="25">
+      <c r="G60" s="8">
         <f>1-B60/$W$3</f>
         <v>0</v>
       </c>
-      <c r="H60" s="26">
+      <c r="H60" s="9">
         <f>G60/$W$5</f>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
         <v>13</v>
       </c>
@@ -14078,58 +14031,58 @@
       <c r="F61" s="4">
         <v>0</v>
       </c>
-      <c r="G61" s="25">
+      <c r="G61" s="8">
         <f>1-B61/$X$3</f>
         <v>0</v>
       </c>
-      <c r="H61" s="26">
+      <c r="H61" s="9">
         <f>G61/$X$5</f>
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="8"/>
-      <c r="B62" s="9">
+    <row r="62" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="7"/>
+      <c r="B62" s="8">
         <v>10</v>
       </c>
-      <c r="C62" s="9"/>
-      <c r="D62" s="9">
+      <c r="C62" s="8"/>
+      <c r="D62" s="8">
         <v>8.3000000000000007</v>
       </c>
-      <c r="E62" s="9">
+      <c r="E62" s="8">
         <v>620</v>
       </c>
-      <c r="F62" s="9">
+      <c r="F62" s="8">
         <v>620</v>
       </c>
-      <c r="G62" s="25">
+      <c r="G62" s="8">
         <f>1-B62/$X$3</f>
         <v>0</v>
       </c>
-      <c r="H62" s="26">
+      <c r="H62" s="9">
         <f>G62/$X$5</f>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A63" s="3"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
-      <c r="G63" s="23"/>
-      <c r="H63" s="24"/>
-    </row>
-    <row r="64" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="8"/>
-      <c r="B64" s="9"/>
-      <c r="C64" s="9"/>
-      <c r="D64" s="9"/>
-      <c r="E64" s="9"/>
-      <c r="F64" s="9"/>
-      <c r="G64" s="25"/>
-      <c r="H64" s="26"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="13"/>
+    </row>
+    <row r="64" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="7"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Testing_Data/StraightForceTest.xlsx
+++ b/Testing_Data/StraightForceTest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Documents\GitHub\Bipedal_Robot\Testing_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74646382-9DE3-4196-A402-CDAD39ED4CA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77A78425-D4AF-4679-989B-0F9B6312CDB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31545" yWindow="3015" windowWidth="21630" windowHeight="11250" activeTab="1" xr2:uid="{CE45C211-BD3F-4CC7-8CF8-DB47A93DE884}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{CE45C211-BD3F-4CC7-8CF8-DB47A93DE884}"/>
   </bookViews>
   <sheets>
     <sheet name="11.2 cm, no T" sheetId="2" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Fmax(L)" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>

--- a/Testing_Data/StraightForceTest.xlsx
+++ b/Testing_Data/StraightForceTest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Documents\GitHub\Bipedal_Robot\Testing_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77A78425-D4AF-4679-989B-0F9B6312CDB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBAFB37B-3D50-44B0-8882-14C128641CE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{CE45C211-BD3F-4CC7-8CF8-DB47A93DE884}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{CE45C211-BD3F-4CC7-8CF8-DB47A93DE884}"/>
   </bookViews>
   <sheets>
     <sheet name="11.2 cm, no T" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,6 @@
     <sheet name="Fmax(L)" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2767,10 +2766,10 @@
                   <c:v>464</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>416</c:v>
+                  <c:v>433</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>308.77</c:v>
+                  <c:v>320</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>356</c:v>
@@ -8776,7 +8775,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0289F67D-1B36-4222-87CA-07D1B890BA50}">
   <dimension ref="A1:U30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -9770,8 +9769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{050AE67D-A238-4925-A0DE-87F77397D646}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10270,8 +10269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C902C6E6-059B-43BE-A924-BB7C80CB41D4}">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10412,8 +10411,8 @@
         <v>486</v>
       </c>
       <c r="C9">
-        <f>433-17</f>
-        <v>416</v>
+        <f>433</f>
+        <v>433</v>
       </c>
       <c r="D9">
         <v>616</v>
@@ -10438,8 +10437,8 @@
         <v>475</v>
       </c>
       <c r="C10">
-        <f>320-11.23</f>
-        <v>308.77</v>
+        <f>320</f>
+        <v>320</v>
       </c>
       <c r="D10">
         <v>618</v>
@@ -11417,8 +11416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57CFFEA6-F038-4ADE-B4DB-050B0246E0CF}">
   <dimension ref="A1:AC64"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="X41" sqref="X41"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="Y5" sqref="Y5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Testing_Data/StraightForceTest.xlsx
+++ b/Testing_Data/StraightForceTest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Documents\GitHub\Bipedal_Robot\Testing_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBAFB37B-3D50-44B0-8882-14C128641CE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{145EDA43-3415-427C-B820-B7BDC2D2567F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{CE45C211-BD3F-4CC7-8CF8-DB47A93DE884}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{CE45C211-BD3F-4CC7-8CF8-DB47A93DE884}"/>
   </bookViews>
   <sheets>
     <sheet name="11.2 cm, no T" sheetId="2" r:id="rId1"/>
@@ -38,6 +38,24 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={C0933719-F29F-4D06-A942-723E036E6640}</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{C0933719-F29F-4D06-A942-723E036E6640}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Changed resting length to 515</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -197,7 +215,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -218,6 +236,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3154,7 +3178,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Force vs. Relative Strain, 49.0 cm</a:t>
+              <a:t>Force vs. Relative Strain, 51.8 cm</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3290,64 +3314,64 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0116279069767442</c:v>
+                  <c:v>1.0120481927710843</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0348837209302324</c:v>
+                  <c:v>1.0361445783132532</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.90697674418604668</c:v>
+                  <c:v>0.90361445783132577</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.4883720930232488E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.13953488372092995</c:v>
+                  <c:v>0.10843373493975915</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.23255813953488391</c:v>
+                  <c:v>0.20481927710843409</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.33720930232558138</c:v>
+                  <c:v>0.31325301204819256</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.47674418604651136</c:v>
+                  <c:v>0.45783132530120496</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.91860465116279089</c:v>
+                  <c:v>0.91566265060240992</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.81395348837209269</c:v>
+                  <c:v>0.80722891566265076</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.69767441860465107</c:v>
+                  <c:v>0.68674698795180744</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.61627906976744196</c:v>
+                  <c:v>0.6024096385542167</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.52325581395348864</c:v>
+                  <c:v>0.50602409638554247</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.3255813953488327E-2</c:v>
+                  <c:v>-1.2048192771084884E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.9767441860464977E-2</c:v>
+                  <c:v>3.6144578313253281E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.18604651162790728</c:v>
+                  <c:v>0.15662650602409661</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.11627906976744162</c:v>
+                  <c:v>8.4337349397590064E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.38372093023255804</c:v>
+                  <c:v>0.36144578313253001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.30232558139534887</c:v>
+                  <c:v>0.27710843373493999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>-3.6144578313253281E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3371,7 +3395,7 @@
                   <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>427.6</c:v>
+                  <c:v>443.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>347</c:v>
@@ -3419,7 +3443,7 @@
                   <c:v>278</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>429</c:v>
+                  <c:v>518</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3922,16 +3946,16 @@
                   <c:v>461.6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>334</c:v>
+                  <c:v>348.58</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>444.82220000000001</c:v>
+                  <c:v>459.63</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>460</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>451.38</c:v>
+                  <c:v>458.6</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>455.83</c:v>
@@ -4241,7 +4265,7 @@
           </c:marker>
           <c:trendline>
             <c:trendlineType val="poly"/>
-            <c:order val="5"/>
+            <c:order val="2"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -4387,7 +4411,7 @@
                   <c:v>0.18775510204081636</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.16602316602316602</c:v>
+                  <c:v>0.16116504854368929</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0.17422867513611617</c:v>
@@ -8266,6 +8290,12 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Ben Bolen" id="{BF8D1625-453C-4F9B-90F4-27D3407028E0}" userId="S::bbolen@pdx.edu::2756ab96-c1b4-4d6e-be6a-ace1ad4a8569" providerId="AD"/>
+</personList>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -8561,6 +8591,14 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="B1" dT="2023-12-10T07:41:58.62" personId="{BF8D1625-453C-4F9B-90F4-27D3407028E0}" id="{C0933719-F29F-4D06-A942-723E036E6640}">
+    <text>Changed resting length to 515</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF5D9837-CB16-4300-A1DA-BD967A7687F8}">
   <dimension ref="A1:Q14"/>
@@ -8775,8 +8813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0289F67D-1B36-4222-87CA-07D1B890BA50}">
   <dimension ref="A1:U30"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9769,8 +9807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{050AE67D-A238-4925-A0DE-87F77397D646}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10269,8 +10307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C902C6E6-059B-43BE-A924-BB7C80CB41D4}">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10830,11 +10868,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB2BFFE4-73AB-4B28-8B60-9C656B1F81F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB2BFFE4-73AB-4B28-8B60-9C656B1F81F0}">
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10852,7 +10890,7 @@
         <v>5</v>
       </c>
       <c r="B1">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="D1" t="s">
         <v>37</v>
@@ -10879,7 +10917,7 @@
       </c>
       <c r="B3">
         <f>1-B2/B1</f>
-        <v>0.16602316602316602</v>
+        <v>0.16116504854368929</v>
       </c>
       <c r="I3" s="1"/>
       <c r="M3" s="2"/>
@@ -10919,7 +10957,7 @@
       </c>
       <c r="E6">
         <f t="shared" ref="E6:E26" si="0">1-A6/$B$1</f>
-        <v>0.16602316602316602</v>
+        <v>0.16116504854368929</v>
       </c>
       <c r="F6">
         <f t="shared" ref="F6:F26" si="1">E6/$B$3</f>
@@ -10941,11 +10979,11 @@
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>0.16795366795366795</v>
+        <v>0.1631067961165048</v>
       </c>
       <c r="F7">
         <f t="shared" si="1"/>
-        <v>1.0116279069767442</v>
+        <v>1.0120481927710843</v>
       </c>
       <c r="G7">
         <v>669</v>
@@ -10963,11 +11001,11 @@
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>0.1718146718146718</v>
+        <v>0.16699029126213594</v>
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
-        <v>1.0348837209302324</v>
+        <v>1.0361445783132532</v>
       </c>
       <c r="G8">
         <v>663</v>
@@ -10988,11 +11026,11 @@
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>0.15057915057915061</v>
+        <v>0.14563106796116509</v>
       </c>
       <c r="F9">
         <f t="shared" si="1"/>
-        <v>0.90697674418604668</v>
+        <v>0.90361445783132577</v>
       </c>
       <c r="G9">
         <v>677</v>
@@ -11003,18 +11041,18 @@
         <v>515</v>
       </c>
       <c r="C10">
-        <v>427.6</v>
+        <v>443.2</v>
       </c>
       <c r="D10">
         <v>615</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>5.7915057915057799E-3</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <f t="shared" si="1"/>
-        <v>3.4883720930232488E-2</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <v>755</v>
@@ -11035,11 +11073,11 @@
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>2.316602316602312E-2</v>
+        <v>1.747572815533982E-2</v>
       </c>
       <c r="F11">
         <f t="shared" si="1"/>
-        <v>0.13953488372092995</v>
+        <v>0.10843373493975915</v>
       </c>
       <c r="G11">
         <v>746</v>
@@ -11057,11 +11095,11 @@
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>3.8610038610038644E-2</v>
+        <v>3.300970873786413E-2</v>
       </c>
       <c r="F12">
         <f t="shared" si="1"/>
-        <v>0.23255813953488391</v>
+        <v>0.20481927710843409</v>
       </c>
       <c r="G12">
         <v>737</v>
@@ -11079,11 +11117,11 @@
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>5.5984555984555984E-2</v>
+        <v>5.0485436893203839E-2</v>
       </c>
       <c r="F13">
         <f t="shared" si="1"/>
-        <v>0.33720930232558138</v>
+        <v>0.31325301204819256</v>
       </c>
       <c r="G13">
         <v>729</v>
@@ -11101,11 +11139,11 @@
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>7.9150579150579103E-2</v>
+        <v>7.3786407766990303E-2</v>
       </c>
       <c r="F14">
         <f t="shared" si="1"/>
-        <v>0.47674418604651136</v>
+        <v>0.45783132530120496</v>
       </c>
       <c r="G14">
         <v>715</v>
@@ -11123,11 +11161,11 @@
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>0.15250965250965254</v>
+        <v>0.14757281553398061</v>
       </c>
       <c r="F15">
         <f t="shared" si="1"/>
-        <v>0.91860465116279089</v>
+        <v>0.91566265060240992</v>
       </c>
       <c r="G15">
         <v>675</v>
@@ -11145,11 +11183,11 @@
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>0.13513513513513509</v>
+        <v>0.13009708737864079</v>
       </c>
       <c r="F16">
         <f t="shared" si="1"/>
-        <v>0.81395348837209269</v>
+        <v>0.80722891566265076</v>
       </c>
       <c r="G16">
         <v>687</v>
@@ -11167,11 +11205,11 @@
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>0.11583011583011582</v>
+        <v>0.11067961165048545</v>
       </c>
       <c r="F17">
         <f t="shared" si="1"/>
-        <v>0.69767441860465107</v>
+        <v>0.68674698795180744</v>
       </c>
       <c r="G17">
         <v>696</v>
@@ -11189,11 +11227,11 @@
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>0.10231660231660233</v>
+        <v>9.7087378640776656E-2</v>
       </c>
       <c r="F18">
         <f t="shared" si="1"/>
-        <v>0.61627906976744196</v>
+        <v>0.6024096385542167</v>
       </c>
       <c r="G18">
         <v>703</v>
@@ -11213,11 +11251,11 @@
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
-        <v>8.6872586872586921E-2</v>
+        <v>8.1553398058252458E-2</v>
       </c>
       <c r="F19">
         <f t="shared" si="1"/>
-        <v>0.52325581395348864</v>
+        <v>0.50602409638554247</v>
       </c>
       <c r="G19">
         <v>711</v>
@@ -11237,11 +11275,11 @@
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
-        <v>3.8610038610038533E-3</v>
+        <v>-1.9417475728156219E-3</v>
       </c>
       <c r="F20">
         <f t="shared" si="1"/>
-        <v>2.3255813953488327E-2</v>
+        <v>-1.2048192771084884E-2</v>
       </c>
       <c r="G20">
         <v>755</v>
@@ -11261,11 +11299,11 @@
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
-        <v>1.158301158301156E-2</v>
+        <v>5.8252427184466438E-3</v>
       </c>
       <c r="F21">
         <f t="shared" si="1"/>
-        <v>6.9767441860464977E-2</v>
+        <v>3.6144578313253281E-2</v>
       </c>
       <c r="G21">
         <v>753</v>
@@ -11283,11 +11321,11 @@
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
-        <v>3.0888030888030937E-2</v>
+        <v>2.5242718446601975E-2</v>
       </c>
       <c r="F22">
         <f t="shared" si="1"/>
-        <v>0.18604651162790728</v>
+        <v>0.15662650602409661</v>
       </c>
       <c r="G22">
         <v>742</v>
@@ -11314,11 +11352,11 @@
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
-        <v>1.9305019305019266E-2</v>
+        <v>1.3592233009708687E-2</v>
       </c>
       <c r="F23">
         <f t="shared" si="1"/>
-        <v>0.11627906976744162</v>
+        <v>8.4337349397590064E-2</v>
       </c>
       <c r="G23">
         <v>750</v>
@@ -11336,11 +11374,11 @@
       </c>
       <c r="E24">
         <f t="shared" si="0"/>
-        <v>6.370656370656369E-2</v>
+        <v>5.8252427184465994E-2</v>
       </c>
       <c r="F24">
         <f t="shared" si="1"/>
-        <v>0.38372093023255804</v>
+        <v>0.36144578313253001</v>
       </c>
       <c r="G24">
         <v>724</v>
@@ -11358,11 +11396,11 @@
       </c>
       <c r="E25">
         <f t="shared" si="0"/>
-        <v>5.0193050193050204E-2</v>
+        <v>4.4660194174757306E-2</v>
       </c>
       <c r="F25">
         <f t="shared" si="1"/>
-        <v>0.30232558139534887</v>
+        <v>0.27710843373493999</v>
       </c>
       <c r="G25">
         <v>734</v>
@@ -11373,18 +11411,18 @@
         <v>518</v>
       </c>
       <c r="C26">
-        <v>429</v>
+        <v>518</v>
       </c>
       <c r="D26">
         <v>617</v>
       </c>
       <c r="E26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-5.8252427184466438E-3</v>
       </c>
       <c r="F26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-3.6144578313253281E-2</v>
       </c>
       <c r="G26">
         <v>761</v>
@@ -11409,6 +11447,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -11416,8 +11455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57CFFEA6-F038-4ADE-B4DB-050B0246E0CF}">
   <dimension ref="A1:AC64"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="Y5" sqref="Y5"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31:S53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11753,7 +11792,7 @@
         <v>0.18775510204081636</v>
       </c>
       <c r="O5" s="9">
-        <v>0.16602316602316602</v>
+        <v>0.16116504854368929</v>
       </c>
       <c r="P5" s="16">
         <f t="shared" ref="P5:W5" si="2">1-P4/P3</f>
@@ -11841,16 +11880,16 @@
         <v>461.6</v>
       </c>
       <c r="K6">
-        <v>334</v>
+        <v>348.58</v>
       </c>
       <c r="L6">
-        <v>444.82220000000001</v>
+        <v>459.63</v>
       </c>
       <c r="M6">
         <v>460</v>
       </c>
       <c r="N6">
-        <v>451.38</v>
+        <v>458.6</v>
       </c>
       <c r="O6">
         <v>455.83</v>
@@ -12891,7 +12930,7 @@
         <v>47</v>
       </c>
       <c r="S35" s="6">
-        <v>334</v>
+        <v>348.58</v>
       </c>
       <c r="U35">
         <v>5</v>
@@ -12941,7 +12980,7 @@
         <v>47</v>
       </c>
       <c r="S36" s="6">
-        <v>444.8</v>
+        <v>459.63</v>
       </c>
       <c r="U36">
         <v>6</v>
@@ -13042,7 +13081,7 @@
         <v>47</v>
       </c>
       <c r="S38" s="6">
-        <v>451.38</v>
+        <v>458.6</v>
       </c>
       <c r="U38">
         <v>8</v>

--- a/Testing_Data/StraightForceTest.xlsx
+++ b/Testing_Data/StraightForceTest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Documents\GitHub\Bipedal_Robot\Testing_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{145EDA43-3415-427C-B820-B7BDC2D2567F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E42135F9-CA31-48A1-AB31-E7C62C960240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{CE45C211-BD3F-4CC7-8CF8-DB47A93DE884}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{CE45C211-BD3F-4CC7-8CF8-DB47A93DE884}"/>
   </bookViews>
   <sheets>
     <sheet name="11.2 cm, no T" sheetId="2" r:id="rId1"/>
@@ -38,24 +38,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={C0933719-F29F-4D06-A942-723E036E6640}</author>
-  </authors>
-  <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{C0933719-F29F-4D06-A942-723E036E6640}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Changed resting length to 515</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -215,7 +197,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,12 +218,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -438,7 +414,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -464,6 +440,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -596,8 +574,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="3"/>
+            <c:trendlineType val="linear"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -3314,64 +3291,64 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0120481927710843</c:v>
+                  <c:v>1.0116279069767442</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0361445783132532</c:v>
+                  <c:v>1.0348837209302324</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.90361445783132577</c:v>
+                  <c:v>0.90697674418604668</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>3.4883720930232488E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.13953488372092995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.23255813953488391</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.33720930232558138</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.47674418604651136</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.91860465116279089</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.81395348837209269</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.69767441860465107</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.61627906976744196</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.52325581395348864</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.3255813953488327E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.9767441860464977E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.18604651162790728</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.11627906976744162</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.38372093023255804</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.30232558139534887</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.10843373493975915</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.20481927710843409</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.31325301204819256</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.45783132530120496</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.91566265060240992</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.80722891566265076</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.68674698795180744</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.6024096385542167</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.50602409638554247</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-1.2048192771084884E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3.6144578313253281E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.15662650602409661</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>8.4337349397590064E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.36144578313253001</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.27710843373493999</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-3.6144578313253281E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3395,7 +3372,7 @@
                   <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>443.2</c:v>
+                  <c:v>427.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>347</c:v>
@@ -3443,7 +3420,7 @@
                   <c:v>278</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>518</c:v>
+                  <c:v>429</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3946,10 +3923,10 @@
                   <c:v>461.6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>348.58</c:v>
+                  <c:v>334.74</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>459.63</c:v>
+                  <c:v>445</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>460</c:v>
@@ -4264,8 +4241,7 @@
             </c:spPr>
           </c:marker>
           <c:trendline>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
+            <c:trendlineType val="linear"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -4280,10 +4256,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Fmax(L)'!$C$3:$AC$3</c:f>
+              <c:f>'Fmax(L)'!$C$3:$AK$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>845</c:v>
                 </c:pt>
@@ -4364,16 +4340,40 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>382</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>426</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>521</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Fmax(L)'!$C$5:$AC$5</c:f>
+              <c:f>'Fmax(L)'!$C$5:$AK$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0.17159763313609466</c:v>
                 </c:pt>
@@ -4399,7 +4399,7 @@
                   <c:v>0.18213660245183882</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.1607142857142857</c:v>
+                  <c:v>0.160714285714286</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.16626506024096388</c:v>
@@ -4411,7 +4411,7 @@
                   <c:v>0.18775510204081636</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.16116504854368929</c:v>
+                  <c:v>0.16602316602316602</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0.17422867513611617</c:v>
@@ -4454,6 +4454,30 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>0.14590747330960852</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.15662650602409633</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.15909090909090906</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.1648351648351648</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.1716738197424893</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.17437722419928825</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.17801047120418845</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.176056338028169</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.1612284069097889</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8291,9 +8315,7 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Ben Bolen" id="{BF8D1625-453C-4F9B-90F4-27D3407028E0}" userId="S::bbolen@pdx.edu::2756ab96-c1b4-4d6e-be6a-ace1ad4a8569" providerId="AD"/>
-</personList>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8591,20 +8613,12 @@
 </a:theme>
 </file>
 
-<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="B1" dT="2023-12-10T07:41:58.62" personId="{BF8D1625-453C-4F9B-90F4-27D3407028E0}" id="{C0933719-F29F-4D06-A942-723E036E6640}">
-    <text>Changed resting length to 515</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF5D9837-CB16-4300-A1DA-BD967A7687F8}">
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8813,7 +8827,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0289F67D-1B36-4222-87CA-07D1B890BA50}">
   <dimension ref="A1:U30"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -9807,8 +9821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{050AE67D-A238-4925-A0DE-87F77397D646}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10307,8 +10321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C902C6E6-059B-43BE-A924-BB7C80CB41D4}">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="D5" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10868,11 +10882,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB2BFFE4-73AB-4B28-8B60-9C656B1F81F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB2BFFE4-73AB-4B28-8B60-9C656B1F81F0}">
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10890,7 +10904,7 @@
         <v>5</v>
       </c>
       <c r="B1">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="D1" t="s">
         <v>37</v>
@@ -10917,7 +10931,7 @@
       </c>
       <c r="B3">
         <f>1-B2/B1</f>
-        <v>0.16116504854368929</v>
+        <v>0.16602316602316602</v>
       </c>
       <c r="I3" s="1"/>
       <c r="M3" s="2"/>
@@ -10957,7 +10971,7 @@
       </c>
       <c r="E6">
         <f t="shared" ref="E6:E26" si="0">1-A6/$B$1</f>
-        <v>0.16116504854368929</v>
+        <v>0.16602316602316602</v>
       </c>
       <c r="F6">
         <f t="shared" ref="F6:F26" si="1">E6/$B$3</f>
@@ -10979,11 +10993,11 @@
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>0.1631067961165048</v>
+        <v>0.16795366795366795</v>
       </c>
       <c r="F7">
         <f t="shared" si="1"/>
-        <v>1.0120481927710843</v>
+        <v>1.0116279069767442</v>
       </c>
       <c r="G7">
         <v>669</v>
@@ -11001,11 +11015,11 @@
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>0.16699029126213594</v>
+        <v>0.1718146718146718</v>
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
-        <v>1.0361445783132532</v>
+        <v>1.0348837209302324</v>
       </c>
       <c r="G8">
         <v>663</v>
@@ -11026,11 +11040,11 @@
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>0.14563106796116509</v>
+        <v>0.15057915057915061</v>
       </c>
       <c r="F9">
         <f t="shared" si="1"/>
-        <v>0.90361445783132577</v>
+        <v>0.90697674418604668</v>
       </c>
       <c r="G9">
         <v>677</v>
@@ -11041,18 +11055,18 @@
         <v>515</v>
       </c>
       <c r="C10">
-        <v>443.2</v>
+        <v>427.6</v>
       </c>
       <c r="D10">
         <v>615</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.7915057915057799E-3</v>
       </c>
       <c r="F10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.4883720930232488E-2</v>
       </c>
       <c r="G10">
         <v>755</v>
@@ -11073,11 +11087,11 @@
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>1.747572815533982E-2</v>
+        <v>2.316602316602312E-2</v>
       </c>
       <c r="F11">
         <f t="shared" si="1"/>
-        <v>0.10843373493975915</v>
+        <v>0.13953488372092995</v>
       </c>
       <c r="G11">
         <v>746</v>
@@ -11095,11 +11109,11 @@
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>3.300970873786413E-2</v>
+        <v>3.8610038610038644E-2</v>
       </c>
       <c r="F12">
         <f t="shared" si="1"/>
-        <v>0.20481927710843409</v>
+        <v>0.23255813953488391</v>
       </c>
       <c r="G12">
         <v>737</v>
@@ -11117,11 +11131,11 @@
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>5.0485436893203839E-2</v>
+        <v>5.5984555984555984E-2</v>
       </c>
       <c r="F13">
         <f t="shared" si="1"/>
-        <v>0.31325301204819256</v>
+        <v>0.33720930232558138</v>
       </c>
       <c r="G13">
         <v>729</v>
@@ -11139,11 +11153,11 @@
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>7.3786407766990303E-2</v>
+        <v>7.9150579150579103E-2</v>
       </c>
       <c r="F14">
         <f t="shared" si="1"/>
-        <v>0.45783132530120496</v>
+        <v>0.47674418604651136</v>
       </c>
       <c r="G14">
         <v>715</v>
@@ -11161,11 +11175,11 @@
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>0.14757281553398061</v>
+        <v>0.15250965250965254</v>
       </c>
       <c r="F15">
         <f t="shared" si="1"/>
-        <v>0.91566265060240992</v>
+        <v>0.91860465116279089</v>
       </c>
       <c r="G15">
         <v>675</v>
@@ -11183,11 +11197,11 @@
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>0.13009708737864079</v>
+        <v>0.13513513513513509</v>
       </c>
       <c r="F16">
         <f t="shared" si="1"/>
-        <v>0.80722891566265076</v>
+        <v>0.81395348837209269</v>
       </c>
       <c r="G16">
         <v>687</v>
@@ -11205,11 +11219,11 @@
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>0.11067961165048545</v>
+        <v>0.11583011583011582</v>
       </c>
       <c r="F17">
         <f t="shared" si="1"/>
-        <v>0.68674698795180744</v>
+        <v>0.69767441860465107</v>
       </c>
       <c r="G17">
         <v>696</v>
@@ -11227,11 +11241,11 @@
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>9.7087378640776656E-2</v>
+        <v>0.10231660231660233</v>
       </c>
       <c r="F18">
         <f t="shared" si="1"/>
-        <v>0.6024096385542167</v>
+        <v>0.61627906976744196</v>
       </c>
       <c r="G18">
         <v>703</v>
@@ -11251,11 +11265,11 @@
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
-        <v>8.1553398058252458E-2</v>
+        <v>8.6872586872586921E-2</v>
       </c>
       <c r="F19">
         <f t="shared" si="1"/>
-        <v>0.50602409638554247</v>
+        <v>0.52325581395348864</v>
       </c>
       <c r="G19">
         <v>711</v>
@@ -11275,11 +11289,11 @@
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
-        <v>-1.9417475728156219E-3</v>
+        <v>3.8610038610038533E-3</v>
       </c>
       <c r="F20">
         <f t="shared" si="1"/>
-        <v>-1.2048192771084884E-2</v>
+        <v>2.3255813953488327E-2</v>
       </c>
       <c r="G20">
         <v>755</v>
@@ -11299,11 +11313,11 @@
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
-        <v>5.8252427184466438E-3</v>
+        <v>1.158301158301156E-2</v>
       </c>
       <c r="F21">
         <f t="shared" si="1"/>
-        <v>3.6144578313253281E-2</v>
+        <v>6.9767441860464977E-2</v>
       </c>
       <c r="G21">
         <v>753</v>
@@ -11321,11 +11335,11 @@
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
-        <v>2.5242718446601975E-2</v>
+        <v>3.0888030888030937E-2</v>
       </c>
       <c r="F22">
         <f t="shared" si="1"/>
-        <v>0.15662650602409661</v>
+        <v>0.18604651162790728</v>
       </c>
       <c r="G22">
         <v>742</v>
@@ -11352,11 +11366,11 @@
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
-        <v>1.3592233009708687E-2</v>
+        <v>1.9305019305019266E-2</v>
       </c>
       <c r="F23">
         <f t="shared" si="1"/>
-        <v>8.4337349397590064E-2</v>
+        <v>0.11627906976744162</v>
       </c>
       <c r="G23">
         <v>750</v>
@@ -11374,11 +11388,11 @@
       </c>
       <c r="E24">
         <f t="shared" si="0"/>
-        <v>5.8252427184465994E-2</v>
+        <v>6.370656370656369E-2</v>
       </c>
       <c r="F24">
         <f t="shared" si="1"/>
-        <v>0.36144578313253001</v>
+        <v>0.38372093023255804</v>
       </c>
       <c r="G24">
         <v>724</v>
@@ -11396,11 +11410,11 @@
       </c>
       <c r="E25">
         <f t="shared" si="0"/>
-        <v>4.4660194174757306E-2</v>
+        <v>5.0193050193050204E-2</v>
       </c>
       <c r="F25">
         <f t="shared" si="1"/>
-        <v>0.27710843373493999</v>
+        <v>0.30232558139534887</v>
       </c>
       <c r="G25">
         <v>734</v>
@@ -11411,18 +11425,18 @@
         <v>518</v>
       </c>
       <c r="C26">
-        <v>518</v>
+        <v>429</v>
       </c>
       <c r="D26">
         <v>617</v>
       </c>
       <c r="E26">
         <f t="shared" si="0"/>
-        <v>-5.8252427184466438E-3</v>
+        <v>0</v>
       </c>
       <c r="F26">
         <f t="shared" si="1"/>
-        <v>-3.6144578313253281E-2</v>
+        <v>0</v>
       </c>
       <c r="G26">
         <v>761</v>
@@ -11447,16 +11461,15 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57CFFEA6-F038-4ADE-B4DB-050B0246E0CF}">
-  <dimension ref="A1:AC64"/>
+  <dimension ref="A1:AK64"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31:S53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11471,7 +11484,7 @@
     <col min="17" max="17" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>26</v>
       </c>
@@ -11529,7 +11542,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
       <c r="C2" s="5" t="s">
         <v>30</v>
       </c>
@@ -11584,7 +11597,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -11669,8 +11682,32 @@
       <c r="AC3" s="15">
         <v>281</v>
       </c>
-    </row>
-    <row r="4" spans="1:29" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="AD3" s="21">
+        <v>83</v>
+      </c>
+      <c r="AE3" s="21">
+        <v>132</v>
+      </c>
+      <c r="AF3" s="21">
+        <v>182</v>
+      </c>
+      <c r="AG3" s="21">
+        <v>233</v>
+      </c>
+      <c r="AH3" s="21">
+        <v>281</v>
+      </c>
+      <c r="AI3" s="21">
+        <v>382</v>
+      </c>
+      <c r="AJ3" s="21">
+        <v>426</v>
+      </c>
+      <c r="AK3" s="21">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
@@ -11742,8 +11779,32 @@
       <c r="AC4" s="15">
         <v>240</v>
       </c>
-    </row>
-    <row r="5" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AD4" s="21">
+        <v>70</v>
+      </c>
+      <c r="AE4" s="21">
+        <v>111</v>
+      </c>
+      <c r="AF4" s="21">
+        <v>152</v>
+      </c>
+      <c r="AG4" s="21">
+        <v>193</v>
+      </c>
+      <c r="AH4" s="21">
+        <v>232</v>
+      </c>
+      <c r="AI4" s="21">
+        <v>314</v>
+      </c>
+      <c r="AJ4" s="21">
+        <v>351</v>
+      </c>
+      <c r="AK4" s="21">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
@@ -11780,7 +11841,7 @@
         <v>0.18213660245183882</v>
       </c>
       <c r="K5" s="7">
-        <v>0.1607142857142857</v>
+        <v>0.160714285714286</v>
       </c>
       <c r="L5" s="8">
         <v>0.16626506024096388</v>
@@ -11792,7 +11853,7 @@
         <v>0.18775510204081636</v>
       </c>
       <c r="O5" s="9">
-        <v>0.16116504854368929</v>
+        <v>0.16602316602316602</v>
       </c>
       <c r="P5" s="16">
         <f t="shared" ref="P5:W5" si="2">1-P4/P3</f>
@@ -11827,7 +11888,7 @@
         <v>0.16580310880829019</v>
       </c>
       <c r="X5" s="16">
-        <f t="shared" ref="X5:AC5" si="3">1-X4/X3</f>
+        <f t="shared" ref="X5:AK5" si="3">1-X4/X3</f>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="Y5" s="16">
@@ -11850,8 +11911,40 @@
         <f t="shared" si="3"/>
         <v>0.14590747330960852</v>
       </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="AD5" s="16">
+        <f t="shared" si="3"/>
+        <v>0.15662650602409633</v>
+      </c>
+      <c r="AE5" s="16">
+        <f t="shared" si="3"/>
+        <v>0.15909090909090906</v>
+      </c>
+      <c r="AF5" s="16">
+        <f t="shared" si="3"/>
+        <v>0.1648351648351648</v>
+      </c>
+      <c r="AG5" s="16">
+        <f t="shared" si="3"/>
+        <v>0.1716738197424893</v>
+      </c>
+      <c r="AH5" s="16">
+        <f t="shared" si="3"/>
+        <v>0.17437722419928825</v>
+      </c>
+      <c r="AI5" s="16">
+        <f t="shared" si="3"/>
+        <v>0.17801047120418845</v>
+      </c>
+      <c r="AJ5" s="16">
+        <f t="shared" si="3"/>
+        <v>0.176056338028169</v>
+      </c>
+      <c r="AK5" s="16">
+        <f t="shared" si="3"/>
+        <v>0.1612284069097889</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>33</v>
       </c>
@@ -11880,10 +11973,10 @@
         <v>461.6</v>
       </c>
       <c r="K6">
-        <v>348.58</v>
+        <v>334.74</v>
       </c>
       <c r="L6">
-        <v>459.63</v>
+        <v>445</v>
       </c>
       <c r="M6">
         <v>460</v>
@@ -11937,7 +12030,7 @@
         <v>402.48</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>37</v>
       </c>
@@ -12020,7 +12113,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:29" s="1" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:37" s="1" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
@@ -12054,7 +12147,7 @@
       <c r="R8"/>
       <c r="S8"/>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>1</v>
       </c>
@@ -12087,7 +12180,7 @@
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10">
         <v>838</v>
@@ -12110,7 +12203,7 @@
         <v>1.3793103448275808E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11">
         <v>837</v>
@@ -12133,7 +12226,7 @@
         <v>2.0689655172413713E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12">
         <v>836</v>
@@ -12156,7 +12249,7 @@
         <v>2.7586206896551616E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13">
         <v>835</v>
@@ -12179,7 +12272,7 @@
         <v>3.4482758620689523E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7"/>
       <c r="B14" s="8">
         <v>834</v>
@@ -12212,7 +12305,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>2</v>
       </c>
@@ -12241,13 +12334,13 @@
         <v>112</v>
       </c>
       <c r="Y15">
-        <v>334</v>
+        <v>334.74</v>
       </c>
       <c r="Z15">
         <v>0.1607142857142857</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16">
         <v>780</v>
@@ -12305,7 +12398,7 @@
         <v>455</v>
       </c>
       <c r="Y17">
-        <v>464.5</v>
+        <v>460</v>
       </c>
       <c r="Z17">
         <v>0.15824175824175823</v>
@@ -12369,7 +12462,7 @@
         <v>518</v>
       </c>
       <c r="Y19">
-        <v>490</v>
+        <v>455.83</v>
       </c>
       <c r="Z19">
         <v>0.16602316602316602</v>
@@ -12704,25 +12797,25 @@
       <c r="L31" s="14">
         <v>840</v>
       </c>
-      <c r="M31">
+      <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" t="s">
+      <c r="N31" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="O31">
+      <c r="O31" s="4">
         <v>114.32</v>
       </c>
-      <c r="P31">
+      <c r="P31" s="4">
         <v>191.8</v>
       </c>
-      <c r="Q31">
+      <c r="Q31" s="4">
         <v>275.2</v>
       </c>
-      <c r="R31">
+      <c r="R31" s="4">
         <v>355.4</v>
       </c>
-      <c r="S31" s="6">
+      <c r="S31" s="13">
         <v>447.1</v>
       </c>
       <c r="U31">
@@ -12755,22 +12848,22 @@
       <c r="L32" s="15">
         <v>780</v>
       </c>
-      <c r="M32">
+      <c r="M32" s="5">
         <v>0</v>
       </c>
-      <c r="N32" t="s">
+      <c r="N32" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="O32">
+      <c r="O32" s="22">
         <v>139.19999999999999</v>
       </c>
-      <c r="P32">
+      <c r="P32" s="22">
         <v>216</v>
       </c>
-      <c r="Q32">
+      <c r="Q32" s="22">
         <v>299.7</v>
       </c>
-      <c r="R32">
+      <c r="R32" s="22">
         <v>378.1</v>
       </c>
       <c r="S32" s="6">
@@ -12811,22 +12904,22 @@
       <c r="L33" s="15">
         <v>709</v>
       </c>
-      <c r="M33">
+      <c r="M33" s="5">
         <v>0</v>
       </c>
-      <c r="N33" t="s">
+      <c r="N33" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="O33">
+      <c r="O33" s="22">
         <v>124.21</v>
       </c>
-      <c r="P33">
+      <c r="P33" s="22">
         <v>201.4</v>
       </c>
-      <c r="Q33">
+      <c r="Q33" s="22">
         <v>276.02</v>
       </c>
-      <c r="R33">
+      <c r="R33" s="22">
         <v>355.9</v>
       </c>
       <c r="S33" s="6">
@@ -12861,22 +12954,22 @@
       <c r="L34" s="15">
         <v>571</v>
       </c>
-      <c r="M34">
+      <c r="M34" s="5">
         <v>0</v>
       </c>
-      <c r="N34" t="s">
+      <c r="N34" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="O34">
+      <c r="O34" s="22">
         <v>136.1</v>
       </c>
-      <c r="P34">
+      <c r="P34" s="22">
         <v>212.39</v>
       </c>
-      <c r="Q34">
+      <c r="Q34" s="22">
         <v>288.2</v>
       </c>
-      <c r="R34">
+      <c r="R34" s="22">
         <v>366.94</v>
       </c>
       <c r="S34" s="6">
@@ -12911,26 +13004,26 @@
       <c r="L35" s="15">
         <v>112</v>
       </c>
-      <c r="M35">
+      <c r="M35" s="5">
         <v>0</v>
       </c>
-      <c r="N35" t="s">
+      <c r="N35" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="O35" t="s">
+      <c r="O35" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="P35" t="s">
+      <c r="P35" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="Q35" t="s">
+      <c r="Q35" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="R35" t="s">
+      <c r="R35" s="22" t="s">
         <v>47</v>
       </c>
       <c r="S35" s="6">
-        <v>348.58</v>
+        <v>334.74</v>
       </c>
       <c r="U35">
         <v>5</v>
@@ -12961,26 +13054,26 @@
       <c r="L36" s="15">
         <v>415</v>
       </c>
-      <c r="M36">
+      <c r="M36" s="5">
         <v>0</v>
       </c>
-      <c r="N36" t="s">
+      <c r="N36" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="O36" t="s">
+      <c r="O36" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="P36" t="s">
+      <c r="P36" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="Q36" t="s">
+      <c r="Q36" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="R36" t="s">
+      <c r="R36" s="22" t="s">
         <v>47</v>
       </c>
       <c r="S36" s="6">
-        <v>459.63</v>
+        <v>445</v>
       </c>
       <c r="U36">
         <v>6</v>
@@ -13011,22 +13104,22 @@
       <c r="L37" s="15">
         <v>455</v>
       </c>
-      <c r="M37">
+      <c r="M37" s="5">
         <v>0</v>
       </c>
-      <c r="N37" t="s">
+      <c r="N37" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="O37" t="s">
+      <c r="O37" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="P37" t="s">
+      <c r="P37" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="Q37" t="s">
+      <c r="Q37" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="R37" t="s">
+      <c r="R37" s="22" t="s">
         <v>47</v>
       </c>
       <c r="S37" s="6">
@@ -13062,22 +13155,22 @@
       <c r="L38" s="15">
         <v>490</v>
       </c>
-      <c r="M38">
+      <c r="M38" s="5">
         <v>0</v>
       </c>
-      <c r="N38" t="s">
+      <c r="N38" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="O38" t="s">
+      <c r="O38" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="P38" t="s">
+      <c r="P38" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="Q38" t="s">
+      <c r="Q38" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="R38" t="s">
+      <c r="R38" s="22" t="s">
         <v>47</v>
       </c>
       <c r="S38" s="6">
@@ -13118,22 +13211,22 @@
       <c r="L39" s="15">
         <v>518</v>
       </c>
-      <c r="M39">
+      <c r="M39" s="5">
         <v>0</v>
       </c>
-      <c r="N39" t="s">
+      <c r="N39" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="O39" t="s">
+      <c r="O39" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="P39" t="s">
+      <c r="P39" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="Q39" t="s">
+      <c r="Q39" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="R39" t="s">
+      <c r="R39" s="22" t="s">
         <v>47</v>
       </c>
       <c r="S39" s="6">
@@ -13168,22 +13261,22 @@
       <c r="L40" s="15">
         <v>551</v>
       </c>
-      <c r="M40">
+      <c r="M40" s="5">
         <v>0</v>
       </c>
-      <c r="N40" t="s">
+      <c r="N40" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="O40">
+      <c r="O40" s="22">
         <v>129.26</v>
       </c>
-      <c r="P40">
+      <c r="P40" s="22">
         <v>201.3</v>
       </c>
-      <c r="Q40">
+      <c r="Q40" s="22">
         <v>282.33999999999997</v>
       </c>
-      <c r="R40">
+      <c r="R40" s="22">
         <v>360.24</v>
       </c>
       <c r="S40" s="6">
@@ -13218,22 +13311,22 @@
       <c r="L41" s="15">
         <v>361</v>
       </c>
-      <c r="M41">
+      <c r="M41" s="5">
         <v>0</v>
       </c>
-      <c r="N41" t="s">
+      <c r="N41" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="O41">
+      <c r="O41" s="22">
         <v>121.5</v>
       </c>
-      <c r="P41">
+      <c r="P41" s="22">
         <v>192.91</v>
       </c>
-      <c r="Q41">
+      <c r="Q41" s="22">
         <v>269</v>
       </c>
-      <c r="R41">
+      <c r="R41" s="22">
         <v>344.5</v>
       </c>
       <c r="S41" s="6">
@@ -13268,22 +13361,22 @@
       <c r="L42" s="15">
         <v>54</v>
       </c>
-      <c r="M42">
+      <c r="M42" s="5">
         <v>0</v>
       </c>
-      <c r="N42" t="s">
+      <c r="N42" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="O42">
+      <c r="O42" s="22">
         <v>56.1</v>
       </c>
-      <c r="P42">
+      <c r="P42" s="22">
         <v>103.37</v>
       </c>
-      <c r="Q42">
+      <c r="Q42" s="22">
         <v>155.44999999999999</v>
       </c>
-      <c r="R42">
+      <c r="R42" s="22">
         <v>207</v>
       </c>
       <c r="S42" s="6">
@@ -13318,22 +13411,22 @@
       <c r="L43" s="15">
         <v>27</v>
       </c>
-      <c r="M43">
+      <c r="M43" s="5">
         <v>0</v>
       </c>
-      <c r="N43" t="s">
+      <c r="N43" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="O43" t="s">
+      <c r="O43" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="P43" t="s">
+      <c r="P43" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="Q43" t="s">
+      <c r="Q43" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="R43" t="s">
+      <c r="R43" s="22" t="s">
         <v>47</v>
       </c>
       <c r="S43" s="6">
@@ -13369,22 +13462,22 @@
       <c r="L44" s="15">
         <v>69</v>
       </c>
-      <c r="M44">
+      <c r="M44" s="5">
         <v>0</v>
       </c>
-      <c r="N44" t="s">
+      <c r="N44" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="O44" t="s">
+      <c r="O44" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="P44" t="s">
+      <c r="P44" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="Q44" t="s">
+      <c r="Q44" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="R44" t="s">
+      <c r="R44" s="22" t="s">
         <v>47</v>
       </c>
       <c r="S44" s="6">
@@ -13425,22 +13518,22 @@
       <c r="L45" s="15">
         <v>275</v>
       </c>
-      <c r="M45">
+      <c r="M45" s="5">
         <v>0</v>
       </c>
-      <c r="N45" t="s">
+      <c r="N45" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="O45" t="s">
+      <c r="O45" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="P45" t="s">
+      <c r="P45" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="Q45" t="s">
+      <c r="Q45" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="R45" t="s">
+      <c r="R45" s="22" t="s">
         <v>47</v>
       </c>
       <c r="S45" s="6">
@@ -13475,22 +13568,22 @@
       <c r="L46" s="15">
         <v>151</v>
       </c>
-      <c r="M46">
+      <c r="M46" s="5">
         <v>0</v>
       </c>
-      <c r="N46" t="s">
+      <c r="N46" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="O46" t="s">
+      <c r="O46" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="P46" t="s">
+      <c r="P46" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="Q46" t="s">
+      <c r="Q46" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="R46" t="s">
+      <c r="R46" s="22" t="s">
         <v>47</v>
       </c>
       <c r="S46" s="6">
@@ -13525,22 +13618,22 @@
       <c r="L47" s="15">
         <v>193</v>
       </c>
-      <c r="M47">
+      <c r="M47" s="5">
         <v>0</v>
       </c>
-      <c r="N47" t="s">
+      <c r="N47" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="O47" t="s">
+      <c r="O47" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="P47" t="s">
+      <c r="P47" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="Q47" t="s">
+      <c r="Q47" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="R47" t="s">
+      <c r="R47" s="22" t="s">
         <v>47</v>
       </c>
       <c r="S47" s="6">
@@ -13575,22 +13668,22 @@
       <c r="L48" s="15">
         <v>10</v>
       </c>
-      <c r="M48">
+      <c r="M48" s="5">
         <v>0</v>
       </c>
-      <c r="N48" t="s">
+      <c r="N48" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="O48" t="s">
+      <c r="O48" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="P48" t="s">
+      <c r="P48" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="Q48" t="s">
+      <c r="Q48" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="R48" t="s">
+      <c r="R48" s="22" t="s">
         <v>47</v>
       </c>
       <c r="S48" s="6">
@@ -13625,22 +13718,22 @@
       <c r="L49" s="15">
         <v>120</v>
       </c>
-      <c r="M49">
+      <c r="M49" s="5">
         <v>0</v>
       </c>
-      <c r="N49">
+      <c r="N49" s="22">
         <v>19.7</v>
       </c>
-      <c r="O49">
+      <c r="O49" s="22">
         <v>66</v>
       </c>
-      <c r="P49">
+      <c r="P49" s="22">
         <v>124.82</v>
       </c>
-      <c r="Q49">
+      <c r="Q49" s="22">
         <v>195.1</v>
       </c>
-      <c r="R49">
+      <c r="R49" s="22">
         <v>258.3</v>
       </c>
       <c r="S49" s="6">
@@ -13676,22 +13769,22 @@
       <c r="L50" s="15">
         <v>220</v>
       </c>
-      <c r="M50">
+      <c r="M50" s="5">
         <v>0</v>
       </c>
-      <c r="N50">
+      <c r="N50" s="22">
         <v>23</v>
       </c>
-      <c r="O50">
+      <c r="O50" s="22">
         <v>80.8</v>
       </c>
-      <c r="P50">
+      <c r="P50" s="22">
         <v>146.19999999999999</v>
       </c>
-      <c r="Q50">
+      <c r="Q50" s="22">
         <v>215.6</v>
       </c>
-      <c r="R50">
+      <c r="R50" s="22">
         <v>289.8</v>
       </c>
       <c r="S50" s="6">
@@ -13732,22 +13825,22 @@
       <c r="L51" s="15">
         <v>260</v>
       </c>
-      <c r="M51">
+      <c r="M51" s="5">
         <v>0</v>
       </c>
-      <c r="N51">
+      <c r="N51" s="22">
         <v>31.9</v>
       </c>
-      <c r="O51">
+      <c r="O51" s="22">
         <v>89.7</v>
       </c>
-      <c r="P51">
+      <c r="P51" s="22">
         <v>154.6</v>
       </c>
-      <c r="Q51">
+      <c r="Q51" s="22">
         <v>225.3</v>
       </c>
-      <c r="R51">
+      <c r="R51" s="22">
         <v>294.8</v>
       </c>
       <c r="S51" s="6">
@@ -13783,22 +13876,22 @@
       <c r="L52" s="15">
         <v>281</v>
       </c>
-      <c r="M52">
+      <c r="M52" s="5">
         <v>0</v>
       </c>
-      <c r="N52">
+      <c r="N52" s="22">
         <v>54.65</v>
       </c>
-      <c r="O52">
+      <c r="O52" s="22">
         <v>117.8</v>
       </c>
-      <c r="P52">
+      <c r="P52" s="22">
         <v>185</v>
       </c>
-      <c r="Q52">
+      <c r="Q52" s="22">
         <v>257.2</v>
       </c>
-      <c r="R52">
+      <c r="R52" s="22">
         <v>329.9</v>
       </c>
       <c r="S52" s="6">
@@ -13808,7 +13901,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>9</v>
       </c>
@@ -13839,25 +13932,25 @@
       <c r="L53" s="15">
         <v>281</v>
       </c>
-      <c r="M53" s="8">
+      <c r="M53" s="5">
         <v>0</v>
       </c>
-      <c r="N53" s="8">
+      <c r="N53" s="22">
         <v>37.1</v>
       </c>
-      <c r="O53" s="8">
+      <c r="O53" s="22">
         <v>101.1</v>
       </c>
-      <c r="P53" s="8">
+      <c r="P53" s="22">
         <v>170.4</v>
       </c>
-      <c r="Q53" s="8">
+      <c r="Q53" s="22">
         <v>242.3</v>
       </c>
-      <c r="R53" s="8">
+      <c r="R53" s="22">
         <v>314.2</v>
       </c>
-      <c r="S53" s="9">
+      <c r="S53" s="6">
         <v>406</v>
       </c>
       <c r="U53">
@@ -13887,11 +13980,20 @@
         <f t="shared" si="18"/>
         <v>-8.5</v>
       </c>
-      <c r="L54" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="T54" s="2" t="s">
-        <v>48</v>
+      <c r="L54" s="21">
+        <v>83</v>
+      </c>
+      <c r="M54" s="5">
+        <v>0</v>
+      </c>
+      <c r="N54" s="22"/>
+      <c r="O54" s="22"/>
+      <c r="P54" s="22"/>
+      <c r="Q54" s="22"/>
+      <c r="R54" s="22"/>
+      <c r="S54" s="6"/>
+      <c r="U54">
+        <v>24</v>
       </c>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.3">
@@ -13921,6 +14023,21 @@
       </c>
       <c r="I55" t="s">
         <v>36</v>
+      </c>
+      <c r="L55" s="21">
+        <v>132</v>
+      </c>
+      <c r="M55" s="5">
+        <v>0</v>
+      </c>
+      <c r="N55" s="22"/>
+      <c r="O55" s="22"/>
+      <c r="P55" s="22"/>
+      <c r="Q55" s="22"/>
+      <c r="R55" s="22"/>
+      <c r="S55" s="6"/>
+      <c r="U55">
+        <v>25</v>
       </c>
     </row>
     <row r="56" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -13946,6 +14063,21 @@
         <f>G56/$U$5</f>
         <v>4.2553191489361979E-2</v>
       </c>
+      <c r="L56" s="21">
+        <v>182</v>
+      </c>
+      <c r="M56" s="5">
+        <v>0</v>
+      </c>
+      <c r="N56" s="22"/>
+      <c r="O56" s="22"/>
+      <c r="P56" s="22"/>
+      <c r="Q56" s="22"/>
+      <c r="R56" s="22"/>
+      <c r="S56" s="6"/>
+      <c r="U56">
+        <v>26</v>
+      </c>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
@@ -13974,6 +14106,21 @@
       </c>
       <c r="I57" t="s">
         <v>36</v>
+      </c>
+      <c r="L57" s="21">
+        <v>233</v>
+      </c>
+      <c r="M57" s="5">
+        <v>0</v>
+      </c>
+      <c r="N57" s="22"/>
+      <c r="O57" s="22"/>
+      <c r="P57" s="22"/>
+      <c r="Q57" s="22"/>
+      <c r="R57" s="22"/>
+      <c r="S57" s="6"/>
+      <c r="U57">
+        <v>27</v>
       </c>
     </row>
     <row r="58" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -13999,6 +14146,21 @@
         <f>G58/$V$5</f>
         <v>8.6956521739130155E-2</v>
       </c>
+      <c r="L58" s="21">
+        <v>281</v>
+      </c>
+      <c r="M58" s="5">
+        <v>0</v>
+      </c>
+      <c r="N58" s="22"/>
+      <c r="O58" s="22"/>
+      <c r="P58" s="22"/>
+      <c r="Q58" s="22"/>
+      <c r="R58" s="22"/>
+      <c r="S58" s="6"/>
+      <c r="U58">
+        <v>28</v>
+      </c>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
@@ -14027,6 +14189,21 @@
       </c>
       <c r="I59" t="s">
         <v>36</v>
+      </c>
+      <c r="L59" s="21">
+        <v>382</v>
+      </c>
+      <c r="M59" s="5">
+        <v>0</v>
+      </c>
+      <c r="N59" s="22"/>
+      <c r="O59" s="22"/>
+      <c r="P59" s="22"/>
+      <c r="Q59" s="22"/>
+      <c r="R59" s="22"/>
+      <c r="S59" s="6"/>
+      <c r="U59">
+        <v>29</v>
       </c>
     </row>
     <row r="60" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -14052,6 +14229,21 @@
         <f>G60/$W$5</f>
         <v>0</v>
       </c>
+      <c r="L60" s="21">
+        <v>426</v>
+      </c>
+      <c r="M60" s="5">
+        <v>0</v>
+      </c>
+      <c r="N60" s="22"/>
+      <c r="O60" s="22"/>
+      <c r="P60" s="22"/>
+      <c r="Q60" s="22"/>
+      <c r="R60" s="22"/>
+      <c r="S60" s="6"/>
+      <c r="U60">
+        <v>30</v>
+      </c>
     </row>
     <row r="61" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
@@ -14077,6 +14269,21 @@
       <c r="H61" s="9">
         <f>G61/$X$5</f>
         <v>0</v>
+      </c>
+      <c r="L61" s="21">
+        <v>521</v>
+      </c>
+      <c r="M61" s="7">
+        <v>0</v>
+      </c>
+      <c r="N61" s="8"/>
+      <c r="O61" s="8"/>
+      <c r="P61" s="8"/>
+      <c r="Q61" s="8"/>
+      <c r="R61" s="8"/>
+      <c r="S61" s="9"/>
+      <c r="U61">
+        <v>31</v>
       </c>
     </row>
     <row r="62" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -14101,6 +14308,12 @@
       <c r="H62" s="9">
         <f>G62/$X$5</f>
         <v>0</v>
+      </c>
+      <c r="L62" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="T62" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.3">

--- a/Testing_Data/StraightForceTest.xlsx
+++ b/Testing_Data/StraightForceTest.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Documents\GitHub\Bipedal_Robot\Testing_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Bipedal_Robot\Testing_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E42135F9-CA31-48A1-AB31-E7C62C960240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{305AD823-2A46-42B7-8A39-4435E88DF4DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{CE45C211-BD3F-4CC7-8CF8-DB47A93DE884}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{CE45C211-BD3F-4CC7-8CF8-DB47A93DE884}"/>
   </bookViews>
   <sheets>
     <sheet name="11.2 cm, no T" sheetId="2" r:id="rId1"/>
@@ -20,28 +20,17 @@
     <sheet name="51.8 cm" sheetId="6" r:id="rId5"/>
     <sheet name="Fmax(L)" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="52">
   <si>
     <t>Force (lbs)</t>
   </si>
@@ -192,11 +181,21 @@
   <si>
     <t>PRESSURE</t>
   </si>
+  <si>
+    <t>BPA number</t>
+  </si>
+  <si>
+    <t>Exclude?</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -220,12 +219,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="17">
@@ -414,7 +419,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -435,13 +440,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3804,10 +3828,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>'Fmax(L)'!$C$3:$AC$3</c:f>
+              <c:f>'Fmax(L)'!$C$3:$AK$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>845</c:v>
                 </c:pt>
@@ -3888,16 +3912,40 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>382</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>426</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>521</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Fmax(L)'!$C$6:$AC$6</c:f>
+              <c:f>'Fmax(L)'!$C$6:$AK$6</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>447.1</c:v>
                 </c:pt>
@@ -3965,19 +4013,43 @@
                   <c:v>8.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>343.05</c:v>
+                  <c:v>341.12416430666099</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>377.2</c:v>
+                  <c:v>377.89348739776199</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>377.2</c:v>
+                  <c:v>383.39578312153799</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>418.19</c:v>
+                  <c:v>419.135752899767</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>402.48</c:v>
+                  <c:v>406.99895268082798</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>316.95473249424998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>364.00278054154302</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>386.71906803460001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>402.07964522021399</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>440.64266191226397</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>465.12895717779401</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>477.69394525331899</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>480.59950865843399</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4083,7 +4155,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4372,7 +4444,7 @@
             <c:numRef>
               <c:f>'Fmax(L)'!$C$5:$AK$5</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0.17159763313609466</c:v>
@@ -4583,7 +4655,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -8621,12 +8693,12 @@
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -8640,7 +8712,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -8648,7 +8720,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -8657,7 +8729,7 @@
         <v>0.1607142857142857</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -8677,7 +8749,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>111</v>
       </c>
@@ -8700,7 +8772,7 @@
         <v>5.5555555555555365E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>107</v>
       </c>
@@ -8723,7 +8795,7 @@
         <v>0.27777777777777751</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>102</v>
       </c>
@@ -8746,7 +8818,7 @@
         <v>0.55555555555555569</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>98</v>
       </c>
@@ -8769,7 +8841,7 @@
         <v>0.7777777777777779</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>93</v>
       </c>
@@ -8792,7 +8864,7 @@
         <v>1.0555555555555554</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="P12" t="s">
         <v>9</v>
       </c>
@@ -8800,7 +8872,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="P13">
         <v>111</v>
       </c>
@@ -8808,7 +8880,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="P14">
         <v>415</v>
       </c>
@@ -8831,16 +8903,16 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" customWidth="1"/>
-    <col min="13" max="13" width="16.44140625" customWidth="1"/>
-    <col min="14" max="14" width="15.44140625" customWidth="1"/>
-    <col min="15" max="15" width="13.109375" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1"/>
+    <col min="13" max="13" width="16.42578125" customWidth="1"/>
+    <col min="14" max="14" width="15.42578125" customWidth="1"/>
+    <col min="15" max="15" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -8866,7 +8938,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -8886,7 +8958,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -8908,7 +8980,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -8955,7 +9027,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>414</v>
       </c>
@@ -9009,7 +9081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>407</v>
       </c>
@@ -9066,7 +9138,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>402</v>
       </c>
@@ -9120,7 +9192,7 @@
         <v>7.9136690647481966E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>387</v>
       </c>
@@ -9174,7 +9246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>368</v>
       </c>
@@ -9228,7 +9300,7 @@
         <v>7.194244604316502E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>352</v>
       </c>
@@ -9282,7 +9354,7 @@
         <v>2.1582733812949728E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>346</v>
       </c>
@@ -9336,7 +9408,7 @@
         <v>2.1582733812949728E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I13">
         <v>405</v>
       </c>
@@ -9369,7 +9441,7 @@
         <v>2.877697841726623E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I14">
         <v>413</v>
       </c>
@@ -9408,7 +9480,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I15">
         <v>385</v>
       </c>
@@ -9441,7 +9513,7 @@
         <v>2.877697841726623E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I16">
         <v>375</v>
       </c>
@@ -9474,7 +9546,7 @@
         <v>2.877697841726623E-2</v>
       </c>
     </row>
-    <row r="18" spans="9:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="9:17" ht="45" x14ac:dyDescent="0.25">
       <c r="I18" s="1" t="s">
         <v>5</v>
       </c>
@@ -9488,7 +9560,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="19" spans="9:17" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="9:17" ht="45" x14ac:dyDescent="0.25">
       <c r="I19" s="1" t="s">
         <v>6</v>
       </c>
@@ -9502,7 +9574,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="20" spans="9:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I20" s="1" t="s">
         <v>8</v>
       </c>
@@ -9517,7 +9589,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="9:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="9:17" ht="30" x14ac:dyDescent="0.25">
       <c r="I22" s="1" t="s">
         <v>4</v>
       </c>
@@ -9546,7 +9618,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="9:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I23">
         <v>399</v>
       </c>
@@ -9579,7 +9651,7 @@
         <v>1.9607843137254832E-2</v>
       </c>
     </row>
-    <row r="24" spans="9:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I24">
         <v>408</v>
       </c>
@@ -9612,7 +9684,7 @@
         <v>9.8039215686274161E-3</v>
       </c>
     </row>
-    <row r="25" spans="9:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I25">
         <v>341</v>
       </c>
@@ -9645,7 +9717,7 @@
         <v>9.8039215686274161E-3</v>
       </c>
     </row>
-    <row r="26" spans="9:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I26">
         <v>340</v>
       </c>
@@ -9678,7 +9750,7 @@
         <v>9.8039215686274161E-3</v>
       </c>
     </row>
-    <row r="27" spans="9:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I27">
         <v>352</v>
       </c>
@@ -9711,7 +9783,7 @@
         <v>9.8039215686274161E-3</v>
       </c>
     </row>
-    <row r="28" spans="9:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I28">
         <v>363</v>
       </c>
@@ -9744,7 +9816,7 @@
         <v>2.9411764705882248E-2</v>
       </c>
     </row>
-    <row r="29" spans="9:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I29">
         <v>367</v>
       </c>
@@ -9777,7 +9849,7 @@
         <v>1.9607843137254832E-2</v>
       </c>
     </row>
-    <row r="30" spans="9:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I30">
         <v>385</v>
       </c>
@@ -9825,17 +9897,17 @@
       <selection activeCell="C6" sqref="C6:F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="7" max="7" width="14.5546875" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" customWidth="1"/>
-    <col min="13" max="13" width="16.44140625" customWidth="1"/>
-    <col min="14" max="14" width="15.44140625" customWidth="1"/>
-    <col min="15" max="15" width="13.109375" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1"/>
+    <col min="13" max="13" width="16.42578125" customWidth="1"/>
+    <col min="14" max="14" width="15.42578125" customWidth="1"/>
+    <col min="15" max="15" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -9851,7 +9923,7 @@
       <c r="I1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -9861,7 +9933,7 @@
       <c r="I2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -9872,7 +9944,7 @@
       <c r="I3" s="1"/>
       <c r="M3" s="2"/>
     </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -9895,7 +9967,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>380</v>
       </c>
@@ -9914,7 +9986,7 @@
         <v>1.0416666666666665</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>386</v>
       </c>
@@ -9933,7 +10005,7 @@
         <v>0.95833333333333348</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>409</v>
       </c>
@@ -9952,7 +10024,7 @@
         <v>0.63888888888888873</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>391.5</v>
       </c>
@@ -9971,7 +10043,7 @@
         <v>0.8819444444444442</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>394</v>
       </c>
@@ -9990,7 +10062,7 @@
         <v>0.8472222222222221</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>396</v>
       </c>
@@ -10009,7 +10081,7 @@
         <v>0.81944444444444442</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>405</v>
       </c>
@@ -10028,7 +10100,7 @@
         <v>0.69444444444444486</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>417</v>
       </c>
@@ -10057,7 +10129,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>427</v>
       </c>
@@ -10083,7 +10155,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>438</v>
       </c>
@@ -10109,7 +10181,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>445</v>
       </c>
@@ -10135,7 +10207,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>452</v>
       </c>
@@ -10161,7 +10233,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>450</v>
       </c>
@@ -10189,7 +10261,7 @@
       <c r="I18" s="1"/>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>451</v>
       </c>
@@ -10217,7 +10289,7 @@
       <c r="I19" s="1"/>
       <c r="M19" s="1"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>445</v>
       </c>
@@ -10243,7 +10315,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>434</v>
       </c>
@@ -10278,7 +10350,7 @@
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>421</v>
       </c>
@@ -10304,7 +10376,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="I24">
         <f>504.4283-14.6*4.41</f>
         <v>440.04229999999995</v>
@@ -10321,21 +10393,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C902C6E6-059B-43BE-A924-BB7C80CB41D4}">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView topLeftCell="D5" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:F26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="7" max="7" width="14.5546875" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" customWidth="1"/>
-    <col min="13" max="13" width="16.44140625" customWidth="1"/>
-    <col min="14" max="14" width="15.44140625" customWidth="1"/>
-    <col min="15" max="15" width="13.109375" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1"/>
+    <col min="13" max="13" width="16.42578125" customWidth="1"/>
+    <col min="14" max="14" width="15.42578125" customWidth="1"/>
+    <col min="15" max="15" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -10351,7 +10423,7 @@
       <c r="I1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -10361,7 +10433,7 @@
       <c r="I2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -10372,7 +10444,7 @@
       <c r="I3" s="1"/>
       <c r="M3" s="2"/>
     </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -10395,7 +10467,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>405</v>
       </c>
@@ -10417,7 +10489,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>404</v>
       </c>
@@ -10439,7 +10511,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>491</v>
       </c>
@@ -10458,7 +10530,7 @@
         <v>-1.0869565217391432E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>486</v>
       </c>
@@ -10484,7 +10556,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>475</v>
       </c>
@@ -10510,7 +10582,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>479</v>
       </c>
@@ -10532,7 +10604,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>471</v>
       </c>
@@ -10554,7 +10626,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>466</v>
       </c>
@@ -10576,7 +10648,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>460</v>
       </c>
@@ -10598,7 +10670,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>456</v>
       </c>
@@ -10620,7 +10692,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>450</v>
       </c>
@@ -10642,7 +10714,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>443</v>
       </c>
@@ -10664,7 +10736,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>438</v>
       </c>
@@ -10688,7 +10760,7 @@
       <c r="I18" s="1"/>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>427</v>
       </c>
@@ -10712,7 +10784,7 @@
       <c r="I19" s="1"/>
       <c r="M19" s="1"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>425</v>
       </c>
@@ -10736,7 +10808,7 @@
       <c r="I20" s="1"/>
       <c r="M20" s="2"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>418</v>
       </c>
@@ -10758,7 +10830,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>413</v>
       </c>
@@ -10789,7 +10861,7 @@
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>409</v>
       </c>
@@ -10811,7 +10883,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>403</v>
       </c>
@@ -10833,7 +10905,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>399</v>
       </c>
@@ -10855,7 +10927,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>398</v>
       </c>
@@ -10886,20 +10958,20 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C6" sqref="C6:F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="7" max="7" width="14.5546875" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" customWidth="1"/>
-    <col min="13" max="13" width="16.44140625" customWidth="1"/>
-    <col min="14" max="14" width="15.44140625" customWidth="1"/>
-    <col min="15" max="15" width="13.109375" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1"/>
+    <col min="13" max="13" width="16.42578125" customWidth="1"/>
+    <col min="14" max="14" width="15.42578125" customWidth="1"/>
+    <col min="15" max="15" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -10915,7 +10987,7 @@
       <c r="I1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -10925,7 +10997,7 @@
       <c r="I2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -10936,7 +11008,7 @@
       <c r="I3" s="1"/>
       <c r="M3" s="2"/>
     </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -10959,7 +11031,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>432</v>
       </c>
@@ -10981,7 +11053,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>431</v>
       </c>
@@ -11003,7 +11075,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>429</v>
       </c>
@@ -11028,7 +11100,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>440</v>
       </c>
@@ -11050,7 +11122,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>515</v>
       </c>
@@ -11075,7 +11147,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>506</v>
       </c>
@@ -11097,7 +11169,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>498</v>
       </c>
@@ -11119,7 +11191,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>489</v>
       </c>
@@ -11141,7 +11213,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>477</v>
       </c>
@@ -11163,7 +11235,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>439</v>
       </c>
@@ -11185,7 +11257,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>448</v>
       </c>
@@ -11207,7 +11279,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>458</v>
       </c>
@@ -11229,7 +11301,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>465</v>
       </c>
@@ -11253,7 +11325,7 @@
       <c r="I18" s="1"/>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>473</v>
       </c>
@@ -11277,7 +11349,7 @@
       <c r="I19" s="1"/>
       <c r="M19" s="1"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>516</v>
       </c>
@@ -11301,7 +11373,7 @@
       <c r="I20" s="1"/>
       <c r="M20" s="2"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>512</v>
       </c>
@@ -11323,7 +11395,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>502</v>
       </c>
@@ -11354,7 +11426,7 @@
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>508</v>
       </c>
@@ -11376,7 +11448,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>485</v>
       </c>
@@ -11398,7 +11470,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>492</v>
       </c>
@@ -11420,7 +11492,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>518</v>
       </c>
@@ -11445,13 +11517,13 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F29">
         <f>518-89</f>
         <v>429</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F30">
         <f>443.2-15.6</f>
         <v>427.59999999999997</v>
@@ -11468,23 +11540,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57CFFEA6-F038-4ADE-B4DB-050B0246E0CF}">
   <dimension ref="A1:AK64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="X61" sqref="X61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="17" customWidth="1"/>
     <col min="5" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" customWidth="1"/>
-    <col min="15" max="15" width="11.44140625" customWidth="1"/>
-    <col min="16" max="16" width="11.5546875" customWidth="1"/>
-    <col min="17" max="17" width="10.6640625" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" customWidth="1"/>
+    <col min="16" max="16" width="11.5703125" customWidth="1"/>
+    <col min="17" max="17" width="10.7109375" customWidth="1"/>
+    <col min="20" max="20" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>26</v>
       </c>
@@ -11542,7 +11615,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="C2" s="5" t="s">
         <v>30</v>
       </c>
@@ -11597,7 +11670,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:37" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -11682,32 +11755,32 @@
       <c r="AC3" s="15">
         <v>281</v>
       </c>
-      <c r="AD3" s="21">
+      <c r="AD3" s="15">
         <v>83</v>
       </c>
-      <c r="AE3" s="21">
+      <c r="AE3" s="15">
         <v>132</v>
       </c>
-      <c r="AF3" s="21">
+      <c r="AF3" s="15">
         <v>182</v>
       </c>
-      <c r="AG3" s="21">
+      <c r="AG3" s="15">
         <v>233</v>
       </c>
-      <c r="AH3" s="21">
+      <c r="AH3" s="15">
         <v>281</v>
       </c>
-      <c r="AI3" s="21">
+      <c r="AI3" s="15">
         <v>382</v>
       </c>
-      <c r="AJ3" s="21">
+      <c r="AJ3" s="15">
         <v>426</v>
       </c>
-      <c r="AK3" s="21">
+      <c r="AK3" s="15">
         <v>521</v>
       </c>
     </row>
-    <row r="4" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:37" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
@@ -11779,258 +11852,282 @@
       <c r="AC4" s="15">
         <v>240</v>
       </c>
-      <c r="AD4" s="21">
+      <c r="AD4" s="15">
         <v>70</v>
       </c>
-      <c r="AE4" s="21">
+      <c r="AE4" s="15">
         <v>111</v>
       </c>
-      <c r="AF4" s="21">
+      <c r="AF4" s="15">
         <v>152</v>
       </c>
-      <c r="AG4" s="21">
+      <c r="AG4" s="15">
         <v>193</v>
       </c>
-      <c r="AH4" s="21">
+      <c r="AH4" s="15">
         <v>232</v>
       </c>
-      <c r="AI4" s="21">
+      <c r="AI4" s="15">
         <v>314</v>
       </c>
-      <c r="AJ4" s="21">
+      <c r="AJ4" s="15">
         <v>351</v>
       </c>
-      <c r="AK4" s="21">
+      <c r="AK4" s="15">
         <v>437</v>
       </c>
     </row>
-    <row r="5" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="1" t="s">
+    <row r="5" spans="1:37" s="26" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="28">
         <f>1-C4/C3</f>
         <v>0.17159763313609466</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="29">
         <f>1-D4/D3</f>
         <v>0.17261904761904767</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="28">
         <f t="shared" ref="E5:H5" si="0">1-E4/E3</f>
         <v>0.16942675159235665</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="29">
         <f t="shared" si="0"/>
         <v>0.17051282051282046</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="28">
         <f t="shared" si="0"/>
         <v>0.17746478873239435</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="29">
         <f t="shared" si="0"/>
         <v>0.17489421720733422</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="28">
         <f t="shared" ref="I5:J5" si="1">1-I4/I3</f>
         <v>0.18388791593695275</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="29">
         <f t="shared" si="1"/>
         <v>0.18213660245183882</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="28">
         <v>0.160714285714286</v>
       </c>
-      <c r="L5" s="8">
+      <c r="L5" s="30">
         <v>0.16626506024096388</v>
       </c>
-      <c r="M5" s="8">
+      <c r="M5" s="30">
         <v>0.15824175824175823</v>
       </c>
-      <c r="N5" s="8">
+      <c r="N5" s="30">
         <v>0.18775510204081636</v>
       </c>
-      <c r="O5" s="9">
+      <c r="O5" s="29">
         <v>0.16602316602316602</v>
       </c>
-      <c r="P5" s="16">
+      <c r="P5" s="31">
         <f t="shared" ref="P5:W5" si="2">1-P4/P3</f>
         <v>0.17422867513611617</v>
       </c>
-      <c r="Q5" s="16">
+      <c r="Q5" s="31">
         <f t="shared" si="2"/>
         <v>0.17174515235457066</v>
       </c>
-      <c r="R5" s="16">
+      <c r="R5" s="31">
         <f t="shared" si="2"/>
         <v>0.14814814814814814</v>
       </c>
-      <c r="S5" s="16">
+      <c r="S5" s="31">
         <f t="shared" si="2"/>
         <v>0.14814814814814814</v>
       </c>
-      <c r="T5" s="9">
+      <c r="T5" s="29">
         <f t="shared" si="2"/>
         <v>0.15942028985507251</v>
       </c>
-      <c r="U5" s="7">
+      <c r="U5" s="28">
         <f t="shared" si="2"/>
         <v>0.1709090909090909</v>
       </c>
-      <c r="V5" s="7">
+      <c r="V5" s="28">
         <f t="shared" si="2"/>
         <v>0.15231788079470199</v>
       </c>
-      <c r="W5" s="16">
+      <c r="W5" s="31">
         <f t="shared" si="2"/>
         <v>0.16580310880829019</v>
       </c>
-      <c r="X5" s="16">
+      <c r="X5" s="31">
         <f t="shared" ref="X5:AK5" si="3">1-X4/X3</f>
         <v>9.9999999999999978E-2</v>
       </c>
-      <c r="Y5" s="16">
+      <c r="Y5" s="31">
         <f t="shared" si="3"/>
         <v>0.16666666666666663</v>
       </c>
-      <c r="Z5" s="16">
+      <c r="Z5" s="31">
         <f t="shared" si="3"/>
         <v>0.15909090909090906</v>
       </c>
-      <c r="AA5" s="16">
+      <c r="AA5" s="31">
         <f t="shared" si="3"/>
         <v>0.16153846153846152</v>
       </c>
-      <c r="AB5" s="16">
+      <c r="AB5" s="31">
         <f t="shared" si="3"/>
         <v>0.16370106761565839</v>
       </c>
-      <c r="AC5" s="16">
+      <c r="AC5" s="31">
         <f t="shared" si="3"/>
         <v>0.14590747330960852</v>
       </c>
-      <c r="AD5" s="16">
+      <c r="AD5" s="31">
         <f t="shared" si="3"/>
         <v>0.15662650602409633</v>
       </c>
-      <c r="AE5" s="16">
+      <c r="AE5" s="31">
         <f t="shared" si="3"/>
         <v>0.15909090909090906</v>
       </c>
-      <c r="AF5" s="16">
+      <c r="AF5" s="31">
         <f t="shared" si="3"/>
         <v>0.1648351648351648</v>
       </c>
-      <c r="AG5" s="16">
+      <c r="AG5" s="31">
         <f t="shared" si="3"/>
         <v>0.1716738197424893</v>
       </c>
-      <c r="AH5" s="16">
+      <c r="AH5" s="31">
         <f t="shared" si="3"/>
         <v>0.17437722419928825</v>
       </c>
-      <c r="AI5" s="16">
+      <c r="AI5" s="31">
         <f t="shared" si="3"/>
         <v>0.17801047120418845</v>
       </c>
-      <c r="AJ5" s="16">
+      <c r="AJ5" s="31">
         <f t="shared" si="3"/>
         <v>0.176056338028169</v>
       </c>
-      <c r="AK5" s="16">
+      <c r="AK5" s="31">
         <f t="shared" si="3"/>
         <v>0.1612284069097889</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
+    <row r="6" spans="1:37" s="20" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="24">
         <v>447.1</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="20">
         <v>447.1</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="24">
         <v>472</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="20">
         <v>472</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="24">
         <v>452.32</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="20">
         <v>452.32</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="24">
         <v>461.6</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="20">
         <v>461.6</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="20">
         <v>334.74</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="20">
         <v>445</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="20">
         <v>460</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="20">
         <v>458.6</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="20">
         <v>455.83</v>
       </c>
-      <c r="P6" s="15">
+      <c r="P6" s="25">
         <v>453.14</v>
       </c>
-      <c r="Q6" s="15">
+      <c r="Q6" s="25">
         <v>436.4</v>
       </c>
-      <c r="R6" s="15">
+      <c r="R6" s="25">
         <v>238.2</v>
       </c>
-      <c r="S6" s="15">
+      <c r="S6" s="25">
         <v>135.32</v>
       </c>
-      <c r="T6" s="6">
+      <c r="T6" s="21">
         <v>271.48</v>
       </c>
-      <c r="U6" s="6">
+      <c r="U6" s="21">
         <v>412.3</v>
       </c>
-      <c r="V6" s="5">
+      <c r="V6" s="24">
         <v>347.18</v>
       </c>
-      <c r="W6" s="15">
+      <c r="W6" s="25">
         <v>396.17</v>
       </c>
-      <c r="X6" s="15">
+      <c r="X6" s="25">
         <v>8.3000000000000007</v>
       </c>
-      <c r="Y6" s="15">
-        <v>343.05</v>
-      </c>
-      <c r="Z6" s="15">
-        <v>377.2</v>
-      </c>
-      <c r="AA6" s="15">
-        <v>377.2</v>
-      </c>
-      <c r="AB6" s="15">
-        <v>418.19</v>
-      </c>
-      <c r="AC6" s="15">
-        <v>402.48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="Y6" s="21">
+        <v>341.12416430666099</v>
+      </c>
+      <c r="Z6" s="21">
+        <v>377.89348739776199</v>
+      </c>
+      <c r="AA6" s="21">
+        <v>383.39578312153799</v>
+      </c>
+      <c r="AB6" s="21">
+        <v>419.135752899767</v>
+      </c>
+      <c r="AC6" s="21">
+        <v>406.99895268082798</v>
+      </c>
+      <c r="AD6" s="21">
+        <v>316.95473249424998</v>
+      </c>
+      <c r="AE6" s="21">
+        <v>364.00278054154302</v>
+      </c>
+      <c r="AF6" s="21">
+        <v>386.71906803460001</v>
+      </c>
+      <c r="AG6" s="21">
+        <v>402.07964522021399</v>
+      </c>
+      <c r="AH6" s="21">
+        <v>440.64266191226397</v>
+      </c>
+      <c r="AI6" s="21">
+        <v>465.12895717779401</v>
+      </c>
+      <c r="AJ6" s="21">
+        <v>477.69394525331899</v>
+      </c>
+      <c r="AK6" s="22">
+        <v>480.59950865843399</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>37</v>
       </c>
@@ -12113,7 +12210,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:37" s="1" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:37" s="1" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
@@ -12147,7 +12244,7 @@
       <c r="R8"/>
       <c r="S8"/>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>1</v>
       </c>
@@ -12180,7 +12277,7 @@
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10">
         <v>838</v>
@@ -12203,7 +12300,7 @@
         <v>1.3793103448275808E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11">
         <v>837</v>
@@ -12226,7 +12323,7 @@
         <v>2.0689655172413713E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12">
         <v>836</v>
@@ -12249,7 +12346,7 @@
         <v>2.7586206896551616E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13">
         <v>835</v>
@@ -12272,7 +12369,7 @@
         <v>3.4482758620689523E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
       <c r="B14" s="8">
         <v>834</v>
@@ -12305,7 +12402,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>2</v>
       </c>
@@ -12340,7 +12437,7 @@
         <v>0.1607142857142857</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16">
         <v>780</v>
@@ -12372,7 +12469,7 @@
         <v>0.16626506024096388</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17">
         <v>781</v>
@@ -12404,7 +12501,7 @@
         <v>0.15824175824175823</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18">
         <v>780</v>
@@ -12436,7 +12533,7 @@
         <v>0.18775510204081636</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19">
         <v>780</v>
@@ -12468,7 +12565,7 @@
         <v>0.16602316602316602</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
       <c r="B20" s="8">
         <v>780</v>
@@ -12494,7 +12591,7 @@
       <c r="K20" s="1"/>
       <c r="O20" s="1"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>3</v>
       </c>
@@ -12522,7 +12619,7 @@
       <c r="K21" s="1"/>
       <c r="O21" s="2"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22">
         <v>709</v>
@@ -12545,7 +12642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23">
         <v>708</v>
@@ -12577,7 +12674,7 @@
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24">
         <v>708</v>
@@ -12600,7 +12697,7 @@
         <v>8.0645161290322474E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25">
         <v>707</v>
@@ -12623,7 +12720,7 @@
         <v>1.6129032258064495E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7"/>
       <c r="B26" s="8">
         <v>707</v>
@@ -12647,7 +12744,7 @@
         <v>1.6129032258064495E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>4</v>
       </c>
@@ -12673,7 +12770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28">
         <v>571</v>
@@ -12696,7 +12793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
       <c r="B29">
         <v>571</v>
@@ -12722,7 +12819,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5"/>
       <c r="B30">
         <v>570</v>
@@ -12747,32 +12844,35 @@
       <c r="L30" t="s">
         <v>47</v>
       </c>
-      <c r="M30" s="17">
+      <c r="M30" s="16">
         <v>0</v>
       </c>
-      <c r="N30" s="18">
+      <c r="N30" s="17">
         <v>100</v>
       </c>
-      <c r="O30" s="18">
+      <c r="O30" s="17">
         <v>200</v>
       </c>
-      <c r="P30" s="18">
+      <c r="P30" s="17">
         <v>300</v>
       </c>
-      <c r="Q30" s="18">
+      <c r="Q30" s="17">
         <v>400</v>
       </c>
-      <c r="R30" s="18">
+      <c r="R30" s="17">
         <v>500</v>
       </c>
-      <c r="S30" s="18">
+      <c r="S30" s="17">
         <v>620</v>
       </c>
-      <c r="T30" s="20" t="s">
+      <c r="T30" s="19" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="U30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
       <c r="B31">
         <v>570</v>
@@ -12822,7 +12922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
       <c r="B32" s="8">
         <v>570</v>
@@ -12851,19 +12951,19 @@
       <c r="M32" s="5">
         <v>0</v>
       </c>
-      <c r="N32" s="22" t="s">
+      <c r="N32" t="s">
         <v>47</v>
       </c>
-      <c r="O32" s="22">
+      <c r="O32">
         <v>139.19999999999999</v>
       </c>
-      <c r="P32" s="22">
+      <c r="P32">
         <v>216</v>
       </c>
-      <c r="Q32" s="22">
+      <c r="Q32">
         <v>299.7</v>
       </c>
-      <c r="R32" s="22">
+      <c r="R32">
         <v>378.1</v>
       </c>
       <c r="S32" s="6">
@@ -12873,7 +12973,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>5</v>
       </c>
@@ -12907,19 +13007,19 @@
       <c r="M33" s="5">
         <v>0</v>
       </c>
-      <c r="N33" s="22" t="s">
+      <c r="N33" t="s">
         <v>47</v>
       </c>
-      <c r="O33" s="22">
+      <c r="O33">
         <v>124.21</v>
       </c>
-      <c r="P33" s="22">
+      <c r="P33">
         <v>201.4</v>
       </c>
-      <c r="Q33" s="22">
+      <c r="Q33">
         <v>276.02</v>
       </c>
-      <c r="R33" s="22">
+      <c r="R33">
         <v>355.9</v>
       </c>
       <c r="S33" s="6">
@@ -12929,7 +13029,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="B34">
         <v>551</v>
@@ -12957,19 +13057,19 @@
       <c r="M34" s="5">
         <v>0</v>
       </c>
-      <c r="N34" s="22" t="s">
+      <c r="N34" t="s">
         <v>47</v>
       </c>
-      <c r="O34" s="22">
+      <c r="O34">
         <v>136.1</v>
       </c>
-      <c r="P34" s="22">
+      <c r="P34">
         <v>212.39</v>
       </c>
-      <c r="Q34" s="22">
+      <c r="Q34">
         <v>288.2</v>
       </c>
-      <c r="R34" s="22">
+      <c r="R34">
         <v>366.94</v>
       </c>
       <c r="S34" s="6">
@@ -12979,7 +13079,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35">
         <v>551</v>
@@ -13007,19 +13107,19 @@
       <c r="M35" s="5">
         <v>0</v>
       </c>
-      <c r="N35" s="22" t="s">
+      <c r="N35" t="s">
         <v>47</v>
       </c>
-      <c r="O35" s="22" t="s">
+      <c r="O35" t="s">
         <v>47</v>
       </c>
-      <c r="P35" s="22" t="s">
+      <c r="P35" t="s">
         <v>47</v>
       </c>
-      <c r="Q35" s="22" t="s">
+      <c r="Q35" t="s">
         <v>47</v>
       </c>
-      <c r="R35" s="22" t="s">
+      <c r="R35" t="s">
         <v>47</v>
       </c>
       <c r="S35" s="6">
@@ -13029,7 +13129,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36">
         <v>550</v>
@@ -13057,19 +13157,19 @@
       <c r="M36" s="5">
         <v>0</v>
       </c>
-      <c r="N36" s="22" t="s">
+      <c r="N36" t="s">
         <v>47</v>
       </c>
-      <c r="O36" s="22" t="s">
+      <c r="O36" t="s">
         <v>47</v>
       </c>
-      <c r="P36" s="22" t="s">
+      <c r="P36" t="s">
         <v>47</v>
       </c>
-      <c r="Q36" s="22" t="s">
+      <c r="Q36" t="s">
         <v>47</v>
       </c>
-      <c r="R36" s="22" t="s">
+      <c r="R36" t="s">
         <v>47</v>
       </c>
       <c r="S36" s="6">
@@ -13079,7 +13179,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37">
         <v>550</v>
@@ -13107,19 +13207,19 @@
       <c r="M37" s="5">
         <v>0</v>
       </c>
-      <c r="N37" s="22" t="s">
+      <c r="N37" t="s">
         <v>47</v>
       </c>
-      <c r="O37" s="22" t="s">
+      <c r="O37" t="s">
         <v>47</v>
       </c>
-      <c r="P37" s="22" t="s">
+      <c r="P37" t="s">
         <v>47</v>
       </c>
-      <c r="Q37" s="22" t="s">
+      <c r="Q37" t="s">
         <v>47</v>
       </c>
-      <c r="R37" s="22" t="s">
+      <c r="R37" t="s">
         <v>47</v>
       </c>
       <c r="S37" s="6">
@@ -13129,7 +13229,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="7"/>
       <c r="B38" s="8">
         <v>549</v>
@@ -13158,19 +13258,19 @@
       <c r="M38" s="5">
         <v>0</v>
       </c>
-      <c r="N38" s="22" t="s">
+      <c r="N38" t="s">
         <v>47</v>
       </c>
-      <c r="O38" s="22" t="s">
+      <c r="O38" t="s">
         <v>47</v>
       </c>
-      <c r="P38" s="22" t="s">
+      <c r="P38" t="s">
         <v>47</v>
       </c>
-      <c r="Q38" s="22" t="s">
+      <c r="Q38" t="s">
         <v>47</v>
       </c>
-      <c r="R38" s="22" t="s">
+      <c r="R38" t="s">
         <v>47</v>
       </c>
       <c r="S38" s="6">
@@ -13180,7 +13280,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>6</v>
       </c>
@@ -13214,19 +13314,19 @@
       <c r="M39" s="5">
         <v>0</v>
       </c>
-      <c r="N39" s="22" t="s">
+      <c r="N39" t="s">
         <v>47</v>
       </c>
-      <c r="O39" s="22" t="s">
+      <c r="O39" t="s">
         <v>47</v>
       </c>
-      <c r="P39" s="22" t="s">
+      <c r="P39" t="s">
         <v>47</v>
       </c>
-      <c r="Q39" s="22" t="s">
+      <c r="Q39" t="s">
         <v>47</v>
       </c>
-      <c r="R39" s="22" t="s">
+      <c r="R39" t="s">
         <v>47</v>
       </c>
       <c r="S39" s="6">
@@ -13236,7 +13336,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
       <c r="B40">
         <v>361</v>
@@ -13264,19 +13364,19 @@
       <c r="M40" s="5">
         <v>0</v>
       </c>
-      <c r="N40" s="22" t="s">
+      <c r="N40" t="s">
         <v>47</v>
       </c>
-      <c r="O40" s="22">
+      <c r="O40">
         <v>129.26</v>
       </c>
-      <c r="P40" s="22">
+      <c r="P40">
         <v>201.3</v>
       </c>
-      <c r="Q40" s="22">
+      <c r="Q40">
         <v>282.33999999999997</v>
       </c>
-      <c r="R40" s="22">
+      <c r="R40">
         <v>360.24</v>
       </c>
       <c r="S40" s="6">
@@ -13286,7 +13386,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
       <c r="B41">
         <v>361</v>
@@ -13314,19 +13414,19 @@
       <c r="M41" s="5">
         <v>0</v>
       </c>
-      <c r="N41" s="22" t="s">
+      <c r="N41" t="s">
         <v>47</v>
       </c>
-      <c r="O41" s="22">
+      <c r="O41">
         <v>121.5</v>
       </c>
-      <c r="P41" s="22">
+      <c r="P41">
         <v>192.91</v>
       </c>
-      <c r="Q41" s="22">
+      <c r="Q41">
         <v>269</v>
       </c>
-      <c r="R41" s="22">
+      <c r="R41">
         <v>344.5</v>
       </c>
       <c r="S41" s="6">
@@ -13336,7 +13436,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
       <c r="B42">
         <v>361</v>
@@ -13364,19 +13464,19 @@
       <c r="M42" s="5">
         <v>0</v>
       </c>
-      <c r="N42" s="22" t="s">
+      <c r="N42" t="s">
         <v>47</v>
       </c>
-      <c r="O42" s="22">
+      <c r="O42">
         <v>56.1</v>
       </c>
-      <c r="P42" s="22">
+      <c r="P42">
         <v>103.37</v>
       </c>
-      <c r="Q42" s="22">
+      <c r="Q42">
         <v>155.44999999999999</v>
       </c>
-      <c r="R42" s="22">
+      <c r="R42">
         <v>207</v>
       </c>
       <c r="S42" s="6">
@@ -13386,7 +13486,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43">
         <v>361</v>
@@ -13414,19 +13514,19 @@
       <c r="M43" s="5">
         <v>0</v>
       </c>
-      <c r="N43" s="22" t="s">
+      <c r="N43" t="s">
         <v>47</v>
       </c>
-      <c r="O43" s="22" t="s">
+      <c r="O43" t="s">
         <v>47</v>
       </c>
-      <c r="P43" s="22" t="s">
+      <c r="P43" t="s">
         <v>47</v>
       </c>
-      <c r="Q43" s="22" t="s">
+      <c r="Q43" t="s">
         <v>47</v>
       </c>
-      <c r="R43" s="22" t="s">
+      <c r="R43" t="s">
         <v>47</v>
       </c>
       <c r="S43" s="6">
@@ -13436,7 +13536,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="7"/>
       <c r="B44" s="8">
         <v>360</v>
@@ -13465,19 +13565,19 @@
       <c r="M44" s="5">
         <v>0</v>
       </c>
-      <c r="N44" s="22" t="s">
+      <c r="N44" t="s">
         <v>47</v>
       </c>
-      <c r="O44" s="22" t="s">
+      <c r="O44" t="s">
         <v>47</v>
       </c>
-      <c r="P44" s="22" t="s">
+      <c r="P44" t="s">
         <v>47</v>
       </c>
-      <c r="Q44" s="22" t="s">
+      <c r="Q44" t="s">
         <v>47</v>
       </c>
-      <c r="R44" s="22" t="s">
+      <c r="R44" t="s">
         <v>47</v>
       </c>
       <c r="S44" s="6">
@@ -13487,7 +13587,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>7</v>
       </c>
@@ -13521,19 +13621,19 @@
       <c r="M45" s="5">
         <v>0</v>
       </c>
-      <c r="N45" s="22" t="s">
+      <c r="N45" t="s">
         <v>47</v>
       </c>
-      <c r="O45" s="22" t="s">
+      <c r="O45" t="s">
         <v>47</v>
       </c>
-      <c r="P45" s="22" t="s">
+      <c r="P45" t="s">
         <v>47</v>
       </c>
-      <c r="Q45" s="22" t="s">
+      <c r="Q45" t="s">
         <v>47</v>
       </c>
-      <c r="R45" s="22" t="s">
+      <c r="R45" t="s">
         <v>47</v>
       </c>
       <c r="S45" s="6">
@@ -13543,7 +13643,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
       <c r="B46">
         <v>54</v>
@@ -13571,19 +13671,19 @@
       <c r="M46" s="5">
         <v>0</v>
       </c>
-      <c r="N46" s="22" t="s">
+      <c r="N46" t="s">
         <v>47</v>
       </c>
-      <c r="O46" s="22" t="s">
+      <c r="O46" t="s">
         <v>47</v>
       </c>
-      <c r="P46" s="22" t="s">
+      <c r="P46" t="s">
         <v>47</v>
       </c>
-      <c r="Q46" s="22" t="s">
+      <c r="Q46" t="s">
         <v>47</v>
       </c>
-      <c r="R46" s="22" t="s">
+      <c r="R46" t="s">
         <v>47</v>
       </c>
       <c r="S46" s="6">
@@ -13593,7 +13693,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
       <c r="B47">
         <v>54</v>
@@ -13621,19 +13721,19 @@
       <c r="M47" s="5">
         <v>0</v>
       </c>
-      <c r="N47" s="22" t="s">
+      <c r="N47" t="s">
         <v>47</v>
       </c>
-      <c r="O47" s="22" t="s">
+      <c r="O47" t="s">
         <v>47</v>
       </c>
-      <c r="P47" s="22" t="s">
+      <c r="P47" t="s">
         <v>47</v>
       </c>
-      <c r="Q47" s="22" t="s">
+      <c r="Q47" t="s">
         <v>47</v>
       </c>
-      <c r="R47" s="22" t="s">
+      <c r="R47" t="s">
         <v>47</v>
       </c>
       <c r="S47" s="6">
@@ -13643,7 +13743,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
       <c r="B48">
         <v>54</v>
@@ -13671,19 +13771,19 @@
       <c r="M48" s="5">
         <v>0</v>
       </c>
-      <c r="N48" s="22" t="s">
+      <c r="N48" t="s">
         <v>47</v>
       </c>
-      <c r="O48" s="22" t="s">
+      <c r="O48" t="s">
         <v>47</v>
       </c>
-      <c r="P48" s="22" t="s">
+      <c r="P48" t="s">
         <v>47</v>
       </c>
-      <c r="Q48" s="22" t="s">
+      <c r="Q48" t="s">
         <v>47</v>
       </c>
-      <c r="R48" s="22" t="s">
+      <c r="R48" t="s">
         <v>47</v>
       </c>
       <c r="S48" s="6">
@@ -13693,7 +13793,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
       <c r="B49">
         <v>54</v>
@@ -13721,29 +13821,29 @@
       <c r="M49" s="5">
         <v>0</v>
       </c>
-      <c r="N49" s="22">
-        <v>19.7</v>
-      </c>
-      <c r="O49" s="22">
-        <v>66</v>
-      </c>
-      <c r="P49" s="22">
-        <v>124.82</v>
-      </c>
-      <c r="Q49" s="22">
-        <v>195.1</v>
-      </c>
-      <c r="R49" s="22">
-        <v>258.3</v>
-      </c>
-      <c r="S49" s="6">
-        <v>341.5</v>
+      <c r="N49" s="20">
+        <v>21.056251475539</v>
+      </c>
+      <c r="O49" s="20">
+        <v>67.880540667118794</v>
+      </c>
+      <c r="P49" s="20">
+        <v>129.849230089484</v>
+      </c>
+      <c r="Q49" s="20">
+        <v>193.30695254584799</v>
+      </c>
+      <c r="R49" s="20">
+        <v>260.09435898856901</v>
+      </c>
+      <c r="S49" s="21">
+        <v>341.12416430666099</v>
       </c>
       <c r="U49">
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="7"/>
       <c r="B50" s="8">
         <v>54</v>
@@ -13772,29 +13872,29 @@
       <c r="M50" s="5">
         <v>0</v>
       </c>
-      <c r="N50" s="22">
-        <v>23</v>
-      </c>
-      <c r="O50" s="22">
-        <v>80.8</v>
-      </c>
-      <c r="P50" s="22">
-        <v>146.19999999999999</v>
-      </c>
-      <c r="Q50" s="22">
-        <v>215.6</v>
-      </c>
-      <c r="R50" s="22">
-        <v>289.8</v>
-      </c>
-      <c r="S50" s="6">
-        <v>377.23</v>
+      <c r="N50" s="20">
+        <v>23.056745021293601</v>
+      </c>
+      <c r="O50" s="20">
+        <v>80.578654956797095</v>
+      </c>
+      <c r="P50" s="20">
+        <v>147.01614853387099</v>
+      </c>
+      <c r="Q50" s="20">
+        <v>216.966485709746</v>
+      </c>
+      <c r="R50" s="20">
+        <v>289.05450311750002</v>
+      </c>
+      <c r="S50" s="21">
+        <v>377.89348739776199</v>
       </c>
       <c r="U50">
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>8</v>
       </c>
@@ -13828,29 +13928,29 @@
       <c r="M51" s="5">
         <v>0</v>
       </c>
-      <c r="N51" s="22">
-        <v>31.9</v>
-      </c>
-      <c r="O51" s="22">
-        <v>89.7</v>
-      </c>
-      <c r="P51" s="22">
-        <v>154.6</v>
-      </c>
-      <c r="Q51" s="22">
-        <v>225.3</v>
-      </c>
-      <c r="R51" s="22">
-        <v>294.8</v>
-      </c>
-      <c r="S51" s="6">
-        <v>385.4</v>
+      <c r="N51" s="20">
+        <v>31.765608750565001</v>
+      </c>
+      <c r="O51" s="20">
+        <v>90.343419956990701</v>
+      </c>
+      <c r="P51" s="20">
+        <v>156.15044536305399</v>
+      </c>
+      <c r="Q51" s="20">
+        <v>225.061257311726</v>
+      </c>
+      <c r="R51" s="20">
+        <v>295.88174893236697</v>
+      </c>
+      <c r="S51" s="21">
+        <v>383.39578312153799</v>
       </c>
       <c r="U51">
         <v>21</v>
       </c>
     </row>
-    <row r="52" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="7"/>
       <c r="B52" s="8">
         <v>27</v>
@@ -13879,29 +13979,32 @@
       <c r="M52" s="5">
         <v>0</v>
       </c>
-      <c r="N52" s="22">
-        <v>54.65</v>
-      </c>
-      <c r="O52" s="22">
-        <v>117.8</v>
-      </c>
-      <c r="P52" s="22">
-        <v>185</v>
-      </c>
-      <c r="Q52" s="22">
-        <v>257.2</v>
-      </c>
-      <c r="R52" s="22">
-        <v>329.9</v>
-      </c>
-      <c r="S52" s="6">
-        <v>415.8</v>
+      <c r="N52" s="20">
+        <v>54.850852014302703</v>
+      </c>
+      <c r="O52" s="20">
+        <v>118.73120640969201</v>
+      </c>
+      <c r="P52" s="20">
+        <v>186.95474116411199</v>
+      </c>
+      <c r="Q52" s="20">
+        <v>257.76448581148202</v>
+      </c>
+      <c r="R52" s="20">
+        <v>329.48483328692498</v>
+      </c>
+      <c r="S52" s="21">
+        <v>419.135752899767</v>
       </c>
       <c r="U52">
         <v>22</v>
       </c>
-    </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>9</v>
       </c>
@@ -13935,29 +14038,29 @@
       <c r="M53" s="5">
         <v>0</v>
       </c>
-      <c r="N53" s="22">
-        <v>37.1</v>
-      </c>
-      <c r="O53" s="22">
-        <v>101.1</v>
-      </c>
-      <c r="P53" s="22">
-        <v>170.4</v>
-      </c>
-      <c r="Q53" s="22">
-        <v>242.3</v>
-      </c>
-      <c r="R53" s="22">
-        <v>314.2</v>
-      </c>
-      <c r="S53" s="6">
-        <v>406</v>
+      <c r="N53" s="20">
+        <v>37.857776022997498</v>
+      </c>
+      <c r="O53" s="20">
+        <v>103.448741170359</v>
+      </c>
+      <c r="P53" s="20">
+        <v>172.363487514197</v>
+      </c>
+      <c r="Q53" s="20">
+        <v>243.97798254163999</v>
+      </c>
+      <c r="R53" s="20">
+        <v>317.21185066770698</v>
+      </c>
+      <c r="S53" s="21">
+        <v>406.99895268082798</v>
       </c>
       <c r="U53">
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="7"/>
       <c r="B54" s="8">
         <v>61</v>
@@ -13980,23 +14083,35 @@
         <f t="shared" si="18"/>
         <v>-8.5</v>
       </c>
-      <c r="L54" s="21">
+      <c r="L54" s="15">
         <v>83</v>
       </c>
-      <c r="M54" s="5">
+      <c r="M54" s="32">
         <v>0</v>
       </c>
-      <c r="N54" s="22"/>
-      <c r="O54" s="22"/>
-      <c r="P54" s="22"/>
-      <c r="Q54" s="22"/>
-      <c r="R54" s="22"/>
-      <c r="S54" s="6"/>
+      <c r="N54" s="33">
+        <v>21.858548044948598</v>
+      </c>
+      <c r="O54" s="33">
+        <v>60.524428836911497</v>
+      </c>
+      <c r="P54" s="33">
+        <v>118.055957102094</v>
+      </c>
+      <c r="Q54" s="33">
+        <v>180.78008605034401</v>
+      </c>
+      <c r="R54" s="33">
+        <v>242.14165672072801</v>
+      </c>
+      <c r="S54" s="34">
+        <v>316.95473249424998</v>
+      </c>
       <c r="U54">
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>10</v>
       </c>
@@ -14024,23 +14139,35 @@
       <c r="I55" t="s">
         <v>36</v>
       </c>
-      <c r="L55" s="21">
+      <c r="L55" s="15">
         <v>132</v>
       </c>
-      <c r="M55" s="5">
+      <c r="M55" s="32">
         <v>0</v>
       </c>
-      <c r="N55" s="22"/>
-      <c r="O55" s="22"/>
-      <c r="P55" s="22"/>
-      <c r="Q55" s="22"/>
-      <c r="R55" s="22"/>
-      <c r="S55" s="6"/>
+      <c r="N55" s="33">
+        <v>28.939048675656199</v>
+      </c>
+      <c r="O55" s="33">
+        <v>78.161903235195297</v>
+      </c>
+      <c r="P55" s="33">
+        <v>142.990297538551</v>
+      </c>
+      <c r="Q55" s="33">
+        <v>209.91472493876699</v>
+      </c>
+      <c r="R55" s="33">
+        <v>279.06143692049</v>
+      </c>
+      <c r="S55" s="34">
+        <v>364.00278054154302</v>
+      </c>
       <c r="U55">
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="7"/>
       <c r="B56" s="8">
         <v>273</v>
@@ -14063,23 +14190,35 @@
         <f>G56/$U$5</f>
         <v>4.2553191489361979E-2</v>
       </c>
-      <c r="L56" s="21">
+      <c r="L56" s="15">
         <v>182</v>
       </c>
-      <c r="M56" s="5">
+      <c r="M56" s="32">
         <v>0</v>
       </c>
-      <c r="N56" s="22"/>
-      <c r="O56" s="22"/>
-      <c r="P56" s="22"/>
-      <c r="Q56" s="22"/>
-      <c r="R56" s="22"/>
-      <c r="S56" s="6"/>
+      <c r="N56" s="33">
+        <v>39.7439507997086</v>
+      </c>
+      <c r="O56" s="33">
+        <v>92.459050423946806</v>
+      </c>
+      <c r="P56" s="33">
+        <v>155.87604798848801</v>
+      </c>
+      <c r="Q56" s="33">
+        <v>225.06765832266899</v>
+      </c>
+      <c r="R56" s="33">
+        <v>295.96175995445498</v>
+      </c>
+      <c r="S56" s="34">
+        <v>386.71906803460001</v>
+      </c>
       <c r="U56">
         <v>26</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>11</v>
       </c>
@@ -14107,23 +14246,38 @@
       <c r="I57" t="s">
         <v>36</v>
       </c>
-      <c r="L57" s="21">
+      <c r="L57" s="15">
         <v>233</v>
       </c>
-      <c r="M57" s="5">
+      <c r="M57" s="32">
         <v>0</v>
       </c>
-      <c r="N57" s="22"/>
-      <c r="O57" s="22"/>
-      <c r="P57" s="22"/>
-      <c r="Q57" s="22"/>
-      <c r="R57" s="22"/>
-      <c r="S57" s="6"/>
+      <c r="N57" s="33">
+        <v>50.022907103523501</v>
+      </c>
+      <c r="O57" s="33">
+        <v>104.675836141871</v>
+      </c>
+      <c r="P57" s="33">
+        <v>167.305299996922</v>
+      </c>
+      <c r="Q57" s="33">
+        <v>238.92730162589299</v>
+      </c>
+      <c r="R57" s="33">
+        <v>310.24677209183102</v>
+      </c>
+      <c r="S57" s="34">
+        <v>402.07964522021399</v>
+      </c>
       <c r="U57">
         <v>27</v>
       </c>
-    </row>
-    <row r="58" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="V57" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="7"/>
       <c r="B58" s="8">
         <v>149</v>
@@ -14146,23 +14300,35 @@
         <f>G58/$V$5</f>
         <v>8.6956521739130155E-2</v>
       </c>
-      <c r="L58" s="21">
+      <c r="L58" s="15">
         <v>281</v>
       </c>
-      <c r="M58" s="5">
+      <c r="M58" s="32">
         <v>0</v>
       </c>
-      <c r="N58" s="22"/>
-      <c r="O58" s="22"/>
-      <c r="P58" s="22"/>
-      <c r="Q58" s="22"/>
-      <c r="R58" s="22"/>
-      <c r="S58" s="6"/>
+      <c r="N58" s="33">
+        <v>57.3984504936398</v>
+      </c>
+      <c r="O58" s="33">
+        <v>117.833694804798</v>
+      </c>
+      <c r="P58" s="33">
+        <v>194.4545966204</v>
+      </c>
+      <c r="Q58" s="33">
+        <v>269.76185565007199</v>
+      </c>
+      <c r="R58" s="33">
+        <v>344.16668240880102</v>
+      </c>
+      <c r="S58" s="34">
+        <v>440.64266191226397</v>
+      </c>
       <c r="U58">
         <v>28</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>12</v>
       </c>
@@ -14190,23 +14356,35 @@
       <c r="I59" t="s">
         <v>36</v>
       </c>
-      <c r="L59" s="21">
+      <c r="L59" s="15">
         <v>382</v>
       </c>
-      <c r="M59" s="5">
+      <c r="M59" s="32">
         <v>0</v>
       </c>
-      <c r="N59" s="22"/>
-      <c r="O59" s="22"/>
-      <c r="P59" s="22"/>
-      <c r="Q59" s="22"/>
-      <c r="R59" s="22"/>
-      <c r="S59" s="6"/>
+      <c r="N59" s="33">
+        <v>66.455424257142894</v>
+      </c>
+      <c r="O59" s="33">
+        <v>132.776310305018</v>
+      </c>
+      <c r="P59" s="33">
+        <v>209.317260697753</v>
+      </c>
+      <c r="Q59" s="33">
+        <v>287.25049631366801</v>
+      </c>
+      <c r="R59" s="33">
+        <v>364.55750605255099</v>
+      </c>
+      <c r="S59" s="34">
+        <v>465.12895717779401</v>
+      </c>
       <c r="U59">
         <v>29</v>
       </c>
     </row>
-    <row r="60" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="7"/>
       <c r="B60" s="8">
         <v>193</v>
@@ -14229,23 +14407,35 @@
         <f>G60/$W$5</f>
         <v>0</v>
       </c>
-      <c r="L60" s="21">
+      <c r="L60" s="15">
         <v>426</v>
       </c>
-      <c r="M60" s="5">
+      <c r="M60" s="32">
         <v>0</v>
       </c>
-      <c r="N60" s="22"/>
-      <c r="O60" s="22"/>
-      <c r="P60" s="22"/>
-      <c r="Q60" s="22"/>
-      <c r="R60" s="22"/>
-      <c r="S60" s="6"/>
+      <c r="N60" s="33">
+        <v>45.248175238574198</v>
+      </c>
+      <c r="O60" s="33">
+        <v>125.273855646624</v>
+      </c>
+      <c r="P60" s="33">
+        <v>203.09221035399401</v>
+      </c>
+      <c r="Q60" s="33">
+        <v>278.17972143974299</v>
+      </c>
+      <c r="R60" s="33">
+        <v>358.06903655082903</v>
+      </c>
+      <c r="S60" s="34">
+        <v>477.69394525331899</v>
+      </c>
       <c r="U60">
         <v>30</v>
       </c>
     </row>
-    <row r="61" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <v>13</v>
       </c>
@@ -14270,23 +14460,35 @@
         <f>G61/$X$5</f>
         <v>0</v>
       </c>
-      <c r="L61" s="21">
+      <c r="L61" s="15">
         <v>521</v>
       </c>
-      <c r="M61" s="7">
+      <c r="M61" s="35">
         <v>0</v>
       </c>
-      <c r="N61" s="8"/>
-      <c r="O61" s="8"/>
-      <c r="P61" s="8"/>
-      <c r="Q61" s="8"/>
-      <c r="R61" s="8"/>
-      <c r="S61" s="9"/>
+      <c r="N61" s="36">
+        <v>62.618412374401899</v>
+      </c>
+      <c r="O61" s="36">
+        <v>143.14211599903399</v>
+      </c>
+      <c r="P61" s="36">
+        <v>224.21344577198201</v>
+      </c>
+      <c r="Q61" s="36">
+        <v>305.76925879406599</v>
+      </c>
+      <c r="R61" s="36">
+        <v>385.47465552639301</v>
+      </c>
+      <c r="S61" s="37">
+        <v>480.59950865843399</v>
+      </c>
       <c r="U61">
         <v>31</v>
       </c>
     </row>
-    <row r="62" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="7"/>
       <c r="B62" s="8">
         <v>10</v>
@@ -14309,14 +14511,14 @@
         <f>G62/$X$5</f>
         <v>0</v>
       </c>
-      <c r="L62" s="19" t="s">
+      <c r="L62" s="18" t="s">
         <v>32</v>
       </c>
       <c r="T62" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -14326,7 +14528,7 @@
       <c r="G63" s="4"/>
       <c r="H63" s="13"/>
     </row>
-    <row r="64" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="7"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>

--- a/Testing_Data/StraightForceTest.xlsx
+++ b/Testing_Data/StraightForceTest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Bipedal_Robot\Testing_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{305AD823-2A46-42B7-8A39-4435E88DF4DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DED98E80-2E78-4B87-A34E-715177D647AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{CE45C211-BD3F-4CC7-8CF8-DB47A93DE884}"/>
+    <workbookView xWindow="-20340" yWindow="2025" windowWidth="13455" windowHeight="11385" activeTab="5" xr2:uid="{CE45C211-BD3F-4CC7-8CF8-DB47A93DE884}"/>
   </bookViews>
   <sheets>
     <sheet name="11.2 cm, no T" sheetId="2" r:id="rId1"/>

--- a/Testing_Data/StraightForceTest.xlsx
+++ b/Testing_Data/StraightForceTest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Bipedal_Robot\Testing_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DED98E80-2E78-4B87-A34E-715177D647AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9735279-9BE0-42F5-BD20-1B0F25639752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20340" yWindow="2025" windowWidth="13455" windowHeight="11385" activeTab="5" xr2:uid="{CE45C211-BD3F-4CC7-8CF8-DB47A93DE884}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{CE45C211-BD3F-4CC7-8CF8-DB47A93DE884}"/>
   </bookViews>
   <sheets>
     <sheet name="11.2 cm, no T" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="51">
   <si>
     <t>Force (lbs)</t>
   </si>
@@ -184,9 +184,6 @@
   <si>
     <t>BPA number</t>
   </si>
-  <si>
-    <t>Exclude?</t>
-  </si>
 </sst>
 </file>
 
@@ -219,18 +216,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="17">
@@ -446,7 +437,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -460,12 +450,13 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4012,44 +4003,44 @@
                 <c:pt idx="21">
                   <c:v>8.3000000000000007</c:v>
                 </c:pt>
-                <c:pt idx="22">
-                  <c:v>341.12416430666099</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>377.89348739776199</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>383.39578312153799</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>419.135752899767</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>406.99895268082798</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>316.95473249424998</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>364.00278054154302</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>386.71906803460001</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>402.07964522021399</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>440.64266191226397</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>465.12895717779401</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>477.69394525331899</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>480.59950865843399</c:v>
+                <c:pt idx="22" formatCode="0.00">
+                  <c:v>341.27196536755503</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="0.00">
+                  <c:v>377.74958573221602</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="0.00">
+                  <c:v>383.52926262490701</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="0.00">
+                  <c:v>419.44061252688402</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="0.00">
+                  <c:v>407.12949095758</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="0.00">
+                  <c:v>317.15233304749597</c:v>
+                </c:pt>
+                <c:pt idx="28" formatCode="0.00">
+                  <c:v>363.613537141714</c:v>
+                </c:pt>
+                <c:pt idx="29" formatCode="0.00">
+                  <c:v>380.24683840846097</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="0.00">
+                  <c:v>394.94626968755199</c:v>
+                </c:pt>
+                <c:pt idx="31" formatCode="0.00">
+                  <c:v>436.00172829341199</c:v>
+                </c:pt>
+                <c:pt idx="32" formatCode="0.00">
+                  <c:v>459.110104683619</c:v>
+                </c:pt>
+                <c:pt idx="33" formatCode="0.00">
+                  <c:v>455.36635322123999</c:v>
+                </c:pt>
+                <c:pt idx="34" formatCode="0.00">
+                  <c:v>484.22539420023401</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11540,8 +11531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57CFFEA6-F038-4ADE-B4DB-050B0246E0CF}">
   <dimension ref="A1:AK64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="X61" sqref="X61"/>
+    <sheetView tabSelected="1" topLeftCell="F25" workbookViewId="0">
+      <selection activeCell="X41" sqref="X41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11877,169 +11868,169 @@
         <v>437</v>
       </c>
     </row>
-    <row r="5" spans="1:37" s="26" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="27" t="s">
+    <row r="5" spans="1:37" s="25" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="28">
+      <c r="C5" s="27">
         <f>1-C4/C3</f>
         <v>0.17159763313609466</v>
       </c>
-      <c r="D5" s="29">
+      <c r="D5" s="28">
         <f>1-D4/D3</f>
         <v>0.17261904761904767</v>
       </c>
-      <c r="E5" s="28">
+      <c r="E5" s="27">
         <f t="shared" ref="E5:H5" si="0">1-E4/E3</f>
         <v>0.16942675159235665</v>
       </c>
-      <c r="F5" s="29">
+      <c r="F5" s="28">
         <f t="shared" si="0"/>
         <v>0.17051282051282046</v>
       </c>
-      <c r="G5" s="28">
+      <c r="G5" s="27">
         <f t="shared" si="0"/>
         <v>0.17746478873239435</v>
       </c>
-      <c r="H5" s="29">
+      <c r="H5" s="28">
         <f t="shared" si="0"/>
         <v>0.17489421720733422</v>
       </c>
-      <c r="I5" s="28">
+      <c r="I5" s="27">
         <f t="shared" ref="I5:J5" si="1">1-I4/I3</f>
         <v>0.18388791593695275</v>
       </c>
-      <c r="J5" s="29">
+      <c r="J5" s="28">
         <f t="shared" si="1"/>
         <v>0.18213660245183882</v>
       </c>
-      <c r="K5" s="28">
+      <c r="K5" s="27">
         <v>0.160714285714286</v>
       </c>
-      <c r="L5" s="30">
+      <c r="L5" s="29">
         <v>0.16626506024096388</v>
       </c>
-      <c r="M5" s="30">
+      <c r="M5" s="29">
         <v>0.15824175824175823</v>
       </c>
-      <c r="N5" s="30">
+      <c r="N5" s="29">
         <v>0.18775510204081636</v>
       </c>
-      <c r="O5" s="29">
+      <c r="O5" s="28">
         <v>0.16602316602316602</v>
       </c>
-      <c r="P5" s="31">
+      <c r="P5" s="30">
         <f t="shared" ref="P5:W5" si="2">1-P4/P3</f>
         <v>0.17422867513611617</v>
       </c>
-      <c r="Q5" s="31">
+      <c r="Q5" s="30">
         <f t="shared" si="2"/>
         <v>0.17174515235457066</v>
       </c>
-      <c r="R5" s="31">
+      <c r="R5" s="30">
         <f t="shared" si="2"/>
         <v>0.14814814814814814</v>
       </c>
-      <c r="S5" s="31">
+      <c r="S5" s="30">
         <f t="shared" si="2"/>
         <v>0.14814814814814814</v>
       </c>
-      <c r="T5" s="29">
+      <c r="T5" s="28">
         <f t="shared" si="2"/>
         <v>0.15942028985507251</v>
       </c>
-      <c r="U5" s="28">
+      <c r="U5" s="27">
         <f t="shared" si="2"/>
         <v>0.1709090909090909</v>
       </c>
-      <c r="V5" s="28">
+      <c r="V5" s="27">
         <f t="shared" si="2"/>
         <v>0.15231788079470199</v>
       </c>
-      <c r="W5" s="31">
+      <c r="W5" s="30">
         <f t="shared" si="2"/>
         <v>0.16580310880829019</v>
       </c>
-      <c r="X5" s="31">
+      <c r="X5" s="30">
         <f t="shared" ref="X5:AK5" si="3">1-X4/X3</f>
         <v>9.9999999999999978E-2</v>
       </c>
-      <c r="Y5" s="31">
+      <c r="Y5" s="30">
         <f t="shared" si="3"/>
         <v>0.16666666666666663</v>
       </c>
-      <c r="Z5" s="31">
+      <c r="Z5" s="30">
         <f t="shared" si="3"/>
         <v>0.15909090909090906</v>
       </c>
-      <c r="AA5" s="31">
+      <c r="AA5" s="30">
         <f t="shared" si="3"/>
         <v>0.16153846153846152</v>
       </c>
-      <c r="AB5" s="31">
+      <c r="AB5" s="30">
         <f t="shared" si="3"/>
         <v>0.16370106761565839</v>
       </c>
-      <c r="AC5" s="31">
+      <c r="AC5" s="30">
         <f t="shared" si="3"/>
         <v>0.14590747330960852</v>
       </c>
-      <c r="AD5" s="31">
+      <c r="AD5" s="30">
         <f t="shared" si="3"/>
         <v>0.15662650602409633</v>
       </c>
-      <c r="AE5" s="31">
+      <c r="AE5" s="30">
         <f t="shared" si="3"/>
         <v>0.15909090909090906</v>
       </c>
-      <c r="AF5" s="31">
+      <c r="AF5" s="30">
         <f t="shared" si="3"/>
         <v>0.1648351648351648</v>
       </c>
-      <c r="AG5" s="31">
+      <c r="AG5" s="30">
         <f t="shared" si="3"/>
         <v>0.1716738197424893</v>
       </c>
-      <c r="AH5" s="31">
+      <c r="AH5" s="30">
         <f t="shared" si="3"/>
         <v>0.17437722419928825</v>
       </c>
-      <c r="AI5" s="31">
+      <c r="AI5" s="30">
         <f t="shared" si="3"/>
         <v>0.17801047120418845</v>
       </c>
-      <c r="AJ5" s="31">
+      <c r="AJ5" s="30">
         <f t="shared" si="3"/>
         <v>0.176056338028169</v>
       </c>
-      <c r="AK5" s="31">
+      <c r="AK5" s="30">
         <f t="shared" si="3"/>
         <v>0.1612284069097889</v>
       </c>
     </row>
-    <row r="6" spans="1:37" s="20" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="23" t="s">
+    <row r="6" spans="1:37" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="24">
+      <c r="C6" s="23">
         <v>447.1</v>
       </c>
       <c r="D6" s="20">
         <v>447.1</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="23">
         <v>472</v>
       </c>
       <c r="F6" s="20">
         <v>472</v>
       </c>
-      <c r="G6" s="24">
+      <c r="G6" s="23">
         <v>452.32</v>
       </c>
       <c r="H6" s="20">
         <v>452.32</v>
       </c>
-      <c r="I6" s="24">
+      <c r="I6" s="23">
         <v>461.6</v>
       </c>
       <c r="J6" s="20">
@@ -12060,16 +12051,16 @@
       <c r="O6" s="20">
         <v>455.83</v>
       </c>
-      <c r="P6" s="25">
+      <c r="P6" s="24">
         <v>453.14</v>
       </c>
-      <c r="Q6" s="25">
+      <c r="Q6" s="24">
         <v>436.4</v>
       </c>
-      <c r="R6" s="25">
+      <c r="R6" s="24">
         <v>238.2</v>
       </c>
-      <c r="S6" s="25">
+      <c r="S6" s="24">
         <v>135.32</v>
       </c>
       <c r="T6" s="21">
@@ -12078,53 +12069,53 @@
       <c r="U6" s="21">
         <v>412.3</v>
       </c>
-      <c r="V6" s="24">
+      <c r="V6" s="23">
         <v>347.18</v>
       </c>
-      <c r="W6" s="25">
+      <c r="W6" s="24">
         <v>396.17</v>
       </c>
-      <c r="X6" s="25">
+      <c r="X6" s="24">
         <v>8.3000000000000007</v>
       </c>
-      <c r="Y6" s="21">
-        <v>341.12416430666099</v>
-      </c>
-      <c r="Z6" s="21">
-        <v>377.89348739776199</v>
-      </c>
-      <c r="AA6" s="21">
-        <v>383.39578312153799</v>
-      </c>
-      <c r="AB6" s="21">
-        <v>419.135752899767</v>
-      </c>
-      <c r="AC6" s="21">
-        <v>406.99895268082798</v>
-      </c>
-      <c r="AD6" s="21">
-        <v>316.95473249424998</v>
-      </c>
-      <c r="AE6" s="21">
-        <v>364.00278054154302</v>
-      </c>
-      <c r="AF6" s="21">
-        <v>386.71906803460001</v>
-      </c>
-      <c r="AG6" s="21">
-        <v>402.07964522021399</v>
-      </c>
-      <c r="AH6" s="21">
-        <v>440.64266191226397</v>
-      </c>
-      <c r="AI6" s="21">
-        <v>465.12895717779401</v>
-      </c>
-      <c r="AJ6" s="21">
-        <v>477.69394525331899</v>
-      </c>
-      <c r="AK6" s="22">
-        <v>480.59950865843399</v>
+      <c r="Y6" s="31">
+        <v>341.27196536755503</v>
+      </c>
+      <c r="Z6" s="31">
+        <v>377.74958573221602</v>
+      </c>
+      <c r="AA6" s="31">
+        <v>383.52926262490701</v>
+      </c>
+      <c r="AB6" s="31">
+        <v>419.44061252688402</v>
+      </c>
+      <c r="AC6" s="31">
+        <v>407.12949095758</v>
+      </c>
+      <c r="AD6" s="31">
+        <v>317.15233304749597</v>
+      </c>
+      <c r="AE6" s="31">
+        <v>363.613537141714</v>
+      </c>
+      <c r="AF6" s="31">
+        <v>380.24683840846097</v>
+      </c>
+      <c r="AG6" s="31">
+        <v>394.94626968755199</v>
+      </c>
+      <c r="AH6" s="31">
+        <v>436.00172829341199</v>
+      </c>
+      <c r="AI6" s="31">
+        <v>459.110104683619</v>
+      </c>
+      <c r="AJ6" s="31">
+        <v>455.36635322123999</v>
+      </c>
+      <c r="AK6" s="31">
+        <v>484.22539420023401</v>
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.25">
@@ -12322,6 +12313,9 @@
         <f t="shared" si="5"/>
         <v>2.0689655172413713E-2</v>
       </c>
+      <c r="AB11">
+        <v>341.27196536755503</v>
+      </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
@@ -12345,6 +12339,9 @@
         <f t="shared" si="5"/>
         <v>2.7586206896551616E-2</v>
       </c>
+      <c r="AB12">
+        <v>377.74958573221602</v>
+      </c>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
@@ -12368,6 +12365,9 @@
         <f t="shared" si="5"/>
         <v>3.4482758620689523E-2</v>
       </c>
+      <c r="AB13">
+        <v>383.52926262490701</v>
+      </c>
     </row>
     <row r="14" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
@@ -12401,6 +12401,9 @@
       <c r="Z14" t="s">
         <v>34</v>
       </c>
+      <c r="AB14">
+        <v>419.44061252688402</v>
+      </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
@@ -12435,6 +12438,9 @@
       </c>
       <c r="Z15">
         <v>0.1607142857142857</v>
+      </c>
+      <c r="AB15">
+        <v>407.12949095758</v>
       </c>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.25">
@@ -12468,8 +12474,11 @@
       <c r="Z16">
         <v>0.16626506024096388</v>
       </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AB16">
+        <v>317.15233304749597</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17">
         <v>781</v>
@@ -12500,8 +12509,11 @@
       <c r="Z17">
         <v>0.15824175824175823</v>
       </c>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AB17">
+        <v>363.613537141714</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18">
         <v>780</v>
@@ -12532,8 +12544,11 @@
       <c r="Z18">
         <v>0.18775510204081636</v>
       </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AB18">
+        <v>380.24683840846097</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19">
         <v>780</v>
@@ -12564,8 +12579,11 @@
       <c r="Z19">
         <v>0.16602316602316602</v>
       </c>
-    </row>
-    <row r="20" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AB19">
+        <v>394.94626968755199</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
       <c r="B20" s="8">
         <v>780</v>
@@ -12590,8 +12608,11 @@
       </c>
       <c r="K20" s="1"/>
       <c r="O20" s="1"/>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AB20">
+        <v>436.00172829341199</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>3</v>
       </c>
@@ -12618,8 +12639,11 @@
       </c>
       <c r="K21" s="1"/>
       <c r="O21" s="2"/>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AB21">
+        <v>459.110104683619</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22">
         <v>709</v>
@@ -12641,8 +12665,11 @@
         <f t="shared" ref="H22:H32" si="9">G22/$H$5</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AB22">
+        <v>455.36635322123999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23">
         <v>708</v>
@@ -12673,8 +12700,11 @@
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AB23">
+        <v>484.22539420023401</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24">
         <v>708</v>
@@ -12697,7 +12727,7 @@
         <v>8.0645161290322474E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25">
         <v>707</v>
@@ -12720,7 +12750,7 @@
         <v>1.6129032258064495E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7"/>
       <c r="B26" s="8">
         <v>707</v>
@@ -12744,7 +12774,7 @@
         <v>1.6129032258064495E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>4</v>
       </c>
@@ -12770,7 +12800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28">
         <v>571</v>
@@ -12793,7 +12823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
       <c r="B29">
         <v>571</v>
@@ -12819,7 +12849,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5"/>
       <c r="B30">
         <v>570</v>
@@ -12872,7 +12902,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
       <c r="B31">
         <v>570</v>
@@ -12922,7 +12952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
       <c r="B32" s="8">
         <v>570</v>
@@ -13793,7 +13823,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
       <c r="B49">
         <v>54</v>
@@ -13822,28 +13852,28 @@
         <v>0</v>
       </c>
       <c r="N49" s="20">
-        <v>21.056251475539</v>
+        <v>11.173315850122201</v>
       </c>
       <c r="O49" s="20">
-        <v>67.880540667118794</v>
+        <v>71.597383982769102</v>
       </c>
       <c r="P49" s="20">
-        <v>129.849230089484</v>
+        <v>132.021452115416</v>
       </c>
       <c r="Q49" s="20">
-        <v>193.30695254584799</v>
+        <v>194.332189073709</v>
       </c>
       <c r="R49" s="20">
-        <v>260.09435898856901</v>
+        <v>260.55869222423098</v>
       </c>
       <c r="S49" s="21">
-        <v>341.12416430666099</v>
+        <v>341.27196536755503</v>
       </c>
       <c r="U49">
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="7"/>
       <c r="B50" s="8">
         <v>54</v>
@@ -13873,28 +13903,28 @@
         <v>0</v>
       </c>
       <c r="N50" s="20">
-        <v>23.056745021293601</v>
+        <v>19.913246902175</v>
       </c>
       <c r="O50" s="20">
-        <v>80.578654956797095</v>
+        <v>83.751277695439896</v>
       </c>
       <c r="P50" s="20">
-        <v>147.01614853387099</v>
+        <v>147.82931351117</v>
       </c>
       <c r="Q50" s="20">
-        <v>216.966485709746</v>
+        <v>217.399029593921</v>
       </c>
       <c r="R50" s="20">
-        <v>289.05450311750002</v>
+        <v>289.187518020212</v>
       </c>
       <c r="S50" s="21">
-        <v>377.89348739776199</v>
+        <v>377.74958573221602</v>
       </c>
       <c r="U50">
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>8</v>
       </c>
@@ -13929,28 +13959,28 @@
         <v>0</v>
       </c>
       <c r="N51" s="20">
-        <v>31.765608750565001</v>
+        <v>30.5717820385461</v>
       </c>
       <c r="O51" s="20">
-        <v>90.343419956990701</v>
+        <v>92.673091758923803</v>
       </c>
       <c r="P51" s="20">
-        <v>156.15044536305399</v>
+        <v>156.11727649143899</v>
       </c>
       <c r="Q51" s="20">
-        <v>225.061257311726</v>
+        <v>225.07983536640199</v>
       </c>
       <c r="R51" s="20">
-        <v>295.88174893236697</v>
+        <v>296.11482667822497</v>
       </c>
       <c r="S51" s="21">
-        <v>383.39578312153799</v>
+        <v>383.52926262490701</v>
       </c>
       <c r="U51">
         <v>21</v>
       </c>
     </row>
-    <row r="52" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="7"/>
       <c r="B52" s="8">
         <v>27</v>
@@ -13980,31 +14010,28 @@
         <v>0</v>
       </c>
       <c r="N52" s="20">
-        <v>54.850852014302703</v>
+        <v>54.380756957724302</v>
       </c>
       <c r="O52" s="20">
-        <v>118.73120640969201</v>
+        <v>120.715187904676</v>
       </c>
       <c r="P52" s="20">
-        <v>186.95474116411199</v>
+        <v>187.48405006472601</v>
       </c>
       <c r="Q52" s="20">
-        <v>257.76448581148202</v>
+        <v>258.13384695212397</v>
       </c>
       <c r="R52" s="20">
-        <v>329.48483328692498</v>
+        <v>330.30026824494303</v>
       </c>
       <c r="S52" s="21">
-        <v>419.135752899767</v>
+        <v>419.44061252688402</v>
       </c>
       <c r="U52">
         <v>22</v>
       </c>
-      <c r="V52" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>9</v>
       </c>
@@ -14035,32 +14062,32 @@
       <c r="L53" s="15">
         <v>281</v>
       </c>
-      <c r="M53" s="5">
+      <c r="M53" s="32">
         <v>0</v>
       </c>
-      <c r="N53" s="20">
-        <v>37.857776022997498</v>
-      </c>
-      <c r="O53" s="20">
-        <v>103.448741170359</v>
-      </c>
-      <c r="P53" s="20">
-        <v>172.363487514197</v>
-      </c>
-      <c r="Q53" s="20">
-        <v>243.97798254163999</v>
-      </c>
-      <c r="R53" s="20">
-        <v>317.21185066770698</v>
-      </c>
-      <c r="S53" s="21">
-        <v>406.99895268082798</v>
+      <c r="N53" s="33">
+        <v>37.650099211477198</v>
+      </c>
+      <c r="O53" s="33">
+        <v>104.737834377829</v>
+      </c>
+      <c r="P53" s="33">
+        <v>173.02406821925399</v>
+      </c>
+      <c r="Q53" s="33">
+        <v>244.51031770321799</v>
+      </c>
+      <c r="R53" s="33">
+        <v>317.62763704109801</v>
+      </c>
+      <c r="S53" s="34">
+        <v>407.12949095758</v>
       </c>
       <c r="U53">
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="7"/>
       <c r="B54" s="8">
         <v>61</v>
@@ -14090,28 +14117,28 @@
         <v>0</v>
       </c>
       <c r="N54" s="33">
-        <v>21.858548044948598</v>
+        <v>18.151931203929198</v>
       </c>
       <c r="O54" s="33">
-        <v>60.524428836911497</v>
+        <v>67.166070243791594</v>
       </c>
       <c r="P54" s="33">
-        <v>118.055957102094</v>
+        <v>120.68571646615401</v>
       </c>
       <c r="Q54" s="33">
-        <v>180.78008605034401</v>
+        <v>180.280069271548</v>
       </c>
       <c r="R54" s="33">
-        <v>242.14165672072801</v>
+        <v>242.220715418238</v>
       </c>
       <c r="S54" s="34">
-        <v>316.95473249424998</v>
+        <v>317.15233304749597</v>
       </c>
       <c r="U54">
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>10</v>
       </c>
@@ -14146,28 +14173,28 @@
         <v>0</v>
       </c>
       <c r="N55" s="33">
-        <v>28.939048675656199</v>
+        <v>28.579859239886101</v>
       </c>
       <c r="O55" s="33">
-        <v>78.161903235195297</v>
+        <v>82.960164709831801</v>
       </c>
       <c r="P55" s="33">
-        <v>142.990297538551</v>
+        <v>144.06314243593201</v>
       </c>
       <c r="Q55" s="33">
-        <v>209.91472493876699</v>
+        <v>210.861160759543</v>
       </c>
       <c r="R55" s="33">
-        <v>279.06143692049</v>
+        <v>279.78315320204098</v>
       </c>
       <c r="S55" s="34">
-        <v>364.00278054154302</v>
+        <v>363.613537141714</v>
       </c>
       <c r="U55">
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="7"/>
       <c r="B56" s="8">
         <v>273</v>
@@ -14197,28 +14224,28 @@
         <v>0</v>
       </c>
       <c r="N56" s="33">
-        <v>39.7439507997086</v>
+        <v>42.290120012116603</v>
       </c>
       <c r="O56" s="33">
-        <v>92.459050423946806</v>
+        <v>98.264025903797105</v>
       </c>
       <c r="P56" s="33">
-        <v>155.87604798848801</v>
+        <v>160.350168993875</v>
       </c>
       <c r="Q56" s="33">
-        <v>225.06765832266899</v>
+        <v>227.21831961759801</v>
       </c>
       <c r="R56" s="33">
-        <v>295.96175995445498</v>
+        <v>296.374690754661</v>
       </c>
       <c r="S56" s="34">
-        <v>386.71906803460001</v>
+        <v>380.24683840846097</v>
       </c>
       <c r="U56">
         <v>26</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>11</v>
       </c>
@@ -14253,31 +14280,28 @@
         <v>0</v>
       </c>
       <c r="N57" s="33">
-        <v>50.022907103523501</v>
+        <v>52.388311067675801</v>
       </c>
       <c r="O57" s="33">
-        <v>104.675836141871</v>
+        <v>110.818387436517</v>
       </c>
       <c r="P57" s="33">
-        <v>167.305299996922</v>
+        <v>173.97179581563401</v>
       </c>
       <c r="Q57" s="33">
-        <v>238.92730162589299</v>
+        <v>241.07401280716499</v>
       </c>
       <c r="R57" s="33">
-        <v>310.24677209183102</v>
+        <v>310.32310380453703</v>
       </c>
       <c r="S57" s="34">
-        <v>402.07964522021399</v>
+        <v>394.94626968755199</v>
       </c>
       <c r="U57">
         <v>27</v>
       </c>
-      <c r="V57" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="58" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="7"/>
       <c r="B58" s="8">
         <v>149</v>
@@ -14307,28 +14331,28 @@
         <v>0</v>
       </c>
       <c r="N58" s="33">
-        <v>57.3984504936398</v>
+        <v>57.955293808363102</v>
       </c>
       <c r="O58" s="33">
-        <v>117.833694804798</v>
+        <v>125.466446406806</v>
       </c>
       <c r="P58" s="33">
-        <v>194.4545966204</v>
+        <v>196.474099112961</v>
       </c>
       <c r="Q58" s="33">
-        <v>269.76185565007199</v>
+        <v>270.13344549399397</v>
       </c>
       <c r="R58" s="33">
-        <v>344.16668240880102</v>
+        <v>345.04680550109401</v>
       </c>
       <c r="S58" s="34">
-        <v>440.64266191226397</v>
+        <v>436.00172829341199</v>
       </c>
       <c r="U58">
         <v>28</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>12</v>
       </c>
@@ -14363,28 +14387,28 @@
         <v>0</v>
       </c>
       <c r="N59" s="33">
-        <v>66.455424257142894</v>
+        <v>67.612449058151896</v>
       </c>
       <c r="O59" s="33">
-        <v>132.776310305018</v>
+        <v>137.657367178741</v>
       </c>
       <c r="P59" s="33">
-        <v>209.317260697753</v>
+        <v>211.18935745517001</v>
       </c>
       <c r="Q59" s="33">
-        <v>287.25049631366801</v>
+        <v>287.42810509380502</v>
       </c>
       <c r="R59" s="33">
-        <v>364.55750605255099</v>
+        <v>364.77020715224899</v>
       </c>
       <c r="S59" s="34">
-        <v>465.12895717779401</v>
+        <v>459.110104683619</v>
       </c>
       <c r="U59">
         <v>29</v>
       </c>
     </row>
-    <row r="60" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="7"/>
       <c r="B60" s="8">
         <v>193</v>
@@ -14414,28 +14438,28 @@
         <v>0</v>
       </c>
       <c r="N60" s="33">
-        <v>45.248175238574198</v>
+        <v>55.768533492429803</v>
       </c>
       <c r="O60" s="33">
-        <v>125.273855646624</v>
+        <v>126.457155949144</v>
       </c>
       <c r="P60" s="33">
-        <v>203.09221035399401</v>
+        <v>201.71302032531199</v>
       </c>
       <c r="Q60" s="33">
-        <v>278.17972143974299</v>
+        <v>279.9013414113</v>
       </c>
       <c r="R60" s="33">
-        <v>358.06903655082903</v>
+        <v>359.08125122058698</v>
       </c>
       <c r="S60" s="34">
-        <v>477.69394525331899</v>
+        <v>455.36635322123999</v>
       </c>
       <c r="U60">
         <v>30</v>
       </c>
     </row>
-    <row r="61" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <v>13</v>
       </c>
@@ -14467,28 +14491,28 @@
         <v>0</v>
       </c>
       <c r="N61" s="36">
-        <v>62.618412374401899</v>
+        <v>74.136414457097899</v>
       </c>
       <c r="O61" s="36">
-        <v>143.14211599903399</v>
+        <v>148.07015346363499</v>
       </c>
       <c r="P61" s="36">
-        <v>224.21344577198201</v>
+        <v>225.41238986645101</v>
       </c>
       <c r="Q61" s="36">
-        <v>305.76925879406599</v>
+        <v>304.86655488815802</v>
       </c>
       <c r="R61" s="36">
-        <v>385.47465552639301</v>
+        <v>385.527373443047</v>
       </c>
       <c r="S61" s="37">
-        <v>480.59950865843399</v>
+        <v>484.22539420023401</v>
       </c>
       <c r="U61">
         <v>31</v>
       </c>
     </row>
-    <row r="62" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="7"/>
       <c r="B62" s="8">
         <v>10</v>
@@ -14518,7 +14542,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -14528,7 +14552,7 @@
       <c r="G63" s="4"/>
       <c r="H63" s="13"/>
     </row>
-    <row r="64" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="7"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>

--- a/Testing_Data/StraightForceTest.xlsx
+++ b/Testing_Data/StraightForceTest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Documents\GitHub\Bipedal_Robot\Testing_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A8333DB-A609-4D46-BF25-54D4A7841DBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0DE5BDA-4857-4E60-92FA-50DC8D1F52BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{CE45C211-BD3F-4CC7-8CF8-DB47A93DE884}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{CE45C211-BD3F-4CC7-8CF8-DB47A93DE884}"/>
   </bookViews>
   <sheets>
     <sheet name="11.2 cm, no T" sheetId="2" r:id="rId1"/>
@@ -425,7 +425,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -467,7 +467,6 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -2129,19 +2128,19 @@
                 <c:pt idx="7">
                   <c:v>461.6</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>343.29149999999998</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>453.65</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>439.63069999999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="8" formatCode="General">
+                  <c:v>334.74</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>445</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
                   <c:v>458.6</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="12" formatCode="General">
                   <c:v>455.83</c:v>
                 </c:pt>
                 <c:pt idx="13">
@@ -15380,7 +15379,7 @@
       </c>
     </row>
     <row r="34" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F34" s="34">
+      <c r="F34" s="33">
         <f>F6</f>
         <v>1</v>
       </c>
@@ -15390,7 +15389,7 @@
       </c>
     </row>
     <row r="35" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F35" s="34">
+      <c r="F35" s="33">
         <f t="shared" ref="F35:F51" si="3">F7</f>
         <v>0.91780821917808175</v>
       </c>
@@ -15400,7 +15399,7 @@
       </c>
     </row>
     <row r="36" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F36" s="34">
+      <c r="F36" s="33">
         <f t="shared" si="3"/>
         <v>0.60273972602739745</v>
       </c>
@@ -15410,7 +15409,7 @@
       </c>
     </row>
     <row r="37" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F37" s="34">
+      <c r="F37" s="33">
         <f t="shared" si="3"/>
         <v>0.84246575342465746</v>
       </c>
@@ -15420,7 +15419,7 @@
       </c>
     </row>
     <row r="38" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F38" s="34">
+      <c r="F38" s="33">
         <f t="shared" si="3"/>
         <v>0.80821917808219157</v>
       </c>
@@ -15430,7 +15429,7 @@
       </c>
     </row>
     <row r="39" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F39" s="34">
+      <c r="F39" s="33">
         <f t="shared" si="3"/>
         <v>0.78082191780821886</v>
       </c>
@@ -15440,7 +15439,7 @@
       </c>
     </row>
     <row r="40" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F40" s="34">
+      <c r="F40" s="33">
         <f t="shared" si="3"/>
         <v>0.65753424657534221</v>
       </c>
@@ -15450,7 +15449,7 @@
       </c>
     </row>
     <row r="41" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F41" s="34">
+      <c r="F41" s="33">
         <f t="shared" si="3"/>
         <v>0.49315068493150649</v>
       </c>
@@ -15460,7 +15459,7 @@
       </c>
     </row>
     <row r="42" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F42" s="34">
+      <c r="F42" s="33">
         <f t="shared" si="3"/>
         <v>0.35616438356164348</v>
       </c>
@@ -15470,7 +15469,7 @@
       </c>
     </row>
     <row r="43" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F43" s="34">
+      <c r="F43" s="33">
         <f t="shared" si="3"/>
         <v>0.20547945205479412</v>
       </c>
@@ -15480,7 +15479,7 @@
       </c>
     </row>
     <row r="44" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F44" s="34">
+      <c r="F44" s="33">
         <f t="shared" si="3"/>
         <v>0.10958904109589025</v>
       </c>
@@ -15490,7 +15489,7 @@
       </c>
     </row>
     <row r="45" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F45" s="34">
+      <c r="F45" s="33">
         <f t="shared" si="3"/>
         <v>1.3698630136986368E-2</v>
       </c>
@@ -15500,7 +15499,7 @@
       </c>
     </row>
     <row r="46" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F46" s="34">
+      <c r="F46" s="33">
         <f t="shared" si="3"/>
         <v>4.1095890410959103E-2</v>
       </c>
@@ -15510,7 +15509,7 @@
       </c>
     </row>
     <row r="47" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F47" s="34">
+      <c r="F47" s="33">
         <f t="shared" si="3"/>
         <v>2.7397260273972737E-2</v>
       </c>
@@ -15520,7 +15519,7 @@
       </c>
     </row>
     <row r="48" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F48" s="34">
+      <c r="F48" s="33">
         <f t="shared" si="3"/>
         <v>0.10958904109589025</v>
       </c>
@@ -15530,7 +15529,7 @@
       </c>
     </row>
     <row r="49" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F49" s="34">
+      <c r="F49" s="33">
         <f t="shared" si="3"/>
         <v>0.2602739726027396</v>
       </c>
@@ -15540,7 +15539,7 @@
       </c>
     </row>
     <row r="50" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F50" s="34">
+      <c r="F50" s="33">
         <f t="shared" si="3"/>
         <v>0.43835616438356168</v>
       </c>
@@ -15550,7 +15549,7 @@
       </c>
     </row>
     <row r="51" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F51" s="34">
+      <c r="F51" s="33">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -15570,7 +15569,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C902C6E6-059B-43BE-A924-BB7C80CB41D4}">
   <dimension ref="A1:Q54"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F55" sqref="F55:G55"/>
     </sheetView>
   </sheetViews>
@@ -16354,8 +16353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB2BFFE4-73AB-4B28-8B60-9C656B1F81F0}">
   <dimension ref="A1:Q56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="P50" sqref="P50"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="I56" sqref="I56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17136,8 +17135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57CFFEA6-F038-4ADE-B4DB-050B0246E0CF}">
   <dimension ref="A1:AK64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" topLeftCell="I38" workbookViewId="0">
+      <selection activeCell="S53" sqref="S53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17645,19 +17644,19 @@
       <c r="J6" s="20">
         <v>461.6</v>
       </c>
-      <c r="K6" s="20">
-        <v>343.29149999999998</v>
-      </c>
-      <c r="L6" s="20">
-        <v>453.65</v>
-      </c>
-      <c r="M6" s="20">
-        <v>439.63069999999999</v>
-      </c>
-      <c r="N6" s="20">
+      <c r="K6" s="6">
+        <v>334.74</v>
+      </c>
+      <c r="L6" s="6">
+        <v>445</v>
+      </c>
+      <c r="M6" s="6">
+        <v>460</v>
+      </c>
+      <c r="N6" s="6">
         <v>458.6</v>
       </c>
-      <c r="O6" s="20">
+      <c r="O6" s="6">
         <v>455.83</v>
       </c>
       <c r="P6" s="24">
@@ -19119,7 +19118,7 @@
         <v>207</v>
       </c>
       <c r="S42" s="6">
-        <v>266.5</v>
+        <v>238.2</v>
       </c>
       <c r="U42">
         <v>12</v>
@@ -19475,7 +19474,7 @@
       <c r="R49" s="20">
         <v>260.55869222423098</v>
       </c>
-      <c r="S49" s="21">
+      <c r="S49" s="31">
         <v>341.27196536755503</v>
       </c>
       <c r="U49">
@@ -19526,7 +19525,7 @@
       <c r="R50" s="20">
         <v>289.187518020212</v>
       </c>
-      <c r="S50" s="21">
+      <c r="S50" s="31">
         <v>377.74958573221602</v>
       </c>
       <c r="U50">
@@ -19582,7 +19581,7 @@
       <c r="R51" s="20">
         <v>296.11482667822497</v>
       </c>
-      <c r="S51" s="21">
+      <c r="S51" s="31">
         <v>383.52926262490701</v>
       </c>
       <c r="U51">
@@ -19633,7 +19632,7 @@
       <c r="R52" s="20">
         <v>330.30026824494303</v>
       </c>
-      <c r="S52" s="21">
+      <c r="S52" s="31">
         <v>419.44061252688402</v>
       </c>
       <c r="U52">
@@ -19689,7 +19688,7 @@
       <c r="R53" s="20">
         <v>317.62763704109801</v>
       </c>
-      <c r="S53" s="21">
+      <c r="S53" s="31">
         <v>407.12949095758</v>
       </c>
       <c r="U53">
@@ -19740,7 +19739,7 @@
       <c r="R54" s="20">
         <v>242.220715418238</v>
       </c>
-      <c r="S54" s="21">
+      <c r="S54" s="31">
         <v>317.15233304749597</v>
       </c>
       <c r="U54">
@@ -19796,7 +19795,7 @@
       <c r="R55" s="20">
         <v>279.78315320204098</v>
       </c>
-      <c r="S55" s="21">
+      <c r="S55" s="31">
         <v>363.613537141714</v>
       </c>
       <c r="U55">
@@ -19847,7 +19846,7 @@
       <c r="R56" s="20">
         <v>296.374690754661</v>
       </c>
-      <c r="S56" s="21">
+      <c r="S56" s="31">
         <v>380.24683840846097</v>
       </c>
       <c r="U56">
@@ -19903,7 +19902,7 @@
       <c r="R57" s="20">
         <v>310.32310380453703</v>
       </c>
-      <c r="S57" s="21">
+      <c r="S57" s="31">
         <v>394.94626968755199</v>
       </c>
       <c r="U57">
@@ -19954,7 +19953,7 @@
       <c r="R58" s="20">
         <v>345.04680550109401</v>
       </c>
-      <c r="S58" s="21">
+      <c r="S58" s="31">
         <v>436.00172829341199</v>
       </c>
       <c r="U58">
@@ -20010,7 +20009,7 @@
       <c r="R59" s="20">
         <v>364.77020715224899</v>
       </c>
-      <c r="S59" s="21">
+      <c r="S59" s="31">
         <v>459.110104683619</v>
       </c>
       <c r="U59">
@@ -20061,7 +20060,7 @@
       <c r="R60" s="20">
         <v>359.08125122058698</v>
       </c>
-      <c r="S60" s="21">
+      <c r="S60" s="31">
         <v>455.36635322123999</v>
       </c>
       <c r="U60">
@@ -20114,7 +20113,7 @@
       <c r="R61" s="32">
         <v>385.527373443047</v>
       </c>
-      <c r="S61" s="33">
+      <c r="S61" s="31">
         <v>484.22539420023401</v>
       </c>
       <c r="U61">

--- a/Testing_Data/StraightForceTest.xlsx
+++ b/Testing_Data/StraightForceTest.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Documents\GitHub\Bipedal_Robot\Testing_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0DE5BDA-4857-4E60-92FA-50DC8D1F52BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1B665A8-89AF-44D0-9017-A13EA1CA4E35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{CE45C211-BD3F-4CC7-8CF8-DB47A93DE884}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="54">
   <si>
     <t>Force (lbs)</t>
   </si>
@@ -198,6 +198,12 @@
   <si>
     <t>maxF</t>
   </si>
+  <si>
+    <t>*Don't use, too much noise</t>
+  </si>
+  <si>
+    <t>%exclude</t>
+  </si>
 </sst>
 </file>
 
@@ -231,12 +237,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="17">
@@ -425,7 +437,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -466,8 +478,24 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1132,7 +1160,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>-6</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>-5.3</c:v>
@@ -1141,7 +1169,7 @@
                   <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>443</c:v>
+                  <c:v>427.59999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>347</c:v>
@@ -1189,7 +1217,7 @@
                   <c:v>278</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>518</c:v>
+                  <c:v>429</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1651,64 +1679,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2170385395537525E-2</c:v>
+                  <c:v>-1.2240401485168714E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1.0750507099391481E-2</c:v>
+                  <c:v>-1.0812354645232364E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.12170385395537525</c:v>
+                  <c:v>0.12240401485168713</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.89858012170385393</c:v>
+                  <c:v>0.87233261250969019</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.70385395537525353</c:v>
+                  <c:v>0.70790321922559063</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.60040567951318458</c:v>
+                  <c:v>0.6038598066016565</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.49695740365111563</c:v>
+                  <c:v>0.49981639397772248</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.38742393509127787</c:v>
+                  <c:v>0.38965278061120406</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.11156186612576065</c:v>
+                  <c:v>0.1122036802807132</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.20081135902636918</c:v>
+                  <c:v>0.20196662450528377</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.26774847870182555</c:v>
+                  <c:v>0.26928883267371168</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.32454361054766734</c:v>
+                  <c:v>0.3264107062711657</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.39553752535496955</c:v>
+                  <c:v>0.39781304826798319</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.91277890466531442</c:v>
+                  <c:v>0.91803011138765345</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.85192697768762682</c:v>
+                  <c:v>0.85682810396180997</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.66531440162271804</c:v>
+                  <c:v>0.66914194785588965</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.76673427991886411</c:v>
+                  <c:v>0.77114529356562889</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.46653144016227183</c:v>
+                  <c:v>0.46921539026480069</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.56389452332657197</c:v>
+                  <c:v>0.56713860214615042</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.050709939148073</c:v>
+                  <c:v>0.87518870618956301</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1986,10 +2014,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>'Fmax(L)'!$C$3:$AK$3</c:f>
+              <c:f>'Fmax(L)'!$C$3:$AC$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>845</c:v>
                 </c:pt>
@@ -2021,7 +2049,7 @@
                   <c:v>415</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>453</c:v>
+                  <c:v>455</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>490</c:v>
@@ -2070,40 +2098,16 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>281</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>132</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>182</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>233</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>281</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>382</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>426</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>521</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Fmax(L)'!$C$6:$AK$6</c:f>
+              <c:f>'Fmax(L)'!$C$6:$AC$6</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>447.1</c:v>
                 </c:pt>
@@ -2129,19 +2133,19 @@
                   <c:v>461.6</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="General">
-                  <c:v>334.74</c:v>
+                  <c:v>350.86</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="General">
-                  <c:v>445</c:v>
+                  <c:v>444.82</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="General">
-                  <c:v>460</c:v>
+                  <c:v>440.74</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="General">
-                  <c:v>458.6</c:v>
+                  <c:v>451.15</c:v>
                 </c:pt>
                 <c:pt idx="12" formatCode="General">
-                  <c:v>455.83</c:v>
+                  <c:v>456.17</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>453.14</c:v>
@@ -2184,30 +2188,6 @@
                 </c:pt>
                 <c:pt idx="26" formatCode="0.00">
                   <c:v>407.12949095758</c:v>
-                </c:pt>
-                <c:pt idx="27" formatCode="0.00">
-                  <c:v>317.15233304749597</c:v>
-                </c:pt>
-                <c:pt idx="28" formatCode="0.00">
-                  <c:v>363.613537141714</c:v>
-                </c:pt>
-                <c:pt idx="29" formatCode="0.00">
-                  <c:v>380.24683840846097</c:v>
-                </c:pt>
-                <c:pt idx="30" formatCode="0.00">
-                  <c:v>394.94626968755199</c:v>
-                </c:pt>
-                <c:pt idx="31" formatCode="0.00">
-                  <c:v>436.00172829341199</c:v>
-                </c:pt>
-                <c:pt idx="32" formatCode="0.00">
-                  <c:v>459.110104683619</c:v>
-                </c:pt>
-                <c:pt idx="33" formatCode="0.00">
-                  <c:v>455.36635322123999</c:v>
-                </c:pt>
-                <c:pt idx="34" formatCode="0.00">
-                  <c:v>484.22539420023401</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2521,7 +2501,7 @@
                   <c:v>415</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>453</c:v>
+                  <c:v>455</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>490</c:v>
@@ -2635,7 +2615,7 @@
                   <c:v>0.16626506024096388</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="General">
-                  <c:v>0.16114790286975722</c:v>
+                  <c:v>0.1648351648351648</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.18775510204081636</c:v>
@@ -4403,22 +4383,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.97313970684751694</c:v>
+                  <c:v>0.96778312990883975</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.78532374342594613</c:v>
+                  <c:v>0.78100098583643374</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.60334661824546043</c:v>
+                  <c:v>0.60002554054348056</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.43791286808138263</c:v>
+                  <c:v>0.43550240845897786</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.22576841198862391</c:v>
+                  <c:v>0.22452568613885079</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.9528853029971558E-2</c:v>
+                  <c:v>8.9036047951613254E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -4783,10 +4763,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'45.5 cm'!$F$6:$F$22</c:f>
+              <c:f>'45.5 cm'!$F$6:$F$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -4837,16 +4817,19 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0.43835616438356168</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'45.5 cm'!$C$6:$C$22</c:f>
+              <c:f>'45.5 cm'!$C$6:$C$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>26</c:v>
                 </c:pt>
@@ -4897,6 +4880,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>203.28372712000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4995,6 +4981,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="5">
+                  <c:v>0.92710706150341682</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -5762,138 +5751,132 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'49.0 cm'!$F$6:$F$25</c:f>
+              <c:f>'49.0 cm'!$F$8:$F$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>0.92391304347826053</c:v>
+                  <c:v>-1.0869565217391432E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.934782608695652</c:v>
+                  <c:v>4.347826086956514E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1.0869565217391432E-2</c:v>
+                  <c:v>0.16304347826086971</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.347826086956514E-2</c:v>
+                  <c:v>0.11956521739130457</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.16304347826086971</c:v>
+                  <c:v>0.20652173913043487</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.11956521739130457</c:v>
+                  <c:v>0.26086956521739141</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.20652173913043487</c:v>
+                  <c:v>0.32608695652173886</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.26086956521739141</c:v>
+                  <c:v>0.3695652173913046</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.32608695652173886</c:v>
+                  <c:v>0.434782608695652</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.3695652173913046</c:v>
+                  <c:v>0.51086956521739146</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.434782608695652</c:v>
+                  <c:v>0.565217391304348</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.51086956521739146</c:v>
+                  <c:v>0.684782608695652</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.565217391304348</c:v>
+                  <c:v>0.70652173913043481</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.684782608695652</c:v>
+                  <c:v>0.78260869565217372</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.70652173913043481</c:v>
+                  <c:v>0.83695652173913027</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.78260869565217372</c:v>
+                  <c:v>0.88043478260869545</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.83695652173913027</c:v>
+                  <c:v>0.94565217391304346</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.88043478260869545</c:v>
+                  <c:v>0.98913043478260854</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.94565217391304346</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.98913043478260854</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'49.0 cm'!$C$6:$C$25</c:f>
+              <c:f>'49.0 cm'!$C$8:$C$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>12</c:v>
+                  <c:v>464</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1100000000000001</c:v>
+                  <c:v>416</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>464</c:v>
+                  <c:v>308.77</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>433</c:v>
+                  <c:v>356</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>320</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>356</c:v>
+                  <c:v>268</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>300</c:v>
+                  <c:v>241</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>268</c:v>
+                  <c:v>215</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>241</c:v>
+                  <c:v>194</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>215</c:v>
+                  <c:v>165</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>194</c:v>
+                  <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>165</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>144</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>107</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>97</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>75</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>58</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>45</c:v>
+                  <c:v>2.29</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2.29</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5902,112 +5885,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-EBE3-423A-A3B9-68F4C1F44BDA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Paracord</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'49.0 cm'!$N$6:$N$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'49.0 cm'!$K$6:$K$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-EBE3-423A-A3B9-68F4C1F44BDA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>Brake Cable</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'49.0 cm'!$N$23:$N$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'49.0 cm'!$K$23:$K$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-EBE3-423A-A3B9-68F4C1F44BDA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6361,10 +6238,10 @@
                   <c:v>1.0197802197802197</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.9516483516483516</c:v>
+                  <c:v>0.91428571428571426</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.70329670329670335</c:v>
+                  <c:v>0.67861538461538462</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.78241758241758241</c:v>
@@ -13002,16 +12879,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>267652</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>153352</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13162,13 +13039,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>933450</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>42862</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>119062</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -13200,13 +13077,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -13238,9 +13115,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -13278,7 +13155,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -13384,7 +13261,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -13526,7 +13403,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -13536,7 +13413,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF5D9837-CB16-4300-A1DA-BD967A7687F8}">
   <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="O41" sqref="O41"/>
     </sheetView>
   </sheetViews>
@@ -13774,7 +13651,7 @@
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B31">
-        <f t="shared" ref="B31:B37" si="3">C7/$C$29</f>
+        <f t="shared" ref="B31:B35" si="3">C7/$C$29</f>
         <v>0.73597141532187582</v>
       </c>
     </row>
@@ -13813,8 +13690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0289F67D-1B36-4222-87CA-07D1B890BA50}">
   <dimension ref="A1:U40"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="P41" sqref="P41"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14801,44 +14678,43 @@
         <v>33</v>
       </c>
       <c r="C33">
-        <f>457.1</f>
-        <v>457.1</v>
+        <v>459.63</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C34">
         <f>C6/$C$33</f>
-        <v>0.97313970684751694</v>
+        <v>0.96778312990883975</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C35">
         <f t="shared" ref="C35:C40" si="11">C7/$C$33</f>
-        <v>0.78532374342594613</v>
+        <v>0.78100098583643374</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C36">
         <f t="shared" si="11"/>
-        <v>0.60334661824546043</v>
+        <v>0.60002554054348056</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C37">
         <f t="shared" si="11"/>
-        <v>0.43791286808138263</v>
+        <v>0.43550240845897786</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C38">
         <f t="shared" si="11"/>
-        <v>0.22576841198862391</v>
+        <v>0.22452568613885079</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C39">
         <f t="shared" si="11"/>
-        <v>8.9528853029971558E-2</v>
+        <v>8.9036047951613254E-2</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.3">
@@ -14858,8 +14734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{050AE67D-A238-4925-A0DE-87F77397D646}">
   <dimension ref="A1:Q51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="G4" workbookViewId="0">
+      <selection activeCell="R27" sqref="R27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15368,6 +15244,12 @@
         <v>440.04229999999995</v>
       </c>
     </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N27">
+        <f>407/439</f>
+        <v>0.92710706150341682</v>
+      </c>
+    </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="G31" t="s">
         <v>33</v>
@@ -15379,7 +15261,7 @@
       </c>
     </row>
     <row r="34" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F34" s="33">
+      <c r="F34" s="32">
         <f>F6</f>
         <v>1</v>
       </c>
@@ -15389,7 +15271,7 @@
       </c>
     </row>
     <row r="35" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F35" s="33">
+      <c r="F35" s="32">
         <f t="shared" ref="F35:F51" si="3">F7</f>
         <v>0.91780821917808175</v>
       </c>
@@ -15399,7 +15281,7 @@
       </c>
     </row>
     <row r="36" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F36" s="33">
+      <c r="F36" s="32">
         <f t="shared" si="3"/>
         <v>0.60273972602739745</v>
       </c>
@@ -15409,7 +15291,7 @@
       </c>
     </row>
     <row r="37" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F37" s="33">
+      <c r="F37" s="32">
         <f t="shared" si="3"/>
         <v>0.84246575342465746</v>
       </c>
@@ -15419,7 +15301,7 @@
       </c>
     </row>
     <row r="38" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F38" s="33">
+      <c r="F38" s="32">
         <f t="shared" si="3"/>
         <v>0.80821917808219157</v>
       </c>
@@ -15429,7 +15311,7 @@
       </c>
     </row>
     <row r="39" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F39" s="33">
+      <c r="F39" s="32">
         <f t="shared" si="3"/>
         <v>0.78082191780821886</v>
       </c>
@@ -15439,7 +15321,7 @@
       </c>
     </row>
     <row r="40" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F40" s="33">
+      <c r="F40" s="32">
         <f t="shared" si="3"/>
         <v>0.65753424657534221</v>
       </c>
@@ -15449,7 +15331,7 @@
       </c>
     </row>
     <row r="41" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F41" s="33">
+      <c r="F41" s="32">
         <f t="shared" si="3"/>
         <v>0.49315068493150649</v>
       </c>
@@ -15459,7 +15341,7 @@
       </c>
     </row>
     <row r="42" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F42" s="33">
+      <c r="F42" s="32">
         <f t="shared" si="3"/>
         <v>0.35616438356164348</v>
       </c>
@@ -15469,7 +15351,7 @@
       </c>
     </row>
     <row r="43" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F43" s="33">
+      <c r="F43" s="32">
         <f t="shared" si="3"/>
         <v>0.20547945205479412</v>
       </c>
@@ -15479,7 +15361,7 @@
       </c>
     </row>
     <row r="44" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F44" s="33">
+      <c r="F44" s="32">
         <f t="shared" si="3"/>
         <v>0.10958904109589025</v>
       </c>
@@ -15489,7 +15371,7 @@
       </c>
     </row>
     <row r="45" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F45" s="33">
+      <c r="F45" s="32">
         <f t="shared" si="3"/>
         <v>1.3698630136986368E-2</v>
       </c>
@@ -15499,7 +15381,7 @@
       </c>
     </row>
     <row r="46" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F46" s="33">
+      <c r="F46" s="32">
         <f t="shared" si="3"/>
         <v>4.1095890410959103E-2</v>
       </c>
@@ -15509,7 +15391,7 @@
       </c>
     </row>
     <row r="47" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F47" s="33">
+      <c r="F47" s="32">
         <f t="shared" si="3"/>
         <v>2.7397260273972737E-2</v>
       </c>
@@ -15519,7 +15401,7 @@
       </c>
     </row>
     <row r="48" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F48" s="33">
+      <c r="F48" s="32">
         <f t="shared" si="3"/>
         <v>0.10958904109589025</v>
       </c>
@@ -15529,7 +15411,7 @@
       </c>
     </row>
     <row r="49" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F49" s="33">
+      <c r="F49" s="32">
         <f t="shared" si="3"/>
         <v>0.2602739726027396</v>
       </c>
@@ -15539,7 +15421,7 @@
       </c>
     </row>
     <row r="50" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F50" s="33">
+      <c r="F50" s="32">
         <f t="shared" si="3"/>
         <v>0.43835616438356168</v>
       </c>
@@ -15549,7 +15431,7 @@
       </c>
     </row>
     <row r="51" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F51" s="33">
+      <c r="F51" s="32">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -15569,8 +15451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C902C6E6-059B-43BE-A924-BB7C80CB41D4}">
   <dimension ref="A1:Q54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F55" sqref="F55:G55"/>
+    <sheetView topLeftCell="C5" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15644,46 +15526,48 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="A6" s="35">
         <v>405</v>
       </c>
-      <c r="C6">
+      <c r="B6" s="35"/>
+      <c r="C6" s="35">
         <v>12</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="35">
         <v>618</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="35">
         <f t="shared" ref="E6:E26" si="0">1-A6/$B$1</f>
         <v>0.17346938775510201</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="35">
         <f t="shared" ref="F6:F26" si="1">E6/$B$3</f>
         <v>0.92391304347826053</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="35">
         <v>652</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="A7" s="35">
         <v>404</v>
       </c>
-      <c r="C7">
+      <c r="B7" s="35"/>
+      <c r="C7" s="35">
         <v>1.1100000000000001</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="35">
         <v>618</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="35">
         <f t="shared" si="0"/>
         <v>0.17551020408163265</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="35">
         <f t="shared" si="1"/>
         <v>0.934782608695652</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="35" t="s">
         <v>23</v>
       </c>
     </row>
@@ -15711,8 +15595,8 @@
         <v>486</v>
       </c>
       <c r="C9">
-        <f>433</f>
-        <v>433</v>
+        <f>433-17</f>
+        <v>416</v>
       </c>
       <c r="D9">
         <v>616</v>
@@ -15737,8 +15621,8 @@
         <v>475</v>
       </c>
       <c r="C10">
-        <f>320</f>
-        <v>320</v>
+        <f>320-11.23</f>
+        <v>308.77</v>
       </c>
       <c r="D10">
         <v>618</v>
@@ -16031,7 +15915,10 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
+      <c r="M22" s="1">
+        <f>451.15*620/617</f>
+        <v>453.34359805510536</v>
+      </c>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
@@ -16144,11 +16031,11 @@
     </row>
     <row r="35" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F35">
-        <f t="shared" ref="F35:F57" si="2">F7</f>
+        <f t="shared" ref="F35:F54" si="2">F7</f>
         <v>0.934782608695652</v>
       </c>
       <c r="G35">
-        <f t="shared" ref="G35:G55" si="3">C7/$G$32</f>
+        <f t="shared" ref="G35:G54" si="3">C7/$G$32</f>
         <v>2.4395604395604396E-3</v>
       </c>
     </row>
@@ -16169,7 +16056,7 @@
       </c>
       <c r="G37">
         <f t="shared" si="3"/>
-        <v>0.9516483516483516</v>
+        <v>0.91428571428571426</v>
       </c>
     </row>
     <row r="38" spans="6:7" x14ac:dyDescent="0.3">
@@ -16179,7 +16066,7 @@
       </c>
       <c r="G38">
         <f t="shared" si="3"/>
-        <v>0.70329670329670335</v>
+        <v>0.67861538461538462</v>
       </c>
     </row>
     <row r="39" spans="6:7" x14ac:dyDescent="0.3">
@@ -16353,8 +16240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB2BFFE4-73AB-4B28-8B60-9C656B1F81F0}">
   <dimension ref="A1:Q56"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="I56" sqref="I56"/>
+    <sheetView topLeftCell="B5" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16454,7 +16341,7 @@
         <v>431</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="D7">
         <v>618</v>
@@ -16523,7 +16410,8 @@
         <v>515</v>
       </c>
       <c r="C10">
-        <v>443</v>
+        <f>443.2-15.6</f>
+        <v>427.59999999999997</v>
       </c>
       <c r="D10">
         <v>615</v>
@@ -16893,7 +16781,8 @@
         <v>518</v>
       </c>
       <c r="C26">
-        <v>518</v>
+        <f>518-89</f>
+        <v>429</v>
       </c>
       <c r="D26">
         <v>617</v>
@@ -16925,6 +16814,12 @@
         <v>427.59999999999997</v>
       </c>
     </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="L31">
+        <f>456.17*620/617.2</f>
+        <v>458.23946856772523</v>
+      </c>
+    </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="G32" t="s">
         <v>51</v>
@@ -16932,7 +16827,7 @@
     </row>
     <row r="33" spans="6:7" x14ac:dyDescent="0.3">
       <c r="G33">
-        <v>493</v>
+        <v>490.18</v>
       </c>
     </row>
     <row r="36" spans="6:7" x14ac:dyDescent="0.3">
@@ -16949,8 +16844,8 @@
         <v>1.0116279069767442</v>
       </c>
       <c r="G37">
-        <f t="shared" ref="G37:G57" si="2">C7/$G$33</f>
-        <v>1.2170385395537525E-2</v>
+        <f t="shared" ref="G37:G56" si="2">C7/$G$33</f>
+        <v>-1.2240401485168714E-2</v>
       </c>
     </row>
     <row r="38" spans="6:7" x14ac:dyDescent="0.3">
@@ -16959,7 +16854,7 @@
       </c>
       <c r="G38">
         <f t="shared" si="2"/>
-        <v>-1.0750507099391481E-2</v>
+        <v>-1.0812354645232364E-2</v>
       </c>
     </row>
     <row r="39" spans="6:7" x14ac:dyDescent="0.3">
@@ -16968,7 +16863,7 @@
       </c>
       <c r="G39">
         <f t="shared" si="2"/>
-        <v>0.12170385395537525</v>
+        <v>0.12240401485168713</v>
       </c>
     </row>
     <row r="40" spans="6:7" x14ac:dyDescent="0.3">
@@ -16977,7 +16872,7 @@
       </c>
       <c r="G40">
         <f t="shared" si="2"/>
-        <v>0.89858012170385393</v>
+        <v>0.87233261250969019</v>
       </c>
     </row>
     <row r="41" spans="6:7" x14ac:dyDescent="0.3">
@@ -16986,7 +16881,7 @@
       </c>
       <c r="G41">
         <f t="shared" si="2"/>
-        <v>0.70385395537525353</v>
+        <v>0.70790321922559063</v>
       </c>
     </row>
     <row r="42" spans="6:7" x14ac:dyDescent="0.3">
@@ -16995,7 +16890,7 @@
       </c>
       <c r="G42">
         <f t="shared" si="2"/>
-        <v>0.60040567951318458</v>
+        <v>0.6038598066016565</v>
       </c>
     </row>
     <row r="43" spans="6:7" x14ac:dyDescent="0.3">
@@ -17004,7 +16899,7 @@
       </c>
       <c r="G43">
         <f t="shared" si="2"/>
-        <v>0.49695740365111563</v>
+        <v>0.49981639397772248</v>
       </c>
     </row>
     <row r="44" spans="6:7" x14ac:dyDescent="0.3">
@@ -17013,7 +16908,7 @@
       </c>
       <c r="G44">
         <f t="shared" si="2"/>
-        <v>0.38742393509127787</v>
+        <v>0.38965278061120406</v>
       </c>
     </row>
     <row r="45" spans="6:7" x14ac:dyDescent="0.3">
@@ -17022,7 +16917,7 @@
       </c>
       <c r="G45">
         <f t="shared" si="2"/>
-        <v>0.11156186612576065</v>
+        <v>0.1122036802807132</v>
       </c>
     </row>
     <row r="46" spans="6:7" x14ac:dyDescent="0.3">
@@ -17031,7 +16926,7 @@
       </c>
       <c r="G46">
         <f t="shared" si="2"/>
-        <v>0.20081135902636918</v>
+        <v>0.20196662450528377</v>
       </c>
     </row>
     <row r="47" spans="6:7" x14ac:dyDescent="0.3">
@@ -17040,7 +16935,7 @@
       </c>
       <c r="G47">
         <f t="shared" si="2"/>
-        <v>0.26774847870182555</v>
+        <v>0.26928883267371168</v>
       </c>
     </row>
     <row r="48" spans="6:7" x14ac:dyDescent="0.3">
@@ -17049,7 +16944,7 @@
       </c>
       <c r="G48">
         <f t="shared" si="2"/>
-        <v>0.32454361054766734</v>
+        <v>0.3264107062711657</v>
       </c>
     </row>
     <row r="49" spans="6:7" x14ac:dyDescent="0.3">
@@ -17058,7 +16953,7 @@
       </c>
       <c r="G49">
         <f t="shared" si="2"/>
-        <v>0.39553752535496955</v>
+        <v>0.39781304826798319</v>
       </c>
     </row>
     <row r="50" spans="6:7" x14ac:dyDescent="0.3">
@@ -17067,7 +16962,7 @@
       </c>
       <c r="G50">
         <f t="shared" si="2"/>
-        <v>0.91277890466531442</v>
+        <v>0.91803011138765345</v>
       </c>
     </row>
     <row r="51" spans="6:7" x14ac:dyDescent="0.3">
@@ -17076,7 +16971,7 @@
       </c>
       <c r="G51">
         <f t="shared" si="2"/>
-        <v>0.85192697768762682</v>
+        <v>0.85682810396180997</v>
       </c>
     </row>
     <row r="52" spans="6:7" x14ac:dyDescent="0.3">
@@ -17085,7 +16980,7 @@
       </c>
       <c r="G52">
         <f t="shared" si="2"/>
-        <v>0.66531440162271804</v>
+        <v>0.66914194785588965</v>
       </c>
     </row>
     <row r="53" spans="6:7" x14ac:dyDescent="0.3">
@@ -17094,7 +16989,7 @@
       </c>
       <c r="G53">
         <f t="shared" si="2"/>
-        <v>0.76673427991886411</v>
+        <v>0.77114529356562889</v>
       </c>
     </row>
     <row r="54" spans="6:7" x14ac:dyDescent="0.3">
@@ -17103,7 +16998,7 @@
       </c>
       <c r="G54">
         <f t="shared" si="2"/>
-        <v>0.46653144016227183</v>
+        <v>0.46921539026480069</v>
       </c>
     </row>
     <row r="55" spans="6:7" x14ac:dyDescent="0.3">
@@ -17112,7 +17007,7 @@
       </c>
       <c r="G55">
         <f t="shared" si="2"/>
-        <v>0.56389452332657197</v>
+        <v>0.56713860214615042</v>
       </c>
     </row>
     <row r="56" spans="6:7" x14ac:dyDescent="0.3">
@@ -17121,7 +17016,7 @@
       </c>
       <c r="G56">
         <f t="shared" si="2"/>
-        <v>1.050709939148073</v>
+        <v>0.87518870618956301</v>
       </c>
     </row>
   </sheetData>
@@ -17133,10 +17028,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57CFFEA6-F038-4ADE-B4DB-050B0246E0CF}">
-  <dimension ref="A1:AK64"/>
+  <dimension ref="A1:AZ65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I38" workbookViewId="0">
-      <selection activeCell="S53" sqref="S53"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17152,7 +17047,7 @@
     <col min="20" max="20" width="9.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>26</v>
       </c>
@@ -17210,7 +17105,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.3">
       <c r="C2" s="5" t="s">
         <v>30</v>
       </c>
@@ -17265,7 +17160,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:52" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -17293,14 +17188,14 @@
       <c r="J3" s="6">
         <v>571</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="33">
         <v>112</v>
       </c>
       <c r="L3">
         <v>415</v>
       </c>
-      <c r="M3">
-        <v>453</v>
+      <c r="M3" s="35">
+        <v>455</v>
       </c>
       <c r="N3">
         <v>490</v>
@@ -17335,7 +17230,7 @@
       <c r="X3" s="15">
         <v>10</v>
       </c>
-      <c r="Y3" s="15">
+      <c r="Y3" s="46">
         <v>120</v>
       </c>
       <c r="Z3" s="15">
@@ -17375,7 +17270,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="4" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:52" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
@@ -17403,8 +17298,8 @@
       <c r="J4" s="6">
         <v>467</v>
       </c>
-      <c r="K4" s="5"/>
-      <c r="M4">
+      <c r="K4" s="33"/>
+      <c r="M4" s="35">
         <v>380</v>
       </c>
       <c r="O4" s="6"/>
@@ -17435,7 +17330,7 @@
       <c r="X4" s="15">
         <v>9</v>
       </c>
-      <c r="Y4" s="15">
+      <c r="Y4" s="46">
         <v>100</v>
       </c>
       <c r="Z4" s="15">
@@ -17475,7 +17370,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="5" spans="1:37" s="25" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:52" s="25" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="26" t="s">
         <v>8</v>
       </c>
@@ -17511,15 +17406,15 @@
         <f t="shared" si="1"/>
         <v>0.18213660245183882</v>
       </c>
-      <c r="K5" s="27">
+      <c r="K5" s="48">
         <v>0.160714285714286</v>
       </c>
       <c r="L5" s="29">
         <v>0.16626506024096388</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="35">
         <f>1-M4/M3</f>
-        <v>0.16114790286975722</v>
+        <v>0.1648351648351648</v>
       </c>
       <c r="N5" s="29">
         <v>0.18775510204081636</v>
@@ -17563,7 +17458,7 @@
         <f t="shared" ref="X5:AK5" si="3">1-X4/X3</f>
         <v>9.9999999999999978E-2</v>
       </c>
-      <c r="Y5" s="30">
+      <c r="Y5" s="47">
         <f t="shared" si="3"/>
         <v>0.16666666666666663</v>
       </c>
@@ -17616,7 +17511,7 @@
         <v>0.1612284069097889</v>
       </c>
     </row>
-    <row r="6" spans="1:37" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:52" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B6" s="22" t="s">
         <v>33</v>
       </c>
@@ -17644,20 +17539,20 @@
       <c r="J6" s="20">
         <v>461.6</v>
       </c>
-      <c r="K6" s="6">
-        <v>334.74</v>
+      <c r="K6" s="49">
+        <v>350.86</v>
       </c>
       <c r="L6" s="6">
-        <v>445</v>
-      </c>
-      <c r="M6" s="6">
-        <v>460</v>
+        <v>444.82</v>
+      </c>
+      <c r="M6" s="49">
+        <v>440.74</v>
       </c>
       <c r="N6" s="6">
-        <v>458.6</v>
+        <v>451.15</v>
       </c>
       <c r="O6" s="6">
-        <v>455.83</v>
+        <v>456.17</v>
       </c>
       <c r="P6" s="24">
         <v>453.14</v>
@@ -17686,7 +17581,7 @@
       <c r="X6" s="24">
         <v>8.3000000000000007</v>
       </c>
-      <c r="Y6" s="31">
+      <c r="Y6" s="34">
         <v>341.27196536755503</v>
       </c>
       <c r="Z6" s="31">
@@ -17726,7 +17621,7 @@
         <v>484.22539420023401</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>37</v>
       </c>
@@ -17754,13 +17649,13 @@
       <c r="J7" t="s">
         <v>38</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="35" t="s">
         <v>38</v>
       </c>
       <c r="L7" t="s">
         <v>39</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7" s="35" t="s">
         <v>38</v>
       </c>
       <c r="N7" t="s">
@@ -17796,7 +17691,7 @@
       <c r="X7" t="s">
         <v>38</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Y7" s="35" t="s">
         <v>40</v>
       </c>
       <c r="Z7" t="s">
@@ -17809,351 +17704,656 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:37" s="1" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="B8" s="1"/>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8">
+        <v>6</v>
+      </c>
+      <c r="I8">
+        <v>7</v>
+      </c>
+      <c r="J8">
+        <v>8</v>
+      </c>
+      <c r="K8">
+        <v>9</v>
+      </c>
+      <c r="L8">
+        <v>10</v>
+      </c>
+      <c r="M8">
+        <v>11</v>
+      </c>
+      <c r="N8">
+        <v>12</v>
+      </c>
+      <c r="O8">
+        <v>13</v>
+      </c>
+      <c r="P8">
+        <v>14</v>
+      </c>
+      <c r="Q8">
+        <v>15</v>
+      </c>
+      <c r="R8">
+        <v>16</v>
+      </c>
+      <c r="S8">
+        <v>17</v>
+      </c>
+      <c r="T8">
+        <v>18</v>
+      </c>
+      <c r="U8">
+        <v>19</v>
+      </c>
+      <c r="V8">
+        <v>20</v>
+      </c>
+      <c r="W8">
+        <v>21</v>
+      </c>
+      <c r="X8">
+        <v>22</v>
+      </c>
+      <c r="Y8">
+        <v>23</v>
+      </c>
+      <c r="Z8">
+        <v>24</v>
+      </c>
+      <c r="AA8">
+        <v>25</v>
+      </c>
+      <c r="AB8">
+        <v>26</v>
+      </c>
+      <c r="AC8">
         <v>27</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="AD8">
+        <v>28</v>
+      </c>
+      <c r="AE8">
+        <v>29</v>
+      </c>
+      <c r="AF8">
+        <v>30</v>
+      </c>
+      <c r="AG8">
+        <v>31</v>
+      </c>
+      <c r="AH8">
+        <v>32</v>
+      </c>
+      <c r="AI8">
+        <v>33</v>
+      </c>
+      <c r="AJ8">
+        <v>34</v>
+      </c>
+      <c r="AK8">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:52" s="1" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H9" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="2"/>
-      <c r="M8"/>
-      <c r="N8"/>
-      <c r="O8"/>
-      <c r="P8"/>
-      <c r="Q8"/>
-      <c r="R8"/>
-      <c r="S8"/>
-    </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
+      <c r="L9" s="2"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="Q9"/>
+      <c r="R9"/>
+      <c r="S9"/>
+    </row>
+    <row r="10" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
         <v>1</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B10" s="4">
         <v>840</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4">
+      <c r="C10" s="4"/>
+      <c r="D10" s="4">
         <v>0</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E10" s="4">
         <v>2.94</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F10" s="4">
         <v>0</v>
       </c>
-      <c r="G9">
-        <f>1-B9/$D$3</f>
+      <c r="G10">
+        <f>1-B10/$D$3</f>
         <v>0</v>
       </c>
-      <c r="H9" s="10">
-        <f>G9/$D$5</f>
+      <c r="H10" s="10">
+        <f>G10/$D$5</f>
         <v>0</v>
       </c>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-    </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="B10">
-        <v>838</v>
-      </c>
-      <c r="D10">
-        <v>114.32</v>
-      </c>
-      <c r="E10">
-        <v>197.62</v>
-      </c>
-      <c r="F10">
-        <v>200</v>
-      </c>
-      <c r="G10">
-        <f t="shared" ref="G10:G14" si="4">1-B10/$D$3</f>
-        <v>2.3809523809523725E-3</v>
-      </c>
-      <c r="H10" s="10">
-        <f t="shared" ref="H10:H14" si="5">G10/$D$5</f>
-        <v>1.3793103448275808E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+    </row>
+    <row r="11" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11">
+        <v>838</v>
+      </c>
+      <c r="D11">
+        <v>114.32</v>
+      </c>
+      <c r="E11">
+        <v>197.62</v>
+      </c>
+      <c r="F11">
+        <v>200</v>
+      </c>
+      <c r="G11">
+        <f t="shared" ref="G11:G15" si="4">1-B11/$D$3</f>
+        <v>2.3809523809523725E-3</v>
+      </c>
+      <c r="H11" s="10">
+        <f t="shared" ref="H11:H15" si="5">G11/$D$5</f>
+        <v>1.3793103448275808E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A12" s="5"/>
+      <c r="B12">
         <v>837</v>
       </c>
-      <c r="D11">
+      <c r="D12">
         <v>191.8</v>
       </c>
-      <c r="E11">
+      <c r="E12">
         <v>299.12</v>
       </c>
-      <c r="F11">
+      <c r="F12">
         <v>300</v>
       </c>
-      <c r="G11">
+      <c r="G12">
         <f t="shared" si="4"/>
         <v>3.5714285714285587E-3</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H12" s="10">
         <f t="shared" si="5"/>
         <v>2.0689655172413713E-2</v>
       </c>
-      <c r="AB11">
+      <c r="AB12">
         <v>341.27196536755503</v>
       </c>
-    </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12">
+      <c r="AG12" s="6">
+        <v>840</v>
+      </c>
+      <c r="AH12" s="6">
+        <v>780</v>
+      </c>
+      <c r="AI12" s="6">
+        <v>709</v>
+      </c>
+      <c r="AJ12" s="6">
+        <v>571</v>
+      </c>
+      <c r="AK12">
+        <v>415</v>
+      </c>
+      <c r="AL12">
+        <v>490</v>
+      </c>
+      <c r="AM12" s="6">
+        <v>518</v>
+      </c>
+      <c r="AN12" s="15">
+        <v>551</v>
+      </c>
+      <c r="AO12" s="15">
+        <v>361</v>
+      </c>
+      <c r="AP12" s="15">
+        <v>54</v>
+      </c>
+      <c r="AQ12" s="15">
+        <v>27</v>
+      </c>
+      <c r="AR12" s="6">
+        <v>69</v>
+      </c>
+      <c r="AS12">
+        <v>275</v>
+      </c>
+      <c r="AT12" s="15">
+        <v>151</v>
+      </c>
+      <c r="AU12" s="15">
+        <v>193</v>
+      </c>
+      <c r="AV12" s="15">
+        <v>10</v>
+      </c>
+      <c r="AW12" s="15">
+        <v>220</v>
+      </c>
+      <c r="AX12" s="15">
+        <v>260</v>
+      </c>
+      <c r="AY12" s="15">
+        <v>281</v>
+      </c>
+      <c r="AZ12" s="15">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="13" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A13" s="5"/>
+      <c r="B13">
         <v>836</v>
       </c>
-      <c r="D12">
+      <c r="D13">
         <v>275.2</v>
       </c>
-      <c r="E12">
+      <c r="E13">
         <v>405</v>
       </c>
-      <c r="F12">
+      <c r="F13">
         <v>400</v>
       </c>
-      <c r="G12">
+      <c r="G13">
         <f t="shared" si="4"/>
         <v>4.761904761904745E-3</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H13" s="10">
         <f t="shared" si="5"/>
         <v>2.7586206896551616E-2</v>
       </c>
-      <c r="AB12">
+      <c r="AB13">
         <v>377.74958573221602</v>
       </c>
-    </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-      <c r="B13">
+      <c r="AG13" s="6">
+        <v>695</v>
+      </c>
+      <c r="AH13" s="6">
+        <v>647</v>
+      </c>
+      <c r="AI13" s="6">
+        <v>585</v>
+      </c>
+      <c r="AJ13" s="6">
+        <v>467</v>
+      </c>
+      <c r="AM13" s="6"/>
+      <c r="AN13" s="15">
+        <v>455</v>
+      </c>
+      <c r="AO13" s="15">
+        <v>299</v>
+      </c>
+      <c r="AP13" s="15">
+        <v>46</v>
+      </c>
+      <c r="AQ13" s="15">
+        <v>23</v>
+      </c>
+      <c r="AR13" s="6">
+        <v>58</v>
+      </c>
+      <c r="AS13">
+        <v>228</v>
+      </c>
+      <c r="AT13" s="15">
+        <v>128</v>
+      </c>
+      <c r="AU13" s="15">
+        <v>161</v>
+      </c>
+      <c r="AV13" s="15">
+        <v>9</v>
+      </c>
+      <c r="AW13" s="15">
+        <v>185</v>
+      </c>
+      <c r="AX13" s="15">
+        <v>218</v>
+      </c>
+      <c r="AY13" s="15">
+        <v>235</v>
+      </c>
+      <c r="AZ13" s="15">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="14" spans="1:52" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="5"/>
+      <c r="B14">
         <v>835</v>
       </c>
-      <c r="D13">
+      <c r="D14">
         <v>355.4</v>
       </c>
-      <c r="E13">
+      <c r="E14">
         <v>505.15</v>
       </c>
-      <c r="F13">
+      <c r="F14">
         <v>500</v>
       </c>
-      <c r="G13">
+      <c r="G14">
         <f t="shared" si="4"/>
         <v>5.9523809523809312E-3</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H14" s="10">
         <f t="shared" si="5"/>
         <v>3.4482758620689523E-2</v>
       </c>
-      <c r="AB13">
+      <c r="AB14">
         <v>383.52926262490701</v>
       </c>
-    </row>
-    <row r="14" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8">
+      <c r="AG14" s="28">
+        <v>0.17261904761904767</v>
+      </c>
+      <c r="AH14" s="28">
+        <v>0.17051282051282046</v>
+      </c>
+      <c r="AI14" s="28">
+        <v>0.17489421720733422</v>
+      </c>
+      <c r="AJ14" s="28">
+        <v>0.18213660245183882</v>
+      </c>
+      <c r="AK14" s="29">
+        <v>0.16626506024096388</v>
+      </c>
+      <c r="AL14" s="29">
+        <v>0.18775510204081636</v>
+      </c>
+      <c r="AM14" s="28">
+        <v>0.16602316602316602</v>
+      </c>
+      <c r="AN14" s="30">
+        <v>0.17422867513611617</v>
+      </c>
+      <c r="AO14" s="30">
+        <v>0.17174515235457066</v>
+      </c>
+      <c r="AP14" s="30">
+        <v>0.14814814814814814</v>
+      </c>
+      <c r="AQ14" s="30">
+        <v>0.14814814814814814</v>
+      </c>
+      <c r="AR14" s="28">
+        <v>0.15942028985507251</v>
+      </c>
+      <c r="AS14" s="27">
+        <v>0.1709090909090909</v>
+      </c>
+      <c r="AT14" s="27">
+        <v>0.15231788079470199</v>
+      </c>
+      <c r="AU14" s="30">
+        <v>0.16580310880829019</v>
+      </c>
+      <c r="AV14" s="30">
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="AW14" s="30">
+        <v>0.15909090909090906</v>
+      </c>
+      <c r="AX14" s="30">
+        <v>0.16153846153846152</v>
+      </c>
+      <c r="AY14" s="30">
+        <v>0.16370106761565839</v>
+      </c>
+      <c r="AZ14" s="30">
+        <v>0.14590747330960852</v>
+      </c>
+    </row>
+    <row r="15" spans="1:52" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8">
         <v>834</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8">
+      <c r="C15" s="8"/>
+      <c r="D15" s="8">
         <v>447.1</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E15" s="8">
         <v>620.29</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F15" s="8">
         <v>620</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G15" s="8">
         <f t="shared" si="4"/>
         <v>7.1428571428571175E-3</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H15" s="11">
         <f t="shared" si="5"/>
         <v>4.1379310344827426E-2</v>
       </c>
-      <c r="X14" t="s">
+      <c r="X15" t="s">
         <v>32</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Y15" t="s">
         <v>33</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="Z15" t="s">
         <v>34</v>
       </c>
-      <c r="AB14">
+      <c r="AB15">
         <v>419.44061252688402</v>
       </c>
-    </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
+      <c r="AG15" s="20">
+        <v>447.1</v>
+      </c>
+      <c r="AH15" s="20">
+        <v>472</v>
+      </c>
+      <c r="AI15" s="20">
+        <v>452.32</v>
+      </c>
+      <c r="AJ15" s="20">
+        <v>461.6</v>
+      </c>
+      <c r="AK15" s="6">
+        <v>444.82</v>
+      </c>
+      <c r="AL15" s="6">
+        <v>451.15</v>
+      </c>
+      <c r="AM15" s="6">
+        <v>456.17</v>
+      </c>
+      <c r="AN15" s="24">
+        <v>453.14</v>
+      </c>
+      <c r="AO15" s="24">
+        <v>436.4</v>
+      </c>
+      <c r="AP15" s="24">
+        <v>238.2</v>
+      </c>
+      <c r="AQ15" s="24">
+        <v>135.32</v>
+      </c>
+      <c r="AR15" s="21">
+        <v>271.48</v>
+      </c>
+      <c r="AS15" s="21">
+        <v>412.3</v>
+      </c>
+      <c r="AT15" s="23">
+        <v>347.18</v>
+      </c>
+      <c r="AU15" s="24">
+        <v>396.17</v>
+      </c>
+      <c r="AV15" s="24">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="AW15" s="31">
+        <v>377.74958573221602</v>
+      </c>
+      <c r="AX15" s="31">
+        <v>383.52926262490701</v>
+      </c>
+      <c r="AY15" s="31">
+        <v>419.44061252688402</v>
+      </c>
+      <c r="AZ15" s="31">
+        <v>407.12949095758</v>
+      </c>
+    </row>
+    <row r="16" spans="1:52" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
         <v>2</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B16" s="4">
         <v>780</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4">
+      <c r="C16" s="4"/>
+      <c r="D16" s="4">
         <v>0</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E16" s="4">
         <v>2.94</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F16" s="4">
         <v>0</v>
       </c>
-      <c r="G15">
-        <f>1-B15/$F$3</f>
+      <c r="G16">
+        <f>1-B16/$F$3</f>
         <v>0</v>
       </c>
-      <c r="H15" s="6">
-        <f>G15/$F$5</f>
+      <c r="H16" s="6">
+        <f>G16/$F$5</f>
         <v>0</v>
       </c>
-      <c r="X15">
+      <c r="X16">
         <v>112</v>
       </c>
-      <c r="Y15">
+      <c r="Y16">
         <v>334.74</v>
       </c>
-      <c r="Z15">
+      <c r="Z16">
         <v>0.1607142857142857</v>
       </c>
-      <c r="AB15">
+      <c r="AB16">
         <v>407.12949095758</v>
-      </c>
-    </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
-      <c r="B16">
-        <v>780</v>
-      </c>
-      <c r="D16">
-        <v>139.19999999999999</v>
-      </c>
-      <c r="E16">
-        <v>196.1</v>
-      </c>
-      <c r="F16">
-        <v>200</v>
-      </c>
-      <c r="G16">
-        <f t="shared" ref="G16:G20" si="6">1-B16/$F$3</f>
-        <v>0</v>
-      </c>
-      <c r="H16" s="6">
-        <f t="shared" ref="H16:H20" si="7">G16/$F$5</f>
-        <v>0</v>
-      </c>
-      <c r="X16">
-        <v>415</v>
-      </c>
-      <c r="Y16">
-        <v>445</v>
-      </c>
-      <c r="Z16">
-        <v>0.16626506024096388</v>
-      </c>
-      <c r="AB16">
-        <v>317.15233304749597</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D17">
-        <v>216</v>
+        <v>139.19999999999999</v>
       </c>
       <c r="E17">
-        <v>299.36</v>
+        <v>196.1</v>
       </c>
       <c r="F17">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G17">
-        <f t="shared" si="6"/>
-        <v>-1.2820512820512775E-3</v>
+        <f t="shared" ref="G17:G21" si="6">1-B17/$F$3</f>
+        <v>0</v>
       </c>
       <c r="H17" s="6">
-        <f t="shared" si="7"/>
-        <v>-7.5187969924811783E-3</v>
+        <f t="shared" ref="H17:H21" si="7">G17/$F$5</f>
+        <v>0</v>
       </c>
       <c r="X17">
-        <v>455</v>
+        <v>415</v>
       </c>
       <c r="Y17">
-        <v>460</v>
+        <v>445</v>
       </c>
       <c r="Z17">
-        <v>0.15824175824175823</v>
+        <v>0.16626506024096388</v>
       </c>
       <c r="AB17">
-        <v>363.613537141714</v>
+        <v>317.15233304749597</v>
       </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
       <c r="B18">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="D18">
-        <v>299.7</v>
+        <v>216</v>
       </c>
       <c r="E18">
-        <v>405.16</v>
+        <v>299.36</v>
       </c>
       <c r="F18">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G18">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-1.2820512820512775E-3</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-7.5187969924811783E-3</v>
       </c>
       <c r="X18">
-        <v>490</v>
+        <v>455</v>
       </c>
       <c r="Y18">
-        <v>458.6</v>
+        <v>460</v>
       </c>
       <c r="Z18">
-        <v>0.18775510204081636</v>
+        <v>0.15824175824175823</v>
       </c>
       <c r="AB18">
-        <v>380.24683840846097</v>
+        <v>363.613537141714</v>
       </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.3">
@@ -18162,13 +18362,13 @@
         <v>780</v>
       </c>
       <c r="D19">
-        <v>378.1</v>
+        <v>299.7</v>
       </c>
       <c r="E19">
-        <v>502.88</v>
+        <v>405.16</v>
       </c>
       <c r="F19">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G19">
         <f t="shared" si="6"/>
@@ -18179,137 +18379,137 @@
         <v>0</v>
       </c>
       <c r="X19">
-        <v>518</v>
+        <v>490</v>
       </c>
       <c r="Y19">
-        <v>455.83</v>
+        <v>458.6</v>
       </c>
       <c r="Z19">
-        <v>0.16602316602316602</v>
+        <v>0.18775510204081636</v>
       </c>
       <c r="AB19">
-        <v>394.94626968755199</v>
-      </c>
-    </row>
-    <row r="20" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="7"/>
-      <c r="B20" s="8">
+        <v>380.24683840846097</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A20" s="5"/>
+      <c r="B20">
         <v>780</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8">
-        <v>472</v>
-      </c>
-      <c r="E20" s="8">
-        <v>621.04999999999995</v>
-      </c>
-      <c r="F20" s="8">
-        <v>620</v>
-      </c>
-      <c r="G20" s="8">
+      <c r="D20">
+        <v>378.1</v>
+      </c>
+      <c r="E20">
+        <v>502.88</v>
+      </c>
+      <c r="F20">
+        <v>500</v>
+      </c>
+      <c r="G20">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H20" s="9">
+      <c r="H20" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K20" s="1"/>
-      <c r="O20" s="1"/>
+      <c r="X20">
+        <v>518</v>
+      </c>
+      <c r="Y20">
+        <v>455.83</v>
+      </c>
+      <c r="Z20">
+        <v>0.16602316602316602</v>
+      </c>
       <c r="AB20">
+        <v>394.94626968755199</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="7"/>
+      <c r="B21" s="8">
+        <v>780</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8">
+        <v>472</v>
+      </c>
+      <c r="E21" s="8">
+        <v>621.04999999999995</v>
+      </c>
+      <c r="F21" s="8">
+        <v>620</v>
+      </c>
+      <c r="G21" s="8">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="9">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="AB21">
         <v>436.00172829341199</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
         <v>3</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B22" s="4">
         <v>709</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4">
+      <c r="C22" s="4"/>
+      <c r="D22" s="4">
         <v>0</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E22" s="4">
         <v>2.94</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F22" s="4">
         <v>0</v>
       </c>
-      <c r="G21">
-        <f>1-B21/$H$3</f>
+      <c r="G22">
+        <f>1-B22/$H$3</f>
         <v>0</v>
       </c>
-      <c r="H21" s="6">
-        <f>G21/$H$5</f>
+      <c r="H22" s="6">
+        <f>G22/$H$5</f>
         <v>0</v>
       </c>
-      <c r="K21" s="1"/>
-      <c r="O21" s="2"/>
-      <c r="AB21">
+      <c r="K22" s="1"/>
+      <c r="O22" s="2"/>
+      <c r="AB22">
         <v>459.110104683619</v>
-      </c>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A22" s="5"/>
-      <c r="B22">
-        <v>709</v>
-      </c>
-      <c r="D22">
-        <v>124.21</v>
-      </c>
-      <c r="E22">
-        <v>198.37</v>
-      </c>
-      <c r="F22">
-        <v>200</v>
-      </c>
-      <c r="G22">
-        <f t="shared" ref="G22:G26" si="8">1-B22/$H$3</f>
-        <v>0</v>
-      </c>
-      <c r="H22" s="6">
-        <f t="shared" ref="H22:H32" si="9">G22/$H$5</f>
-        <v>0</v>
-      </c>
-      <c r="AB22">
-        <v>455.36635322123999</v>
       </c>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
       <c r="B23">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="D23">
-        <v>201.4</v>
+        <v>124.21</v>
       </c>
       <c r="E23">
-        <v>302.14999999999998</v>
+        <v>198.37</v>
       </c>
       <c r="F23">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G23">
-        <f t="shared" si="8"/>
-        <v>1.4104372355430161E-3</v>
+        <f t="shared" ref="G23:G27" si="8">1-B23/$H$3</f>
+        <v>0</v>
       </c>
       <c r="H23" s="6">
-        <f t="shared" si="9"/>
-        <v>8.0645161290322474E-3</v>
-      </c>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="1"/>
-      <c r="S23" s="1"/>
+        <f t="shared" ref="H23:H33" si="9">G23/$H$5</f>
+        <v>0</v>
+      </c>
       <c r="AB23">
-        <v>484.22539420023401</v>
+        <v>455.36635322123999</v>
       </c>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.3">
@@ -18318,13 +18518,13 @@
         <v>708</v>
       </c>
       <c r="D24">
-        <v>276.02</v>
+        <v>201.4</v>
       </c>
       <c r="E24">
-        <v>399.9</v>
+        <v>302.14999999999998</v>
       </c>
       <c r="F24">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G24">
         <f t="shared" si="8"/>
@@ -18334,195 +18534,177 @@
         <f t="shared" si="9"/>
         <v>8.0645161290322474E-3</v>
       </c>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="AB24">
+        <v>484.22539420023401</v>
+      </c>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
       <c r="B25">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="D25">
-        <v>355.9</v>
+        <v>276.02</v>
       </c>
       <c r="E25">
-        <v>500</v>
+        <v>399.9</v>
       </c>
       <c r="F25">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G25">
         <f t="shared" si="8"/>
-        <v>2.8208744710860323E-3</v>
+        <v>1.4104372355430161E-3</v>
       </c>
       <c r="H25" s="6">
         <f t="shared" si="9"/>
-        <v>1.6129032258064495E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="7"/>
-      <c r="B26" s="8">
+        <v>8.0645161290322474E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A26" s="5"/>
+      <c r="B26">
         <v>707</v>
       </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8">
-        <v>452.32</v>
-      </c>
-      <c r="E26" s="8">
-        <v>620.29</v>
-      </c>
-      <c r="F26" s="8">
-        <v>620</v>
-      </c>
-      <c r="G26" s="8">
+      <c r="D26">
+        <v>355.9</v>
+      </c>
+      <c r="E26">
+        <v>500</v>
+      </c>
+      <c r="F26">
+        <v>500</v>
+      </c>
+      <c r="G26">
         <f t="shared" si="8"/>
         <v>2.8208744710860323E-3</v>
       </c>
-      <c r="H26" s="9">
+      <c r="H26" s="6">
         <f t="shared" si="9"/>
         <v>1.6129032258064495E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A27" s="3">
+    <row r="27" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="7"/>
+      <c r="B27" s="8">
+        <v>707</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8">
+        <v>452.32</v>
+      </c>
+      <c r="E27" s="8">
+        <v>620.29</v>
+      </c>
+      <c r="F27" s="8">
+        <v>620</v>
+      </c>
+      <c r="G27" s="8">
+        <f t="shared" si="8"/>
+        <v>2.8208744710860323E-3</v>
+      </c>
+      <c r="H27" s="9">
+        <f t="shared" si="9"/>
+        <v>1.6129032258064495E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
         <v>4</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B28" s="4">
         <v>571</v>
       </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4">
+      <c r="C28" s="4"/>
+      <c r="D28" s="4">
         <v>9</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E28" s="4">
         <v>2.94</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F28" s="4">
         <v>0</v>
       </c>
-      <c r="G27" s="4">
-        <f>1-B27/$J$3</f>
+      <c r="G28" s="4">
+        <f>1-B28/$J$3</f>
         <v>0</v>
       </c>
-      <c r="H27" s="6">
-        <f>G27/$J$5</f>
+      <c r="H28" s="6">
+        <f>G28/$J$5</f>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A28" s="5"/>
-      <c r="B28">
-        <v>571</v>
-      </c>
-      <c r="D28">
-        <v>136.1</v>
-      </c>
-      <c r="E28">
-        <v>199.1</v>
-      </c>
-      <c r="F28">
-        <v>200</v>
-      </c>
-      <c r="G28">
-        <f t="shared" ref="G28:G32" si="10">1-B28/$J$3</f>
-        <v>0</v>
-      </c>
-      <c r="H28" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
       <c r="B29">
         <v>571</v>
       </c>
       <c r="D29">
-        <v>212.39</v>
+        <v>136.1</v>
       </c>
       <c r="E29">
-        <v>301.39</v>
+        <v>199.1</v>
       </c>
       <c r="F29">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G29">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="G29:G33" si="10">1-B29/$J$3</f>
         <v>0</v>
       </c>
       <c r="H29" s="6">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M29" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="30" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5"/>
       <c r="B30">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="D30">
-        <v>288.2</v>
+        <v>212.39</v>
       </c>
       <c r="E30">
-        <v>400.62</v>
+        <v>301.39</v>
       </c>
       <c r="F30">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G30">
         <f t="shared" si="10"/>
-        <v>1.7513134851138146E-3</v>
+        <v>0</v>
       </c>
       <c r="H30" s="6">
         <f t="shared" si="9"/>
-        <v>1.0013558556013668E-2</v>
-      </c>
-      <c r="L30" t="s">
-        <v>47</v>
-      </c>
-      <c r="M30" s="16">
         <v>0</v>
       </c>
-      <c r="N30" s="17">
-        <v>100</v>
-      </c>
-      <c r="O30" s="17">
-        <v>200</v>
-      </c>
-      <c r="P30" s="17">
-        <v>300</v>
-      </c>
-      <c r="Q30" s="17">
-        <v>400</v>
-      </c>
-      <c r="R30" s="17">
-        <v>500</v>
-      </c>
-      <c r="S30" s="17">
-        <v>620</v>
-      </c>
-      <c r="T30" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="U30" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="M30" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="5"/>
       <c r="B31">
         <v>570</v>
       </c>
       <c r="D31">
-        <v>366.94</v>
+        <v>288.2</v>
       </c>
       <c r="E31">
-        <v>501.36</v>
+        <v>400.62</v>
       </c>
       <c r="F31">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G31">
         <f t="shared" si="10"/>
@@ -18532,304 +18714,310 @@
         <f t="shared" si="9"/>
         <v>1.0013558556013668E-2</v>
       </c>
-      <c r="L31" s="14">
-        <v>840</v>
-      </c>
-      <c r="M31" s="3">
+      <c r="L31" t="s">
+        <v>47</v>
+      </c>
+      <c r="M31" s="16">
         <v>0</v>
       </c>
-      <c r="N31" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="O31" s="4">
-        <v>114.32</v>
-      </c>
-      <c r="P31" s="4">
-        <v>191.8</v>
-      </c>
-      <c r="Q31" s="4">
-        <v>275.2</v>
-      </c>
-      <c r="R31" s="4">
-        <v>355.4</v>
-      </c>
-      <c r="S31" s="13">
-        <v>447.1</v>
-      </c>
-      <c r="U31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="7"/>
-      <c r="B32" s="8">
+      <c r="N31" s="17">
+        <v>100</v>
+      </c>
+      <c r="O31" s="17">
+        <v>200</v>
+      </c>
+      <c r="P31" s="17">
+        <v>300</v>
+      </c>
+      <c r="Q31" s="17">
+        <v>400</v>
+      </c>
+      <c r="R31" s="17">
+        <v>500</v>
+      </c>
+      <c r="S31" s="17">
+        <v>620</v>
+      </c>
+      <c r="T31" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="U31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A32" s="5"/>
+      <c r="B32">
         <v>570</v>
       </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8">
-        <v>461.6</v>
-      </c>
-      <c r="E32" s="8">
-        <v>621.04999999999995</v>
-      </c>
-      <c r="F32" s="8">
-        <v>620</v>
-      </c>
-      <c r="G32" s="8">
+      <c r="D32">
+        <v>366.94</v>
+      </c>
+      <c r="E32">
+        <v>501.36</v>
+      </c>
+      <c r="F32">
+        <v>500</v>
+      </c>
+      <c r="G32">
         <f t="shared" si="10"/>
         <v>1.7513134851138146E-3</v>
       </c>
-      <c r="H32" s="9">
+      <c r="H32" s="6">
         <f t="shared" si="9"/>
         <v>1.0013558556013668E-2</v>
       </c>
-      <c r="L32" s="15">
+      <c r="L32" s="14">
+        <v>840</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="O32" s="4">
+        <v>114.32</v>
+      </c>
+      <c r="P32" s="4">
+        <v>191.8</v>
+      </c>
+      <c r="Q32" s="4">
+        <v>275.2</v>
+      </c>
+      <c r="R32" s="4">
+        <v>355.4</v>
+      </c>
+      <c r="S32" s="13">
+        <v>447.1</v>
+      </c>
+      <c r="U32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="7"/>
+      <c r="B33" s="8">
+        <v>570</v>
+      </c>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8">
+        <v>461.6</v>
+      </c>
+      <c r="E33" s="8">
+        <v>621.04999999999995</v>
+      </c>
+      <c r="F33" s="8">
+        <v>620</v>
+      </c>
+      <c r="G33" s="8">
+        <f t="shared" si="10"/>
+        <v>1.7513134851138146E-3</v>
+      </c>
+      <c r="H33" s="9">
+        <f t="shared" si="9"/>
+        <v>1.0013558556013668E-2</v>
+      </c>
+      <c r="L33" s="15">
         <v>780</v>
-      </c>
-      <c r="M32" s="5">
-        <v>0</v>
-      </c>
-      <c r="N32" t="s">
-        <v>47</v>
-      </c>
-      <c r="O32">
-        <v>139.19999999999999</v>
-      </c>
-      <c r="P32">
-        <v>216</v>
-      </c>
-      <c r="Q32">
-        <v>299.7</v>
-      </c>
-      <c r="R32">
-        <v>378.1</v>
-      </c>
-      <c r="S32" s="6">
-        <v>472</v>
-      </c>
-      <c r="U32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A33" s="3">
-        <v>5</v>
-      </c>
-      <c r="B33" s="4">
-        <v>552</v>
-      </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4">
-        <v>4.2699999999999996</v>
-      </c>
-      <c r="E33" s="4">
-        <v>2.94</v>
-      </c>
-      <c r="F33" s="4">
-        <v>0</v>
-      </c>
-      <c r="G33">
-        <f>1-B33/$P$3</f>
-        <v>-1.814882032667775E-3</v>
-      </c>
-      <c r="H33" s="6">
-        <f>G33/$P$5</f>
-        <v>-1.0416666666666083E-2</v>
-      </c>
-      <c r="I33" t="s">
-        <v>36</v>
-      </c>
-      <c r="L33" s="15">
-        <v>709</v>
       </c>
       <c r="M33" s="5">
         <v>0</v>
       </c>
-      <c r="N33" t="s">
+      <c r="N33" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="O33">
-        <v>124.21</v>
-      </c>
-      <c r="P33">
-        <v>201.4</v>
-      </c>
-      <c r="Q33">
-        <v>276.02</v>
-      </c>
-      <c r="R33">
-        <v>355.9</v>
+      <c r="O33" s="39">
+        <v>139.19999999999999</v>
+      </c>
+      <c r="P33" s="39">
+        <v>216</v>
+      </c>
+      <c r="Q33" s="39">
+        <v>299.7</v>
+      </c>
+      <c r="R33" s="39">
+        <v>378.1</v>
       </c>
       <c r="S33" s="6">
-        <v>452.32</v>
+        <v>472</v>
       </c>
       <c r="U33">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A34" s="5"/>
-      <c r="B34">
-        <v>551</v>
-      </c>
-      <c r="D34">
-        <v>129.26</v>
-      </c>
-      <c r="E34">
-        <v>201.4</v>
-      </c>
-      <c r="F34">
-        <v>200</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A34" s="3">
+        <v>5</v>
+      </c>
+      <c r="B34" s="4">
+        <v>552</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="E34" s="4">
+        <v>2.94</v>
+      </c>
+      <c r="F34" s="4">
+        <v>0</v>
       </c>
       <c r="G34">
-        <f t="shared" ref="G34:G38" si="11">1-B34/$P$3</f>
-        <v>0</v>
+        <f>1-B34/$P$3</f>
+        <v>-1.814882032667775E-3</v>
       </c>
       <c r="H34" s="6">
-        <f t="shared" ref="H34:H38" si="12">G34/$P$5</f>
-        <v>0</v>
+        <f>G34/$P$5</f>
+        <v>-1.0416666666666083E-2</v>
+      </c>
+      <c r="I34" t="s">
+        <v>36</v>
       </c>
       <c r="L34" s="15">
-        <v>571</v>
+        <v>709</v>
       </c>
       <c r="M34" s="5">
         <v>0</v>
       </c>
-      <c r="N34" t="s">
+      <c r="N34" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="O34">
-        <v>136.1</v>
-      </c>
-      <c r="P34">
-        <v>212.39</v>
-      </c>
-      <c r="Q34">
-        <v>288.2</v>
-      </c>
-      <c r="R34">
-        <v>366.94</v>
+      <c r="O34" s="39">
+        <v>124.21</v>
+      </c>
+      <c r="P34" s="39">
+        <v>201.4</v>
+      </c>
+      <c r="Q34" s="39">
+        <v>276.02</v>
+      </c>
+      <c r="R34" s="39">
+        <v>355.9</v>
       </c>
       <c r="S34" s="6">
-        <v>461.6</v>
+        <v>452.32</v>
       </c>
       <c r="U34">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A35" s="5"/>
       <c r="B35">
         <v>551</v>
       </c>
       <c r="D35">
+        <v>129.26</v>
+      </c>
+      <c r="E35">
+        <v>201.4</v>
+      </c>
+      <c r="F35">
+        <v>200</v>
+      </c>
+      <c r="G35">
+        <f t="shared" ref="G35:G39" si="11">1-B35/$P$3</f>
+        <v>0</v>
+      </c>
+      <c r="H35" s="6">
+        <f t="shared" ref="H35:H39" si="12">G35/$P$5</f>
+        <v>0</v>
+      </c>
+      <c r="L35" s="15">
+        <v>571</v>
+      </c>
+      <c r="M35" s="5">
+        <v>0</v>
+      </c>
+      <c r="N35" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="O35" s="39">
+        <v>136.1</v>
+      </c>
+      <c r="P35" s="39">
+        <v>212.39</v>
+      </c>
+      <c r="Q35" s="39">
+        <v>288.2</v>
+      </c>
+      <c r="R35" s="39">
+        <v>366.94</v>
+      </c>
+      <c r="S35" s="6">
+        <v>461.6</v>
+      </c>
+      <c r="U35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A36" s="5"/>
+      <c r="B36">
+        <v>551</v>
+      </c>
+      <c r="D36">
         <v>201.3</v>
       </c>
-      <c r="E35">
+      <c r="E36">
         <v>297.60000000000002</v>
       </c>
-      <c r="F35">
+      <c r="F36">
         <v>300</v>
       </c>
-      <c r="G35">
+      <c r="G36">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="H35" s="6">
+      <c r="H36" s="6">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="L35" s="15">
+      <c r="L36" s="15">
         <v>112</v>
-      </c>
-      <c r="M35" s="5">
-        <v>0</v>
-      </c>
-      <c r="N35" t="s">
-        <v>47</v>
-      </c>
-      <c r="O35" t="s">
-        <v>47</v>
-      </c>
-      <c r="P35" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>47</v>
-      </c>
-      <c r="R35" t="s">
-        <v>47</v>
-      </c>
-      <c r="S35" s="6">
-        <v>334.74</v>
-      </c>
-      <c r="U35">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A36" s="5"/>
-      <c r="B36">
-        <v>550</v>
-      </c>
-      <c r="D36">
-        <v>282.33999999999997</v>
-      </c>
-      <c r="E36">
-        <v>402.89</v>
-      </c>
-      <c r="F36">
-        <v>400</v>
-      </c>
-      <c r="G36">
-        <f t="shared" si="11"/>
-        <v>1.8148820326678861E-3</v>
-      </c>
-      <c r="H36" s="6">
-        <f t="shared" si="12"/>
-        <v>1.041666666666672E-2</v>
-      </c>
-      <c r="L36" s="15">
-        <v>415</v>
       </c>
       <c r="M36" s="5">
         <v>0</v>
       </c>
-      <c r="N36" t="s">
+      <c r="N36" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="O36" t="s">
+      <c r="O36" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="P36" t="s">
+      <c r="P36" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="Q36" t="s">
+      <c r="Q36" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="R36" t="s">
+      <c r="R36" s="39" t="s">
         <v>47</v>
       </c>
       <c r="S36" s="6">
-        <v>445</v>
+        <v>350.86</v>
       </c>
       <c r="U36">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="V36" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A37" s="5"/>
       <c r="B37">
         <v>550</v>
       </c>
       <c r="D37">
-        <v>360.24</v>
+        <v>282.33999999999997</v>
       </c>
       <c r="E37">
-        <v>502.88</v>
+        <v>402.89</v>
       </c>
       <c r="F37">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G37">
         <f t="shared" si="11"/>
@@ -18840,253 +19028,256 @@
         <v>1.041666666666672E-2</v>
       </c>
       <c r="L37" s="15">
-        <v>455</v>
+        <v>415</v>
       </c>
       <c r="M37" s="5">
         <v>0</v>
       </c>
-      <c r="N37" t="s">
+      <c r="N37" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="O37" t="s">
+      <c r="O37" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="P37" t="s">
+      <c r="P37" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="Q37" t="s">
+      <c r="Q37" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="R37" t="s">
+      <c r="R37" s="39" t="s">
         <v>47</v>
       </c>
       <c r="S37" s="6">
-        <v>460</v>
+        <v>444.82</v>
       </c>
       <c r="U37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A38" s="5"/>
+      <c r="B38">
+        <v>550</v>
+      </c>
+      <c r="D38">
+        <v>360.24</v>
+      </c>
+      <c r="E38">
+        <v>502.88</v>
+      </c>
+      <c r="F38">
+        <v>500</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="11"/>
+        <v>1.8148820326678861E-3</v>
+      </c>
+      <c r="H38" s="6">
+        <f t="shared" si="12"/>
+        <v>1.041666666666672E-2</v>
+      </c>
+      <c r="L38" s="15">
+        <v>455</v>
+      </c>
+      <c r="M38" s="5">
+        <v>0</v>
+      </c>
+      <c r="N38" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="O38" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="P38" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q38" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="R38" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="S38" s="6">
+        <v>440.74</v>
+      </c>
+      <c r="U38">
         <v>7</v>
       </c>
-    </row>
-    <row r="38" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="7"/>
-      <c r="B38" s="8">
+      <c r="V38" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="7"/>
+      <c r="B39" s="8">
         <v>549</v>
       </c>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8">
+      <c r="C39" s="8"/>
+      <c r="D39" s="8">
         <v>453.14</v>
       </c>
-      <c r="E38" s="8">
+      <c r="E39" s="8">
         <v>619.53</v>
       </c>
-      <c r="F38" s="8">
+      <c r="F39" s="8">
         <v>620</v>
       </c>
-      <c r="G38" s="8">
+      <c r="G39" s="8">
         <f t="shared" si="11"/>
         <v>3.6297640653357721E-3</v>
       </c>
-      <c r="H38" s="9">
+      <c r="H39" s="9">
         <f t="shared" si="12"/>
         <v>2.083333333333344E-2</v>
       </c>
-      <c r="L38" s="15">
+      <c r="L39" s="15">
         <v>490</v>
-      </c>
-      <c r="M38" s="5">
-        <v>0</v>
-      </c>
-      <c r="N38" t="s">
-        <v>47</v>
-      </c>
-      <c r="O38" t="s">
-        <v>47</v>
-      </c>
-      <c r="P38" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>47</v>
-      </c>
-      <c r="R38" t="s">
-        <v>47</v>
-      </c>
-      <c r="S38" s="6">
-        <v>458.6</v>
-      </c>
-      <c r="U38">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A39" s="3">
-        <v>6</v>
-      </c>
-      <c r="B39" s="4">
-        <v>362</v>
-      </c>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4">
-        <v>4.3499999999999996</v>
-      </c>
-      <c r="E39" s="4">
-        <v>2.94</v>
-      </c>
-      <c r="F39" s="4">
-        <v>0</v>
-      </c>
-      <c r="G39">
-        <f>1-B39/$Q$3</f>
-        <v>-2.7700831024930483E-3</v>
-      </c>
-      <c r="H39" s="6">
-        <f>G39/$Q$5</f>
-        <v>-1.612903225806436E-2</v>
-      </c>
-      <c r="I39" t="s">
-        <v>36</v>
-      </c>
-      <c r="L39" s="15">
-        <v>518</v>
       </c>
       <c r="M39" s="5">
         <v>0</v>
       </c>
-      <c r="N39" t="s">
+      <c r="N39" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="O39" t="s">
+      <c r="O39" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="P39" t="s">
+      <c r="P39" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="Q39" t="s">
+      <c r="Q39" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="R39" t="s">
+      <c r="R39" s="39" t="s">
         <v>47</v>
       </c>
       <c r="S39" s="6">
-        <v>455.83</v>
+        <v>451.15</v>
       </c>
       <c r="U39">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A40" s="5"/>
-      <c r="B40">
-        <v>361</v>
-      </c>
-      <c r="D40">
-        <v>121.5</v>
-      </c>
-      <c r="E40">
-        <v>199.89</v>
-      </c>
-      <c r="F40">
-        <v>200</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A40" s="3">
+        <v>6</v>
+      </c>
+      <c r="B40" s="4">
+        <v>362</v>
+      </c>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="E40" s="4">
+        <v>2.94</v>
+      </c>
+      <c r="F40" s="4">
+        <v>0</v>
       </c>
       <c r="G40">
-        <f t="shared" ref="G40:G44" si="13">1-B40/$Q$3</f>
-        <v>0</v>
+        <f>1-B40/$Q$3</f>
+        <v>-2.7700831024930483E-3</v>
       </c>
       <c r="H40" s="6">
-        <f t="shared" ref="H40:H44" si="14">G40/$Q$5</f>
-        <v>0</v>
+        <f>G40/$Q$5</f>
+        <v>-1.612903225806436E-2</v>
+      </c>
+      <c r="I40" t="s">
+        <v>36</v>
       </c>
       <c r="L40" s="15">
-        <v>551</v>
+        <v>518</v>
       </c>
       <c r="M40" s="5">
         <v>0</v>
       </c>
-      <c r="N40" t="s">
+      <c r="N40" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="O40">
-        <v>129.26</v>
-      </c>
-      <c r="P40">
-        <v>201.3</v>
-      </c>
-      <c r="Q40">
-        <v>282.33999999999997</v>
-      </c>
-      <c r="R40">
-        <v>360.24</v>
+      <c r="O40" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="P40" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q40" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="R40" s="39" t="s">
+        <v>47</v>
       </c>
       <c r="S40" s="6">
-        <v>453.14</v>
+        <v>456.17</v>
       </c>
       <c r="U40">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A41" s="5"/>
       <c r="B41">
         <v>361</v>
       </c>
       <c r="D41">
-        <v>192.91</v>
+        <v>121.5</v>
       </c>
       <c r="E41">
-        <v>298.36</v>
+        <v>199.89</v>
       </c>
       <c r="F41">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G41">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="G41:G45" si="13">1-B41/$Q$3</f>
         <v>0</v>
       </c>
       <c r="H41" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="H41:H45" si="14">G41/$Q$5</f>
         <v>0</v>
       </c>
       <c r="L41" s="15">
-        <v>361</v>
+        <v>551</v>
       </c>
       <c r="M41" s="5">
         <v>0</v>
       </c>
-      <c r="N41" t="s">
+      <c r="N41" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="O41">
-        <v>121.5</v>
-      </c>
-      <c r="P41">
-        <v>192.91</v>
-      </c>
-      <c r="Q41">
-        <v>269</v>
-      </c>
-      <c r="R41">
-        <v>344.5</v>
+      <c r="O41" s="39">
+        <v>129.26</v>
+      </c>
+      <c r="P41" s="39">
+        <v>201.3</v>
+      </c>
+      <c r="Q41" s="39">
+        <v>282.33999999999997</v>
+      </c>
+      <c r="R41" s="39">
+        <v>360.24</v>
       </c>
       <c r="S41" s="6">
-        <v>436.4</v>
+        <v>453.14</v>
       </c>
       <c r="U41">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
       <c r="B42">
         <v>361</v>
       </c>
       <c r="D42">
-        <v>269</v>
+        <v>192.91</v>
       </c>
       <c r="E42">
-        <v>400</v>
+        <v>298.36</v>
       </c>
       <c r="F42">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G42">
         <f t="shared" si="13"/>
@@ -19097,46 +19288,46 @@
         <v>0</v>
       </c>
       <c r="L42" s="15">
-        <v>54</v>
+        <v>361</v>
       </c>
       <c r="M42" s="5">
         <v>0</v>
       </c>
-      <c r="N42" t="s">
+      <c r="N42" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="O42">
-        <v>56.1</v>
-      </c>
-      <c r="P42">
-        <v>103.37</v>
-      </c>
-      <c r="Q42">
-        <v>155.44999999999999</v>
-      </c>
-      <c r="R42">
-        <v>207</v>
+      <c r="O42" s="39">
+        <v>121.5</v>
+      </c>
+      <c r="P42" s="39">
+        <v>192.91</v>
+      </c>
+      <c r="Q42" s="39">
+        <v>269</v>
+      </c>
+      <c r="R42" s="39">
+        <v>344.5</v>
       </c>
       <c r="S42" s="6">
-        <v>238.2</v>
+        <v>436.4</v>
       </c>
       <c r="U42">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A43" s="5"/>
       <c r="B43">
         <v>361</v>
       </c>
       <c r="D43">
-        <v>344.5</v>
+        <v>269</v>
       </c>
       <c r="E43">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F43">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G43">
         <f t="shared" si="13"/>
@@ -19147,253 +19338,253 @@
         <v>0</v>
       </c>
       <c r="L43" s="15">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="M43" s="5">
         <v>0</v>
       </c>
-      <c r="N43" t="s">
+      <c r="N43" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="O43" t="s">
+      <c r="O43" s="39">
+        <v>56.1</v>
+      </c>
+      <c r="P43" s="39">
+        <v>103.37</v>
+      </c>
+      <c r="Q43" s="39">
+        <v>155.44999999999999</v>
+      </c>
+      <c r="R43" s="39">
+        <v>207</v>
+      </c>
+      <c r="S43" s="6">
+        <v>238.2</v>
+      </c>
+      <c r="U43">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A44" s="5"/>
+      <c r="B44">
+        <v>361</v>
+      </c>
+      <c r="D44">
+        <v>344.5</v>
+      </c>
+      <c r="E44">
+        <v>500</v>
+      </c>
+      <c r="F44">
+        <v>500</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H44" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="L44" s="15">
+        <v>27</v>
+      </c>
+      <c r="M44" s="5">
+        <v>0</v>
+      </c>
+      <c r="N44" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="P43" t="s">
+      <c r="O44" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="Q43" t="s">
+      <c r="P44" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="R43" t="s">
+      <c r="Q44" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="S43" s="6">
+      <c r="R44" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="S44" s="6">
         <v>135.32</v>
       </c>
-      <c r="U43">
+      <c r="U44">
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="7"/>
-      <c r="B44" s="8">
+    <row r="45" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="7"/>
+      <c r="B45" s="8">
         <v>360</v>
       </c>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8">
+      <c r="C45" s="8"/>
+      <c r="D45" s="8">
         <v>436.4</v>
       </c>
-      <c r="E44" s="8">
+      <c r="E45" s="8">
         <v>620</v>
       </c>
-      <c r="F44" s="8">
+      <c r="F45" s="8">
         <v>620</v>
       </c>
-      <c r="G44" s="8">
+      <c r="G45" s="8">
         <f t="shared" si="13"/>
         <v>2.7700831024930483E-3</v>
       </c>
-      <c r="H44" s="9">
+      <c r="H45" s="9">
         <f t="shared" si="14"/>
         <v>1.612903225806436E-2</v>
       </c>
-      <c r="L44" s="15">
+      <c r="L45" s="15">
         <v>69</v>
-      </c>
-      <c r="M44" s="5">
-        <v>0</v>
-      </c>
-      <c r="N44" t="s">
-        <v>47</v>
-      </c>
-      <c r="O44" t="s">
-        <v>47</v>
-      </c>
-      <c r="P44" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>47</v>
-      </c>
-      <c r="R44" t="s">
-        <v>47</v>
-      </c>
-      <c r="S44" s="6">
-        <v>271.48</v>
-      </c>
-      <c r="U44">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A45" s="3">
-        <v>7</v>
-      </c>
-      <c r="B45" s="4">
-        <v>54</v>
-      </c>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E45" s="4">
-        <v>2.94</v>
-      </c>
-      <c r="F45" s="4">
-        <v>0</v>
-      </c>
-      <c r="G45" s="4">
-        <f>1-B45/$R$3</f>
-        <v>0</v>
-      </c>
-      <c r="H45" s="13">
-        <f>G45/$R$5</f>
-        <v>0</v>
-      </c>
-      <c r="I45" t="s">
-        <v>36</v>
-      </c>
-      <c r="L45" s="15">
-        <v>275</v>
       </c>
       <c r="M45" s="5">
         <v>0</v>
       </c>
-      <c r="N45" t="s">
+      <c r="N45" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="O45" t="s">
+      <c r="O45" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="P45" t="s">
+      <c r="P45" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="Q45" t="s">
+      <c r="Q45" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="R45" t="s">
+      <c r="R45" s="39" t="s">
         <v>47</v>
       </c>
       <c r="S45" s="6">
-        <v>412.3</v>
+        <v>271.48</v>
       </c>
       <c r="U45">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A46" s="5"/>
-      <c r="B46">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A46" s="3">
+        <v>7</v>
+      </c>
+      <c r="B46" s="4">
         <v>54</v>
       </c>
-      <c r="D46">
-        <v>56.1</v>
-      </c>
-      <c r="E46">
-        <v>198.37</v>
-      </c>
-      <c r="F46">
-        <v>200</v>
-      </c>
-      <c r="G46">
-        <f t="shared" ref="G46:G50" si="15">1-B46/$R$3</f>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E46" s="4">
+        <v>2.94</v>
+      </c>
+      <c r="F46" s="4">
         <v>0</v>
       </c>
-      <c r="H46" s="6">
-        <f t="shared" ref="H46:H50" si="16">G46/$R$5</f>
+      <c r="G46" s="4">
+        <f>1-B46/$R$3</f>
         <v>0</v>
       </c>
+      <c r="H46" s="13">
+        <f>G46/$R$5</f>
+        <v>0</v>
+      </c>
+      <c r="I46" t="s">
+        <v>36</v>
+      </c>
       <c r="L46" s="15">
-        <v>151</v>
+        <v>275</v>
       </c>
       <c r="M46" s="5">
         <v>0</v>
       </c>
-      <c r="N46" t="s">
+      <c r="N46" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="O46" t="s">
+      <c r="O46" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="P46" t="s">
+      <c r="P46" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="Q46" t="s">
+      <c r="Q46" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="R46" t="s">
+      <c r="R46" s="39" t="s">
         <v>47</v>
       </c>
       <c r="S46" s="6">
-        <v>347.11</v>
+        <v>412.3</v>
       </c>
       <c r="U46">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A47" s="5"/>
       <c r="B47">
         <v>54</v>
       </c>
       <c r="D47">
-        <v>103.37</v>
+        <v>56.1</v>
       </c>
       <c r="E47">
-        <v>299.12</v>
+        <v>198.37</v>
       </c>
       <c r="F47">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G47">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="G47:G51" si="15">1-B47/$R$3</f>
         <v>0</v>
       </c>
       <c r="H47" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="H47:H51" si="16">G47/$R$5</f>
         <v>0</v>
       </c>
       <c r="L47" s="15">
-        <v>193</v>
+        <v>151</v>
       </c>
       <c r="M47" s="5">
         <v>0</v>
       </c>
-      <c r="N47" t="s">
+      <c r="N47" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="O47" t="s">
+      <c r="O47" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="P47" t="s">
+      <c r="P47" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="Q47" t="s">
+      <c r="Q47" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="R47" t="s">
+      <c r="R47" s="39" t="s">
         <v>47</v>
       </c>
       <c r="S47" s="6">
-        <v>396.17</v>
+        <v>347.11</v>
       </c>
       <c r="U47">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A48" s="5"/>
       <c r="B48">
         <v>54</v>
       </c>
       <c r="D48">
-        <v>155.44999999999999</v>
+        <v>103.37</v>
       </c>
       <c r="E48">
-        <v>403.65</v>
+        <v>299.12</v>
       </c>
       <c r="F48">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G48">
         <f t="shared" si="15"/>
@@ -19404,46 +19595,46 @@
         <v>0</v>
       </c>
       <c r="L48" s="15">
-        <v>10</v>
+        <v>193</v>
       </c>
       <c r="M48" s="5">
         <v>0</v>
       </c>
-      <c r="N48" t="s">
+      <c r="N48" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="O48" t="s">
+      <c r="O48" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="P48" t="s">
+      <c r="P48" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="Q48" t="s">
+      <c r="Q48" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="R48" t="s">
+      <c r="R48" s="39" t="s">
         <v>47</v>
       </c>
       <c r="S48" s="6">
-        <v>8.3000000000000007</v>
+        <v>396.17</v>
       </c>
       <c r="U48">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A49" s="5"/>
       <c r="B49">
         <v>54</v>
       </c>
       <c r="D49">
-        <v>207</v>
+        <v>155.44999999999999</v>
       </c>
       <c r="E49">
-        <v>504.39</v>
+        <v>403.65</v>
       </c>
       <c r="F49">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G49">
         <f t="shared" si="15"/>
@@ -19454,218 +19645,215 @@
         <v>0</v>
       </c>
       <c r="L49" s="15">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="M49" s="5">
         <v>0</v>
       </c>
-      <c r="N49" s="20">
-        <v>11.173315850122201</v>
-      </c>
-      <c r="O49" s="20">
-        <v>71.597383982769102</v>
-      </c>
-      <c r="P49" s="20">
-        <v>132.021452115416</v>
-      </c>
-      <c r="Q49" s="20">
-        <v>194.332189073709</v>
-      </c>
-      <c r="R49" s="20">
-        <v>260.55869222423098</v>
-      </c>
-      <c r="S49" s="31">
-        <v>341.27196536755503</v>
+      <c r="N49" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="O49" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="P49" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q49" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="R49" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="S49" s="6">
+        <v>8.3000000000000007</v>
       </c>
       <c r="U49">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="50" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="7"/>
-      <c r="B50" s="8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A50" s="5"/>
+      <c r="B50">
         <v>54</v>
       </c>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8">
-        <v>266.5</v>
-      </c>
-      <c r="E50" s="8">
-        <v>619</v>
-      </c>
-      <c r="F50" s="8">
-        <v>620</v>
-      </c>
-      <c r="G50" s="8">
+      <c r="D50">
+        <v>207</v>
+      </c>
+      <c r="E50">
+        <v>504.39</v>
+      </c>
+      <c r="F50">
+        <v>500</v>
+      </c>
+      <c r="G50">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="H50" s="9">
+      <c r="H50" s="6">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="L50" s="15">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="M50" s="5">
         <v>0</v>
       </c>
-      <c r="N50" s="20">
-        <v>19.913246902175</v>
-      </c>
-      <c r="O50" s="20">
-        <v>83.751277695439896</v>
-      </c>
-      <c r="P50" s="20">
-        <v>147.82931351117</v>
-      </c>
-      <c r="Q50" s="20">
-        <v>217.399029593921</v>
-      </c>
-      <c r="R50" s="20">
-        <v>289.187518020212</v>
-      </c>
-      <c r="S50" s="31">
-        <v>377.74958573221602</v>
+      <c r="N50" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="O50" s="40">
+        <v>71.597383982769102</v>
+      </c>
+      <c r="P50" s="40">
+        <v>132.021452115416</v>
+      </c>
+      <c r="Q50" s="40">
+        <v>194.332189073709</v>
+      </c>
+      <c r="R50" s="40">
+        <v>260.55869222423098</v>
+      </c>
+      <c r="S50" s="41">
+        <v>341.27196536755503</v>
       </c>
       <c r="U50">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A51" s="3">
-        <v>8</v>
-      </c>
-      <c r="B51" s="4">
-        <v>27</v>
-      </c>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4">
-        <v>5.28</v>
-      </c>
-      <c r="E51" s="4">
-        <v>2.94</v>
-      </c>
-      <c r="F51" s="4">
+        <v>19</v>
+      </c>
+      <c r="V50" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="7"/>
+      <c r="B51" s="8">
+        <v>54</v>
+      </c>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8">
+        <v>266.5</v>
+      </c>
+      <c r="E51" s="8">
+        <v>619</v>
+      </c>
+      <c r="F51" s="8">
+        <v>620</v>
+      </c>
+      <c r="G51" s="8">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="G51" s="4">
-        <f>1-B51/$S$3</f>
+      <c r="H51" s="9">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="H51" s="13">
-        <f>G51/$S$5</f>
-        <v>0</v>
-      </c>
-      <c r="I51" t="s">
-        <v>36</v>
-      </c>
       <c r="L51" s="15">
-        <v>260</v>
+        <v>220</v>
       </c>
       <c r="M51" s="5">
         <v>0</v>
       </c>
-      <c r="N51" s="20">
-        <v>30.5717820385461</v>
-      </c>
-      <c r="O51" s="20">
-        <v>92.673091758923803</v>
-      </c>
-      <c r="P51" s="20">
-        <v>156.11727649143899</v>
-      </c>
-      <c r="Q51" s="20">
-        <v>225.07983536640199</v>
-      </c>
-      <c r="R51" s="20">
-        <v>296.11482667822497</v>
-      </c>
-      <c r="S51" s="31">
-        <v>383.52926262490701</v>
+      <c r="N51" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="O51" s="40">
+        <v>83.751277695439896</v>
+      </c>
+      <c r="P51" s="40">
+        <v>147.82931351117</v>
+      </c>
+      <c r="Q51" s="40">
+        <v>217.399029593921</v>
+      </c>
+      <c r="R51" s="40">
+        <v>289.187518020212</v>
+      </c>
+      <c r="S51" s="41">
+        <v>377.74958573221602</v>
       </c>
       <c r="U51">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="52" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="7"/>
-      <c r="B52" s="8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A52" s="3">
+        <v>8</v>
+      </c>
+      <c r="B52" s="4">
         <v>27</v>
       </c>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8">
-        <v>135.32</v>
-      </c>
-      <c r="E52" s="8">
-        <v>619.53</v>
-      </c>
-      <c r="F52" s="8">
-        <v>620</v>
-      </c>
-      <c r="G52" s="8">
-        <f t="shared" ref="G52:G54" si="17">1-B52/$S$3</f>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4">
+        <v>5.28</v>
+      </c>
+      <c r="E52" s="4">
+        <v>2.94</v>
+      </c>
+      <c r="F52" s="4">
         <v>0</v>
       </c>
-      <c r="H52" s="9">
-        <f t="shared" ref="H52:H54" si="18">G52/$S$5</f>
+      <c r="G52" s="4">
+        <f>1-B52/$S$3</f>
         <v>0</v>
       </c>
+      <c r="H52" s="13">
+        <f>G52/$S$5</f>
+        <v>0</v>
+      </c>
+      <c r="I52" t="s">
+        <v>36</v>
+      </c>
       <c r="L52" s="15">
-        <v>281</v>
+        <v>260</v>
       </c>
       <c r="M52" s="5">
         <v>0</v>
       </c>
-      <c r="N52" s="20">
-        <v>54.380756957724302</v>
-      </c>
-      <c r="O52" s="20">
-        <v>120.715187904676</v>
-      </c>
-      <c r="P52" s="20">
-        <v>187.48405006472601</v>
-      </c>
-      <c r="Q52" s="20">
-        <v>258.13384695212397</v>
-      </c>
-      <c r="R52" s="20">
-        <v>330.30026824494303</v>
-      </c>
-      <c r="S52" s="31">
-        <v>419.44061252688402</v>
+      <c r="N52" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="O52" s="40">
+        <v>92.673091758923803</v>
+      </c>
+      <c r="P52" s="40">
+        <v>156.11727649143899</v>
+      </c>
+      <c r="Q52" s="40">
+        <v>225.07983536640199</v>
+      </c>
+      <c r="R52" s="40">
+        <v>296.11482667822497</v>
+      </c>
+      <c r="S52" s="41">
+        <v>383.52926262490701</v>
       </c>
       <c r="U52">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A53" s="3">
-        <v>9</v>
-      </c>
-      <c r="B53" s="4">
-        <v>61</v>
-      </c>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4">
-        <v>4</v>
-      </c>
-      <c r="E53" s="4">
-        <v>2.94</v>
-      </c>
-      <c r="F53" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="7"/>
+      <c r="B53" s="8">
+        <v>27</v>
+      </c>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8">
+        <v>135.32</v>
+      </c>
+      <c r="E53" s="8">
+        <v>619.53</v>
+      </c>
+      <c r="F53" s="8">
+        <v>620</v>
+      </c>
+      <c r="G53" s="8">
+        <f t="shared" ref="G53" si="17">1-B53/$S$3</f>
         <v>0</v>
       </c>
-      <c r="G53" s="4">
-        <f>1-B53/$T$3</f>
-        <v>0.11594202898550721</v>
-      </c>
-      <c r="H53" s="13">
-        <f>G53/$T$5</f>
-        <v>0.72727272727272685</v>
-      </c>
-      <c r="I53" t="s">
-        <v>36</v>
+      <c r="H53" s="9">
+        <f t="shared" ref="H53" si="18">G53/$S$5</f>
+        <v>0</v>
       </c>
       <c r="L53" s="15">
         <v>281</v>
@@ -19673,467 +19861,643 @@
       <c r="M53" s="5">
         <v>0</v>
       </c>
-      <c r="N53" s="20">
-        <v>37.650099211477198</v>
-      </c>
-      <c r="O53" s="20">
-        <v>104.737834377829</v>
-      </c>
-      <c r="P53" s="20">
-        <v>173.02406821925399</v>
-      </c>
-      <c r="Q53" s="20">
-        <v>244.51031770321799</v>
-      </c>
-      <c r="R53" s="20">
-        <v>317.62763704109801</v>
-      </c>
-      <c r="S53" s="31">
-        <v>407.12949095758</v>
+      <c r="N53" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="O53" s="40">
+        <v>120.715187904676</v>
+      </c>
+      <c r="P53" s="40">
+        <v>187.48405006472601</v>
+      </c>
+      <c r="Q53" s="40">
+        <v>258.13384695212397</v>
+      </c>
+      <c r="R53" s="40">
+        <v>330.30026824494303</v>
+      </c>
+      <c r="S53" s="41">
+        <v>419.44061252688402</v>
       </c>
       <c r="U53">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="54" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="7"/>
-      <c r="B54" s="8">
-        <v>61</v>
-      </c>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8">
-        <v>271.48</v>
-      </c>
-      <c r="E54" s="8">
-        <v>621.79999999999995</v>
-      </c>
-      <c r="F54" s="8">
-        <v>620</v>
-      </c>
-      <c r="G54" s="8">
-        <f t="shared" si="17"/>
-        <v>-1.2592592592592591</v>
-      </c>
-      <c r="H54" s="9">
-        <f t="shared" si="18"/>
-        <v>-8.5</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A54" s="3">
+        <v>9</v>
+      </c>
+      <c r="B54" s="4">
+        <v>69</v>
+      </c>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4">
+        <v>4</v>
+      </c>
+      <c r="E54" s="4">
+        <v>2.94</v>
+      </c>
+      <c r="F54" s="4">
+        <v>0</v>
+      </c>
+      <c r="G54" s="4">
+        <f>1-B54/$T$3</f>
+        <v>0</v>
+      </c>
+      <c r="H54" s="13">
+        <f>G54/$T$5</f>
+        <v>0</v>
+      </c>
+      <c r="I54" t="s">
+        <v>36</v>
       </c>
       <c r="L54" s="15">
-        <v>83</v>
+        <v>281</v>
       </c>
       <c r="M54" s="5">
         <v>0</v>
       </c>
-      <c r="N54" s="20">
+      <c r="N54" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="O54" s="40">
+        <v>104.737834377829</v>
+      </c>
+      <c r="P54" s="40">
+        <v>173.02406821925399</v>
+      </c>
+      <c r="Q54" s="40">
+        <v>244.51031770321799</v>
+      </c>
+      <c r="R54" s="40">
+        <v>317.62763704109801</v>
+      </c>
+      <c r="S54" s="41">
+        <v>407.12949095758</v>
+      </c>
+      <c r="U54">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="7"/>
+      <c r="B55" s="8">
+        <v>69</v>
+      </c>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8">
+        <v>271.48</v>
+      </c>
+      <c r="E55" s="8">
+        <v>621.79999999999995</v>
+      </c>
+      <c r="F55" s="8">
+        <v>620</v>
+      </c>
+      <c r="G55" s="8">
+        <f>1-B55/$T$3</f>
+        <v>0</v>
+      </c>
+      <c r="H55" s="9">
+        <f>G55/$T$5</f>
+        <v>0</v>
+      </c>
+      <c r="L55" s="15">
+        <v>83</v>
+      </c>
+      <c r="M55" s="36">
+        <v>0</v>
+      </c>
+      <c r="N55" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="O55" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="P55" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q55" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="R55" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="S55" s="43">
+        <v>317.15233304749597</v>
+      </c>
+      <c r="U55">
+        <v>24</v>
+      </c>
+      <c r="V55" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB55">
+        <v>83</v>
+      </c>
+      <c r="AC55">
+        <v>0</v>
+      </c>
+      <c r="AD55">
         <v>18.151931203929198</v>
       </c>
-      <c r="O54" s="20">
+      <c r="AE55">
         <v>67.166070243791594</v>
       </c>
-      <c r="P54" s="20">
+      <c r="AF55">
         <v>120.68571646615401</v>
       </c>
-      <c r="Q54" s="20">
+      <c r="AG55">
         <v>180.280069271548</v>
       </c>
-      <c r="R54" s="20">
+      <c r="AH55">
         <v>242.220715418238</v>
       </c>
-      <c r="S54" s="31">
+      <c r="AI55">
         <v>317.15233304749597</v>
       </c>
-      <c r="U54">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A55" s="3">
+    </row>
+    <row r="56" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A56" s="3">
         <v>10</v>
       </c>
-      <c r="B55" s="4">
+      <c r="B56" s="4">
         <v>275</v>
       </c>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4">
+      <c r="C56" s="4"/>
+      <c r="D56" s="4">
         <v>3</v>
       </c>
-      <c r="E55" s="4">
+      <c r="E56" s="4">
         <v>2.94</v>
       </c>
-      <c r="F55" s="4">
+      <c r="F56" s="4">
         <v>0</v>
       </c>
-      <c r="G55" s="4">
-        <f>1-B55/$U$3</f>
+      <c r="G56" s="4">
+        <f>1-B56/$U$3</f>
         <v>0</v>
       </c>
-      <c r="H55" s="13">
-        <f>G55/$U$5</f>
+      <c r="H56" s="13">
+        <f>G56/$U$5</f>
         <v>0</v>
       </c>
-      <c r="I55" t="s">
+      <c r="I56" t="s">
         <v>36</v>
       </c>
-      <c r="L55" s="15">
+      <c r="L56" s="15">
         <v>132</v>
       </c>
-      <c r="M55" s="5">
+      <c r="M56" s="36">
         <v>0</v>
       </c>
-      <c r="N55" s="20">
+      <c r="N56" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="O56" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="P56" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q56" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="R56" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="S56" s="43">
+        <v>363.613537141714</v>
+      </c>
+      <c r="U56">
+        <v>25</v>
+      </c>
+      <c r="AB56">
+        <v>132</v>
+      </c>
+      <c r="AC56">
+        <v>0</v>
+      </c>
+      <c r="AD56">
         <v>28.579859239886101</v>
       </c>
-      <c r="O55" s="20">
+      <c r="AE56">
         <v>82.960164709831801</v>
       </c>
-      <c r="P55" s="20">
+      <c r="AF56">
         <v>144.06314243593201</v>
       </c>
-      <c r="Q55" s="20">
+      <c r="AG56">
         <v>210.861160759543</v>
       </c>
-      <c r="R55" s="20">
+      <c r="AH56">
         <v>279.78315320204098</v>
       </c>
-      <c r="S55" s="31">
+      <c r="AI56">
         <v>363.613537141714</v>
       </c>
-      <c r="U55">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="56" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="7"/>
-      <c r="B56" s="8">
+    </row>
+    <row r="57" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="7"/>
+      <c r="B57" s="8">
         <v>273</v>
       </c>
-      <c r="C56" s="8"/>
-      <c r="D56" s="8">
+      <c r="C57" s="8"/>
+      <c r="D57" s="8">
         <v>412.3</v>
       </c>
-      <c r="E56" s="8">
+      <c r="E57" s="8">
         <v>619</v>
       </c>
-      <c r="F56" s="8">
+      <c r="F57" s="8">
         <v>620</v>
       </c>
-      <c r="G56" s="8">
-        <f>1-B56/$U$3</f>
+      <c r="G57" s="8">
+        <f>1-B57/$U$3</f>
         <v>7.2727272727273196E-3</v>
       </c>
-      <c r="H56" s="9">
-        <f>G56/$U$5</f>
+      <c r="H57" s="9">
+        <f>G57/$U$5</f>
         <v>4.2553191489361979E-2</v>
       </c>
-      <c r="L56" s="15">
+      <c r="L57" s="15">
         <v>182</v>
       </c>
-      <c r="M56" s="5">
+      <c r="M57" s="36">
         <v>0</v>
       </c>
-      <c r="N56" s="20">
+      <c r="N57" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="O57" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="P57" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q57" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="R57" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="S57" s="43">
+        <v>380.24683840846097</v>
+      </c>
+      <c r="U57">
+        <v>26</v>
+      </c>
+      <c r="AB57">
+        <v>182</v>
+      </c>
+      <c r="AC57">
+        <v>0</v>
+      </c>
+      <c r="AD57">
         <v>42.290120012116603</v>
       </c>
-      <c r="O56" s="20">
+      <c r="AE57">
         <v>98.264025903797105</v>
       </c>
-      <c r="P56" s="20">
+      <c r="AF57">
         <v>160.350168993875</v>
       </c>
-      <c r="Q56" s="20">
+      <c r="AG57">
         <v>227.21831961759801</v>
       </c>
-      <c r="R56" s="20">
+      <c r="AH57">
         <v>296.374690754661</v>
       </c>
-      <c r="S56" s="31">
+      <c r="AI57">
         <v>380.24683840846097</v>
       </c>
-      <c r="U56">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A57" s="3">
+    </row>
+    <row r="58" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A58" s="3">
         <v>11</v>
       </c>
-      <c r="B57" s="4">
+      <c r="B58" s="4">
         <v>151</v>
       </c>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4">
+      <c r="C58" s="4"/>
+      <c r="D58" s="4">
         <v>5</v>
       </c>
-      <c r="E57" s="4">
+      <c r="E58" s="4">
         <v>3</v>
       </c>
-      <c r="F57" s="4">
+      <c r="F58" s="4">
         <v>0</v>
       </c>
-      <c r="G57" s="4">
-        <f>1-B57/$V$3</f>
+      <c r="G58" s="4">
+        <f>1-B58/$V$3</f>
         <v>0</v>
       </c>
-      <c r="H57" s="13">
-        <f>G57/$V$5</f>
+      <c r="H58" s="13">
+        <f>G58/$V$5</f>
         <v>0</v>
       </c>
-      <c r="I57" t="s">
+      <c r="I58" t="s">
         <v>36</v>
       </c>
-      <c r="L57" s="15">
+      <c r="L58" s="15">
         <v>233</v>
       </c>
-      <c r="M57" s="5">
+      <c r="M58" s="36">
         <v>0</v>
       </c>
-      <c r="N57" s="20">
+      <c r="N58" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="O58" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="P58" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q58" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="R58" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="S58" s="43">
+        <v>394.94626968755199</v>
+      </c>
+      <c r="U58">
+        <v>27</v>
+      </c>
+      <c r="AB58">
+        <v>233</v>
+      </c>
+      <c r="AC58">
+        <v>0</v>
+      </c>
+      <c r="AD58">
         <v>52.388311067675801</v>
       </c>
-      <c r="O57" s="20">
+      <c r="AE58">
         <v>110.818387436517</v>
       </c>
-      <c r="P57" s="20">
+      <c r="AF58">
         <v>173.97179581563401</v>
       </c>
-      <c r="Q57" s="20">
+      <c r="AG58">
         <v>241.07401280716499</v>
       </c>
-      <c r="R57" s="20">
+      <c r="AH58">
         <v>310.32310380453703</v>
       </c>
-      <c r="S57" s="31">
+      <c r="AI58">
         <v>394.94626968755199</v>
       </c>
-      <c r="U57">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="58" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="7"/>
-      <c r="B58" s="8">
+    </row>
+    <row r="59" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="7"/>
+      <c r="B59" s="8">
         <v>149</v>
       </c>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8">
+      <c r="C59" s="8"/>
+      <c r="D59" s="8">
         <v>347.11</v>
       </c>
-      <c r="E58" s="8">
+      <c r="E59" s="8">
         <v>619.53</v>
       </c>
-      <c r="F58" s="8">
+      <c r="F59" s="8">
         <v>620</v>
       </c>
-      <c r="G58" s="8">
-        <f>1-B58/$V$3</f>
+      <c r="G59" s="8">
+        <f>1-B59/$V$3</f>
         <v>1.3245033112582738E-2</v>
       </c>
-      <c r="H58" s="9">
-        <f>G58/$V$5</f>
+      <c r="H59" s="9">
+        <f>G59/$V$5</f>
         <v>8.6956521739130155E-2</v>
       </c>
-      <c r="L58" s="15">
+      <c r="L59" s="15">
         <v>281</v>
       </c>
-      <c r="M58" s="5">
+      <c r="M59" s="36">
         <v>0</v>
       </c>
-      <c r="N58" s="20">
+      <c r="N59" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="O59" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="P59" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q59" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="R59" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="S59" s="43">
+        <v>436.00172829341199</v>
+      </c>
+      <c r="U59">
+        <v>28</v>
+      </c>
+      <c r="AB59">
+        <v>281</v>
+      </c>
+      <c r="AC59">
+        <v>0</v>
+      </c>
+      <c r="AD59">
         <v>57.955293808363102</v>
       </c>
-      <c r="O58" s="20">
+      <c r="AE59">
         <v>125.466446406806</v>
       </c>
-      <c r="P58" s="20">
+      <c r="AF59">
         <v>196.474099112961</v>
       </c>
-      <c r="Q58" s="20">
+      <c r="AG59">
         <v>270.13344549399397</v>
       </c>
-      <c r="R58" s="20">
+      <c r="AH59">
         <v>345.04680550109401</v>
       </c>
-      <c r="S58" s="31">
+      <c r="AI59">
         <v>436.00172829341199</v>
       </c>
-      <c r="U58">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A59" s="3">
+    </row>
+    <row r="60" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A60" s="3">
         <v>12</v>
       </c>
-      <c r="B59" s="4">
+      <c r="B60" s="4">
         <v>194</v>
       </c>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4">
+      <c r="C60" s="4"/>
+      <c r="D60" s="4">
         <v>7.5</v>
       </c>
-      <c r="E59" s="4">
+      <c r="E60" s="4">
         <v>2.94</v>
       </c>
-      <c r="F59" s="4">
+      <c r="F60" s="4">
         <v>0</v>
       </c>
-      <c r="G59" s="4">
-        <f>1-B59/$W$3</f>
+      <c r="G60" s="4">
+        <f>1-B60/$W$3</f>
         <v>-5.1813471502590858E-3</v>
       </c>
-      <c r="H59" s="13">
-        <f>G59/$W$5</f>
+      <c r="H60" s="13">
+        <f>G60/$W$5</f>
         <v>-3.1250000000000104E-2</v>
       </c>
-      <c r="I59" t="s">
+      <c r="I60" t="s">
         <v>36</v>
       </c>
-      <c r="L59" s="15">
+      <c r="L60" s="15">
         <v>382</v>
       </c>
-      <c r="M59" s="5">
+      <c r="M60" s="36">
         <v>0</v>
       </c>
-      <c r="N59" s="20">
+      <c r="N60" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="O60" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="P60" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q60" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="R60" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="S60" s="43">
+        <v>459.110104683619</v>
+      </c>
+      <c r="U60">
+        <v>29</v>
+      </c>
+      <c r="AB60">
+        <v>382</v>
+      </c>
+      <c r="AC60">
+        <v>0</v>
+      </c>
+      <c r="AD60">
         <v>67.612449058151896</v>
       </c>
-      <c r="O59" s="20">
+      <c r="AE60">
         <v>137.657367178741</v>
       </c>
-      <c r="P59" s="20">
+      <c r="AF60">
         <v>211.18935745517001</v>
       </c>
-      <c r="Q59" s="20">
+      <c r="AG60">
         <v>287.42810509380502</v>
       </c>
-      <c r="R59" s="20">
+      <c r="AH60">
         <v>364.77020715224899</v>
       </c>
-      <c r="S59" s="31">
+      <c r="AI60">
         <v>459.110104683619</v>
       </c>
-      <c r="U59">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="60" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="7"/>
-      <c r="B60" s="8">
+    </row>
+    <row r="61" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="7"/>
+      <c r="B61" s="8">
         <v>193</v>
       </c>
-      <c r="C60" s="8"/>
-      <c r="D60" s="8">
+      <c r="C61" s="8"/>
+      <c r="D61" s="8">
         <v>396.17</v>
       </c>
-      <c r="E60" s="8">
+      <c r="E61" s="8">
         <v>618.77</v>
       </c>
-      <c r="F60" s="8">
+      <c r="F61" s="8">
         <v>620</v>
       </c>
-      <c r="G60" s="8">
-        <f>1-B60/$W$3</f>
+      <c r="G61" s="8">
+        <f>1-B61/$W$3</f>
         <v>0</v>
       </c>
-      <c r="H60" s="9">
-        <f>G60/$W$5</f>
+      <c r="H61" s="9">
+        <f>G61/$W$5</f>
         <v>0</v>
       </c>
-      <c r="L60" s="15">
+      <c r="L61" s="15">
         <v>426</v>
       </c>
-      <c r="M60" s="5">
+      <c r="M61" s="36">
         <v>0</v>
       </c>
-      <c r="N60" s="20">
+      <c r="N61" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="O61" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="P61" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q61" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="R61" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="S61" s="43">
+        <v>455.36635322123999</v>
+      </c>
+      <c r="U61">
+        <v>30</v>
+      </c>
+      <c r="AB61">
+        <v>426</v>
+      </c>
+      <c r="AC61">
+        <v>0</v>
+      </c>
+      <c r="AD61">
         <v>55.768533492429803</v>
       </c>
-      <c r="O60" s="20">
+      <c r="AE61">
         <v>126.457155949144</v>
       </c>
-      <c r="P60" s="20">
+      <c r="AF61">
         <v>201.71302032531199</v>
       </c>
-      <c r="Q60" s="20">
+      <c r="AG61">
         <v>279.9013414113</v>
       </c>
-      <c r="R60" s="20">
+      <c r="AH61">
         <v>359.08125122058698</v>
       </c>
-      <c r="S60" s="31">
+      <c r="AI61">
         <v>455.36635322123999</v>
       </c>
-      <c r="U60">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="61" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="3">
+    </row>
+    <row r="62" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="3">
         <v>13</v>
       </c>
-      <c r="B61" s="4">
+      <c r="B62" s="4">
         <v>10</v>
       </c>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4">
+      <c r="C62" s="4"/>
+      <c r="D62" s="4">
         <v>0</v>
       </c>
-      <c r="E61" s="4">
+      <c r="E62" s="4">
         <v>0</v>
       </c>
-      <c r="F61" s="4">
+      <c r="F62" s="4">
         <v>0</v>
-      </c>
-      <c r="G61" s="8">
-        <f>1-B61/$X$3</f>
-        <v>0</v>
-      </c>
-      <c r="H61" s="9">
-        <f>G61/$X$5</f>
-        <v>0</v>
-      </c>
-      <c r="L61" s="15">
-        <v>521</v>
-      </c>
-      <c r="M61" s="7">
-        <v>0</v>
-      </c>
-      <c r="N61" s="32">
-        <v>74.136414457097899</v>
-      </c>
-      <c r="O61" s="32">
-        <v>148.07015346363499</v>
-      </c>
-      <c r="P61" s="32">
-        <v>225.41238986645101</v>
-      </c>
-      <c r="Q61" s="32">
-        <v>304.86655488815802</v>
-      </c>
-      <c r="R61" s="32">
-        <v>385.527373443047</v>
-      </c>
-      <c r="S61" s="31">
-        <v>484.22539420023401</v>
-      </c>
-      <c r="U61">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="62" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="7"/>
-      <c r="B62" s="8">
-        <v>10</v>
-      </c>
-      <c r="C62" s="8"/>
-      <c r="D62" s="8">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="E62" s="8">
-        <v>620</v>
-      </c>
-      <c r="F62" s="8">
-        <v>620</v>
       </c>
       <c r="G62" s="8">
         <f>1-B62/$X$3</f>
@@ -20143,32 +20507,107 @@
         <f>G62/$X$5</f>
         <v>0</v>
       </c>
-      <c r="L62" s="18" t="s">
+      <c r="L62" s="15">
+        <v>521</v>
+      </c>
+      <c r="M62" s="37">
+        <v>0</v>
+      </c>
+      <c r="N62" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="O62" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="P62" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q62" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="R62" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="S62" s="45">
+        <v>484.22539420023401</v>
+      </c>
+      <c r="U62">
+        <v>31</v>
+      </c>
+      <c r="AB62">
+        <v>521</v>
+      </c>
+      <c r="AC62">
+        <v>0</v>
+      </c>
+      <c r="AD62">
+        <v>74.136414457097899</v>
+      </c>
+      <c r="AE62">
+        <v>148.07015346363499</v>
+      </c>
+      <c r="AF62">
+        <v>225.41238986645101</v>
+      </c>
+      <c r="AG62">
+        <v>304.86655488815802</v>
+      </c>
+      <c r="AH62">
+        <v>385.527373443047</v>
+      </c>
+      <c r="AI62">
+        <v>484.22539420023401</v>
+      </c>
+    </row>
+    <row r="63" spans="1:35" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="7"/>
+      <c r="B63" s="8">
+        <v>10</v>
+      </c>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E63" s="8">
+        <v>620</v>
+      </c>
+      <c r="F63" s="8">
+        <v>620</v>
+      </c>
+      <c r="G63" s="8">
+        <f>1-B63/$X$3</f>
+        <v>0</v>
+      </c>
+      <c r="H63" s="9">
+        <f>G63/$X$5</f>
+        <v>0</v>
+      </c>
+      <c r="L63" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="T62" s="2" t="s">
+      <c r="T63" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A63" s="3"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
-      <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
-      <c r="H63" s="13"/>
-    </row>
-    <row r="64" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="7"/>
-      <c r="B64" s="8"/>
-      <c r="C64" s="8"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="8"/>
-      <c r="F64" s="8"/>
-      <c r="G64" s="8"/>
-      <c r="H64" s="9"/>
+    <row r="64" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A64" s="3"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="13"/>
+    </row>
+    <row r="65" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="7"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Testing_Data/StraightForceTest.xlsx
+++ b/Testing_Data/StraightForceTest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Documents\GitHub\Bipedal_Robot\Testing_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1B665A8-89AF-44D0-9017-A13EA1CA4E35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D78BE4-F420-4717-9E3A-3E876B239C04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{CE45C211-BD3F-4CC7-8CF8-DB47A93DE884}"/>
   </bookViews>

--- a/Testing_Data/StraightForceTest.xlsx
+++ b/Testing_Data/StraightForceTest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Documents\GitHub\Bipedal_Robot\Testing_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D78BE4-F420-4717-9E3A-3E876B239C04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0B13B30-7875-4383-A970-A424EA41104A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{CE45C211-BD3F-4CC7-8CF8-DB47A93DE884}"/>
+    <workbookView xWindow="-54" yWindow="-54" windowWidth="23148" windowHeight="12348" activeTab="5" xr2:uid="{CE45C211-BD3F-4CC7-8CF8-DB47A93DE884}"/>
   </bookViews>
   <sheets>
     <sheet name="11.2 cm, no T" sheetId="2" r:id="rId1"/>
